--- a/run/predefined.xlsx
+++ b/run/predefined.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="340">
   <si>
     <t xml:space="preserve">databaseId</t>
   </si>
@@ -899,6 +899,147 @@
   </si>
   <si>
     <t xml:space="preserve">m01505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m02001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zoey Samaras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/02001a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Dunwich Legacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dwl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/02001b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m02002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rex Murphy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/02002a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/02002b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m02003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jenny Barnes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/02003a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/02003b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m02004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jim Culver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/02004a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/02004b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m02005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Ashcan" Pete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/02005a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/02005b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m60101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nathaniel Cho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/60101a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/60101b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m60201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harvey Walters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/60201a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">har</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/60201b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m60301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winifred Habbamock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/60301a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">win</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/60301b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m60401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacqueline Fine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/60401a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/60401b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m60501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stella Clark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/60501a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/60501b.webp</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1149,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.19"/>
@@ -1033,15 +1174,15 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="5.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="12.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="11.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="11.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="11.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="9.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="18.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="5.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="13.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="11.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="11.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="6.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="6.01"/>
@@ -7549,64 +7690,1124 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1"/>
+      <c r="A117" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E117" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="G117" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="H117" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="M117" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O117" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P117" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S117" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB117" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL117" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO117" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP117" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ117" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1"/>
+      <c r="A118" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="G118" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="H118" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="M118" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P118" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S118" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB118" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL118" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO118" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP118" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ118" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1"/>
+      <c r="A119" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="G119" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="H119" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="M119" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P119" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S119" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB119" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL119" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO119" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP119" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ119" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1"/>
+      <c r="A120" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="G120" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="H120" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="M120" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P120" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S120" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB120" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL120" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO120" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP120" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ120" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1"/>
+      <c r="A121" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="G121" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="H121" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="M121" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N121" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P121" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S121" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB121" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL121" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO121" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP121" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ121" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1"/>
+      <c r="A122" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="G122" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="H122" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="M122" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P122" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S122" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB122" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL122" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO122" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP122" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ122" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1"/>
+      <c r="A123" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E123" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="G123" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="H123" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="M123" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O123" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P123" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S123" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB123" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL123" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO123" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP123" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ123" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1"/>
+      <c r="A124" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E124" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="G124" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="H124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="M124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S124" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ124" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1"/>
+      <c r="A125" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="D125" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E125" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="G125" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="H125" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="M125" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P125" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S125" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB125" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL125" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO125" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP125" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ125" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1"/>
+      <c r="A126" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E126" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="G126" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="H126" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="M126" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N126" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O126" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P126" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S126" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB126" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL126" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO126" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP126" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ126" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1"/>
+      <c r="A127" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="D127" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E127" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="G127" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="H127" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="M127" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O127" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P127" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S127" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB127" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL127" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO127" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP127" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ127" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1"/>
+      <c r="A128" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E128" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="G128" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="H128" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="M128" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O128" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P128" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S128" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB128" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL128" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO128" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP128" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ128" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1"/>
+      <c r="A129" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E129" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="G129" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="H129" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="M129" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O129" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P129" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S129" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB129" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL129" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO129" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP129" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ129" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1"/>
+      <c r="A130" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E130" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="G130" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="H130" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="M130" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O130" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P130" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S130" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB130" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL130" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO130" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP130" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ130" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1"/>
+      <c r="A131" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E131" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="G131" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="H131" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="M131" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O131" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P131" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S131" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB131" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL131" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO131" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP131" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ131" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1"/>
+      <c r="A132" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E132" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="G132" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="H132" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="M132" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O132" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P132" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S132" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB132" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL132" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO132" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP132" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ132" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1"/>
+      <c r="A133" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D133" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E133" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="G133" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="H133" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="M133" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O133" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P133" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S133" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB133" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL133" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO133" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP133" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ133" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1"/>
+      <c r="A134" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E134" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="G134" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="H134" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="M134" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N134" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O134" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P134" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S134" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB134" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL134" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO134" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP134" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ134" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1"/>
+      <c r="A135" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="D135" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E135" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="G135" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="H135" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="M135" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N135" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O135" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P135" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S135" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB135" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL135" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO135" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP135" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ135" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1"/>
+      <c r="A136" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="D136" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E136" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="G136" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="H136" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="M136" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N136" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P136" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S136" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB136" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL136" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO136" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP136" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ136" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1"/>

--- a/run/predefined.xlsx
+++ b/run/predefined.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="367">
   <si>
     <t xml:space="preserve">databaseId</t>
   </si>
@@ -151,6 +151,9 @@
     <t xml:space="preserve">free</t>
   </si>
   <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
     <t xml:space="preserve">01000</t>
   </si>
   <si>
@@ -965,6 +968,84 @@
   </si>
   <si>
     <t xml:space="preserve">mini_investigators/02005b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m03001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mark Harrigan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/03001a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Path to Carcosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ptc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/03001b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m03002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minh Thi Phan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/03002a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/03002b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m03003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sefina Rousseau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/03003a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/03003b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m03004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akachi Onyele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/03004a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/03004b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m03005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">William Yorick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/03005a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/03005b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m03006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lola Hayes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/03006a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/03006b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m60101</t>
@@ -1141,15 +1222,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AQ1106"/>
+  <dimension ref="A1:AR1118"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A138" activeCellId="0" sqref="A138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.19"/>
@@ -1326,34 +1407,37 @@
       <c r="AQ1" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="AR1" s="0" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>1000</v>
@@ -1371,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AB2" s="0" t="n">
         <v>0</v>
@@ -1391,28 +1475,28 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M3" s="0" t="n">
         <v>0</v>
@@ -1427,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB3" s="0" t="n">
         <v>0</v>
@@ -1447,28 +1531,28 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>0</v>
@@ -1483,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB4" s="0" t="n">
         <v>0</v>
@@ -1503,28 +1587,28 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M5" s="0" t="n">
         <v>0</v>
@@ -1539,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB5" s="0" t="n">
         <v>0</v>
@@ -1559,43 +1643,43 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="0" t="s">
         <v>59</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="0" t="s">
-        <v>58</v>
       </c>
       <c r="AB6" s="0" t="n">
         <v>0</v>
@@ -1615,28 +1699,28 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M7" s="0" t="n">
         <v>0</v>
@@ -1651,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB7" s="0" t="n">
         <v>0</v>
@@ -1671,28 +1755,28 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>0</v>
@@ -1707,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB8" s="0" t="n">
         <v>0</v>
@@ -1727,28 +1811,28 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M9" s="0" t="n">
         <v>0</v>
@@ -1763,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB9" s="0" t="n">
         <v>0</v>
@@ -1783,28 +1867,28 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M10" s="0" t="n">
         <v>0</v>
@@ -1819,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB10" s="0" t="n">
         <v>0</v>
@@ -1839,28 +1923,28 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M11" s="0" t="n">
         <v>0</v>
@@ -1875,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB11" s="0" t="n">
         <v>0</v>
@@ -1895,28 +1979,28 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M12" s="0" t="n">
         <v>0</v>
@@ -1931,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="S12" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB12" s="0" t="n">
         <v>0</v>
@@ -1951,28 +2035,28 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M13" s="0" t="n">
         <v>0</v>
@@ -1987,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="S13" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB13" s="0" t="n">
         <v>0</v>
@@ -2007,28 +2091,28 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M14" s="0" t="n">
         <v>0</v>
@@ -2043,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="S14" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB14" s="0" t="n">
         <v>0</v>
@@ -2063,28 +2147,28 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M15" s="0" t="n">
         <v>0</v>
@@ -2099,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="S15" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB15" s="0" t="n">
         <v>0</v>
@@ -2119,28 +2203,28 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M16" s="0" t="n">
         <v>0</v>
@@ -2155,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="S16" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB16" s="0" t="n">
         <v>0</v>
@@ -2175,28 +2259,28 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M17" s="0" t="n">
         <v>0</v>
@@ -2211,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB17" s="0" t="n">
         <v>0</v>
@@ -2231,28 +2315,28 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>0</v>
@@ -2267,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB18" s="0" t="n">
         <v>0</v>
@@ -2287,28 +2371,28 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M19" s="0" t="n">
         <v>0</v>
@@ -2323,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB19" s="0" t="n">
         <v>0</v>
@@ -2343,28 +2427,28 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M20" s="0" t="n">
         <v>0</v>
@@ -2379,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB20" s="0" t="n">
         <v>0</v>
@@ -2399,28 +2483,28 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M21" s="0" t="n">
         <v>0</v>
@@ -2435,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB21" s="0" t="n">
         <v>0</v>
@@ -2455,28 +2539,28 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M22" s="0" t="n">
         <v>0</v>
@@ -2491,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="S22" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB22" s="0" t="n">
         <v>0</v>
@@ -2511,28 +2595,28 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M23" s="0" t="n">
         <v>0</v>
@@ -2547,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="S23" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB23" s="0" t="n">
         <v>0</v>
@@ -2567,28 +2651,28 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M24" s="0" t="n">
         <v>0</v>
@@ -2603,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="S24" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB24" s="0" t="n">
         <v>0</v>
@@ -2623,28 +2707,28 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M25" s="0" t="n">
         <v>0</v>
@@ -2659,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="S25" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB25" s="0" t="n">
         <v>0</v>
@@ -2679,28 +2763,28 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M26" s="0" t="n">
         <v>0</v>
@@ -2715,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="S26" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB26" s="0" t="n">
         <v>0</v>
@@ -2735,28 +2819,28 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M27" s="0" t="n">
         <v>0</v>
@@ -2771,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="S27" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB27" s="0" t="n">
         <v>0</v>
@@ -2791,28 +2875,28 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M28" s="0" t="n">
         <v>0</v>
@@ -2827,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="S28" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB28" s="0" t="n">
         <v>0</v>
@@ -2847,28 +2931,28 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M29" s="0" t="n">
         <v>0</v>
@@ -2883,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="S29" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB29" s="0" t="n">
         <v>0</v>
@@ -2903,28 +2987,28 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M30" s="0" t="n">
         <v>0</v>
@@ -2939,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="S30" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB30" s="0" t="n">
         <v>0</v>
@@ -2959,28 +3043,28 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M31" s="0" t="n">
         <v>0</v>
@@ -2995,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S31" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB31" s="0" t="n">
         <v>0</v>
@@ -3015,28 +3099,28 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M32" s="0" t="n">
         <v>0</v>
@@ -3051,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="S32" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB32" s="0" t="n">
         <v>0</v>
@@ -3071,28 +3155,28 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M33" s="0" t="n">
         <v>0</v>
@@ -3107,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="S33" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB33" s="0" t="n">
         <v>0</v>
@@ -3127,28 +3211,28 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M34" s="0" t="n">
         <v>0</v>
@@ -3163,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="S34" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB34" s="0" t="n">
         <v>0</v>
@@ -3183,28 +3267,28 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M35" s="0" t="n">
         <v>0</v>
@@ -3219,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="S35" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB35" s="0" t="n">
         <v>0</v>
@@ -3239,28 +3323,28 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M36" s="0" t="n">
         <v>0</v>
@@ -3275,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="S36" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB36" s="0" t="n">
         <v>0</v>
@@ -3295,29 +3379,29 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="G37" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="H37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="0" t="s">
-        <v>108</v>
-      </c>
       <c r="M37" s="0" t="n">
         <v>0</v>
       </c>
@@ -3331,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="S37" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB37" s="0" t="n">
         <v>0</v>
@@ -3351,29 +3435,29 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="H38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" s="0" t="s">
-        <v>108</v>
-      </c>
       <c r="M38" s="0" t="n">
         <v>0</v>
       </c>
@@ -3387,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="S38" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB38" s="0" t="n">
         <v>0</v>
@@ -3407,28 +3491,28 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M39" s="0" t="n">
         <v>0</v>
@@ -3443,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="S39" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB39" s="0" t="n">
         <v>0</v>
@@ -3463,28 +3547,28 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M40" s="0" t="n">
         <v>0</v>
@@ -3499,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="S40" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB40" s="0" t="n">
         <v>0</v>
@@ -3519,28 +3603,28 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M41" s="0" t="n">
         <v>0</v>
@@ -3555,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="S41" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB41" s="0" t="n">
         <v>0</v>
@@ -3575,28 +3659,28 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M42" s="0" t="n">
         <v>0</v>
@@ -3611,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="S42" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB42" s="0" t="n">
         <v>0</v>
@@ -3631,28 +3715,28 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M43" s="0" t="n">
         <v>0</v>
@@ -3667,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="S43" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB43" s="0" t="n">
         <v>0</v>
@@ -3687,28 +3771,28 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B44" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="C44" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E44" s="0" t="s">
-        <v>124</v>
-      </c>
       <c r="G44" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M44" s="0" t="n">
         <v>0</v>
@@ -3723,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="S44" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB44" s="0" t="n">
         <v>0</v>
@@ -3743,28 +3827,28 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M45" s="0" t="n">
         <v>0</v>
@@ -3779,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="S45" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB45" s="0" t="n">
         <v>0</v>
@@ -3799,28 +3883,28 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="D46" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E46" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="C46" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>124</v>
-      </c>
       <c r="G46" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M46" s="0" t="n">
         <v>0</v>
@@ -3835,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="S46" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB46" s="0" t="n">
         <v>0</v>
@@ -3855,28 +3939,28 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M47" s="0" t="n">
         <v>0</v>
@@ -3891,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="S47" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB47" s="0" t="n">
         <v>0</v>
@@ -3911,28 +3995,28 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B48" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="C48" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E48" s="0" t="s">
-        <v>124</v>
-      </c>
       <c r="G48" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M48" s="0" t="n">
         <v>0</v>
@@ -3947,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="S48" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB48" s="0" t="n">
         <v>0</v>
@@ -3967,28 +4051,28 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M49" s="0" t="n">
         <v>0</v>
@@ -4003,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="S49" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB49" s="0" t="n">
         <v>0</v>
@@ -4023,28 +4107,28 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B50" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="C50" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>124</v>
-      </c>
       <c r="G50" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M50" s="0" t="n">
         <v>0</v>
@@ -4059,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="S50" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB50" s="0" t="n">
         <v>0</v>
@@ -4079,28 +4163,28 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M51" s="0" t="n">
         <v>0</v>
@@ -4115,7 +4199,7 @@
         <v>0</v>
       </c>
       <c r="S51" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB51" s="0" t="n">
         <v>0</v>
@@ -4135,28 +4219,28 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B52" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="C52" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>124</v>
-      </c>
       <c r="G52" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M52" s="0" t="n">
         <v>0</v>
@@ -4171,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="S52" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB52" s="0" t="n">
         <v>0</v>
@@ -4191,28 +4275,28 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M53" s="0" t="n">
         <v>0</v>
@@ -4227,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="S53" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB53" s="0" t="n">
         <v>0</v>
@@ -4247,28 +4331,28 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B54" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E54" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="C54" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E54" s="0" t="s">
-        <v>124</v>
-      </c>
       <c r="G54" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M54" s="0" t="n">
         <v>0</v>
@@ -4283,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="S54" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB54" s="0" t="n">
         <v>0</v>
@@ -4303,28 +4387,28 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M55" s="0" t="n">
         <v>0</v>
@@ -4339,7 +4423,7 @@
         <v>0</v>
       </c>
       <c r="S55" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB55" s="0" t="n">
         <v>0</v>
@@ -4359,28 +4443,28 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B56" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E56" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="C56" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E56" s="0" t="s">
-        <v>124</v>
-      </c>
       <c r="G56" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H56" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M56" s="0" t="n">
         <v>0</v>
@@ -4395,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="S56" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB56" s="0" t="n">
         <v>0</v>
@@ -4415,28 +4499,28 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M57" s="0" t="n">
         <v>0</v>
@@ -4451,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="S57" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB57" s="0" t="n">
         <v>0</v>
@@ -4471,28 +4555,28 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B58" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E58" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="C58" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E58" s="0" t="s">
-        <v>148</v>
-      </c>
       <c r="G58" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H58" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M58" s="0" t="n">
         <v>0</v>
@@ -4507,7 +4591,7 @@
         <v>0</v>
       </c>
       <c r="S58" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB58" s="0" t="n">
         <v>0</v>
@@ -4527,28 +4611,28 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H59" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M59" s="0" t="n">
         <v>0</v>
@@ -4563,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="S59" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB59" s="0" t="n">
         <v>0</v>
@@ -4583,28 +4667,28 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B60" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E60" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="C60" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>154</v>
-      </c>
       <c r="G60" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H60" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M60" s="0" t="n">
         <v>0</v>
@@ -4619,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="S60" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB60" s="0" t="n">
         <v>0</v>
@@ -4639,28 +4723,28 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H61" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M61" s="0" t="n">
         <v>0</v>
@@ -4675,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="S61" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB61" s="0" t="n">
         <v>0</v>
@@ -4695,28 +4779,28 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H62" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M62" s="0" t="n">
         <v>0</v>
@@ -4731,7 +4815,7 @@
         <v>0</v>
       </c>
       <c r="S62" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB62" s="0" t="n">
         <v>0</v>
@@ -4751,28 +4835,28 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H63" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M63" s="0" t="n">
         <v>0</v>
@@ -4787,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="S63" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB63" s="0" t="n">
         <v>0</v>
@@ -4807,28 +4891,28 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H64" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M64" s="0" t="n">
         <v>0</v>
@@ -4843,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="S64" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB64" s="0" t="n">
         <v>0</v>
@@ -4863,28 +4947,28 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H65" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M65" s="0" t="n">
         <v>0</v>
@@ -4899,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="S65" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB65" s="0" t="n">
         <v>0</v>
@@ -4919,28 +5003,28 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H66" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M66" s="0" t="n">
         <v>0</v>
@@ -4955,7 +5039,7 @@
         <v>0</v>
       </c>
       <c r="S66" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB66" s="0" t="n">
         <v>0</v>
@@ -4975,28 +5059,28 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H67" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M67" s="0" t="n">
         <v>0</v>
@@ -5011,7 +5095,7 @@
         <v>0</v>
       </c>
       <c r="S67" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB67" s="0" t="n">
         <v>0</v>
@@ -5031,28 +5115,28 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H68" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M68" s="0" t="n">
         <v>0</v>
@@ -5067,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="S68" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB68" s="0" t="n">
         <v>0</v>
@@ -5087,28 +5171,28 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H69" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M69" s="0" t="n">
         <v>0</v>
@@ -5140,28 +5224,28 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="G70" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="H70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" s="0" t="s">
         <v>184</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="E70" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="G70" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="H70" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" s="0" t="s">
-        <v>183</v>
       </c>
       <c r="M70" s="0" t="n">
         <v>0</v>
@@ -5193,28 +5277,28 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H71" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M71" s="0" t="n">
         <v>0</v>
@@ -5246,28 +5330,28 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H72" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M72" s="0" t="n">
         <v>0</v>
@@ -5299,28 +5383,28 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H73" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M73" s="0" t="n">
         <v>0</v>
@@ -5352,28 +5436,28 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H74" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M74" s="0" t="n">
         <v>0</v>
@@ -5405,28 +5489,28 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H75" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M75" s="0" t="n">
         <v>0</v>
@@ -5458,28 +5542,28 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H76" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M76" s="0" t="n">
         <v>0</v>
@@ -5511,28 +5595,28 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H77" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M77" s="0" t="n">
         <v>0</v>
@@ -5564,28 +5648,28 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H78" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M78" s="0" t="n">
         <v>0</v>
@@ -5617,28 +5701,28 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H79" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M79" s="0" t="n">
         <v>0</v>
@@ -5670,28 +5754,28 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H80" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M80" s="0" t="n">
         <v>0</v>
@@ -5723,28 +5807,28 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H81" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M81" s="0" t="n">
         <v>0</v>
@@ -5776,28 +5860,28 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H82" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M82" s="0" t="n">
         <v>0</v>
@@ -5829,28 +5913,28 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H83" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M83" s="0" t="n">
         <v>0</v>
@@ -5882,28 +5966,28 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H84" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M84" s="0" t="n">
         <v>0</v>
@@ -5935,28 +6019,28 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H85" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M85" s="0" t="n">
         <v>0</v>
@@ -5988,28 +6072,28 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H86" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M86" s="0" t="n">
         <v>0</v>
@@ -6041,28 +6125,28 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H87" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M87" s="0" t="n">
         <v>0</v>
@@ -6094,28 +6178,28 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H88" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M88" s="0" t="n">
         <v>0</v>
@@ -6147,28 +6231,28 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H89" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M89" s="0" t="n">
         <v>0</v>
@@ -6200,28 +6284,28 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H90" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M90" s="0" t="n">
         <v>0</v>
@@ -6253,28 +6337,28 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H91" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M91" s="0" t="n">
         <v>0</v>
@@ -6306,28 +6390,28 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H92" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M92" s="0" t="n">
         <v>0</v>
@@ -6359,28 +6443,28 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H93" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M93" s="0" t="n">
         <v>0</v>
@@ -6412,28 +6496,28 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H94" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M94" s="0" t="n">
         <v>0</v>
@@ -6465,28 +6549,28 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H95" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M95" s="0" t="n">
         <v>0</v>
@@ -6518,28 +6602,28 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H96" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M96" s="0" t="n">
         <v>0</v>
@@ -6571,28 +6655,28 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H97" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M97" s="0" t="n">
         <v>0</v>
@@ -6607,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="S97" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB97" s="0" t="n">
         <v>0</v>
@@ -6627,28 +6711,28 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C98" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E98" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="D98" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E98" s="0" t="s">
-        <v>268</v>
-      </c>
       <c r="G98" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H98" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M98" s="0" t="n">
         <v>0</v>
@@ -6663,7 +6747,7 @@
         <v>0</v>
       </c>
       <c r="S98" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB98" s="0" t="n">
         <v>0</v>
@@ -6683,28 +6767,28 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H99" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M99" s="0" t="n">
         <v>0</v>
@@ -6719,7 +6803,7 @@
         <v>0</v>
       </c>
       <c r="S99" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB99" s="0" t="n">
         <v>0</v>
@@ -6739,28 +6823,28 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H100" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M100" s="0" t="n">
         <v>0</v>
@@ -6775,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="S100" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB100" s="0" t="n">
         <v>0</v>
@@ -6795,28 +6879,28 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H101" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M101" s="0" t="n">
         <v>0</v>
@@ -6831,7 +6915,7 @@
         <v>0</v>
       </c>
       <c r="S101" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB101" s="0" t="n">
         <v>0</v>
@@ -6851,28 +6935,28 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H102" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M102" s="0" t="n">
         <v>0</v>
@@ -6887,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="S102" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB102" s="0" t="n">
         <v>0</v>
@@ -6907,28 +6991,28 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H103" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M103" s="0" t="n">
         <v>0</v>
@@ -6943,7 +7027,7 @@
         <v>0</v>
       </c>
       <c r="S103" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB103" s="0" t="n">
         <v>0</v>
@@ -6963,28 +7047,28 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H104" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M104" s="0" t="n">
         <v>0</v>
@@ -6999,7 +7083,7 @@
         <v>0</v>
       </c>
       <c r="S104" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB104" s="0" t="n">
         <v>0</v>
@@ -7019,28 +7103,28 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H105" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M105" s="0" t="n">
         <v>0</v>
@@ -7055,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="S105" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB105" s="0" t="n">
         <v>0</v>
@@ -7075,28 +7159,28 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H106" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M106" s="0" t="n">
         <v>0</v>
@@ -7111,7 +7195,7 @@
         <v>0</v>
       </c>
       <c r="S106" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB106" s="0" t="n">
         <v>0</v>
@@ -7131,28 +7215,28 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H107" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M107" s="0" t="n">
         <v>0</v>
@@ -7167,7 +7251,7 @@
         <v>0</v>
       </c>
       <c r="S107" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB107" s="0" t="n">
         <v>0</v>
@@ -7187,28 +7271,28 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C108" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E108" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="D108" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E108" s="0" t="s">
-        <v>268</v>
-      </c>
       <c r="G108" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H108" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M108" s="0" t="n">
         <v>0</v>
@@ -7223,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="S108" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB108" s="0" t="n">
         <v>0</v>
@@ -7243,29 +7327,29 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="G109" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="H109" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="B109" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="C109" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="D109" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E109" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="G109" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="H109" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" s="0" t="s">
-        <v>288</v>
-      </c>
       <c r="M109" s="0" t="n">
         <v>0</v>
       </c>
@@ -7279,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="S109" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB109" s="0" t="n">
         <v>0</v>
@@ -7299,29 +7383,29 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="G110" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="H110" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="B110" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="C110" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="D110" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E110" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="G110" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="H110" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" s="0" t="s">
-        <v>288</v>
-      </c>
       <c r="M110" s="0" t="n">
         <v>0</v>
       </c>
@@ -7335,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="S110" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB110" s="0" t="n">
         <v>0</v>
@@ -7355,28 +7439,28 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H111" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M111" s="0" t="n">
         <v>0</v>
@@ -7391,7 +7475,7 @@
         <v>0</v>
       </c>
       <c r="S111" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB111" s="0" t="n">
         <v>0</v>
@@ -7411,28 +7495,28 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H112" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M112" s="0" t="n">
         <v>0</v>
@@ -7447,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="S112" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB112" s="0" t="n">
         <v>0</v>
@@ -7467,28 +7551,28 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H113" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M113" s="0" t="n">
         <v>0</v>
@@ -7503,7 +7587,7 @@
         <v>0</v>
       </c>
       <c r="S113" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB113" s="0" t="n">
         <v>0</v>
@@ -7523,28 +7607,28 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H114" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M114" s="0" t="n">
         <v>0</v>
@@ -7559,7 +7643,7 @@
         <v>0</v>
       </c>
       <c r="S114" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB114" s="0" t="n">
         <v>0</v>
@@ -7579,28 +7663,28 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H115" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M115" s="0" t="n">
         <v>0</v>
@@ -7615,7 +7699,7 @@
         <v>0</v>
       </c>
       <c r="S115" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB115" s="0" t="n">
         <v>0</v>
@@ -7635,28 +7719,28 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H116" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M116" s="0" t="n">
         <v>0</v>
@@ -7671,7 +7755,7 @@
         <v>0</v>
       </c>
       <c r="S116" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB116" s="0" t="n">
         <v>0</v>
@@ -7691,28 +7775,28 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H117" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M117" s="0" t="n">
         <v>0</v>
@@ -7727,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="S117" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB117" s="0" t="n">
         <v>0</v>
@@ -7747,29 +7831,29 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C118" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="G118" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="H118" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="D118" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E118" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="G118" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="H118" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" s="0" t="s">
-        <v>297</v>
-      </c>
       <c r="M118" s="0" t="n">
         <v>0</v>
       </c>
@@ -7783,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="S118" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB118" s="0" t="n">
         <v>0</v>
@@ -7803,28 +7887,28 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H119" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M119" s="0" t="n">
         <v>0</v>
@@ -7839,7 +7923,7 @@
         <v>0</v>
       </c>
       <c r="S119" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB119" s="0" t="n">
         <v>0</v>
@@ -7859,28 +7943,28 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H120" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M120" s="0" t="n">
         <v>0</v>
@@ -7895,7 +7979,7 @@
         <v>0</v>
       </c>
       <c r="S120" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB120" s="0" t="n">
         <v>0</v>
@@ -7915,28 +7999,28 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H121" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M121" s="0" t="n">
         <v>0</v>
@@ -7951,7 +8035,7 @@
         <v>0</v>
       </c>
       <c r="S121" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB121" s="0" t="n">
         <v>0</v>
@@ -7971,28 +8055,28 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H122" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I122" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M122" s="0" t="n">
         <v>0</v>
@@ -8007,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="S122" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB122" s="0" t="n">
         <v>0</v>
@@ -8027,28 +8111,28 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H123" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I123" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M123" s="0" t="n">
         <v>0</v>
@@ -8063,7 +8147,7 @@
         <v>0</v>
       </c>
       <c r="S123" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB123" s="0" t="n">
         <v>0</v>
@@ -8083,28 +8167,28 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H124" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I124" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M124" s="0" t="n">
         <v>0</v>
@@ -8119,7 +8203,7 @@
         <v>0</v>
       </c>
       <c r="S124" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB124" s="0" t="n">
         <v>0</v>
@@ -8139,28 +8223,28 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H125" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I125" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M125" s="0" t="n">
         <v>0</v>
@@ -8175,7 +8259,7 @@
         <v>0</v>
       </c>
       <c r="S125" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB125" s="0" t="n">
         <v>0</v>
@@ -8195,28 +8279,28 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H126" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M126" s="0" t="n">
         <v>0</v>
@@ -8231,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="S126" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB126" s="0" t="n">
         <v>0</v>
@@ -8251,28 +8335,28 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="H127" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I127" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M127" s="0" t="n">
         <v>0</v>
@@ -8287,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="S127" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB127" s="0" t="n">
         <v>0</v>
@@ -8307,28 +8391,28 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C128" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E128" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="G128" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="D128" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E128" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="G128" s="0" t="s">
-        <v>316</v>
-      </c>
       <c r="H128" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M128" s="0" t="n">
         <v>0</v>
@@ -8343,7 +8427,7 @@
         <v>0</v>
       </c>
       <c r="S128" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB128" s="0" t="n">
         <v>0</v>
@@ -8363,29 +8447,29 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E129" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="G129" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="H129" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="B129" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="C129" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="D129" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E129" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="G129" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="H129" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" s="0" t="s">
-        <v>323</v>
-      </c>
       <c r="M129" s="0" t="n">
         <v>0</v>
       </c>
@@ -8399,7 +8483,7 @@
         <v>0</v>
       </c>
       <c r="S129" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB129" s="0" t="n">
         <v>0</v>
@@ -8419,29 +8503,29 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E130" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="G130" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="H130" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="B130" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="C130" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="D130" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E130" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="G130" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="H130" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" s="0" t="s">
-        <v>323</v>
-      </c>
       <c r="M130" s="0" t="n">
         <v>0</v>
       </c>
@@ -8455,7 +8539,7 @@
         <v>0</v>
       </c>
       <c r="S130" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB130" s="0" t="n">
         <v>0</v>
@@ -8475,28 +8559,28 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="H131" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I131" s="0" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="M131" s="0" t="n">
         <v>0</v>
@@ -8511,7 +8595,7 @@
         <v>0</v>
       </c>
       <c r="S131" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB131" s="0" t="n">
         <v>0</v>
@@ -8531,28 +8615,28 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C132" s="0" t="s">
         <v>329</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G132" s="0" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="H132" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I132" s="0" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="M132" s="0" t="n">
         <v>0</v>
@@ -8567,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="S132" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB132" s="0" t="n">
         <v>0</v>
@@ -8596,19 +8680,19 @@
         <v>332</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="H133" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I133" s="0" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="M133" s="0" t="n">
         <v>0</v>
@@ -8623,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="S133" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB133" s="0" t="n">
         <v>0</v>
@@ -8649,22 +8733,22 @@
         <v>331</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G134" s="0" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="H134" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I134" s="0" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="M134" s="0" t="n">
         <v>0</v>
@@ -8679,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="S134" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB134" s="0" t="n">
         <v>0</v>
@@ -8699,28 +8783,28 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B135" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="B135" s="0" t="s">
+      <c r="C135" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="C135" s="0" t="s">
-        <v>337</v>
-      </c>
       <c r="D135" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="H135" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I135" s="0" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="M135" s="0" t="n">
         <v>0</v>
@@ -8735,7 +8819,7 @@
         <v>0</v>
       </c>
       <c r="S135" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB135" s="0" t="n">
         <v>0</v>
@@ -8755,95 +8839,731 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B136" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="B136" s="0" t="s">
-        <v>336</v>
-      </c>
       <c r="C136" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="D136" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E136" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="G136" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="H136" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="M136" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N136" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P136" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S136" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB136" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL136" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO136" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP136" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ136" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B137" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="D136" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E136" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="G136" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="H136" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" s="0" t="s">
+      <c r="C137" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="D137" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E137" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="G137" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="H137" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="M137" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N137" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O137" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P137" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S137" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB137" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL137" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO137" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP137" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ137" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="M136" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N136" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O136" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P136" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S136" s="0" t="s">
+      <c r="B138" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="D138" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E138" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="G138" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="H138" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="M138" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N138" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P138" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S138" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB138" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL138" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO138" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP138" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ138" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="C139" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="D139" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E139" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="G139" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="H139" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="M139" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N139" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P139" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S139" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="AB136" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL136" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO136" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP136" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ136" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1"/>
-    </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1"/>
-    </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1"/>
+      <c r="AB139" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL139" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO139" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP139" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ139" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1"/>
+      <c r="A140" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="D140" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E140" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="G140" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="H140" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="M140" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N140" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P140" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S140" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB140" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL140" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO140" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP140" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ140" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1"/>
+      <c r="A141" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="C141" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="D141" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E141" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="G141" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="H141" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="M141" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N141" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P141" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S141" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB141" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL141" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO141" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP141" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ141" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1"/>
+      <c r="A142" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="C142" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D142" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E142" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="G142" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="H142" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="M142" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N142" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O142" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P142" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S142" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB142" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL142" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO142" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP142" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ142" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1"/>
+      <c r="A143" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="D143" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E143" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="G143" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="H143" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="M143" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N143" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O143" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P143" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S143" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB143" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL143" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO143" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP143" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ143" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1"/>
+      <c r="A144" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="D144" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E144" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="G144" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="H144" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="M144" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O144" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P144" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S144" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB144" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL144" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO144" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP144" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ144" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1"/>
+      <c r="A145" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="D145" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E145" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="G145" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="H145" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="M145" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N145" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O145" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P145" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S145" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB145" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL145" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO145" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP145" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ145" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="1"/>
+      <c r="A146" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="D146" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E146" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="G146" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="H146" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="M146" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N146" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P146" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S146" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB146" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL146" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO146" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP146" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ146" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="1"/>
+      <c r="A147" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="D147" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E147" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="G147" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="H147" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="M147" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N147" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O147" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P147" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S147" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB147" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL147" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO147" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP147" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ147" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="1"/>
+      <c r="A148" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="C148" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="D148" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E148" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="G148" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="H148" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="M148" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N148" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O148" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P148" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S148" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB148" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL148" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO148" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP148" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ148" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1"/>
@@ -8989,6 +9709,12 @@
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1"/>
     </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="1"/>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="1"/>
+    </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1"/>
     </row>
@@ -9019,12 +9745,6 @@
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1"/>
     </row>
-    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="1"/>
-    </row>
-    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="1"/>
-    </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1"/>
     </row>
@@ -11224,6 +11944,24 @@
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="1"/>
     </row>
+    <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A944" s="1"/>
+    </row>
+    <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A945" s="1"/>
+    </row>
+    <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A946" s="1"/>
+    </row>
+    <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A947" s="1"/>
+    </row>
+    <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A948" s="1"/>
+    </row>
+    <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A949" s="1"/>
+    </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="1"/>
     </row>
@@ -11242,24 +11980,6 @@
     <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="1"/>
     </row>
-    <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A956" s="1"/>
-    </row>
-    <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A957" s="1"/>
-    </row>
-    <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A958" s="1"/>
-    </row>
-    <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A959" s="1"/>
-    </row>
-    <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A960" s="1"/>
-    </row>
-    <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A961" s="1"/>
-    </row>
     <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="1"/>
     </row>
@@ -11320,41 +12040,47 @@
     <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="1"/>
     </row>
+    <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A982" s="1"/>
+    </row>
+    <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A983" s="1"/>
+    </row>
+    <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A984" s="1"/>
+    </row>
+    <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A985" s="1"/>
+    </row>
+    <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A986" s="1"/>
+    </row>
+    <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A987" s="1"/>
+    </row>
+    <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A988" s="1"/>
+    </row>
+    <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A989" s="1"/>
+    </row>
+    <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A990" s="1"/>
+    </row>
+    <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A991" s="1"/>
+    </row>
     <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="1"/>
     </row>
     <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="1"/>
     </row>
-    <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A994" s="1"/>
-    </row>
-    <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A995" s="1"/>
-    </row>
-    <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A996" s="1"/>
-    </row>
-    <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A997" s="1"/>
-    </row>
-    <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A998" s="1"/>
-    </row>
-    <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A999" s="1"/>
-    </row>
-    <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1000" s="1"/>
-    </row>
-    <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1001" s="1"/>
-    </row>
-    <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1002" s="1"/>
-    </row>
-    <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1003" s="1"/>
+    <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1004" s="1"/>
+    </row>
+    <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1005" s="1"/>
     </row>
     <row r="1006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1006" s="1"/>
@@ -11386,8 +12112,14 @@
     <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1015" s="1"/>
     </row>
-    <row r="1016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1016" s="1"/>
+    <row r="1018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1018" s="1"/>
+    </row>
+    <row r="1019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1019" s="1"/>
+    </row>
+    <row r="1020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1020" s="1"/>
     </row>
     <row r="1021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1021" s="1"/>
@@ -11413,18 +12145,6 @@
     <row r="1028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1028" s="1"/>
     </row>
-    <row r="1029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1029" s="1"/>
-    </row>
-    <row r="1030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1030" s="1"/>
-    </row>
-    <row r="1031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1031" s="1"/>
-    </row>
-    <row r="1032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1032" s="1"/>
-    </row>
     <row r="1033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1033" s="1"/>
     </row>
@@ -11646,6 +12366,42 @@
     </row>
     <row r="1106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1106" s="1"/>
+    </row>
+    <row r="1107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1107" s="1"/>
+    </row>
+    <row r="1108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1108" s="1"/>
+    </row>
+    <row r="1109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1109" s="1"/>
+    </row>
+    <row r="1110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1110" s="1"/>
+    </row>
+    <row r="1111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1111" s="1"/>
+    </row>
+    <row r="1112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1112" s="1"/>
+    </row>
+    <row r="1113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1113" s="1"/>
+    </row>
+    <row r="1114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1114" s="1"/>
+    </row>
+    <row r="1115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1115" s="1"/>
+    </row>
+    <row r="1116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1116" s="1"/>
+    </row>
+    <row r="1117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1117" s="1"/>
+    </row>
+    <row r="1118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1118" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/run/predefined.xlsx
+++ b/run/predefined.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="385">
   <si>
     <t xml:space="preserve">databaseId</t>
   </si>
@@ -1046,6 +1046,60 @@
   </si>
   <si>
     <t xml:space="preserve">mini_investigators/03006b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r03006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lola Hayes is "The Guardian"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lola/lola_guardian.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lola Hayes is "The Seeker"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lola/lola_seeker.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lola Hayes is "The Rogue"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lola/lola_rogue.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lola Hayes is "The Mystic"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lola/lola_mystic.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lola Hayes is "The Survivor"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lola/lola_survivor.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lola Hayes is "The Neutral Role"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lola/lola_neutral.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
   </si>
   <si>
     <t xml:space="preserve">m60101</t>
@@ -1222,15 +1276,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AR1118"/>
+  <dimension ref="A1:AR1124"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A138" activeCellId="0" sqref="A138"/>
+      <selection pane="bottomLeft" activeCell="A139" activeCellId="0" sqref="A139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.19"/>
@@ -9019,16 +9073,16 @@
         <v>56</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>269</v>
+        <v>345</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="H139" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I139" s="0" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="M139" s="0" t="n">
         <v>0</v>
@@ -9066,25 +9120,25 @@
         <v>342</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D140" s="0" t="s">
         <v>56</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>269</v>
+        <v>345</v>
       </c>
       <c r="G140" s="0" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="H140" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I140" s="0" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="M140" s="0" t="n">
         <v>0</v>
@@ -9119,7 +9173,7 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B141" s="0" t="s">
         <v>348</v>
@@ -9131,31 +9185,31 @@
         <v>56</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>269</v>
+        <v>345</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="H141" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I141" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="M141" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N141" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P141" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S141" s="0" t="s">
         <v>350</v>
-      </c>
-      <c r="M141" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N141" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O141" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P141" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S141" s="0" t="s">
-        <v>58</v>
       </c>
       <c r="AB141" s="0" t="n">
         <v>0</v>
@@ -9175,28 +9229,28 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D142" s="0" t="s">
         <v>56</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>269</v>
+        <v>345</v>
       </c>
       <c r="G142" s="0" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="H142" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I142" s="0" t="s">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="M142" s="0" t="n">
         <v>0</v>
@@ -9211,7 +9265,7 @@
         <v>0</v>
       </c>
       <c r="S142" s="0" t="s">
-        <v>59</v>
+        <v>353</v>
       </c>
       <c r="AB142" s="0" t="n">
         <v>0</v>
@@ -9231,28 +9285,28 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D143" s="0" t="s">
         <v>56</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>269</v>
+        <v>345</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="H143" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I143" s="0" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
       <c r="M143" s="0" t="n">
         <v>0</v>
@@ -9267,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="S143" s="0" t="s">
-        <v>58</v>
+        <v>356</v>
       </c>
       <c r="AB143" s="0" t="n">
         <v>0</v>
@@ -9287,28 +9341,28 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D144" s="0" t="s">
         <v>56</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>269</v>
+        <v>345</v>
       </c>
       <c r="G144" s="0" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="H144" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I144" s="0" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
       <c r="M144" s="0" t="n">
         <v>0</v>
@@ -9323,7 +9377,7 @@
         <v>0</v>
       </c>
       <c r="S144" s="0" t="s">
-        <v>59</v>
+        <v>359</v>
       </c>
       <c r="AB144" s="0" t="n">
         <v>0</v>
@@ -9343,13 +9397,13 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D145" s="0" t="s">
         <v>56</v>
@@ -9358,13 +9412,13 @@
         <v>269</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="H145" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I145" s="0" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="M145" s="0" t="n">
         <v>0</v>
@@ -9399,13 +9453,13 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D146" s="0" t="s">
         <v>56</v>
@@ -9414,13 +9468,13 @@
         <v>269</v>
       </c>
       <c r="G146" s="0" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="H146" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I146" s="0" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="M146" s="0" t="n">
         <v>0</v>
@@ -9455,13 +9509,13 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D147" s="0" t="s">
         <v>56</v>
@@ -9470,13 +9524,13 @@
         <v>269</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="H147" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I147" s="0" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="M147" s="0" t="n">
         <v>0</v>
@@ -9511,13 +9565,13 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D148" s="0" t="s">
         <v>56</v>
@@ -9526,13 +9580,13 @@
         <v>269</v>
       </c>
       <c r="G148" s="0" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="H148" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I148" s="0" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="M148" s="0" t="n">
         <v>0</v>
@@ -9566,22 +9620,340 @@
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="1"/>
+      <c r="A149" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="C149" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="D149" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E149" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="G149" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="H149" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="M149" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N149" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O149" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P149" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S149" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB149" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL149" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO149" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP149" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ149" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1"/>
+      <c r="A150" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="C150" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="D150" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E150" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="G150" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="H150" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="M150" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N150" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O150" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P150" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S150" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB150" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL150" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO150" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP150" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ150" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="1"/>
+      <c r="A151" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C151" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="D151" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E151" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="G151" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="H151" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="M151" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N151" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O151" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P151" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S151" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB151" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL151" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO151" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP151" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ151" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="1"/>
+      <c r="A152" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C152" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="D152" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E152" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="G152" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="H152" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="M152" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N152" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O152" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P152" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S152" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB152" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL152" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO152" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP152" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ152" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="1"/>
+      <c r="A153" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C153" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="D153" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E153" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="G153" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="H153" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="M153" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N153" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O153" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P153" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S153" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB153" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL153" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO153" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP153" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ153" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="1"/>
+      <c r="A154" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C154" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="D154" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E154" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="G154" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="H154" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="M154" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O154" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P154" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S154" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB154" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL154" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO154" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP154" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ154" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1"/>
@@ -9745,6 +10117,12 @@
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1"/>
     </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="1"/>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="1"/>
+    </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1"/>
     </row>
@@ -9757,12 +10135,6 @@
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1"/>
     </row>
-    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="1"/>
-    </row>
-    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="1"/>
-    </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1"/>
     </row>
@@ -11980,23 +12352,23 @@
     <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="1"/>
     </row>
-    <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A962" s="1"/>
-    </row>
-    <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A963" s="1"/>
-    </row>
-    <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A964" s="1"/>
-    </row>
-    <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A965" s="1"/>
-    </row>
-    <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A966" s="1"/>
-    </row>
-    <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A967" s="1"/>
+    <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A956" s="1"/>
+    </row>
+    <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A957" s="1"/>
+    </row>
+    <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A958" s="1"/>
+    </row>
+    <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A959" s="1"/>
+    </row>
+    <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A960" s="1"/>
+    </row>
+    <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A961" s="1"/>
     </row>
     <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="1"/>
@@ -12076,23 +12448,23 @@
     <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="1"/>
     </row>
-    <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1004" s="1"/>
-    </row>
-    <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1005" s="1"/>
-    </row>
-    <row r="1006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1006" s="1"/>
-    </row>
-    <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1007" s="1"/>
-    </row>
-    <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1008" s="1"/>
-    </row>
-    <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1009" s="1"/>
+    <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A994" s="1"/>
+    </row>
+    <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A995" s="1"/>
+    </row>
+    <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A996" s="1"/>
+    </row>
+    <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A997" s="1"/>
+    </row>
+    <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A998" s="1"/>
+    </row>
+    <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A999" s="1"/>
     </row>
     <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1010" s="1"/>
@@ -12112,6 +12484,12 @@
     <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1015" s="1"/>
     </row>
+    <row r="1016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1016" s="1"/>
+    </row>
+    <row r="1017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1017" s="1"/>
+    </row>
     <row r="1018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1018" s="1"/>
     </row>
@@ -12124,12 +12502,6 @@
     <row r="1021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1021" s="1"/>
     </row>
-    <row r="1022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1022" s="1"/>
-    </row>
-    <row r="1023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1023" s="1"/>
-    </row>
     <row r="1024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1024" s="1"/>
     </row>
@@ -12145,24 +12517,24 @@
     <row r="1028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1028" s="1"/>
     </row>
+    <row r="1029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1029" s="1"/>
+    </row>
+    <row r="1030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1030" s="1"/>
+    </row>
+    <row r="1031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1031" s="1"/>
+    </row>
+    <row r="1032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1032" s="1"/>
+    </row>
     <row r="1033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1033" s="1"/>
     </row>
     <row r="1034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1034" s="1"/>
     </row>
-    <row r="1035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1035" s="1"/>
-    </row>
-    <row r="1036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1036" s="1"/>
-    </row>
-    <row r="1037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1037" s="1"/>
-    </row>
-    <row r="1038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1038" s="1"/>
-    </row>
     <row r="1039" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1039" s="1"/>
     </row>
@@ -12402,6 +12774,24 @@
     </row>
     <row r="1118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1118" s="1"/>
+    </row>
+    <row r="1119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1119" s="1"/>
+    </row>
+    <row r="1120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1120" s="1"/>
+    </row>
+    <row r="1121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1121" s="1"/>
+    </row>
+    <row r="1122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1122" s="1"/>
+    </row>
+    <row r="1123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1123" s="1"/>
+    </row>
+    <row r="1124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1124" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/run/predefined.xlsx
+++ b/run/predefined.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="398">
   <si>
     <t xml:space="preserve">databaseId</t>
   </si>
@@ -151,6 +151,9 @@
     <t xml:space="preserve">free</t>
   </si>
   <si>
+    <t xml:space="preserve">hasBonded</t>
+  </si>
+  <si>
     <t xml:space="preserve">text</t>
   </si>
   <si>
@@ -1051,7 +1054,7 @@
     <t xml:space="preserve">r03006</t>
   </si>
   <si>
-    <t xml:space="preserve">Lola Hayes is "The Guardian"</t>
+    <t xml:space="preserve">Guardian role</t>
   </si>
   <si>
     <t xml:space="preserve">lola/lola_guardian.webp</t>
@@ -1060,13 +1063,13 @@
     <t xml:space="preserve">Role</t>
   </si>
   <si>
-    <t xml:space="preserve">Lola Hayes is "The Seeker"</t>
+    <t xml:space="preserve">Seeker role</t>
   </si>
   <si>
     <t xml:space="preserve">lola/lola_seeker.webp</t>
   </si>
   <si>
-    <t xml:space="preserve">Lola Hayes is "The Rogue"</t>
+    <t xml:space="preserve">Rogue role</t>
   </si>
   <si>
     <t xml:space="preserve">lola/lola_rogue.webp</t>
@@ -1075,7 +1078,7 @@
     <t xml:space="preserve">C</t>
   </si>
   <si>
-    <t xml:space="preserve">Lola Hayes is "The Mystic"</t>
+    <t xml:space="preserve">Mystic role</t>
   </si>
   <si>
     <t xml:space="preserve">lola/lola_mystic.webp</t>
@@ -1084,7 +1087,7 @@
     <t xml:space="preserve">D</t>
   </si>
   <si>
-    <t xml:space="preserve">Lola Hayes is "The Survivor"</t>
+    <t xml:space="preserve">Survivor role</t>
   </si>
   <si>
     <t xml:space="preserve">lola/lola_survivor.webp</t>
@@ -1093,13 +1096,49 @@
     <t xml:space="preserve">E</t>
   </si>
   <si>
-    <t xml:space="preserve">Lola Hayes is "The Neutral Role"</t>
+    <t xml:space="preserve">Neutral role</t>
   </si>
   <si>
     <t xml:space="preserve">lola/lola_neutral.webp</t>
   </si>
   <si>
     <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hank Samson: The Farmhand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card_images/10/10016a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investigator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Feast of Hemlock Vale Investigator Expansion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fhvp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Survivor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assistant. Resolute.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonded (Hank Samson).  You cannot be healed. You may be assigned damage/horror dealt to [[Ally]] assets or other investigators at your location.  [reaction] When 1 or more horror is placed on you: Draw 1 card.  [elder_sign] effect: +1. Move 1 horror from Hank Samson to an asset you control.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card_images/10/10016b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warden. Resolute.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonded (Hank Samson).  You cannot be healed. You may be assigned damage/horror dealt to [[Ally]] assets or other investigators at your location.  [reaction] When 1 or more damage is placed on you: Gain 2 resources.  [elder_sign] effect: +1. Move 1 damage from Hank Samson to an asset you control.</t>
   </si>
   <si>
     <t xml:space="preserve">m60101</t>
@@ -1276,15 +1315,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AR1124"/>
+  <dimension ref="A1:AS1126"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A139" activeCellId="0" sqref="A139"/>
+      <selection pane="bottomLeft" activeCell="A145" activeCellId="0" sqref="A145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.19"/>
@@ -1292,7 +1331,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="33.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="42.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.24"/>
@@ -1302,8 +1341,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="6.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="7.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="5.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="8.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="4.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="5.04"/>
@@ -1328,7 +1367,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="7.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="4.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="245.69"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1464,34 +1504,37 @@
       <c r="AR1" s="0" t="s">
         <v>43</v>
       </c>
+      <c r="AS1" s="0" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>1000</v>
@@ -1509,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AB2" s="0" t="n">
         <v>0</v>
@@ -1524,33 +1567,36 @@
         <v>0</v>
       </c>
       <c r="AQ2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M3" s="0" t="n">
         <v>0</v>
@@ -1565,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB3" s="0" t="n">
         <v>0</v>
@@ -1580,33 +1626,36 @@
         <v>0</v>
       </c>
       <c r="AQ3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>0</v>
@@ -1621,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB4" s="0" t="n">
         <v>0</v>
@@ -1636,33 +1685,36 @@
         <v>0</v>
       </c>
       <c r="AQ4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M5" s="0" t="n">
         <v>0</v>
@@ -1677,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB5" s="0" t="n">
         <v>0</v>
@@ -1692,49 +1744,52 @@
         <v>0</v>
       </c>
       <c r="AQ5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="0" t="s">
-        <v>59</v>
-      </c>
       <c r="AB6" s="0" t="n">
         <v>0</v>
       </c>
@@ -1748,33 +1803,36 @@
         <v>0</v>
       </c>
       <c r="AQ6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M7" s="0" t="n">
         <v>0</v>
@@ -1789,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB7" s="0" t="n">
         <v>0</v>
@@ -1804,33 +1862,36 @@
         <v>0</v>
       </c>
       <c r="AQ7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>0</v>
@@ -1845,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB8" s="0" t="n">
         <v>0</v>
@@ -1860,33 +1921,36 @@
         <v>0</v>
       </c>
       <c r="AQ8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M9" s="0" t="n">
         <v>0</v>
@@ -1901,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB9" s="0" t="n">
         <v>0</v>
@@ -1916,33 +1980,36 @@
         <v>0</v>
       </c>
       <c r="AQ9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M10" s="0" t="n">
         <v>0</v>
@@ -1957,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB10" s="0" t="n">
         <v>0</v>
@@ -1972,33 +2039,36 @@
         <v>0</v>
       </c>
       <c r="AQ10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M11" s="0" t="n">
         <v>0</v>
@@ -2013,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB11" s="0" t="n">
         <v>0</v>
@@ -2028,33 +2098,36 @@
         <v>0</v>
       </c>
       <c r="AQ11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M12" s="0" t="n">
         <v>0</v>
@@ -2069,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="S12" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB12" s="0" t="n">
         <v>0</v>
@@ -2084,33 +2157,36 @@
         <v>0</v>
       </c>
       <c r="AQ12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M13" s="0" t="n">
         <v>0</v>
@@ -2125,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="S13" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB13" s="0" t="n">
         <v>0</v>
@@ -2140,33 +2216,36 @@
         <v>0</v>
       </c>
       <c r="AQ13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M14" s="0" t="n">
         <v>0</v>
@@ -2181,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="S14" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB14" s="0" t="n">
         <v>0</v>
@@ -2196,33 +2275,36 @@
         <v>0</v>
       </c>
       <c r="AQ14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M15" s="0" t="n">
         <v>0</v>
@@ -2237,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="S15" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB15" s="0" t="n">
         <v>0</v>
@@ -2252,33 +2334,36 @@
         <v>0</v>
       </c>
       <c r="AQ15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M16" s="0" t="n">
         <v>0</v>
@@ -2293,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="S16" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB16" s="0" t="n">
         <v>0</v>
@@ -2308,33 +2393,36 @@
         <v>0</v>
       </c>
       <c r="AQ16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M17" s="0" t="n">
         <v>0</v>
@@ -2349,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB17" s="0" t="n">
         <v>0</v>
@@ -2364,33 +2452,36 @@
         <v>0</v>
       </c>
       <c r="AQ17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>0</v>
@@ -2405,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB18" s="0" t="n">
         <v>0</v>
@@ -2420,33 +2511,36 @@
         <v>0</v>
       </c>
       <c r="AQ18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M19" s="0" t="n">
         <v>0</v>
@@ -2461,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB19" s="0" t="n">
         <v>0</v>
@@ -2476,33 +2570,36 @@
         <v>0</v>
       </c>
       <c r="AQ19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M20" s="0" t="n">
         <v>0</v>
@@ -2517,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB20" s="0" t="n">
         <v>0</v>
@@ -2532,33 +2629,36 @@
         <v>0</v>
       </c>
       <c r="AQ20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M21" s="0" t="n">
         <v>0</v>
@@ -2573,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB21" s="0" t="n">
         <v>0</v>
@@ -2588,33 +2688,36 @@
         <v>0</v>
       </c>
       <c r="AQ21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M22" s="0" t="n">
         <v>0</v>
@@ -2629,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="S22" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB22" s="0" t="n">
         <v>0</v>
@@ -2644,33 +2747,36 @@
         <v>0</v>
       </c>
       <c r="AQ22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M23" s="0" t="n">
         <v>0</v>
@@ -2685,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="S23" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB23" s="0" t="n">
         <v>0</v>
@@ -2700,33 +2806,36 @@
         <v>0</v>
       </c>
       <c r="AQ23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M24" s="0" t="n">
         <v>0</v>
@@ -2741,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="S24" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB24" s="0" t="n">
         <v>0</v>
@@ -2756,33 +2865,36 @@
         <v>0</v>
       </c>
       <c r="AQ24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M25" s="0" t="n">
         <v>0</v>
@@ -2797,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="S25" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB25" s="0" t="n">
         <v>0</v>
@@ -2812,33 +2924,36 @@
         <v>0</v>
       </c>
       <c r="AQ25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M26" s="0" t="n">
         <v>0</v>
@@ -2853,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="S26" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB26" s="0" t="n">
         <v>0</v>
@@ -2868,33 +2983,36 @@
         <v>0</v>
       </c>
       <c r="AQ26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR26" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M27" s="0" t="n">
         <v>0</v>
@@ -2909,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="S27" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB27" s="0" t="n">
         <v>0</v>
@@ -2924,33 +3042,36 @@
         <v>0</v>
       </c>
       <c r="AQ27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR27" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M28" s="0" t="n">
         <v>0</v>
@@ -2965,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="S28" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB28" s="0" t="n">
         <v>0</v>
@@ -2980,33 +3101,36 @@
         <v>0</v>
       </c>
       <c r="AQ28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR28" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M29" s="0" t="n">
         <v>0</v>
@@ -3021,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="S29" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB29" s="0" t="n">
         <v>0</v>
@@ -3036,33 +3160,36 @@
         <v>0</v>
       </c>
       <c r="AQ29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR29" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M30" s="0" t="n">
         <v>0</v>
@@ -3077,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="S30" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB30" s="0" t="n">
         <v>0</v>
@@ -3092,33 +3219,36 @@
         <v>0</v>
       </c>
       <c r="AQ30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR30" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M31" s="0" t="n">
         <v>0</v>
@@ -3133,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="S31" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB31" s="0" t="n">
         <v>0</v>
@@ -3148,33 +3278,36 @@
         <v>0</v>
       </c>
       <c r="AQ31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR31" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M32" s="0" t="n">
         <v>0</v>
@@ -3189,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="S32" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB32" s="0" t="n">
         <v>0</v>
@@ -3204,33 +3337,36 @@
         <v>0</v>
       </c>
       <c r="AQ32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR32" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M33" s="0" t="n">
         <v>0</v>
@@ -3245,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="S33" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB33" s="0" t="n">
         <v>0</v>
@@ -3260,33 +3396,36 @@
         <v>0</v>
       </c>
       <c r="AQ33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR33" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M34" s="0" t="n">
         <v>0</v>
@@ -3301,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="S34" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB34" s="0" t="n">
         <v>0</v>
@@ -3316,33 +3455,36 @@
         <v>0</v>
       </c>
       <c r="AQ34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR34" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M35" s="0" t="n">
         <v>0</v>
@@ -3357,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="S35" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB35" s="0" t="n">
         <v>0</v>
@@ -3372,33 +3514,36 @@
         <v>0</v>
       </c>
       <c r="AQ35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR35" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M36" s="0" t="n">
         <v>0</v>
@@ -3413,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="S36" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB36" s="0" t="n">
         <v>0</v>
@@ -3428,34 +3573,37 @@
         <v>0</v>
       </c>
       <c r="AQ36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR36" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B37" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="G37" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="H37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="M37" s="0" t="n">
         <v>0</v>
       </c>
@@ -3469,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="S37" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB37" s="0" t="n">
         <v>0</v>
@@ -3484,34 +3632,37 @@
         <v>0</v>
       </c>
       <c r="AQ37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR37" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="H38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="M38" s="0" t="n">
         <v>0</v>
       </c>
@@ -3525,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="S38" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB38" s="0" t="n">
         <v>0</v>
@@ -3540,33 +3691,36 @@
         <v>0</v>
       </c>
       <c r="AQ38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR38" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M39" s="0" t="n">
         <v>0</v>
@@ -3581,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="S39" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB39" s="0" t="n">
         <v>0</v>
@@ -3596,33 +3750,36 @@
         <v>0</v>
       </c>
       <c r="AQ39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR39" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M40" s="0" t="n">
         <v>0</v>
@@ -3637,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="S40" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB40" s="0" t="n">
         <v>0</v>
@@ -3652,33 +3809,36 @@
         <v>0</v>
       </c>
       <c r="AQ40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR40" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M41" s="0" t="n">
         <v>0</v>
@@ -3693,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="S41" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB41" s="0" t="n">
         <v>0</v>
@@ -3708,33 +3868,36 @@
         <v>0</v>
       </c>
       <c r="AQ41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR41" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M42" s="0" t="n">
         <v>0</v>
@@ -3749,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="S42" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB42" s="0" t="n">
         <v>0</v>
@@ -3764,33 +3927,36 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR42" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M43" s="0" t="n">
         <v>0</v>
@@ -3805,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="S43" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB43" s="0" t="n">
         <v>0</v>
@@ -3820,33 +3986,36 @@
         <v>0</v>
       </c>
       <c r="AQ43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR43" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B44" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="C44" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E44" s="0" t="s">
-        <v>125</v>
-      </c>
       <c r="G44" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M44" s="0" t="n">
         <v>0</v>
@@ -3861,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="S44" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB44" s="0" t="n">
         <v>0</v>
@@ -3876,33 +4045,36 @@
         <v>0</v>
       </c>
       <c r="AQ44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR44" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M45" s="0" t="n">
         <v>0</v>
@@ -3917,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="S45" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB45" s="0" t="n">
         <v>0</v>
@@ -3932,33 +4104,36 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR45" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="D46" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="C46" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>125</v>
-      </c>
       <c r="G46" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M46" s="0" t="n">
         <v>0</v>
@@ -3973,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="S46" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB46" s="0" t="n">
         <v>0</v>
@@ -3988,33 +4163,36 @@
         <v>0</v>
       </c>
       <c r="AQ46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR46" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M47" s="0" t="n">
         <v>0</v>
@@ -4029,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="S47" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB47" s="0" t="n">
         <v>0</v>
@@ -4044,33 +4222,36 @@
         <v>0</v>
       </c>
       <c r="AQ47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR47" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B48" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="C48" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E48" s="0" t="s">
-        <v>125</v>
-      </c>
       <c r="G48" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M48" s="0" t="n">
         <v>0</v>
@@ -4085,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="S48" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB48" s="0" t="n">
         <v>0</v>
@@ -4100,33 +4281,36 @@
         <v>0</v>
       </c>
       <c r="AQ48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR48" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M49" s="0" t="n">
         <v>0</v>
@@ -4141,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="S49" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB49" s="0" t="n">
         <v>0</v>
@@ -4156,33 +4340,36 @@
         <v>0</v>
       </c>
       <c r="AQ49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR49" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B50" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E50" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="C50" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>125</v>
-      </c>
       <c r="G50" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M50" s="0" t="n">
         <v>0</v>
@@ -4197,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="S50" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB50" s="0" t="n">
         <v>0</v>
@@ -4212,33 +4399,36 @@
         <v>0</v>
       </c>
       <c r="AQ50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR50" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M51" s="0" t="n">
         <v>0</v>
@@ -4253,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="S51" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB51" s="0" t="n">
         <v>0</v>
@@ -4268,33 +4458,36 @@
         <v>0</v>
       </c>
       <c r="AQ51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR51" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B52" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E52" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="C52" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>125</v>
-      </c>
       <c r="G52" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M52" s="0" t="n">
         <v>0</v>
@@ -4309,7 +4502,7 @@
         <v>0</v>
       </c>
       <c r="S52" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB52" s="0" t="n">
         <v>0</v>
@@ -4324,33 +4517,36 @@
         <v>0</v>
       </c>
       <c r="AQ52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR52" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M53" s="0" t="n">
         <v>0</v>
@@ -4365,7 +4561,7 @@
         <v>0</v>
       </c>
       <c r="S53" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB53" s="0" t="n">
         <v>0</v>
@@ -4380,33 +4576,36 @@
         <v>0</v>
       </c>
       <c r="AQ53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR53" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B54" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="C54" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E54" s="0" t="s">
-        <v>125</v>
-      </c>
       <c r="G54" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M54" s="0" t="n">
         <v>0</v>
@@ -4421,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="S54" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB54" s="0" t="n">
         <v>0</v>
@@ -4436,33 +4635,36 @@
         <v>0</v>
       </c>
       <c r="AQ54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR54" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M55" s="0" t="n">
         <v>0</v>
@@ -4477,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="S55" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB55" s="0" t="n">
         <v>0</v>
@@ -4492,33 +4694,36 @@
         <v>0</v>
       </c>
       <c r="AQ55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR55" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B56" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E56" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="C56" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E56" s="0" t="s">
-        <v>125</v>
-      </c>
       <c r="G56" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H56" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M56" s="0" t="n">
         <v>0</v>
@@ -4533,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="S56" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB56" s="0" t="n">
         <v>0</v>
@@ -4548,33 +4753,36 @@
         <v>0</v>
       </c>
       <c r="AQ56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR56" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M57" s="0" t="n">
         <v>0</v>
@@ -4589,7 +4797,7 @@
         <v>0</v>
       </c>
       <c r="S57" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB57" s="0" t="n">
         <v>0</v>
@@ -4604,33 +4812,36 @@
         <v>0</v>
       </c>
       <c r="AQ57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR57" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B58" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E58" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="C58" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E58" s="0" t="s">
-        <v>149</v>
-      </c>
       <c r="G58" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H58" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M58" s="0" t="n">
         <v>0</v>
@@ -4645,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="S58" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB58" s="0" t="n">
         <v>0</v>
@@ -4660,33 +4871,36 @@
         <v>0</v>
       </c>
       <c r="AQ58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR58" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H59" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M59" s="0" t="n">
         <v>0</v>
@@ -4701,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="S59" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB59" s="0" t="n">
         <v>0</v>
@@ -4716,33 +4930,36 @@
         <v>0</v>
       </c>
       <c r="AQ59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR59" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B60" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E60" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="C60" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>155</v>
-      </c>
       <c r="G60" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H60" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M60" s="0" t="n">
         <v>0</v>
@@ -4757,7 +4974,7 @@
         <v>0</v>
       </c>
       <c r="S60" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB60" s="0" t="n">
         <v>0</v>
@@ -4772,33 +4989,36 @@
         <v>0</v>
       </c>
       <c r="AQ60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR60" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H61" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M61" s="0" t="n">
         <v>0</v>
@@ -4813,7 +5033,7 @@
         <v>0</v>
       </c>
       <c r="S61" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB61" s="0" t="n">
         <v>0</v>
@@ -4828,33 +5048,36 @@
         <v>0</v>
       </c>
       <c r="AQ61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR61" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H62" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M62" s="0" t="n">
         <v>0</v>
@@ -4869,7 +5092,7 @@
         <v>0</v>
       </c>
       <c r="S62" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB62" s="0" t="n">
         <v>0</v>
@@ -4884,33 +5107,36 @@
         <v>0</v>
       </c>
       <c r="AQ62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR62" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H63" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M63" s="0" t="n">
         <v>0</v>
@@ -4925,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="S63" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB63" s="0" t="n">
         <v>0</v>
@@ -4940,33 +5166,36 @@
         <v>0</v>
       </c>
       <c r="AQ63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR63" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H64" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M64" s="0" t="n">
         <v>0</v>
@@ -4981,7 +5210,7 @@
         <v>0</v>
       </c>
       <c r="S64" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB64" s="0" t="n">
         <v>0</v>
@@ -4996,33 +5225,36 @@
         <v>0</v>
       </c>
       <c r="AQ64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR64" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H65" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M65" s="0" t="n">
         <v>0</v>
@@ -5037,7 +5269,7 @@
         <v>0</v>
       </c>
       <c r="S65" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB65" s="0" t="n">
         <v>0</v>
@@ -5052,33 +5284,36 @@
         <v>0</v>
       </c>
       <c r="AQ65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR65" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H66" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M66" s="0" t="n">
         <v>0</v>
@@ -5093,7 +5328,7 @@
         <v>0</v>
       </c>
       <c r="S66" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB66" s="0" t="n">
         <v>0</v>
@@ -5108,33 +5343,36 @@
         <v>0</v>
       </c>
       <c r="AQ66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR66" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H67" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M67" s="0" t="n">
         <v>0</v>
@@ -5149,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="S67" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB67" s="0" t="n">
         <v>0</v>
@@ -5164,33 +5402,36 @@
         <v>0</v>
       </c>
       <c r="AQ67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR67" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H68" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M68" s="0" t="n">
         <v>0</v>
@@ -5205,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="S68" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB68" s="0" t="n">
         <v>0</v>
@@ -5220,33 +5461,36 @@
         <v>0</v>
       </c>
       <c r="AQ68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR68" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H69" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M69" s="0" t="n">
         <v>0</v>
@@ -5273,34 +5517,37 @@
         <v>0</v>
       </c>
       <c r="AQ69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR69" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="G70" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="H70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="B70" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="E70" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="G70" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="H70" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" s="0" t="s">
-        <v>184</v>
-      </c>
       <c r="M70" s="0" t="n">
         <v>0</v>
       </c>
@@ -5326,33 +5573,36 @@
         <v>0</v>
       </c>
       <c r="AQ70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR70" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H71" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M71" s="0" t="n">
         <v>0</v>
@@ -5379,33 +5629,36 @@
         <v>0</v>
       </c>
       <c r="AQ71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR71" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H72" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M72" s="0" t="n">
         <v>0</v>
@@ -5432,33 +5685,36 @@
         <v>0</v>
       </c>
       <c r="AQ72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR72" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H73" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M73" s="0" t="n">
         <v>0</v>
@@ -5485,33 +5741,36 @@
         <v>0</v>
       </c>
       <c r="AQ73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR73" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H74" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M74" s="0" t="n">
         <v>0</v>
@@ -5538,33 +5797,36 @@
         <v>0</v>
       </c>
       <c r="AQ74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR74" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H75" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M75" s="0" t="n">
         <v>0</v>
@@ -5591,33 +5853,36 @@
         <v>0</v>
       </c>
       <c r="AQ75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR75" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H76" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M76" s="0" t="n">
         <v>0</v>
@@ -5644,33 +5909,36 @@
         <v>0</v>
       </c>
       <c r="AQ76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR76" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H77" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M77" s="0" t="n">
         <v>0</v>
@@ -5697,33 +5965,36 @@
         <v>0</v>
       </c>
       <c r="AQ77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR77" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H78" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M78" s="0" t="n">
         <v>0</v>
@@ -5750,33 +6021,36 @@
         <v>0</v>
       </c>
       <c r="AQ78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR78" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H79" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M79" s="0" t="n">
         <v>0</v>
@@ -5803,33 +6077,36 @@
         <v>0</v>
       </c>
       <c r="AQ79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR79" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H80" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M80" s="0" t="n">
         <v>0</v>
@@ -5856,33 +6133,36 @@
         <v>0</v>
       </c>
       <c r="AQ80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR80" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H81" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M81" s="0" t="n">
         <v>0</v>
@@ -5909,33 +6189,36 @@
         <v>0</v>
       </c>
       <c r="AQ81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR81" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H82" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M82" s="0" t="n">
         <v>0</v>
@@ -5962,33 +6245,36 @@
         <v>0</v>
       </c>
       <c r="AQ82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR82" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H83" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M83" s="0" t="n">
         <v>0</v>
@@ -6015,33 +6301,36 @@
         <v>0</v>
       </c>
       <c r="AQ83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR83" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H84" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M84" s="0" t="n">
         <v>0</v>
@@ -6068,33 +6357,36 @@
         <v>0</v>
       </c>
       <c r="AQ84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR84" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H85" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M85" s="0" t="n">
         <v>0</v>
@@ -6121,33 +6413,36 @@
         <v>0</v>
       </c>
       <c r="AQ85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR85" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H86" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M86" s="0" t="n">
         <v>0</v>
@@ -6174,33 +6469,36 @@
         <v>0</v>
       </c>
       <c r="AQ86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR86" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H87" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M87" s="0" t="n">
         <v>0</v>
@@ -6227,33 +6525,36 @@
         <v>0</v>
       </c>
       <c r="AQ87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR87" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H88" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M88" s="0" t="n">
         <v>0</v>
@@ -6280,33 +6581,36 @@
         <v>0</v>
       </c>
       <c r="AQ88" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR88" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H89" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M89" s="0" t="n">
         <v>0</v>
@@ -6333,33 +6637,36 @@
         <v>0</v>
       </c>
       <c r="AQ89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR89" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H90" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M90" s="0" t="n">
         <v>0</v>
@@ -6386,33 +6693,36 @@
         <v>0</v>
       </c>
       <c r="AQ90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR90" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H91" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M91" s="0" t="n">
         <v>0</v>
@@ -6439,33 +6749,36 @@
         <v>0</v>
       </c>
       <c r="AQ91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR91" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H92" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M92" s="0" t="n">
         <v>0</v>
@@ -6492,33 +6805,36 @@
         <v>0</v>
       </c>
       <c r="AQ92" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR92" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H93" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M93" s="0" t="n">
         <v>0</v>
@@ -6545,33 +6861,36 @@
         <v>0</v>
       </c>
       <c r="AQ93" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR93" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H94" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M94" s="0" t="n">
         <v>0</v>
@@ -6598,33 +6917,36 @@
         <v>0</v>
       </c>
       <c r="AQ94" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR94" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H95" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M95" s="0" t="n">
         <v>0</v>
@@ -6651,33 +6973,36 @@
         <v>0</v>
       </c>
       <c r="AQ95" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR95" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H96" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M96" s="0" t="n">
         <v>0</v>
@@ -6704,33 +7029,36 @@
         <v>0</v>
       </c>
       <c r="AQ96" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR96" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H97" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M97" s="0" t="n">
         <v>0</v>
@@ -6745,7 +7073,7 @@
         <v>0</v>
       </c>
       <c r="S97" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB97" s="0" t="n">
         <v>0</v>
@@ -6760,33 +7088,36 @@
         <v>0</v>
       </c>
       <c r="AQ97" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR97" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C98" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E98" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="D98" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E98" s="0" t="s">
-        <v>269</v>
-      </c>
       <c r="G98" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H98" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M98" s="0" t="n">
         <v>0</v>
@@ -6801,7 +7132,7 @@
         <v>0</v>
       </c>
       <c r="S98" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB98" s="0" t="n">
         <v>0</v>
@@ -6816,33 +7147,36 @@
         <v>0</v>
       </c>
       <c r="AQ98" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR98" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H99" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M99" s="0" t="n">
         <v>0</v>
@@ -6857,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="S99" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB99" s="0" t="n">
         <v>0</v>
@@ -6872,33 +7206,36 @@
         <v>0</v>
       </c>
       <c r="AQ99" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR99" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H100" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M100" s="0" t="n">
         <v>0</v>
@@ -6913,7 +7250,7 @@
         <v>0</v>
       </c>
       <c r="S100" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB100" s="0" t="n">
         <v>0</v>
@@ -6928,33 +7265,36 @@
         <v>0</v>
       </c>
       <c r="AQ100" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR100" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H101" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M101" s="0" t="n">
         <v>0</v>
@@ -6969,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="S101" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB101" s="0" t="n">
         <v>0</v>
@@ -6984,33 +7324,36 @@
         <v>0</v>
       </c>
       <c r="AQ101" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR101" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H102" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M102" s="0" t="n">
         <v>0</v>
@@ -7025,7 +7368,7 @@
         <v>0</v>
       </c>
       <c r="S102" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB102" s="0" t="n">
         <v>0</v>
@@ -7040,33 +7383,36 @@
         <v>0</v>
       </c>
       <c r="AQ102" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR102" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H103" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M103" s="0" t="n">
         <v>0</v>
@@ -7081,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="S103" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB103" s="0" t="n">
         <v>0</v>
@@ -7096,33 +7442,36 @@
         <v>0</v>
       </c>
       <c r="AQ103" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR103" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H104" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M104" s="0" t="n">
         <v>0</v>
@@ -7137,7 +7486,7 @@
         <v>0</v>
       </c>
       <c r="S104" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB104" s="0" t="n">
         <v>0</v>
@@ -7152,33 +7501,36 @@
         <v>0</v>
       </c>
       <c r="AQ104" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR104" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H105" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M105" s="0" t="n">
         <v>0</v>
@@ -7193,7 +7545,7 @@
         <v>0</v>
       </c>
       <c r="S105" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB105" s="0" t="n">
         <v>0</v>
@@ -7208,33 +7560,36 @@
         <v>0</v>
       </c>
       <c r="AQ105" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR105" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H106" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M106" s="0" t="n">
         <v>0</v>
@@ -7249,7 +7604,7 @@
         <v>0</v>
       </c>
       <c r="S106" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB106" s="0" t="n">
         <v>0</v>
@@ -7264,33 +7619,36 @@
         <v>0</v>
       </c>
       <c r="AQ106" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR106" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H107" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M107" s="0" t="n">
         <v>0</v>
@@ -7305,7 +7663,7 @@
         <v>0</v>
       </c>
       <c r="S107" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB107" s="0" t="n">
         <v>0</v>
@@ -7320,33 +7678,36 @@
         <v>0</v>
       </c>
       <c r="AQ107" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR107" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C108" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E108" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="D108" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E108" s="0" t="s">
-        <v>269</v>
-      </c>
       <c r="G108" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H108" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M108" s="0" t="n">
         <v>0</v>
@@ -7361,7 +7722,7 @@
         <v>0</v>
       </c>
       <c r="S108" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB108" s="0" t="n">
         <v>0</v>
@@ -7376,34 +7737,37 @@
         <v>0</v>
       </c>
       <c r="AQ108" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR108" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="G109" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="H109" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="B109" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="C109" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="D109" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E109" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="G109" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="H109" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" s="0" t="s">
-        <v>289</v>
-      </c>
       <c r="M109" s="0" t="n">
         <v>0</v>
       </c>
@@ -7417,7 +7781,7 @@
         <v>0</v>
       </c>
       <c r="S109" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB109" s="0" t="n">
         <v>0</v>
@@ -7432,34 +7796,37 @@
         <v>0</v>
       </c>
       <c r="AQ109" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR109" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="G110" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="H110" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="B110" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="C110" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="D110" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E110" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="G110" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="H110" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" s="0" t="s">
-        <v>289</v>
-      </c>
       <c r="M110" s="0" t="n">
         <v>0</v>
       </c>
@@ -7473,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="S110" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB110" s="0" t="n">
         <v>0</v>
@@ -7488,33 +7855,36 @@
         <v>0</v>
       </c>
       <c r="AQ110" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR110" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H111" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M111" s="0" t="n">
         <v>0</v>
@@ -7529,7 +7899,7 @@
         <v>0</v>
       </c>
       <c r="S111" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB111" s="0" t="n">
         <v>0</v>
@@ -7544,33 +7914,36 @@
         <v>0</v>
       </c>
       <c r="AQ111" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR111" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H112" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M112" s="0" t="n">
         <v>0</v>
@@ -7585,7 +7958,7 @@
         <v>0</v>
       </c>
       <c r="S112" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB112" s="0" t="n">
         <v>0</v>
@@ -7600,33 +7973,36 @@
         <v>0</v>
       </c>
       <c r="AQ112" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR112" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H113" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M113" s="0" t="n">
         <v>0</v>
@@ -7641,7 +8017,7 @@
         <v>0</v>
       </c>
       <c r="S113" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB113" s="0" t="n">
         <v>0</v>
@@ -7656,33 +8032,36 @@
         <v>0</v>
       </c>
       <c r="AQ113" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR113" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H114" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M114" s="0" t="n">
         <v>0</v>
@@ -7697,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="S114" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB114" s="0" t="n">
         <v>0</v>
@@ -7712,33 +8091,36 @@
         <v>0</v>
       </c>
       <c r="AQ114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR114" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H115" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M115" s="0" t="n">
         <v>0</v>
@@ -7753,7 +8135,7 @@
         <v>0</v>
       </c>
       <c r="S115" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB115" s="0" t="n">
         <v>0</v>
@@ -7768,33 +8150,36 @@
         <v>0</v>
       </c>
       <c r="AQ115" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR115" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H116" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M116" s="0" t="n">
         <v>0</v>
@@ -7809,7 +8194,7 @@
         <v>0</v>
       </c>
       <c r="S116" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB116" s="0" t="n">
         <v>0</v>
@@ -7824,33 +8209,36 @@
         <v>0</v>
       </c>
       <c r="AQ116" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR116" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H117" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M117" s="0" t="n">
         <v>0</v>
@@ -7865,7 +8253,7 @@
         <v>0</v>
       </c>
       <c r="S117" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB117" s="0" t="n">
         <v>0</v>
@@ -7880,34 +8268,37 @@
         <v>0</v>
       </c>
       <c r="AQ117" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR117" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C118" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="G118" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="H118" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="D118" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E118" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="G118" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="H118" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" s="0" t="s">
-        <v>298</v>
-      </c>
       <c r="M118" s="0" t="n">
         <v>0</v>
       </c>
@@ -7921,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="S118" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB118" s="0" t="n">
         <v>0</v>
@@ -7936,33 +8327,36 @@
         <v>0</v>
       </c>
       <c r="AQ118" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR118" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H119" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M119" s="0" t="n">
         <v>0</v>
@@ -7977,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="S119" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB119" s="0" t="n">
         <v>0</v>
@@ -7992,33 +8386,36 @@
         <v>0</v>
       </c>
       <c r="AQ119" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR119" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H120" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M120" s="0" t="n">
         <v>0</v>
@@ -8033,7 +8430,7 @@
         <v>0</v>
       </c>
       <c r="S120" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB120" s="0" t="n">
         <v>0</v>
@@ -8048,33 +8445,36 @@
         <v>0</v>
       </c>
       <c r="AQ120" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR120" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H121" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M121" s="0" t="n">
         <v>0</v>
@@ -8089,7 +8489,7 @@
         <v>0</v>
       </c>
       <c r="S121" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB121" s="0" t="n">
         <v>0</v>
@@ -8104,33 +8504,36 @@
         <v>0</v>
       </c>
       <c r="AQ121" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR121" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H122" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I122" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M122" s="0" t="n">
         <v>0</v>
@@ -8145,7 +8548,7 @@
         <v>0</v>
       </c>
       <c r="S122" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB122" s="0" t="n">
         <v>0</v>
@@ -8160,33 +8563,36 @@
         <v>0</v>
       </c>
       <c r="AQ122" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR122" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H123" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I123" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M123" s="0" t="n">
         <v>0</v>
@@ -8201,7 +8607,7 @@
         <v>0</v>
       </c>
       <c r="S123" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB123" s="0" t="n">
         <v>0</v>
@@ -8216,33 +8622,36 @@
         <v>0</v>
       </c>
       <c r="AQ123" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR123" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H124" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I124" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M124" s="0" t="n">
         <v>0</v>
@@ -8257,7 +8666,7 @@
         <v>0</v>
       </c>
       <c r="S124" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB124" s="0" t="n">
         <v>0</v>
@@ -8272,33 +8681,36 @@
         <v>0</v>
       </c>
       <c r="AQ124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR124" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H125" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I125" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M125" s="0" t="n">
         <v>0</v>
@@ -8313,7 +8725,7 @@
         <v>0</v>
       </c>
       <c r="S125" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB125" s="0" t="n">
         <v>0</v>
@@ -8328,33 +8740,36 @@
         <v>0</v>
       </c>
       <c r="AQ125" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR125" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H126" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M126" s="0" t="n">
         <v>0</v>
@@ -8369,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="S126" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB126" s="0" t="n">
         <v>0</v>
@@ -8384,33 +8799,36 @@
         <v>0</v>
       </c>
       <c r="AQ126" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR126" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H127" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I127" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M127" s="0" t="n">
         <v>0</v>
@@ -8425,7 +8843,7 @@
         <v>0</v>
       </c>
       <c r="S127" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB127" s="0" t="n">
         <v>0</v>
@@ -8440,34 +8858,37 @@
         <v>0</v>
       </c>
       <c r="AQ127" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR127" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C128" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E128" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="G128" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="H128" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" s="0" t="s">
         <v>321</v>
       </c>
-      <c r="D128" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E128" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="G128" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="H128" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" s="0" t="s">
-        <v>320</v>
-      </c>
       <c r="M128" s="0" t="n">
         <v>0</v>
       </c>
@@ -8481,7 +8902,7 @@
         <v>0</v>
       </c>
       <c r="S128" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB128" s="0" t="n">
         <v>0</v>
@@ -8496,33 +8917,36 @@
         <v>0</v>
       </c>
       <c r="AQ128" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR128" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H129" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I129" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M129" s="0" t="n">
         <v>0</v>
@@ -8537,7 +8961,7 @@
         <v>0</v>
       </c>
       <c r="S129" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB129" s="0" t="n">
         <v>0</v>
@@ -8552,33 +8976,36 @@
         <v>0</v>
       </c>
       <c r="AQ129" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR129" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G130" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H130" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I130" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M130" s="0" t="n">
         <v>0</v>
@@ -8593,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="S130" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB130" s="0" t="n">
         <v>0</v>
@@ -8608,33 +9035,36 @@
         <v>0</v>
       </c>
       <c r="AQ130" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR130" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H131" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I131" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M131" s="0" t="n">
         <v>0</v>
@@ -8649,7 +9079,7 @@
         <v>0</v>
       </c>
       <c r="S131" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB131" s="0" t="n">
         <v>0</v>
@@ -8664,33 +9094,36 @@
         <v>0</v>
       </c>
       <c r="AQ131" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR131" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G132" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H132" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I132" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M132" s="0" t="n">
         <v>0</v>
@@ -8705,7 +9138,7 @@
         <v>0</v>
       </c>
       <c r="S132" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB132" s="0" t="n">
         <v>0</v>
@@ -8720,33 +9153,36 @@
         <v>0</v>
       </c>
       <c r="AQ132" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR132" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H133" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I133" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M133" s="0" t="n">
         <v>0</v>
@@ -8761,7 +9197,7 @@
         <v>0</v>
       </c>
       <c r="S133" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB133" s="0" t="n">
         <v>0</v>
@@ -8776,33 +9212,36 @@
         <v>0</v>
       </c>
       <c r="AQ133" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR133" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G134" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H134" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I134" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M134" s="0" t="n">
         <v>0</v>
@@ -8817,7 +9256,7 @@
         <v>0</v>
       </c>
       <c r="S134" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB134" s="0" t="n">
         <v>0</v>
@@ -8832,33 +9271,36 @@
         <v>0</v>
       </c>
       <c r="AQ134" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR134" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H135" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I135" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M135" s="0" t="n">
         <v>0</v>
@@ -8873,7 +9315,7 @@
         <v>0</v>
       </c>
       <c r="S135" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB135" s="0" t="n">
         <v>0</v>
@@ -8888,33 +9330,36 @@
         <v>0</v>
       </c>
       <c r="AQ135" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR135" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G136" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H136" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I136" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M136" s="0" t="n">
         <v>0</v>
@@ -8929,7 +9374,7 @@
         <v>0</v>
       </c>
       <c r="S136" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB136" s="0" t="n">
         <v>0</v>
@@ -8944,33 +9389,36 @@
         <v>0</v>
       </c>
       <c r="AQ136" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR136" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H137" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M137" s="0" t="n">
         <v>0</v>
@@ -8985,7 +9433,7 @@
         <v>0</v>
       </c>
       <c r="S137" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB137" s="0" t="n">
         <v>0</v>
@@ -9000,33 +9448,36 @@
         <v>0</v>
       </c>
       <c r="AQ137" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR137" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G138" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H138" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I138" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M138" s="0" t="n">
         <v>0</v>
@@ -9041,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="S138" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB138" s="0" t="n">
         <v>0</v>
@@ -9056,33 +9507,36 @@
         <v>0</v>
       </c>
       <c r="AQ138" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR138" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H139" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I139" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M139" s="0" t="n">
         <v>0</v>
@@ -9097,7 +9551,7 @@
         <v>0</v>
       </c>
       <c r="S139" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB139" s="0" t="n">
         <v>0</v>
@@ -9112,33 +9566,36 @@
         <v>0</v>
       </c>
       <c r="AQ139" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR139" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B140" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="D140" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E140" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="C140" s="0" t="s">
-        <v>347</v>
-      </c>
-      <c r="D140" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E140" s="0" t="s">
-        <v>345</v>
-      </c>
       <c r="G140" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H140" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I140" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M140" s="0" t="n">
         <v>0</v>
@@ -9153,7 +9610,7 @@
         <v>0</v>
       </c>
       <c r="S140" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB140" s="0" t="n">
         <v>0</v>
@@ -9168,33 +9625,36 @@
         <v>0</v>
       </c>
       <c r="AQ140" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR140" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H141" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I141" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M141" s="0" t="n">
         <v>0</v>
@@ -9209,7 +9669,7 @@
         <v>0</v>
       </c>
       <c r="S141" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AB141" s="0" t="n">
         <v>0</v>
@@ -9224,33 +9684,36 @@
         <v>0</v>
       </c>
       <c r="AQ141" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR141" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G142" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H142" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I142" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M142" s="0" t="n">
         <v>0</v>
@@ -9265,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="S142" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AB142" s="0" t="n">
         <v>0</v>
@@ -9280,33 +9743,36 @@
         <v>0</v>
       </c>
       <c r="AQ142" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR142" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H143" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I143" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M143" s="0" t="n">
         <v>0</v>
@@ -9321,7 +9787,7 @@
         <v>0</v>
       </c>
       <c r="S143" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AB143" s="0" t="n">
         <v>0</v>
@@ -9336,33 +9802,36 @@
         <v>0</v>
       </c>
       <c r="AQ143" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR143" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G144" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H144" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I144" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M144" s="0" t="n">
         <v>0</v>
@@ -9377,7 +9846,7 @@
         <v>0</v>
       </c>
       <c r="S144" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AB144" s="0" t="n">
         <v>0</v>
@@ -9392,36 +9861,42 @@
         <v>0</v>
       </c>
       <c r="AQ144" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR144" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>269</v>
+        <v>364</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="H145" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I145" s="0" t="s">
-        <v>363</v>
+        <v>366</v>
+      </c>
+      <c r="J145" s="0" t="n">
+        <v>16</v>
       </c>
       <c r="M145" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N145" s="0" t="n">
         <v>0</v>
@@ -9432,52 +9907,82 @@
       <c r="P145" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q145" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="R145" s="0" t="s">
+        <v>368</v>
+      </c>
       <c r="S145" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="V145" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W145" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X145" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y145" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA145" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="AB145" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AL145" s="0" t="n">
-        <v>0</v>
+      <c r="AC145" s="0" t="n">
+        <v>6</v>
       </c>
       <c r="AO145" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AP145" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ145" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="AR145" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS145" s="0" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C146" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D146" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E146" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="D146" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E146" s="0" t="s">
-        <v>269</v>
-      </c>
       <c r="G146" s="0" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="H146" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I146" s="0" t="s">
-        <v>363</v>
+        <v>366</v>
+      </c>
+      <c r="J146" s="0" t="n">
+        <v>16</v>
       </c>
       <c r="M146" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N146" s="0" t="n">
         <v>0</v>
@@ -9488,49 +9993,76 @@
       <c r="P146" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="Q146" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="R146" s="0" t="s">
+        <v>371</v>
+      </c>
       <c r="S146" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="V146" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="W146" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X146" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y146" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA146" s="0" t="n">
+        <v>6</v>
       </c>
       <c r="AB146" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AL146" s="0" t="n">
-        <v>0</v>
+      <c r="AC146" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="AO146" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AP146" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ146" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="AR146" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS146" s="0" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="H147" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I147" s="0" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="M147" s="0" t="n">
         <v>0</v>
@@ -9545,7 +10077,7 @@
         <v>0</v>
       </c>
       <c r="S147" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB147" s="0" t="n">
         <v>0</v>
@@ -9560,33 +10092,36 @@
         <v>0</v>
       </c>
       <c r="AQ147" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR147" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G148" s="0" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="H148" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I148" s="0" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="M148" s="0" t="n">
         <v>0</v>
@@ -9601,7 +10136,7 @@
         <v>0</v>
       </c>
       <c r="S148" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB148" s="0" t="n">
         <v>0</v>
@@ -9616,33 +10151,36 @@
         <v>0</v>
       </c>
       <c r="AQ148" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR148" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="H149" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I149" s="0" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="M149" s="0" t="n">
         <v>0</v>
@@ -9657,7 +10195,7 @@
         <v>0</v>
       </c>
       <c r="S149" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB149" s="0" t="n">
         <v>0</v>
@@ -9672,33 +10210,36 @@
         <v>0</v>
       </c>
       <c r="AQ149" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR149" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G150" s="0" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="H150" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I150" s="0" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="M150" s="0" t="n">
         <v>0</v>
@@ -9713,7 +10254,7 @@
         <v>0</v>
       </c>
       <c r="S150" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB150" s="0" t="n">
         <v>0</v>
@@ -9728,33 +10269,36 @@
         <v>0</v>
       </c>
       <c r="AQ150" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR150" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G151" s="0" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="H151" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I151" s="0" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="M151" s="0" t="n">
         <v>0</v>
@@ -9769,7 +10313,7 @@
         <v>0</v>
       </c>
       <c r="S151" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB151" s="0" t="n">
         <v>0</v>
@@ -9784,33 +10328,36 @@
         <v>0</v>
       </c>
       <c r="AQ151" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR151" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G152" s="0" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="H152" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I152" s="0" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="M152" s="0" t="n">
         <v>0</v>
@@ -9825,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="S152" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB152" s="0" t="n">
         <v>0</v>
@@ -9840,33 +10387,36 @@
         <v>0</v>
       </c>
       <c r="AQ152" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR152" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G153" s="0" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="H153" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I153" s="0" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="M153" s="0" t="n">
         <v>0</v>
@@ -9881,7 +10431,7 @@
         <v>0</v>
       </c>
       <c r="S153" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB153" s="0" t="n">
         <v>0</v>
@@ -9896,33 +10446,36 @@
         <v>0</v>
       </c>
       <c r="AQ153" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR153" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G154" s="0" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="H154" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I154" s="0" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="M154" s="0" t="n">
         <v>0</v>
@@ -9937,29 +10490,144 @@
         <v>0</v>
       </c>
       <c r="S154" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB154" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL154" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO154" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP154" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ154" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR154" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="C155" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="D155" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E155" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="G155" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="H155" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="M155" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P155" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S155" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="AB154" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL154" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO154" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP154" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ154" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="1"/>
+      <c r="AB155" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL155" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO155" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP155" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ155" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR155" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="1"/>
+      <c r="A156" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="C156" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="D156" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E156" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="G156" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="H156" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="M156" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N156" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O156" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P156" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S156" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB156" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL156" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO156" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP156" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ156" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR156" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1"/>
@@ -10135,11 +10803,11 @@
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1"/>
     </row>
-    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="1"/>
-    </row>
-    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="1"/>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="1"/>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="1"/>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1"/>
@@ -12370,11 +13038,11 @@
     <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="1"/>
     </row>
-    <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A968" s="1"/>
-    </row>
-    <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A969" s="1"/>
+    <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A962" s="1"/>
+    </row>
+    <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A963" s="1"/>
     </row>
     <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="1"/>
@@ -12466,11 +13134,11 @@
     <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="1"/>
     </row>
-    <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1010" s="1"/>
-    </row>
-    <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1011" s="1"/>
+    <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1000" s="1"/>
+    </row>
+    <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1001" s="1"/>
     </row>
     <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1012" s="1"/>
@@ -12502,11 +13170,11 @@
     <row r="1021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1021" s="1"/>
     </row>
-    <row r="1024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1024" s="1"/>
-    </row>
-    <row r="1025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1025" s="1"/>
+    <row r="1022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1022" s="1"/>
+    </row>
+    <row r="1023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1023" s="1"/>
     </row>
     <row r="1026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1026" s="1"/>
@@ -12535,11 +13203,11 @@
     <row r="1034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1034" s="1"/>
     </row>
-    <row r="1039" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1039" s="1"/>
-    </row>
-    <row r="1040" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1040" s="1"/>
+    <row r="1035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1035" s="1"/>
+    </row>
+    <row r="1036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1036" s="1"/>
     </row>
     <row r="1041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1041" s="1"/>
@@ -12792,6 +13460,12 @@
     </row>
     <row r="1124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1124" s="1"/>
+    </row>
+    <row r="1125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1125" s="1"/>
+    </row>
+    <row r="1126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1126" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/run/predefined.xlsx
+++ b/run/predefined.xlsx
@@ -1320,10 +1320,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A145" activeCellId="0" sqref="A145"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.19"/>
@@ -1368,7 +1368,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="7.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="4.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="10.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="245.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="245.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/run/predefined.xlsx
+++ b/run/predefined.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="420">
   <si>
     <t xml:space="preserve">databaseId</t>
   </si>
@@ -1103,6 +1103,72 @@
   </si>
   <si>
     <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m04001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leo Anderson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/04001a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Forgotten Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tfa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/04001b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m04002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ursula Downs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/04002a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/04002b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m04003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finn Edwards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/04003a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/04003b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m04004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Father Mateo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/04004a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/04004b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m04005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calvin Wright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/04005a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/04005b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">10016</t>
@@ -1315,15 +1381,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AS1126"/>
+  <dimension ref="A1:AS1136"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.19"/>
@@ -1368,7 +1434,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="7.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="4.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="10.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="245.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="245.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9881,22 +9947,20 @@
         <v>57</v>
       </c>
       <c r="E145" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="G145" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="G145" s="0" t="s">
+      <c r="H145" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="H145" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" s="0" t="s">
-        <v>366</v>
-      </c>
-      <c r="J145" s="0" t="n">
-        <v>16</v>
-      </c>
+      <c r="J145" s="1"/>
       <c r="M145" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N145" s="0" t="n">
         <v>0</v>
@@ -9906,51 +9970,27 @@
       </c>
       <c r="P145" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="Q145" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="R145" s="0" t="s">
-        <v>368</v>
       </c>
       <c r="S145" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="V145" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="W145" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="X145" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y145" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA145" s="0" t="n">
-        <v>4</v>
-      </c>
       <c r="AB145" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AC145" s="0" t="n">
-        <v>6</v>
+      <c r="AL145" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="AO145" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AP145" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ145" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AR145" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="AS145" s="0" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9961,28 +10001,26 @@
         <v>362</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D146" s="0" t="s">
         <v>57</v>
       </c>
       <c r="E146" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="G146" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="G146" s="0" t="s">
+      <c r="H146" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="H146" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" s="0" t="s">
-        <v>366</v>
-      </c>
-      <c r="J146" s="0" t="n">
-        <v>16</v>
-      </c>
+      <c r="J146" s="1"/>
       <c r="M146" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N146" s="0" t="n">
         <v>0</v>
@@ -9992,62 +10030,38 @@
       </c>
       <c r="P146" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="Q146" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="R146" s="0" t="s">
-        <v>371</v>
       </c>
       <c r="S146" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="V146" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="W146" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X146" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y146" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA146" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="AB146" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AC146" s="0" t="n">
-        <v>4</v>
+      <c r="AL146" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="AO146" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AP146" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ146" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AR146" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="AS146" s="0" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D147" s="0" t="s">
         <v>57</v>
@@ -10056,14 +10070,15 @@
         <v>270</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="H147" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I147" s="0" t="s">
-        <v>376</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="J147" s="1"/>
       <c r="M147" s="0" t="n">
         <v>0</v>
       </c>
@@ -10100,13 +10115,13 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D148" s="0" t="s">
         <v>57</v>
@@ -10115,14 +10130,15 @@
         <v>270</v>
       </c>
       <c r="G148" s="0" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="H148" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I148" s="0" t="s">
-        <v>376</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="J148" s="1"/>
       <c r="M148" s="0" t="n">
         <v>0</v>
       </c>
@@ -10159,13 +10175,13 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="D149" s="0" t="s">
         <v>57</v>
@@ -10174,14 +10190,15 @@
         <v>270</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="H149" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I149" s="0" t="s">
-        <v>381</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="J149" s="1"/>
       <c r="M149" s="0" t="n">
         <v>0</v>
       </c>
@@ -10218,13 +10235,13 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="D150" s="0" t="s">
         <v>57</v>
@@ -10233,14 +10250,15 @@
         <v>270</v>
       </c>
       <c r="G150" s="0" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="H150" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I150" s="0" t="s">
-        <v>381</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="J150" s="1"/>
       <c r="M150" s="0" t="n">
         <v>0</v>
       </c>
@@ -10277,13 +10295,13 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="D151" s="0" t="s">
         <v>57</v>
@@ -10292,14 +10310,15 @@
         <v>270</v>
       </c>
       <c r="G151" s="0" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="H151" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I151" s="0" t="s">
-        <v>386</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="J151" s="1"/>
       <c r="M151" s="0" t="n">
         <v>0</v>
       </c>
@@ -10336,13 +10355,13 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="D152" s="0" t="s">
         <v>57</v>
@@ -10351,14 +10370,15 @@
         <v>270</v>
       </c>
       <c r="G152" s="0" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="H152" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I152" s="0" t="s">
-        <v>386</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="J152" s="1"/>
       <c r="M152" s="0" t="n">
         <v>0</v>
       </c>
@@ -10395,13 +10415,13 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="D153" s="0" t="s">
         <v>57</v>
@@ -10410,14 +10430,15 @@
         <v>270</v>
       </c>
       <c r="G153" s="0" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="H153" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I153" s="0" t="s">
-        <v>391</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="J153" s="1"/>
       <c r="M153" s="0" t="n">
         <v>0</v>
       </c>
@@ -10454,13 +10475,13 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="D154" s="0" t="s">
         <v>57</v>
@@ -10469,14 +10490,15 @@
         <v>270</v>
       </c>
       <c r="G154" s="0" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="H154" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I154" s="0" t="s">
-        <v>391</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="J154" s="1"/>
       <c r="M154" s="0" t="n">
         <v>0</v>
       </c>
@@ -10513,31 +10535,34 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="D155" s="0" t="s">
         <v>57</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>270</v>
+        <v>386</v>
       </c>
       <c r="G155" s="0" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="H155" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I155" s="0" t="s">
-        <v>396</v>
+        <v>388</v>
+      </c>
+      <c r="J155" s="0" t="n">
+        <v>16</v>
       </c>
       <c r="M155" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N155" s="0" t="n">
         <v>0</v>
@@ -10547,56 +10572,83 @@
       </c>
       <c r="P155" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="Q155" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="R155" s="0" t="s">
+        <v>390</v>
       </c>
       <c r="S155" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="V155" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W155" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X155" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y155" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA155" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="AB155" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AL155" s="0" t="n">
-        <v>0</v>
+      <c r="AC155" s="0" t="n">
+        <v>6</v>
       </c>
       <c r="AO155" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AP155" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ155" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AR155" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="AS155" s="0" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D156" s="0" t="s">
         <v>57</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>270</v>
+        <v>386</v>
       </c>
       <c r="G156" s="0" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="H156" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I156" s="0" t="s">
-        <v>396</v>
+        <v>388</v>
+      </c>
+      <c r="J156" s="0" t="n">
+        <v>16</v>
       </c>
       <c r="M156" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N156" s="0" t="n">
         <v>0</v>
@@ -10606,21 +10658,42 @@
       </c>
       <c r="P156" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="Q156" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="R156" s="0" t="s">
+        <v>393</v>
       </c>
       <c r="S156" s="0" t="s">
         <v>60</v>
       </c>
+      <c r="V156" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="W156" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X156" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y156" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA156" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="AB156" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AL156" s="0" t="n">
-        <v>0</v>
+      <c r="AC156" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="AO156" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AP156" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ156" s="0" t="n">
         <v>0</v>
@@ -10628,36 +10701,599 @@
       <c r="AR156" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="AS156" s="0" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="1"/>
+      <c r="A157" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C157" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="D157" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E157" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="G157" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="H157" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="M157" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N157" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O157" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P157" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S157" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB157" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL157" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO157" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP157" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ157" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR157" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="1"/>
+      <c r="A158" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C158" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="D158" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E158" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="G158" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="H158" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="M158" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N158" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O158" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P158" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S158" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB158" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL158" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO158" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP158" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ158" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR158" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="1"/>
+      <c r="A159" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="C159" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="D159" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E159" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="G159" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="H159" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="M159" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N159" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O159" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P159" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S159" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB159" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL159" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO159" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP159" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ159" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR159" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="1"/>
+      <c r="A160" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="C160" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="D160" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E160" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="G160" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="H160" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="M160" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N160" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O160" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P160" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S160" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB160" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL160" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO160" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP160" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ160" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR160" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="1"/>
+      <c r="A161" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="C161" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="D161" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E161" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="G161" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="H161" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="M161" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N161" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P161" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S161" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB161" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL161" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO161" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP161" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ161" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR161" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="1"/>
+      <c r="A162" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="C162" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="D162" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E162" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="G162" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="H162" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="M162" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N162" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O162" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P162" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S162" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB162" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL162" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO162" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP162" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ162" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR162" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="1"/>
+      <c r="A163" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="C163" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="D163" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E163" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="G163" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="H163" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="M163" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N163" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O163" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P163" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S163" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB163" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL163" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO163" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP163" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ163" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR163" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="1"/>
+      <c r="A164" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="C164" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="D164" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E164" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="G164" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="H164" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="M164" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N164" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O164" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P164" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S164" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB164" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL164" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO164" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP164" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ164" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR164" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="1"/>
+      <c r="A165" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="C165" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="D165" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E165" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="G165" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="H165" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="M165" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N165" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O165" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P165" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S165" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB165" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL165" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO165" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP165" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ165" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR165" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="1"/>
+      <c r="A166" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="C166" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="D166" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E166" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="G166" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="H166" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="M166" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N166" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O166" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P166" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S166" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB166" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL166" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO166" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP166" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ166" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR166" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1"/>
@@ -10809,6 +11445,12 @@
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1"/>
     </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="1"/>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="1"/>
+    </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1"/>
     </row>
@@ -10833,12 +11475,6 @@
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1"/>
     </row>
-    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="1"/>
-    </row>
-    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="1"/>
-    </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1"/>
     </row>
@@ -13044,6 +13680,24 @@
     <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="1"/>
     </row>
+    <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A964" s="1"/>
+    </row>
+    <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A965" s="1"/>
+    </row>
+    <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A966" s="1"/>
+    </row>
+    <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A967" s="1"/>
+    </row>
+    <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A968" s="1"/>
+    </row>
+    <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A969" s="1"/>
+    </row>
     <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="1"/>
     </row>
@@ -13056,24 +13710,6 @@
     <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="1"/>
     </row>
-    <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A974" s="1"/>
-    </row>
-    <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A975" s="1"/>
-    </row>
-    <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A976" s="1"/>
-    </row>
-    <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A977" s="1"/>
-    </row>
-    <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A978" s="1"/>
-    </row>
-    <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A979" s="1"/>
-    </row>
     <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="1"/>
     </row>
@@ -13140,35 +13776,35 @@
     <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1001" s="1"/>
     </row>
-    <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1012" s="1"/>
-    </row>
-    <row r="1013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1013" s="1"/>
-    </row>
-    <row r="1014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1014" s="1"/>
-    </row>
-    <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1015" s="1"/>
-    </row>
-    <row r="1016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1016" s="1"/>
-    </row>
-    <row r="1017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1017" s="1"/>
-    </row>
-    <row r="1018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1018" s="1"/>
-    </row>
-    <row r="1019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1019" s="1"/>
-    </row>
-    <row r="1020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1020" s="1"/>
-    </row>
-    <row r="1021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1021" s="1"/>
+    <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1002" s="1"/>
+    </row>
+    <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1003" s="1"/>
+    </row>
+    <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1004" s="1"/>
+    </row>
+    <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1005" s="1"/>
+    </row>
+    <row r="1006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1006" s="1"/>
+    </row>
+    <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1007" s="1"/>
+    </row>
+    <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1008" s="1"/>
+    </row>
+    <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1009" s="1"/>
+    </row>
+    <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1010" s="1"/>
+    </row>
+    <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1011" s="1"/>
     </row>
     <row r="1022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1022" s="1"/>
@@ -13176,6 +13812,12 @@
     <row r="1023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1023" s="1"/>
     </row>
+    <row r="1024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1024" s="1"/>
+    </row>
+    <row r="1025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1025" s="1"/>
+    </row>
     <row r="1026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1026" s="1"/>
     </row>
@@ -13200,15 +13842,21 @@
     <row r="1033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1033" s="1"/>
     </row>
-    <row r="1034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1034" s="1"/>
-    </row>
-    <row r="1035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1035" s="1"/>
-    </row>
     <row r="1036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1036" s="1"/>
     </row>
+    <row r="1037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1037" s="1"/>
+    </row>
+    <row r="1038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1038" s="1"/>
+    </row>
+    <row r="1039" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1039" s="1"/>
+    </row>
+    <row r="1040" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1040" s="1"/>
+    </row>
     <row r="1041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1041" s="1"/>
     </row>
@@ -13227,18 +13875,6 @@
     <row r="1046" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1046" s="1"/>
     </row>
-    <row r="1047" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1047" s="1"/>
-    </row>
-    <row r="1048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1048" s="1"/>
-    </row>
-    <row r="1049" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1049" s="1"/>
-    </row>
-    <row r="1050" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1050" s="1"/>
-    </row>
     <row r="1051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1051" s="1"/>
     </row>
@@ -13466,6 +14102,36 @@
     </row>
     <row r="1126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1126" s="1"/>
+    </row>
+    <row r="1127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1127" s="1"/>
+    </row>
+    <row r="1128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1128" s="1"/>
+    </row>
+    <row r="1129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1129" s="1"/>
+    </row>
+    <row r="1130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1130" s="1"/>
+    </row>
+    <row r="1131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1131" s="1"/>
+    </row>
+    <row r="1132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1132" s="1"/>
+    </row>
+    <row r="1133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1133" s="1"/>
+    </row>
+    <row r="1134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1134" s="1"/>
+    </row>
+    <row r="1135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1135" s="1"/>
+    </row>
+    <row r="1136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1136" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/run/predefined.xlsx
+++ b/run/predefined.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="475">
   <si>
     <t xml:space="preserve">databaseId</t>
   </si>
@@ -394,6 +394,174 @@
     <t xml:space="preserve">FirstInvestigatorToken</t>
   </si>
   <si>
+    <t xml:space="preserve">tfa_binoculars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binoculars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tfa_supplies/binoculars.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Forgotten Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tfa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tfa_blanket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blanket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tfa_supplies/blanket.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tfa_canteen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canteen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tfa_supplies/canteen.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tfa_chalk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chalk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tfa_supplies/chalk.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tfa_compass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tfa_supplies/compass.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tfa_gasoline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gasoline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tfa_supplies/gasoline.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tfa_map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tfa_supplies/map.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tfa_medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tfa_supplies/medicine.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tfa_pendant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pendant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tfa_supplies/pendant.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tfa_pickaxe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pickaxe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tfa_supplies/pickaxe.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tfa_pocketknife</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pocketknife</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tfa_supplies/pocketknife.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tfa_provisions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provisions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tfa_supplies/provisions.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tfa_rope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tfa_supplies/rope.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tfa_torches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tfa_supplies/torches.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tfa_key_of_eztli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key of Eztli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tfa_supplies/key_of_eztli.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return to the Forgotten Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rttfa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tfa_mysterious_scepter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mysterious Scepter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tfa_supplies/mysterious_scepter.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tfa_sticky_goop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sticky Goop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tfa_supplies/sticky_goop.webp</t>
+  </si>
+  <si>
     <t xml:space="preserve">key_red</t>
   </si>
   <si>
@@ -1115,12 +1283,6 @@
   </si>
   <si>
     <t xml:space="preserve">mini_investigators/04001a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Forgotten Age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tfa</t>
   </si>
   <si>
     <t xml:space="preserve">mini_investigators/04001b.webp</t>
@@ -1384,15 +1546,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AT1136"/>
+  <dimension ref="A1:AT1170"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A69" activeCellId="0" sqref="A69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.19"/>
@@ -4007,7 +4169,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B43" s="0" t="s">
@@ -4023,13 +4185,13 @@
         <v>127</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="M43" s="0" t="n">
         <v>0</v>
@@ -4066,14 +4228,14 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>58</v>
@@ -4082,13 +4244,13 @@
         <v>127</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="M44" s="0" t="n">
         <v>0</v>
@@ -4125,7 +4287,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B45" s="0" t="s">
@@ -4141,13 +4303,13 @@
         <v>127</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="M45" s="0" t="n">
         <v>0</v>
@@ -4184,14 +4346,14 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>58</v>
@@ -4200,13 +4362,13 @@
         <v>127</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="M46" s="0" t="n">
         <v>0</v>
@@ -4243,7 +4405,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B47" s="0" t="s">
@@ -4259,13 +4421,13 @@
         <v>127</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="M47" s="0" t="n">
         <v>0</v>
@@ -4302,14 +4464,14 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>58</v>
@@ -4318,13 +4480,13 @@
         <v>127</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="M48" s="0" t="n">
         <v>0</v>
@@ -4361,7 +4523,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B49" s="0" t="s">
@@ -4377,13 +4539,13 @@
         <v>127</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="M49" s="0" t="n">
         <v>0</v>
@@ -4420,14 +4582,14 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>58</v>
@@ -4436,13 +4598,13 @@
         <v>127</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="M50" s="0" t="n">
         <v>0</v>
@@ -4479,7 +4641,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B51" s="0" t="s">
@@ -4495,13 +4657,13 @@
         <v>127</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="M51" s="0" t="n">
         <v>0</v>
@@ -4538,14 +4700,14 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>58</v>
@@ -4554,13 +4716,13 @@
         <v>127</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="M52" s="0" t="n">
         <v>0</v>
@@ -4597,7 +4759,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B53" s="0" t="s">
@@ -4613,13 +4775,13 @@
         <v>127</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="M53" s="0" t="n">
         <v>0</v>
@@ -4656,14 +4818,14 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>58</v>
@@ -4672,13 +4834,13 @@
         <v>127</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="M54" s="0" t="n">
         <v>0</v>
@@ -4731,13 +4893,13 @@
         <v>127</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="M55" s="0" t="n">
         <v>0</v>
@@ -4778,10 +4940,10 @@
         <v>145</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>58</v>
@@ -4790,13 +4952,13 @@
         <v>127</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="H56" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="M56" s="0" t="n">
         <v>0</v>
@@ -4846,16 +5008,16 @@
         <v>58</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="M57" s="0" t="n">
         <v>0</v>
@@ -4896,25 +5058,25 @@
         <v>148</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="H58" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="M58" s="0" t="n">
         <v>0</v>
@@ -4952,28 +5114,28 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="H59" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="M59" s="0" t="n">
         <v>0</v>
@@ -5011,28 +5173,28 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="H60" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="M60" s="0" t="n">
         <v>0</v>
@@ -5070,28 +5232,28 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="H61" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="M61" s="0" t="n">
         <v>0</v>
@@ -5129,28 +5291,28 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="H62" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="M62" s="0" t="n">
         <v>0</v>
@@ -5188,28 +5350,28 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="H63" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="M63" s="0" t="n">
         <v>0</v>
@@ -5247,28 +5409,28 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="H64" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="M64" s="0" t="n">
         <v>0</v>
@@ -5306,28 +5468,28 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="H65" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="M65" s="0" t="n">
         <v>0</v>
@@ -5365,28 +5527,28 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="H66" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="M66" s="0" t="n">
         <v>0</v>
@@ -5424,28 +5586,28 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="H67" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="M67" s="0" t="n">
         <v>0</v>
@@ -5483,28 +5645,28 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="H68" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="M68" s="0" t="n">
         <v>0</v>
@@ -5542,28 +5704,28 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>183</v>
+        <v>58</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>185</v>
+        <v>128</v>
       </c>
       <c r="H69" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="M69" s="0" t="n">
         <v>0</v>
@@ -5576,6 +5738,9 @@
       </c>
       <c r="P69" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="S69" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AB69" s="0" t="n">
         <v>0</v>
@@ -5598,28 +5763,28 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>183</v>
+        <v>58</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>185</v>
+        <v>128</v>
       </c>
       <c r="H70" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="M70" s="0" t="n">
         <v>0</v>
@@ -5632,6 +5797,9 @@
       </c>
       <c r="P70" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="S70" s="0" t="s">
+        <v>61</v>
       </c>
       <c r="AB70" s="0" t="n">
         <v>0</v>
@@ -5654,28 +5822,28 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>183</v>
+        <v>58</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="H71" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="M71" s="0" t="n">
         <v>0</v>
@@ -5688,6 +5856,9 @@
       </c>
       <c r="P71" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="S71" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AB71" s="0" t="n">
         <v>0</v>
@@ -5710,28 +5881,28 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>183</v>
+        <v>58</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="H72" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="M72" s="0" t="n">
         <v>0</v>
@@ -5744,6 +5915,9 @@
       </c>
       <c r="P72" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="S72" s="0" t="s">
+        <v>61</v>
       </c>
       <c r="AB72" s="0" t="n">
         <v>0</v>
@@ -5766,28 +5940,28 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>183</v>
+        <v>58</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="H73" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="M73" s="0" t="n">
         <v>0</v>
@@ -5800,6 +5974,9 @@
       </c>
       <c r="P73" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="S73" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AB73" s="0" t="n">
         <v>0</v>
@@ -5822,28 +5999,28 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>183</v>
+        <v>58</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="H74" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="M74" s="0" t="n">
         <v>0</v>
@@ -5856,6 +6033,9 @@
       </c>
       <c r="P74" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="S74" s="0" t="s">
+        <v>61</v>
       </c>
       <c r="AB74" s="0" t="n">
         <v>0</v>
@@ -5878,28 +6058,28 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>183</v>
+        <v>58</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="H75" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="M75" s="0" t="n">
         <v>0</v>
@@ -5912,6 +6092,9 @@
       </c>
       <c r="P75" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="S75" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AB75" s="0" t="n">
         <v>0</v>
@@ -5934,700 +6117,736 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="D76" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="G76" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="H76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="M76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S76" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS76" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E77" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="E76" s="0" t="s">
+      <c r="G77" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="H77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="M77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S77" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS77" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B78" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="G76" s="0" t="s">
+      <c r="C78" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="H76" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" s="0" t="s">
+      <c r="D78" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="G78" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="H78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="M78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S78" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS78" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="M76" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N76" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O76" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P76" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB76" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL76" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP76" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ76" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR76" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS76" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="D77" s="0" t="s">
+      <c r="B79" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E79" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="E77" s="0" t="s">
+      <c r="G79" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="H79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="M79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S79" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS79" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B80" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="G77" s="0" t="s">
+      <c r="C80" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="H77" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="M77" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N77" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O77" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P77" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB77" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL77" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP77" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ77" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR77" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS77" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B78" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="C78" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="D78" s="0" t="s">
+      <c r="D80" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E80" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="E78" s="0" t="s">
+      <c r="G80" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="H80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="M80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S80" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS80" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="G81" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="H81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="M81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S81" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS81" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B82" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="G78" s="0" t="s">
+      <c r="C82" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="H78" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="M78" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N78" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O78" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P78" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB78" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL78" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP78" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ78" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR78" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS78" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B79" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="D79" s="0" t="s">
+      <c r="D82" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E82" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="E79" s="0" t="s">
+      <c r="G82" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="H82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="M82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S82" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS82" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="G83" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="H83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="M83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S83" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS83" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B84" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="G79" s="0" t="s">
+      <c r="C84" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="H79" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="M79" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N79" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O79" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P79" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB79" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL79" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP79" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ79" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR79" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS79" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="D80" s="0" t="s">
+      <c r="D84" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E84" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="E80" s="0" t="s">
+      <c r="G84" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="H84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="M84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S84" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS84" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="G85" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="H85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="M85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S85" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS85" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B86" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="G80" s="0" t="s">
+      <c r="C86" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="H80" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="M80" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N80" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O80" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P80" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB80" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL80" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP80" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ80" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR80" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS80" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="D81" s="0" t="s">
+      <c r="D86" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E86" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="E81" s="0" t="s">
+      <c r="G86" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="H86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="M86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S86" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS86" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="G87" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="H87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="M87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S87" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS87" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B88" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="G81" s="0" t="s">
+      <c r="C88" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="H81" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="M81" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N81" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O81" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P81" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB81" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL81" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP81" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ81" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR81" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS81" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="C82" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="D82" s="0" t="s">
+      <c r="D88" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E88" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="E82" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="G82" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="H82" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="M82" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N82" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O82" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P82" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB82" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL82" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP82" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ82" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR82" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS82" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="C83" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="D83" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="E83" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="G83" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="H83" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="M83" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N83" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O83" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P83" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB83" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL83" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP83" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ83" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR83" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS83" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="C84" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="D84" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="E84" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="G84" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="H84" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="M84" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N84" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O84" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P84" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB84" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL84" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP84" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ84" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR84" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS84" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B85" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="C85" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="D85" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="E85" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="G85" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="H85" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="M85" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N85" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O85" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P85" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB85" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL85" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP85" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ85" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR85" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS85" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="C86" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="D86" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="E86" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="G86" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="H86" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="M86" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N86" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O86" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P86" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB86" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL86" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP86" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ86" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR86" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS86" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="C87" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="D87" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="E87" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="G87" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="H87" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="M87" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N87" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O87" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P87" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB87" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL87" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP87" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ87" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR87" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS87" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="C88" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="D88" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="E88" s="0" t="s">
-        <v>184</v>
-      </c>
       <c r="G88" s="0" t="s">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="H88" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>186</v>
+        <v>111</v>
       </c>
       <c r="M88" s="0" t="n">
         <v>0</v>
@@ -6640,6 +6859,9 @@
       </c>
       <c r="P88" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="S88" s="0" t="s">
+        <v>61</v>
       </c>
       <c r="AB88" s="0" t="n">
         <v>0</v>
@@ -6662,28 +6884,28 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="D89" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E89" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="E89" s="0" t="s">
-        <v>184</v>
-      </c>
       <c r="G89" s="0" t="s">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="H89" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>186</v>
+        <v>111</v>
       </c>
       <c r="M89" s="0" t="n">
         <v>0</v>
@@ -6696,6 +6918,9 @@
       </c>
       <c r="P89" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="S89" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AB89" s="0" t="n">
         <v>0</v>
@@ -6718,28 +6943,28 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>247</v>
+        <v>201</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>248</v>
+        <v>184</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>249</v>
+        <v>185</v>
       </c>
       <c r="D90" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E90" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="E90" s="0" t="s">
-        <v>184</v>
-      </c>
       <c r="G90" s="0" t="s">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="H90" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>186</v>
+        <v>111</v>
       </c>
       <c r="M90" s="0" t="n">
         <v>0</v>
@@ -6752,6 +6977,9 @@
       </c>
       <c r="P90" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="S90" s="0" t="s">
+        <v>61</v>
       </c>
       <c r="AB90" s="0" t="n">
         <v>0</v>
@@ -6774,28 +7002,28 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>250</v>
+        <v>204</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>251</v>
+        <v>205</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>252</v>
+        <v>206</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>183</v>
+        <v>58</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="H91" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>186</v>
+        <v>111</v>
       </c>
       <c r="M91" s="0" t="n">
         <v>0</v>
@@ -6808,6 +7036,9 @@
       </c>
       <c r="P91" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="S91" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AB91" s="0" t="n">
         <v>0</v>
@@ -6830,28 +7061,28 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>253</v>
+        <v>204</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>255</v>
+        <v>209</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>183</v>
+        <v>58</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="H92" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>186</v>
+        <v>111</v>
       </c>
       <c r="M92" s="0" t="n">
         <v>0</v>
@@ -6864,6 +7095,9 @@
       </c>
       <c r="P92" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="S92" s="0" t="s">
+        <v>61</v>
       </c>
       <c r="AB92" s="0" t="n">
         <v>0</v>
@@ -6886,28 +7120,28 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>258</v>
+        <v>212</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>183</v>
+        <v>58</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="H93" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>186</v>
+        <v>119</v>
       </c>
       <c r="M93" s="0" t="n">
         <v>0</v>
@@ -6920,6 +7154,9 @@
       </c>
       <c r="P93" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="S93" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AB93" s="0" t="n">
         <v>0</v>
@@ -6942,28 +7179,28 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>259</v>
+        <v>210</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>261</v>
+        <v>215</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>183</v>
+        <v>58</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="H94" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>186</v>
+        <v>119</v>
       </c>
       <c r="M94" s="0" t="n">
         <v>0</v>
@@ -6976,6 +7213,9 @@
       </c>
       <c r="P94" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="S94" s="0" t="s">
+        <v>61</v>
       </c>
       <c r="AB94" s="0" t="n">
         <v>0</v>
@@ -6998,28 +7238,28 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>183</v>
+        <v>58</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="H95" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>186</v>
+        <v>119</v>
       </c>
       <c r="M95" s="0" t="n">
         <v>0</v>
@@ -7032,6 +7272,9 @@
       </c>
       <c r="P95" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="S95" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="AB95" s="0" t="n">
         <v>0</v>
@@ -7054,28 +7297,28 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>266</v>
+        <v>219</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>267</v>
+        <v>220</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>183</v>
+        <v>58</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="H96" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>186</v>
+        <v>119</v>
       </c>
       <c r="M96" s="0" t="n">
         <v>0</v>
@@ -7088,6 +7331,9 @@
       </c>
       <c r="P96" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="S96" s="0" t="s">
+        <v>61</v>
       </c>
       <c r="AB96" s="0" t="n">
         <v>0</v>
@@ -7110,28 +7356,28 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>268</v>
+        <v>221</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>269</v>
+        <v>222</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>271</v>
+        <v>213</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="H97" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="M97" s="0" t="n">
         <v>0</v>
@@ -7169,28 +7415,28 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>268</v>
+        <v>221</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>269</v>
+        <v>224</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>272</v>
+        <v>225</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>271</v>
+        <v>213</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="H98" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="M98" s="0" t="n">
         <v>0</v>
@@ -7228,28 +7474,28 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>273</v>
+        <v>226</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>274</v>
+        <v>227</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>275</v>
+        <v>228</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>271</v>
+        <v>213</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="H99" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="M99" s="0" t="n">
         <v>0</v>
@@ -7287,28 +7533,28 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>273</v>
+        <v>226</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>274</v>
+        <v>229</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>271</v>
+        <v>213</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="H100" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="M100" s="0" t="n">
         <v>0</v>
@@ -7346,28 +7592,28 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>277</v>
+        <v>231</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>278</v>
+        <v>232</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>279</v>
+        <v>233</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>271</v>
+        <v>213</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="H101" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="M101" s="0" t="n">
         <v>0</v>
@@ -7405,28 +7651,28 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>277</v>
+        <v>231</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>278</v>
+        <v>234</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>280</v>
+        <v>235</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>271</v>
+        <v>213</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="H102" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="M102" s="0" t="n">
         <v>0</v>
@@ -7464,28 +7710,28 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>281</v>
+        <v>236</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>282</v>
+        <v>237</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>283</v>
+        <v>238</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>58</v>
+        <v>239</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>52</v>
+        <v>241</v>
       </c>
       <c r="H103" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>53</v>
+        <v>242</v>
       </c>
       <c r="M103" s="0" t="n">
         <v>0</v>
@@ -7498,9 +7744,6 @@
       </c>
       <c r="P103" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="S103" s="0" t="s">
-        <v>60</v>
       </c>
       <c r="AB103" s="0" t="n">
         <v>0</v>
@@ -7523,28 +7766,28 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>58</v>
+        <v>239</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>52</v>
+        <v>241</v>
       </c>
       <c r="H104" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>53</v>
+        <v>242</v>
       </c>
       <c r="M104" s="0" t="n">
         <v>0</v>
@@ -7557,9 +7800,6 @@
       </c>
       <c r="P104" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="S104" s="0" t="s">
-        <v>61</v>
       </c>
       <c r="AB104" s="0" t="n">
         <v>0</v>
@@ -7582,28 +7822,28 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>58</v>
+        <v>239</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>52</v>
+        <v>241</v>
       </c>
       <c r="H105" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>53</v>
+        <v>242</v>
       </c>
       <c r="M105" s="0" t="n">
         <v>0</v>
@@ -7616,9 +7856,6 @@
       </c>
       <c r="P105" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="S105" s="0" t="s">
-        <v>60</v>
       </c>
       <c r="AB105" s="0" t="n">
         <v>0</v>
@@ -7641,28 +7878,28 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>58</v>
+        <v>239</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>52</v>
+        <v>241</v>
       </c>
       <c r="H106" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>53</v>
+        <v>242</v>
       </c>
       <c r="M106" s="0" t="n">
         <v>0</v>
@@ -7675,9 +7912,6 @@
       </c>
       <c r="P106" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="S106" s="0" t="s">
-        <v>61</v>
       </c>
       <c r="AB106" s="0" t="n">
         <v>0</v>
@@ -7700,28 +7934,28 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>58</v>
+        <v>239</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="H107" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="M107" s="0" t="n">
         <v>0</v>
@@ -7734,9 +7968,6 @@
       </c>
       <c r="P107" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="S107" s="0" t="s">
-        <v>60</v>
       </c>
       <c r="AB107" s="0" t="n">
         <v>0</v>
@@ -7759,28 +7990,28 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>58</v>
+        <v>239</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="H108" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="M108" s="0" t="n">
         <v>0</v>
@@ -7793,9 +8024,6 @@
       </c>
       <c r="P108" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="S108" s="0" t="s">
-        <v>61</v>
       </c>
       <c r="AB108" s="0" t="n">
         <v>0</v>
@@ -7818,28 +8046,28 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>58</v>
+        <v>239</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="H109" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="M109" s="0" t="n">
         <v>0</v>
@@ -7852,9 +8080,6 @@
       </c>
       <c r="P109" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="S109" s="0" t="s">
-        <v>60</v>
       </c>
       <c r="AB109" s="0" t="n">
         <v>0</v>
@@ -7877,28 +8102,28 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>58</v>
+        <v>239</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="H110" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="M110" s="0" t="n">
         <v>0</v>
@@ -7911,9 +8136,6 @@
       </c>
       <c r="P110" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="S110" s="0" t="s">
-        <v>61</v>
       </c>
       <c r="AB110" s="0" t="n">
         <v>0</v>
@@ -7936,28 +8158,28 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>58</v>
+        <v>239</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="H111" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="M111" s="0" t="n">
         <v>0</v>
@@ -7970,9 +8192,6 @@
       </c>
       <c r="P111" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="S111" s="0" t="s">
-        <v>60</v>
       </c>
       <c r="AB111" s="0" t="n">
         <v>0</v>
@@ -7995,28 +8214,28 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>58</v>
+        <v>239</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="H112" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="M112" s="0" t="n">
         <v>0</v>
@@ -8029,9 +8248,6 @@
       </c>
       <c r="P112" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="S112" s="0" t="s">
-        <v>61</v>
       </c>
       <c r="AB112" s="0" t="n">
         <v>0</v>
@@ -8054,28 +8270,28 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>58</v>
+        <v>239</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="H113" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="M113" s="0" t="n">
         <v>0</v>
@@ -8088,9 +8304,6 @@
       </c>
       <c r="P113" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="S113" s="0" t="s">
-        <v>60</v>
       </c>
       <c r="AB113" s="0" t="n">
         <v>0</v>
@@ -8113,28 +8326,28 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>58</v>
+        <v>239</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="H114" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="M114" s="0" t="n">
         <v>0</v>
@@ -8147,9 +8360,6 @@
       </c>
       <c r="P114" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="S114" s="0" t="s">
-        <v>61</v>
       </c>
       <c r="AB114" s="0" t="n">
         <v>0</v>
@@ -8172,28 +8382,28 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>58</v>
+        <v>239</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="H115" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="M115" s="0" t="n">
         <v>0</v>
@@ -8206,9 +8416,6 @@
       </c>
       <c r="P115" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="S115" s="0" t="s">
-        <v>60</v>
       </c>
       <c r="AB115" s="0" t="n">
         <v>0</v>
@@ -8231,28 +8438,28 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>58</v>
+        <v>239</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="H116" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="M116" s="0" t="n">
         <v>0</v>
@@ -8265,9 +8472,6 @@
       </c>
       <c r="P116" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="S116" s="0" t="s">
-        <v>61</v>
       </c>
       <c r="AB116" s="0" t="n">
         <v>0</v>
@@ -8290,28 +8494,28 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>58</v>
+        <v>239</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>299</v>
+        <v>241</v>
       </c>
       <c r="H117" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>300</v>
+        <v>242</v>
       </c>
       <c r="M117" s="0" t="n">
         <v>0</v>
@@ -8324,9 +8528,6 @@
       </c>
       <c r="P117" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="S117" s="0" t="s">
-        <v>60</v>
       </c>
       <c r="AB117" s="0" t="n">
         <v>0</v>
@@ -8349,28 +8550,28 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>58</v>
+        <v>239</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>299</v>
+        <v>241</v>
       </c>
       <c r="H118" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>300</v>
+        <v>242</v>
       </c>
       <c r="M118" s="0" t="n">
         <v>0</v>
@@ -8383,9 +8584,6 @@
       </c>
       <c r="P118" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="S118" s="0" t="s">
-        <v>61</v>
       </c>
       <c r="AB118" s="0" t="n">
         <v>0</v>
@@ -8408,28 +8606,28 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>58</v>
+        <v>239</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>299</v>
+        <v>241</v>
       </c>
       <c r="H119" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>300</v>
+        <v>242</v>
       </c>
       <c r="M119" s="0" t="n">
         <v>0</v>
@@ -8442,9 +8640,6 @@
       </c>
       <c r="P119" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="S119" s="0" t="s">
-        <v>60</v>
       </c>
       <c r="AB119" s="0" t="n">
         <v>0</v>
@@ -8467,28 +8662,28 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>58</v>
+        <v>239</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>299</v>
+        <v>241</v>
       </c>
       <c r="H120" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>300</v>
+        <v>242</v>
       </c>
       <c r="M120" s="0" t="n">
         <v>0</v>
@@ -8501,9 +8696,6 @@
       </c>
       <c r="P120" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="S120" s="0" t="s">
-        <v>61</v>
       </c>
       <c r="AB120" s="0" t="n">
         <v>0</v>
@@ -8526,28 +8718,28 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>58</v>
+        <v>239</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>299</v>
+        <v>241</v>
       </c>
       <c r="H121" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>300</v>
+        <v>242</v>
       </c>
       <c r="M121" s="0" t="n">
         <v>0</v>
@@ -8560,9 +8752,6 @@
       </c>
       <c r="P121" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="S121" s="0" t="s">
-        <v>60</v>
       </c>
       <c r="AB121" s="0" t="n">
         <v>0</v>
@@ -8585,28 +8774,28 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>58</v>
+        <v>239</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>299</v>
+        <v>241</v>
       </c>
       <c r="H122" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I122" s="0" t="s">
-        <v>300</v>
+        <v>242</v>
       </c>
       <c r="M122" s="0" t="n">
         <v>0</v>
@@ -8619,9 +8808,6 @@
       </c>
       <c r="P122" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="S122" s="0" t="s">
-        <v>61</v>
       </c>
       <c r="AB122" s="0" t="n">
         <v>0</v>
@@ -8644,28 +8830,28 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>58</v>
+        <v>239</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>299</v>
+        <v>241</v>
       </c>
       <c r="H123" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I123" s="0" t="s">
-        <v>300</v>
+        <v>242</v>
       </c>
       <c r="M123" s="0" t="n">
         <v>0</v>
@@ -8678,9 +8864,6 @@
       </c>
       <c r="P123" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="S123" s="0" t="s">
-        <v>60</v>
       </c>
       <c r="AB123" s="0" t="n">
         <v>0</v>
@@ -8703,28 +8886,28 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>58</v>
+        <v>239</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>299</v>
+        <v>241</v>
       </c>
       <c r="H124" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I124" s="0" t="s">
-        <v>300</v>
+        <v>242</v>
       </c>
       <c r="M124" s="0" t="n">
         <v>0</v>
@@ -8737,9 +8920,6 @@
       </c>
       <c r="P124" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="S124" s="0" t="s">
-        <v>61</v>
       </c>
       <c r="AB124" s="0" t="n">
         <v>0</v>
@@ -8762,28 +8942,28 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>58</v>
+        <v>239</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>299</v>
+        <v>241</v>
       </c>
       <c r="H125" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I125" s="0" t="s">
-        <v>300</v>
+        <v>242</v>
       </c>
       <c r="M125" s="0" t="n">
         <v>0</v>
@@ -8796,9 +8976,6 @@
       </c>
       <c r="P125" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="S125" s="0" t="s">
-        <v>60</v>
       </c>
       <c r="AB125" s="0" t="n">
         <v>0</v>
@@ -8821,28 +8998,28 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>58</v>
+        <v>239</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>299</v>
+        <v>241</v>
       </c>
       <c r="H126" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>300</v>
+        <v>242</v>
       </c>
       <c r="M126" s="0" t="n">
         <v>0</v>
@@ -8855,9 +9032,6 @@
       </c>
       <c r="P126" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="S126" s="0" t="s">
-        <v>61</v>
       </c>
       <c r="AB126" s="0" t="n">
         <v>0</v>
@@ -8880,28 +9054,28 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>58</v>
+        <v>239</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>321</v>
+        <v>241</v>
       </c>
       <c r="H127" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I127" s="0" t="s">
-        <v>322</v>
+        <v>242</v>
       </c>
       <c r="M127" s="0" t="n">
         <v>0</v>
@@ -8914,9 +9088,6 @@
       </c>
       <c r="P127" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="S127" s="0" t="s">
-        <v>60</v>
       </c>
       <c r="AB127" s="0" t="n">
         <v>0</v>
@@ -8939,28 +9110,28 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>58</v>
+        <v>239</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>321</v>
+        <v>241</v>
       </c>
       <c r="H128" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>322</v>
+        <v>242</v>
       </c>
       <c r="M128" s="0" t="n">
         <v>0</v>
@@ -8973,9 +9144,6 @@
       </c>
       <c r="P128" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="S128" s="0" t="s">
-        <v>61</v>
       </c>
       <c r="AB128" s="0" t="n">
         <v>0</v>
@@ -8998,28 +9166,28 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>58</v>
+        <v>239</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>321</v>
+        <v>241</v>
       </c>
       <c r="H129" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I129" s="0" t="s">
-        <v>322</v>
+        <v>242</v>
       </c>
       <c r="M129" s="0" t="n">
         <v>0</v>
@@ -9032,9 +9200,6 @@
       </c>
       <c r="P129" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="S129" s="0" t="s">
-        <v>60</v>
       </c>
       <c r="AB129" s="0" t="n">
         <v>0</v>
@@ -9057,28 +9222,28 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>58</v>
+        <v>239</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="G130" s="0" t="s">
-        <v>321</v>
+        <v>241</v>
       </c>
       <c r="H130" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I130" s="0" t="s">
-        <v>322</v>
+        <v>242</v>
       </c>
       <c r="M130" s="0" t="n">
         <v>0</v>
@@ -9091,9 +9256,6 @@
       </c>
       <c r="P130" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="S130" s="0" t="s">
-        <v>61</v>
       </c>
       <c r="AB130" s="0" t="n">
         <v>0</v>
@@ -9116,28 +9278,28 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D131" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>321</v>
+        <v>52</v>
       </c>
       <c r="H131" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I131" s="0" t="s">
-        <v>322</v>
+        <v>53</v>
       </c>
       <c r="M131" s="0" t="n">
         <v>0</v>
@@ -9175,28 +9337,28 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="C132" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="B132" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="C132" s="0" t="s">
-        <v>331</v>
-      </c>
       <c r="D132" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
       <c r="G132" s="0" t="s">
-        <v>321</v>
+        <v>52</v>
       </c>
       <c r="H132" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I132" s="0" t="s">
-        <v>322</v>
+        <v>53</v>
       </c>
       <c r="M132" s="0" t="n">
         <v>0</v>
@@ -9234,28 +9396,28 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D133" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>321</v>
+        <v>52</v>
       </c>
       <c r="H133" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I133" s="0" t="s">
-        <v>322</v>
+        <v>53</v>
       </c>
       <c r="M133" s="0" t="n">
         <v>0</v>
@@ -9293,28 +9455,28 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="C134" s="0" t="s">
         <v>332</v>
       </c>
-      <c r="B134" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="C134" s="0" t="s">
-        <v>335</v>
-      </c>
       <c r="D134" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
       <c r="G134" s="0" t="s">
-        <v>321</v>
+        <v>52</v>
       </c>
       <c r="H134" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I134" s="0" t="s">
-        <v>322</v>
+        <v>53</v>
       </c>
       <c r="M134" s="0" t="n">
         <v>0</v>
@@ -9352,28 +9514,28 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D135" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>321</v>
+        <v>52</v>
       </c>
       <c r="H135" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I135" s="0" t="s">
-        <v>322</v>
+        <v>53</v>
       </c>
       <c r="M135" s="0" t="n">
         <v>0</v>
@@ -9411,28 +9573,28 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="C136" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="B136" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="C136" s="0" t="s">
-        <v>339</v>
-      </c>
       <c r="D136" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
       <c r="G136" s="0" t="s">
-        <v>321</v>
+        <v>52</v>
       </c>
       <c r="H136" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I136" s="0" t="s">
-        <v>322</v>
+        <v>53</v>
       </c>
       <c r="M136" s="0" t="n">
         <v>0</v>
@@ -9470,28 +9632,28 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D137" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>321</v>
+        <v>52</v>
       </c>
       <c r="H137" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>322</v>
+        <v>53</v>
       </c>
       <c r="M137" s="0" t="n">
         <v>0</v>
@@ -9529,28 +9691,28 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="C138" s="0" t="s">
         <v>340</v>
       </c>
-      <c r="B138" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="C138" s="0" t="s">
-        <v>343</v>
-      </c>
       <c r="D138" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
       <c r="G138" s="0" t="s">
-        <v>321</v>
+        <v>52</v>
       </c>
       <c r="H138" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I138" s="0" t="s">
-        <v>322</v>
+        <v>53</v>
       </c>
       <c r="M138" s="0" t="n">
         <v>0</v>
@@ -9588,28 +9750,28 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D139" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>321</v>
+        <v>52</v>
       </c>
       <c r="H139" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I139" s="0" t="s">
-        <v>322</v>
+        <v>53</v>
       </c>
       <c r="M139" s="0" t="n">
         <v>0</v>
@@ -9647,28 +9809,28 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="C140" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="B140" s="0" t="s">
-        <v>348</v>
-      </c>
-      <c r="C140" s="0" t="s">
-        <v>349</v>
-      </c>
       <c r="D140" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="G140" s="0" t="s">
-        <v>321</v>
+        <v>52</v>
       </c>
       <c r="H140" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I140" s="0" t="s">
-        <v>322</v>
+        <v>53</v>
       </c>
       <c r="M140" s="0" t="n">
         <v>0</v>
@@ -9706,29 +9868,29 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="D141" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E141" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G141" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="H141" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="G141" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="H141" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" s="0" t="s">
-        <v>322</v>
-      </c>
       <c r="M141" s="0" t="n">
         <v>0</v>
       </c>
@@ -9742,7 +9904,7 @@
         <v>0</v>
       </c>
       <c r="S141" s="0" t="s">
-        <v>352</v>
+        <v>60</v>
       </c>
       <c r="AB141" s="0" t="n">
         <v>0</v>
@@ -9765,29 +9927,29 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="D142" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E142" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G142" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="H142" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="G142" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="H142" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" s="0" t="s">
-        <v>322</v>
-      </c>
       <c r="M142" s="0" t="n">
         <v>0</v>
       </c>
@@ -9801,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="S142" s="0" t="s">
-        <v>355</v>
+        <v>61</v>
       </c>
       <c r="AB142" s="0" t="n">
         <v>0</v>
@@ -9824,29 +9986,29 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="D143" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E143" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G143" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="H143" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="G143" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="H143" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" s="0" t="s">
-        <v>322</v>
-      </c>
       <c r="M143" s="0" t="n">
         <v>0</v>
       </c>
@@ -9860,7 +10022,7 @@
         <v>0</v>
       </c>
       <c r="S143" s="0" t="s">
-        <v>358</v>
+        <v>60</v>
       </c>
       <c r="AB143" s="0" t="n">
         <v>0</v>
@@ -9883,29 +10045,29 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="D144" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E144" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G144" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="H144" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="G144" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="H144" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" s="0" t="s">
-        <v>322</v>
-      </c>
       <c r="M144" s="0" t="n">
         <v>0</v>
       </c>
@@ -9919,7 +10081,7 @@
         <v>0</v>
       </c>
       <c r="S144" s="0" t="s">
-        <v>361</v>
+        <v>61</v>
       </c>
       <c r="AB144" s="0" t="n">
         <v>0</v>
@@ -9942,30 +10104,29 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="D145" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="H145" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I145" s="0" t="s">
-        <v>366</v>
-      </c>
-      <c r="J145" s="1"/>
+        <v>347</v>
+      </c>
       <c r="M145" s="0" t="n">
         <v>0</v>
       </c>
@@ -10002,30 +10163,29 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="D146" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
       <c r="G146" s="0" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="H146" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I146" s="0" t="s">
-        <v>366</v>
-      </c>
-      <c r="J146" s="1"/>
+        <v>347</v>
+      </c>
       <c r="M146" s="0" t="n">
         <v>0</v>
       </c>
@@ -10062,30 +10222,29 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>370</v>
+        <v>339</v>
       </c>
       <c r="D147" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="H147" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I147" s="0" t="s">
-        <v>366</v>
-      </c>
-      <c r="J147" s="1"/>
+        <v>347</v>
+      </c>
       <c r="M147" s="0" t="n">
         <v>0</v>
       </c>
@@ -10122,30 +10281,29 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="D148" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
       <c r="G148" s="0" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="H148" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I148" s="0" t="s">
-        <v>366</v>
-      </c>
-      <c r="J148" s="1"/>
+        <v>347</v>
+      </c>
       <c r="M148" s="0" t="n">
         <v>0</v>
       </c>
@@ -10182,30 +10340,29 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>373</v>
+        <v>342</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>374</v>
+        <v>343</v>
       </c>
       <c r="D149" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="H149" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I149" s="0" t="s">
-        <v>366</v>
-      </c>
-      <c r="J149" s="1"/>
+        <v>347</v>
+      </c>
       <c r="M149" s="0" t="n">
         <v>0</v>
       </c>
@@ -10242,30 +10399,29 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>373</v>
+        <v>342</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>375</v>
+        <v>344</v>
       </c>
       <c r="D150" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
       <c r="G150" s="0" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="H150" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I150" s="0" t="s">
-        <v>366</v>
-      </c>
-      <c r="J150" s="1"/>
+        <v>347</v>
+      </c>
       <c r="M150" s="0" t="n">
         <v>0</v>
       </c>
@@ -10302,30 +10458,29 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="D151" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
       <c r="G151" s="0" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="H151" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I151" s="0" t="s">
-        <v>366</v>
-      </c>
-      <c r="J151" s="1"/>
+        <v>356</v>
+      </c>
       <c r="M151" s="0" t="n">
         <v>0</v>
       </c>
@@ -10362,30 +10517,29 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="D152" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
       <c r="G152" s="0" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="H152" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I152" s="0" t="s">
-        <v>366</v>
-      </c>
-      <c r="J152" s="1"/>
+        <v>356</v>
+      </c>
       <c r="M152" s="0" t="n">
         <v>0</v>
       </c>
@@ -10422,30 +10576,29 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="D153" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
       <c r="G153" s="0" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="H153" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I153" s="0" t="s">
-        <v>366</v>
-      </c>
-      <c r="J153" s="1"/>
+        <v>356</v>
+      </c>
       <c r="M153" s="0" t="n">
         <v>0</v>
       </c>
@@ -10482,30 +10635,29 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="D154" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
       <c r="G154" s="0" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="H154" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I154" s="0" t="s">
-        <v>366</v>
-      </c>
-      <c r="J154" s="1"/>
+        <v>356</v>
+      </c>
       <c r="M154" s="0" t="n">
         <v>0</v>
       </c>
@@ -10542,34 +10694,31 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="D155" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>387</v>
+        <v>327</v>
       </c>
       <c r="G155" s="0" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="H155" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I155" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="J155" s="0" t="n">
-        <v>16</v>
+        <v>356</v>
       </c>
       <c r="M155" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N155" s="0" t="n">
         <v>0</v>
@@ -10579,83 +10728,56 @@
       </c>
       <c r="P155" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="Q155" s="0" t="s">
-        <v>390</v>
-      </c>
-      <c r="R155" s="0" t="s">
-        <v>391</v>
       </c>
       <c r="S155" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="V155" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="W155" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="X155" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y155" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA155" s="0" t="n">
-        <v>4</v>
-      </c>
       <c r="AB155" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AC155" s="0" t="n">
-        <v>6</v>
+      <c r="AL155" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="AP155" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AQ155" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR155" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AS155" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="AT155" s="0" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="D156" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>387</v>
+        <v>327</v>
       </c>
       <c r="G156" s="0" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="H156" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I156" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="J156" s="0" t="n">
-        <v>16</v>
+        <v>356</v>
       </c>
       <c r="M156" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N156" s="0" t="n">
         <v>0</v>
@@ -10665,77 +10787,53 @@
       </c>
       <c r="P156" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="Q156" s="0" t="s">
-        <v>390</v>
-      </c>
-      <c r="R156" s="0" t="s">
-        <v>394</v>
       </c>
       <c r="S156" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="V156" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="W156" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X156" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y156" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA156" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="AB156" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AC156" s="0" t="n">
-        <v>4</v>
+      <c r="AL156" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="AP156" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AQ156" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR156" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AS156" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="AT156" s="0" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>396</v>
+        <v>366</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>397</v>
+        <v>367</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>398</v>
+        <v>368</v>
       </c>
       <c r="D157" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
       <c r="G157" s="0" t="s">
-        <v>397</v>
+        <v>355</v>
       </c>
       <c r="H157" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I157" s="0" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="M157" s="0" t="n">
         <v>0</v>
@@ -10773,28 +10871,28 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>396</v>
+        <v>366</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>397</v>
+        <v>367</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>400</v>
+        <v>369</v>
       </c>
       <c r="D158" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
       <c r="G158" s="0" t="s">
-        <v>397</v>
+        <v>355</v>
       </c>
       <c r="H158" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I158" s="0" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="M158" s="0" t="n">
         <v>0</v>
@@ -10832,28 +10930,28 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>401</v>
+        <v>370</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>402</v>
+        <v>371</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>403</v>
+        <v>372</v>
       </c>
       <c r="D159" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
       <c r="G159" s="0" t="s">
-        <v>402</v>
+        <v>355</v>
       </c>
       <c r="H159" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I159" s="0" t="s">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="M159" s="0" t="n">
         <v>0</v>
@@ -10891,28 +10989,28 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>401</v>
+        <v>370</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>402</v>
+        <v>371</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>405</v>
+        <v>373</v>
       </c>
       <c r="D160" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E160" s="0" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
       <c r="G160" s="0" t="s">
-        <v>402</v>
+        <v>355</v>
       </c>
       <c r="H160" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I160" s="0" t="s">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="M160" s="0" t="n">
         <v>0</v>
@@ -10950,28 +11048,28 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>406</v>
+        <v>374</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>407</v>
+        <v>375</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>408</v>
+        <v>376</v>
       </c>
       <c r="D161" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
       <c r="G161" s="0" t="s">
-        <v>407</v>
+        <v>377</v>
       </c>
       <c r="H161" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I161" s="0" t="s">
-        <v>409</v>
+        <v>378</v>
       </c>
       <c r="M161" s="0" t="n">
         <v>0</v>
@@ -11009,28 +11107,28 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>406</v>
+        <v>374</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>407</v>
+        <v>375</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>410</v>
+        <v>379</v>
       </c>
       <c r="D162" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E162" s="0" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
       <c r="G162" s="0" t="s">
-        <v>407</v>
+        <v>377</v>
       </c>
       <c r="H162" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I162" s="0" t="s">
-        <v>409</v>
+        <v>378</v>
       </c>
       <c r="M162" s="0" t="n">
         <v>0</v>
@@ -11068,28 +11166,28 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>411</v>
+        <v>380</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>413</v>
+        <v>382</v>
       </c>
       <c r="D163" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
       <c r="G163" s="0" t="s">
-        <v>412</v>
+        <v>377</v>
       </c>
       <c r="H163" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I163" s="0" t="s">
-        <v>414</v>
+        <v>378</v>
       </c>
       <c r="M163" s="0" t="n">
         <v>0</v>
@@ -11127,28 +11225,28 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>411</v>
+        <v>380</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="D164" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E164" s="0" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
       <c r="G164" s="0" t="s">
-        <v>412</v>
+        <v>377</v>
       </c>
       <c r="H164" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I164" s="0" t="s">
-        <v>414</v>
+        <v>378</v>
       </c>
       <c r="M164" s="0" t="n">
         <v>0</v>
@@ -11186,28 +11284,28 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>417</v>
+        <v>385</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="D165" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E165" s="0" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
       <c r="G165" s="0" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="H165" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I165" s="0" t="s">
-        <v>419</v>
+        <v>378</v>
       </c>
       <c r="M165" s="0" t="n">
         <v>0</v>
@@ -11245,28 +11343,28 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>417</v>
+        <v>385</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>420</v>
+        <v>387</v>
       </c>
       <c r="D166" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E166" s="0" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
       <c r="G166" s="0" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="H166" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I166" s="0" t="s">
-        <v>419</v>
+        <v>378</v>
       </c>
       <c r="M166" s="0" t="n">
         <v>0</v>
@@ -11303,106 +11401,2074 @@
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="1"/>
+      <c r="A167" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="C167" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="D167" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E167" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G167" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="H167" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="M167" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N167" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O167" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P167" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S167" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB167" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL167" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP167" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ167" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR167" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS167" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="1"/>
+      <c r="A168" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="C168" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="D168" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E168" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G168" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="H168" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="M168" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N168" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O168" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P168" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S168" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB168" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL168" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP168" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ168" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR168" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS168" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="1"/>
+      <c r="A169" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="C169" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="D169" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E169" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G169" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="H169" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="M169" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N169" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O169" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P169" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S169" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB169" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL169" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP169" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ169" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR169" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS169" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="1"/>
+      <c r="A170" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="C170" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="D170" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E170" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G170" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="H170" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="M170" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N170" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O170" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P170" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S170" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB170" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL170" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP170" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ170" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR170" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS170" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="1"/>
+      <c r="A171" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="C171" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="D171" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E171" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G171" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="H171" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="M171" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N171" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O171" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P171" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S171" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB171" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL171" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP171" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ171" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR171" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS171" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="1"/>
+      <c r="A172" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="C172" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="D172" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E172" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G172" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="H172" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="M172" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N172" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O172" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P172" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S172" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB172" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL172" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP172" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ172" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR172" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS172" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="1"/>
+      <c r="A173" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="C173" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="D173" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E173" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="G173" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="H173" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="M173" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N173" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O173" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P173" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S173" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB173" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL173" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP173" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ173" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR173" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS173" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="1"/>
+      <c r="A174" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B174" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="C174" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="D174" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E174" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="G174" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="H174" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="M174" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N174" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O174" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P174" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S174" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB174" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL174" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP174" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ174" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR174" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS174" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="1"/>
+      <c r="A175" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="C175" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="D175" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E175" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="G175" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="H175" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="M175" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N175" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O175" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P175" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S175" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="AB175" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL175" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP175" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ175" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR175" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS175" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="1"/>
+      <c r="A176" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="C176" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="D176" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E176" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="G176" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="H176" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="M176" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N176" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O176" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P176" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S176" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="AB176" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL176" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP176" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ176" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR176" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS176" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="1"/>
+      <c r="A177" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="C177" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="D177" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E177" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="G177" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="H177" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="M177" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N177" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O177" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P177" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S177" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="AB177" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL177" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP177" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ177" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR177" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS177" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="1"/>
+      <c r="A178" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="C178" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="D178" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E178" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="G178" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="H178" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="M178" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N178" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O178" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P178" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S178" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="AB178" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL178" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP178" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ178" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR178" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS178" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="1"/>
+      <c r="A179" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B179" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="C179" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="D179" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E179" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G179" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="H179" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="J179" s="1"/>
+      <c r="M179" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N179" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P179" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S179" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB179" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL179" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP179" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ179" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR179" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS179" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="1"/>
+      <c r="A180" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B180" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="C180" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="D180" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E180" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G180" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="H180" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="J180" s="1"/>
+      <c r="M180" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N180" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O180" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P180" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S180" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB180" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL180" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP180" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ180" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR180" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS180" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="1"/>
+      <c r="A181" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B181" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="C181" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="D181" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E181" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G181" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="H181" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="J181" s="1"/>
+      <c r="M181" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N181" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P181" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S181" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB181" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL181" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP181" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ181" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR181" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS181" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="1"/>
+      <c r="A182" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="C182" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="D182" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E182" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G182" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="H182" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="J182" s="1"/>
+      <c r="M182" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N182" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O182" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P182" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S182" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB182" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL182" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP182" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ182" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR182" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS182" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="1"/>
+      <c r="A183" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B183" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="C183" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="D183" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E183" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G183" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="H183" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="J183" s="1"/>
+      <c r="M183" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N183" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O183" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P183" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S183" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB183" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL183" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP183" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ183" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR183" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS183" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="1"/>
+      <c r="A184" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="C184" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="D184" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E184" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G184" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="H184" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="J184" s="1"/>
+      <c r="M184" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N184" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O184" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P184" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S184" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB184" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL184" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP184" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ184" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR184" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS184" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="1"/>
+      <c r="A185" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B185" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="C185" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="D185" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E185" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G185" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="H185" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="J185" s="1"/>
+      <c r="M185" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N185" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O185" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P185" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S185" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB185" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL185" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP185" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ185" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR185" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS185" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="1"/>
+      <c r="A186" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="C186" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="D186" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E186" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G186" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="H186" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="J186" s="1"/>
+      <c r="M186" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N186" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O186" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P186" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S186" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB186" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL186" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP186" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ186" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR186" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS186" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="1"/>
+      <c r="A187" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B187" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="C187" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="D187" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E187" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G187" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="H187" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="J187" s="1"/>
+      <c r="M187" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N187" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P187" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S187" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB187" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL187" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP187" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ187" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR187" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS187" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="1"/>
+      <c r="A188" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B188" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="C188" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="D188" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E188" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G188" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="H188" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="J188" s="1"/>
+      <c r="M188" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N188" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P188" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S188" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB188" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL188" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP188" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ188" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR188" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS188" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="1"/>
+      <c r="A189" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B189" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="C189" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D189" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E189" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="G189" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="H189" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="J189" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="M189" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P189" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q189" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="R189" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="S189" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="V189" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W189" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X189" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y189" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA189" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB189" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC189" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP189" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ189" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR189" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS189" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT189" s="0" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="1"/>
+      <c r="A190" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B190" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="C190" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="D190" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E190" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="G190" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="H190" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="J190" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="M190" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O190" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P190" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q190" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="R190" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="S190" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="V190" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="W190" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X190" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y190" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA190" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB190" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC190" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP190" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ190" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR190" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS190" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT190" s="0" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="1"/>
+      <c r="A191" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B191" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="C191" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="D191" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E191" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G191" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="H191" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="M191" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N191" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O191" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P191" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S191" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB191" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL191" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP191" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ191" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR191" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS191" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="1"/>
+      <c r="A192" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B192" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="C192" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="D192" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E192" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G192" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="H192" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="M192" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N192" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O192" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P192" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S192" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB192" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL192" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP192" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ192" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR192" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS192" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="1"/>
+      <c r="A193" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B193" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="C193" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="D193" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E193" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G193" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="H193" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="M193" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N193" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O193" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P193" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S193" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB193" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL193" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP193" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ193" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR193" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS193" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="1"/>
+      <c r="A194" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B194" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="C194" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="D194" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E194" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G194" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="H194" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="M194" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N194" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P194" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S194" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB194" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL194" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP194" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ194" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR194" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS194" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="1"/>
+      <c r="A195" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B195" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="C195" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="D195" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E195" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G195" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="H195" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="M195" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N195" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O195" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P195" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S195" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB195" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL195" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP195" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ195" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR195" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS195" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="1"/>
+      <c r="A196" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B196" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="C196" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="D196" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E196" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G196" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="H196" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="M196" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N196" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O196" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P196" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S196" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB196" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL196" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP196" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ196" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR196" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS196" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="1"/>
+      <c r="A197" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B197" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="C197" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="D197" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E197" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G197" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="H197" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="M197" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N197" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O197" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P197" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S197" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB197" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL197" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP197" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ197" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR197" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS197" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="1"/>
+      <c r="A198" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B198" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="C198" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="D198" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E198" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G198" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="H198" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="M198" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N198" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O198" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P198" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S198" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB198" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL198" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP198" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ198" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR198" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS198" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="1"/>
+      <c r="A199" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B199" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="C199" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="D199" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E199" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G199" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="H199" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="M199" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N199" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P199" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S199" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB199" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL199" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP199" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ199" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR199" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS199" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="1"/>
+      <c r="A200" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B200" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="C200" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="D200" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E200" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G200" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="H200" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="M200" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N200" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O200" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P200" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S200" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB200" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL200" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP200" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ200" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR200" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS200" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1"/>
@@ -11482,6 +13548,12 @@
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1"/>
     </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="1"/>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="1"/>
+    </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1"/>
     </row>
@@ -11578,12 +13650,6 @@
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1"/>
     </row>
-    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="1"/>
-    </row>
-    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="1"/>
-    </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1"/>
     </row>
@@ -13717,6 +15783,24 @@
     <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="1"/>
     </row>
+    <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A974" s="1"/>
+    </row>
+    <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A975" s="1"/>
+    </row>
+    <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A976" s="1"/>
+    </row>
+    <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A977" s="1"/>
+    </row>
+    <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A978" s="1"/>
+    </row>
+    <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A979" s="1"/>
+    </row>
     <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="1"/>
     </row>
@@ -13801,17 +15885,29 @@
     <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1007" s="1"/>
     </row>
-    <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1008" s="1"/>
-    </row>
-    <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1009" s="1"/>
-    </row>
-    <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1010" s="1"/>
-    </row>
-    <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1011" s="1"/>
+    <row r="1014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1014" s="1"/>
+    </row>
+    <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1015" s="1"/>
+    </row>
+    <row r="1016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1016" s="1"/>
+    </row>
+    <row r="1017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1017" s="1"/>
+    </row>
+    <row r="1018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1018" s="1"/>
+    </row>
+    <row r="1019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1019" s="1"/>
+    </row>
+    <row r="1020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1020" s="1"/>
+    </row>
+    <row r="1021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1021" s="1"/>
     </row>
     <row r="1022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1022" s="1"/>
@@ -13849,6 +15945,12 @@
     <row r="1033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1033" s="1"/>
     </row>
+    <row r="1034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1034" s="1"/>
+    </row>
+    <row r="1035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1035" s="1"/>
+    </row>
     <row r="1036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1036" s="1"/>
     </row>
@@ -13879,24 +15981,6 @@
     <row r="1045" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1045" s="1"/>
     </row>
-    <row r="1046" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1046" s="1"/>
-    </row>
-    <row r="1051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1051" s="1"/>
-    </row>
-    <row r="1052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1052" s="1"/>
-    </row>
-    <row r="1053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1053" s="1"/>
-    </row>
-    <row r="1054" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1054" s="1"/>
-    </row>
-    <row r="1055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1055" s="1"/>
-    </row>
     <row r="1056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1056" s="1"/>
     </row>
@@ -13933,12 +16017,6 @@
     <row r="1067" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1067" s="1"/>
     </row>
-    <row r="1068" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1068" s="1"/>
-    </row>
-    <row r="1069" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1069" s="1"/>
-    </row>
     <row r="1070" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1070" s="1"/>
     </row>
@@ -13972,18 +16050,6 @@
     <row r="1080" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1080" s="1"/>
     </row>
-    <row r="1081" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1081" s="1"/>
-    </row>
-    <row r="1082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1082" s="1"/>
-    </row>
-    <row r="1083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1083" s="1"/>
-    </row>
-    <row r="1084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1084" s="1"/>
-    </row>
     <row r="1085" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1085" s="1"/>
     </row>
@@ -14139,6 +16205,108 @@
     </row>
     <row r="1136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1136" s="1"/>
+    </row>
+    <row r="1137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1137" s="1"/>
+    </row>
+    <row r="1138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1138" s="1"/>
+    </row>
+    <row r="1139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1139" s="1"/>
+    </row>
+    <row r="1140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1140" s="1"/>
+    </row>
+    <row r="1141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1141" s="1"/>
+    </row>
+    <row r="1142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1142" s="1"/>
+    </row>
+    <row r="1143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1143" s="1"/>
+    </row>
+    <row r="1144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1144" s="1"/>
+    </row>
+    <row r="1145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1145" s="1"/>
+    </row>
+    <row r="1146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1146" s="1"/>
+    </row>
+    <row r="1147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1147" s="1"/>
+    </row>
+    <row r="1148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1148" s="1"/>
+    </row>
+    <row r="1149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1149" s="1"/>
+    </row>
+    <row r="1150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1150" s="1"/>
+    </row>
+    <row r="1151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1151" s="1"/>
+    </row>
+    <row r="1152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1152" s="1"/>
+    </row>
+    <row r="1153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1153" s="1"/>
+    </row>
+    <row r="1154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1154" s="1"/>
+    </row>
+    <row r="1155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1155" s="1"/>
+    </row>
+    <row r="1156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1156" s="1"/>
+    </row>
+    <row r="1157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1157" s="1"/>
+    </row>
+    <row r="1158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1158" s="1"/>
+    </row>
+    <row r="1159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1159" s="1"/>
+    </row>
+    <row r="1160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1160" s="1"/>
+    </row>
+    <row r="1161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1161" s="1"/>
+    </row>
+    <row r="1162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1162" s="1"/>
+    </row>
+    <row r="1163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1163" s="1"/>
+    </row>
+    <row r="1164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1164" s="1"/>
+    </row>
+    <row r="1165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1165" s="1"/>
+    </row>
+    <row r="1166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1166" s="1"/>
+    </row>
+    <row r="1167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1167" s="1"/>
+    </row>
+    <row r="1168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1168" s="1"/>
+    </row>
+    <row r="1169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1169" s="1"/>
+    </row>
+    <row r="1170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1170" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/run/predefined.xlsx
+++ b/run/predefined.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="521">
   <si>
     <t xml:space="preserve">databaseId</t>
   </si>
@@ -1445,6 +1445,144 @@
   </si>
   <si>
     <t xml:space="preserve">mini_investigators/60501b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m98001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/98001a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hour of the Huntress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hoth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/98001b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m98004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/98004a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Dirge of Reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tdor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/98004b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m98007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norman Withers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/98007a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ire of the Void</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iotv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/98007b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m98010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carolyn Fern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/98010a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To Fight the Black Wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tftbw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/98010b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m98013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silas Marsh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/98013a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Deep Gate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tdg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/98013b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m98016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dexter Drake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/98016a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blood of Baalshandor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/98016b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m98019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gloria Goldberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/98019a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dark Revelations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/98019b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m99001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marie Lambeau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/05006a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/05006b.webp</t>
   </si>
 </sst>
 </file>
@@ -1549,12 +1687,12 @@
   <dimension ref="A1:AT1170"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A69" activeCellId="0" sqref="A69"/>
+      <selection pane="bottomLeft" activeCell="A216" activeCellId="0" sqref="A216"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.19"/>
@@ -13471,52 +13609,948 @@
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="1"/>
+      <c r="A201" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B201" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="C201" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="D201" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E201" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G201" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="H201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="M201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S201" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS201" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="1"/>
+      <c r="A202" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B202" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="C202" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="D202" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E202" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G202" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="H202" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="M202" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N202" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P202" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S202" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB202" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL202" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP202" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ202" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR202" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS202" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="1"/>
+      <c r="A203" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B203" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="C203" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="D203" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E203" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G203" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="H203" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="M203" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N203" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O203" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P203" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S203" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB203" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL203" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP203" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ203" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR203" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS203" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="1"/>
+      <c r="A204" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B204" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="C204" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="D204" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E204" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G204" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="H204" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="M204" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N204" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O204" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P204" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S204" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB204" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL204" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP204" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ204" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR204" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS204" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="1"/>
+      <c r="A205" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B205" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="C205" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="D205" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E205" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G205" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="H205" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="M205" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N205" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O205" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P205" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S205" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB205" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL205" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP205" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ205" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR205" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS205" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="1"/>
+      <c r="A206" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B206" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="C206" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="D206" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E206" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G206" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="H206" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="M206" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N206" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P206" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S206" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB206" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL206" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP206" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ206" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR206" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS206" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="1"/>
+      <c r="A207" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B207" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="C207" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="D207" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E207" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G207" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="H207" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="M207" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N207" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O207" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P207" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S207" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB207" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL207" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP207" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ207" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR207" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS207" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="1"/>
+      <c r="A208" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B208" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="C208" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="D208" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E208" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G208" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="H208" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="M208" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N208" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O208" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P208" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S208" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB208" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL208" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP208" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ208" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR208" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS208" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="1"/>
+      <c r="A209" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B209" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="C209" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="D209" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E209" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G209" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="H209" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="M209" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N209" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P209" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S209" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB209" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL209" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP209" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ209" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR209" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS209" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="1"/>
+      <c r="A210" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B210" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="C210" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="D210" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E210" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G210" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="H210" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="M210" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N210" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O210" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P210" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S210" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB210" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL210" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP210" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ210" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR210" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS210" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="1"/>
+      <c r="A211" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B211" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="C211" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="D211" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E211" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G211" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="H211" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="M211" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N211" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O211" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P211" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S211" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB211" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL211" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP211" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ211" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR211" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS211" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="1"/>
+      <c r="A212" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B212" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="C212" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="D212" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E212" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G212" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="H212" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="M212" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N212" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O212" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P212" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S212" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB212" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL212" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP212" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ212" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR212" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS212" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="1"/>
+      <c r="A213" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B213" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="C213" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="D213" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E213" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G213" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="H213" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="M213" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N213" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O213" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P213" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S213" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB213" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL213" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP213" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ213" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR213" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS213" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="1"/>
+      <c r="A214" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B214" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="C214" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="D214" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E214" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G214" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="H214" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="M214" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N214" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P214" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S214" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB214" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL214" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP214" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ214" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR214" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS214" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="1"/>
+      <c r="A215" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B215" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="C215" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="D215" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E215" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G215" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="H215" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="M215" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N215" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P215" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S215" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB215" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL215" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP215" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ215" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR215" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS215" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="1"/>
+      <c r="A216" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B216" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="C216" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="D216" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E216" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G216" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="H216" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="M216" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N216" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O216" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P216" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S216" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB216" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL216" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP216" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ216" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR216" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS216" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1"/>

--- a/run/predefined.xlsx
+++ b/run/predefined.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="559">
   <si>
     <t xml:space="preserve">databaseId</t>
   </si>
@@ -1336,6 +1336,132 @@
     <t xml:space="preserve">mini_investigators/04005b.webp</t>
   </si>
   <si>
+    <t xml:space="preserve">m05001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carolyn Fern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/05001a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Circle Undone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tcu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/05001b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m05002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joe Diamond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/05002a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/05002b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m05003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preston Fairmont</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/05003a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/05003b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m05004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diana Stanley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/05004a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/05004b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m05005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rita Young</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/05005a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/05005b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m05006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marie Lambeau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/05006a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/05006b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m05046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gavriella Mizrah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/05046a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/05046b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m05047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jerome Davids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/05047a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/05047b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m05048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valentino Rivas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/05048a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/05048b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m05049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penny White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/05049a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/05049b.webp</t>
+  </si>
+  <si>
     <t xml:space="preserve">10016</t>
   </si>
   <si>
@@ -1498,9 +1624,6 @@
     <t xml:space="preserve">m98010</t>
   </si>
   <si>
-    <t xml:space="preserve">Carolyn Fern</t>
-  </si>
-  <si>
     <t xml:space="preserve">mini_investigators/98010a.webp</t>
   </si>
   <si>
@@ -1570,19 +1693,10 @@
     <t xml:space="preserve">m99001</t>
   </si>
   <si>
-    <t xml:space="preserve">Marie Lambeau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/05006a.webp</t>
-  </si>
-  <si>
     <t xml:space="preserve">Promo</t>
   </si>
   <si>
     <t xml:space="preserve">promo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/05006b.webp</t>
   </si>
 </sst>
 </file>
@@ -1684,18 +1798,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AT1170"/>
+  <dimension ref="A1:AT1190"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A216" activeCellId="0" sqref="A216"/>
+      <selection pane="bottomLeft" activeCell="B208" activeCellId="0" sqref="B208"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="41.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.49"/>
@@ -1726,12 +1840,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="5.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="13.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="11.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="6.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="6.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="5.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="10.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="10.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="6.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="6.42"/>
@@ -12860,22 +12972,20 @@
         <v>58</v>
       </c>
       <c r="E189" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G189" s="0" t="s">
         <v>441</v>
       </c>
-      <c r="G189" s="0" t="s">
+      <c r="H189" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" s="0" t="s">
         <v>442</v>
       </c>
-      <c r="H189" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" s="0" t="s">
-        <v>443</v>
-      </c>
-      <c r="J189" s="0" t="n">
-        <v>16</v>
-      </c>
+      <c r="J189" s="1"/>
       <c r="M189" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N189" s="0" t="n">
         <v>0</v>
@@ -12885,51 +12995,27 @@
       </c>
       <c r="P189" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="Q189" s="0" t="s">
-        <v>444</v>
-      </c>
-      <c r="R189" s="0" t="s">
-        <v>445</v>
       </c>
       <c r="S189" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="V189" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="W189" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="X189" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y189" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA189" s="0" t="n">
-        <v>4</v>
-      </c>
       <c r="AB189" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AC189" s="0" t="n">
-        <v>6</v>
+      <c r="AL189" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="AP189" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AQ189" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR189" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AS189" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="AT189" s="0" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12940,28 +13026,26 @@
         <v>439</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D190" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E190" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G190" s="0" t="s">
         <v>441</v>
       </c>
-      <c r="G190" s="0" t="s">
+      <c r="H190" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" s="0" t="s">
         <v>442</v>
       </c>
-      <c r="H190" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" s="0" t="s">
-        <v>443</v>
-      </c>
-      <c r="J190" s="0" t="n">
-        <v>16</v>
-      </c>
+      <c r="J190" s="1"/>
       <c r="M190" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N190" s="0" t="n">
         <v>0</v>
@@ -12971,62 +13055,38 @@
       </c>
       <c r="P190" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="Q190" s="0" t="s">
-        <v>444</v>
-      </c>
-      <c r="R190" s="0" t="s">
-        <v>448</v>
       </c>
       <c r="S190" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="V190" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="W190" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X190" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y190" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA190" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="AB190" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AC190" s="0" t="n">
-        <v>4</v>
+      <c r="AL190" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="AP190" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AQ190" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR190" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AS190" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="AT190" s="0" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D191" s="0" t="s">
         <v>58</v>
@@ -13035,14 +13095,15 @@
         <v>327</v>
       </c>
       <c r="G191" s="0" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="H191" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I191" s="0" t="s">
-        <v>453</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="J191" s="1"/>
       <c r="M191" s="0" t="n">
         <v>0</v>
       </c>
@@ -13079,13 +13140,13 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="D192" s="0" t="s">
         <v>58</v>
@@ -13094,14 +13155,15 @@
         <v>327</v>
       </c>
       <c r="G192" s="0" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="H192" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I192" s="0" t="s">
-        <v>453</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="J192" s="1"/>
       <c r="M192" s="0" t="n">
         <v>0</v>
       </c>
@@ -13138,13 +13200,13 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="D193" s="0" t="s">
         <v>58</v>
@@ -13153,14 +13215,15 @@
         <v>327</v>
       </c>
       <c r="G193" s="0" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="H193" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I193" s="0" t="s">
-        <v>458</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="J193" s="1"/>
       <c r="M193" s="0" t="n">
         <v>0</v>
       </c>
@@ -13197,13 +13260,13 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="D194" s="0" t="s">
         <v>58</v>
@@ -13212,14 +13275,15 @@
         <v>327</v>
       </c>
       <c r="G194" s="0" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="H194" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I194" s="0" t="s">
-        <v>458</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="J194" s="1"/>
       <c r="M194" s="0" t="n">
         <v>0</v>
       </c>
@@ -13256,13 +13320,13 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="D195" s="0" t="s">
         <v>58</v>
@@ -13271,14 +13335,15 @@
         <v>327</v>
       </c>
       <c r="G195" s="0" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="H195" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I195" s="0" t="s">
-        <v>463</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="J195" s="1"/>
       <c r="M195" s="0" t="n">
         <v>0</v>
       </c>
@@ -13315,13 +13380,13 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="D196" s="0" t="s">
         <v>58</v>
@@ -13330,14 +13395,15 @@
         <v>327</v>
       </c>
       <c r="G196" s="0" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="H196" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I196" s="0" t="s">
-        <v>463</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="J196" s="1"/>
       <c r="M196" s="0" t="n">
         <v>0</v>
       </c>
@@ -13374,13 +13440,13 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="D197" s="0" t="s">
         <v>58</v>
@@ -13389,14 +13455,15 @@
         <v>327</v>
       </c>
       <c r="G197" s="0" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="H197" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I197" s="0" t="s">
-        <v>468</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="J197" s="1"/>
       <c r="M197" s="0" t="n">
         <v>0</v>
       </c>
@@ -13433,13 +13500,13 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="D198" s="0" t="s">
         <v>58</v>
@@ -13448,14 +13515,15 @@
         <v>327</v>
       </c>
       <c r="G198" s="0" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="H198" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I198" s="0" t="s">
-        <v>468</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="J198" s="1"/>
       <c r="M198" s="0" t="n">
         <v>0</v>
       </c>
@@ -13492,13 +13560,13 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="D199" s="0" t="s">
         <v>58</v>
@@ -13507,14 +13575,15 @@
         <v>327</v>
       </c>
       <c r="G199" s="0" t="s">
-        <v>471</v>
+        <v>441</v>
       </c>
       <c r="H199" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I199" s="0" t="s">
-        <v>473</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="J199" s="1"/>
       <c r="M199" s="0" t="n">
         <v>0</v>
       </c>
@@ -13551,13 +13620,13 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="D200" s="0" t="s">
         <v>58</v>
@@ -13566,14 +13635,15 @@
         <v>327</v>
       </c>
       <c r="G200" s="0" t="s">
-        <v>471</v>
+        <v>441</v>
       </c>
       <c r="H200" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I200" s="0" t="s">
-        <v>473</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="J200" s="1"/>
       <c r="M200" s="0" t="n">
         <v>0</v>
       </c>
@@ -13610,13 +13680,13 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>363</v>
+        <v>465</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="D201" s="0" t="s">
         <v>58</v>
@@ -13625,14 +13695,15 @@
         <v>327</v>
       </c>
       <c r="G201" s="0" t="s">
-        <v>477</v>
+        <v>441</v>
       </c>
       <c r="H201" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I201" s="0" t="s">
-        <v>478</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="J201" s="1"/>
       <c r="M201" s="0" t="n">
         <v>0</v>
       </c>
@@ -13669,13 +13740,13 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>363</v>
+        <v>465</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="D202" s="0" t="s">
         <v>58</v>
@@ -13684,14 +13755,15 @@
         <v>327</v>
       </c>
       <c r="G202" s="0" t="s">
-        <v>477</v>
+        <v>441</v>
       </c>
       <c r="H202" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I202" s="0" t="s">
-        <v>478</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="J202" s="1"/>
       <c r="M202" s="0" t="n">
         <v>0</v>
       </c>
@@ -13728,13 +13800,13 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>325</v>
+        <v>469</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="D203" s="0" t="s">
         <v>58</v>
@@ -13743,14 +13815,15 @@
         <v>327</v>
       </c>
       <c r="G203" s="0" t="s">
-        <v>482</v>
+        <v>441</v>
       </c>
       <c r="H203" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I203" s="0" t="s">
-        <v>483</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="J203" s="1"/>
       <c r="M203" s="0" t="n">
         <v>0</v>
       </c>
@@ -13787,13 +13860,13 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>325</v>
+        <v>469</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="D204" s="0" t="s">
         <v>58</v>
@@ -13802,14 +13875,15 @@
         <v>327</v>
       </c>
       <c r="G204" s="0" t="s">
-        <v>482</v>
+        <v>441</v>
       </c>
       <c r="H204" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I204" s="0" t="s">
-        <v>483</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="J204" s="1"/>
       <c r="M204" s="0" t="n">
         <v>0</v>
       </c>
@@ -13846,13 +13920,13 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="D205" s="0" t="s">
         <v>58</v>
@@ -13861,14 +13935,15 @@
         <v>327</v>
       </c>
       <c r="G205" s="0" t="s">
-        <v>488</v>
+        <v>441</v>
       </c>
       <c r="H205" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I205" s="0" t="s">
-        <v>489</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="J205" s="1"/>
       <c r="M205" s="0" t="n">
         <v>0</v>
       </c>
@@ -13905,13 +13980,13 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="D206" s="0" t="s">
         <v>58</v>
@@ -13920,14 +13995,15 @@
         <v>327</v>
       </c>
       <c r="G206" s="0" t="s">
-        <v>488</v>
+        <v>441</v>
       </c>
       <c r="H206" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I206" s="0" t="s">
-        <v>489</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="J206" s="1"/>
       <c r="M206" s="0" t="n">
         <v>0</v>
       </c>
@@ -13964,13 +14040,13 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="D207" s="0" t="s">
         <v>58</v>
@@ -13979,14 +14055,15 @@
         <v>327</v>
       </c>
       <c r="G207" s="0" t="s">
-        <v>494</v>
+        <v>441</v>
       </c>
       <c r="H207" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I207" s="0" t="s">
-        <v>495</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="J207" s="1"/>
       <c r="M207" s="0" t="n">
         <v>0</v>
       </c>
@@ -14023,13 +14100,13 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="D208" s="0" t="s">
         <v>58</v>
@@ -14038,14 +14115,15 @@
         <v>327</v>
       </c>
       <c r="G208" s="0" t="s">
-        <v>494</v>
+        <v>441</v>
       </c>
       <c r="H208" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I208" s="0" t="s">
-        <v>495</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="J208" s="1"/>
       <c r="M208" s="0" t="n">
         <v>0</v>
       </c>
@@ -14082,31 +14160,34 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="D209" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E209" s="0" t="s">
-        <v>327</v>
+        <v>483</v>
       </c>
       <c r="G209" s="0" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="H209" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I209" s="0" t="s">
-        <v>501</v>
+        <v>485</v>
+      </c>
+      <c r="J209" s="0" t="n">
+        <v>16</v>
       </c>
       <c r="M209" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N209" s="0" t="n">
         <v>0</v>
@@ -14116,56 +14197,83 @@
       </c>
       <c r="P209" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="Q209" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="R209" s="0" t="s">
+        <v>487</v>
       </c>
       <c r="S209" s="0" t="s">
         <v>60</v>
       </c>
+      <c r="V209" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W209" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X209" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y209" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA209" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="AB209" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AL209" s="0" t="n">
-        <v>0</v>
+      <c r="AC209" s="0" t="n">
+        <v>6</v>
       </c>
       <c r="AP209" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AQ209" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR209" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AS209" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="AT209" s="0" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="D210" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E210" s="0" t="s">
-        <v>327</v>
+        <v>483</v>
       </c>
       <c r="G210" s="0" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="H210" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I210" s="0" t="s">
-        <v>501</v>
+        <v>485</v>
+      </c>
+      <c r="J210" s="0" t="n">
+        <v>16</v>
       </c>
       <c r="M210" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N210" s="0" t="n">
         <v>0</v>
@@ -14175,38 +14283,62 @@
       </c>
       <c r="P210" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="Q210" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="R210" s="0" t="s">
+        <v>490</v>
       </c>
       <c r="S210" s="0" t="s">
         <v>61</v>
       </c>
+      <c r="V210" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="W210" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X210" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y210" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA210" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="AB210" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AL210" s="0" t="n">
-        <v>0</v>
+      <c r="AC210" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="AP210" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AQ210" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR210" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AS210" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="AT210" s="0" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="D211" s="0" t="s">
         <v>58</v>
@@ -14215,13 +14347,13 @@
         <v>327</v>
       </c>
       <c r="G211" s="0" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="H211" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I211" s="0" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="M211" s="0" t="n">
         <v>0</v>
@@ -14259,13 +14391,13 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D212" s="0" t="s">
         <v>58</v>
@@ -14274,13 +14406,13 @@
         <v>327</v>
       </c>
       <c r="G212" s="0" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="H212" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I212" s="0" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="M212" s="0" t="n">
         <v>0</v>
@@ -14318,13 +14450,13 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D213" s="0" t="s">
         <v>58</v>
@@ -14333,13 +14465,13 @@
         <v>327</v>
       </c>
       <c r="G213" s="0" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="H213" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I213" s="0" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="M213" s="0" t="n">
         <v>0</v>
@@ -14377,13 +14509,13 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="D214" s="0" t="s">
         <v>58</v>
@@ -14392,13 +14524,13 @@
         <v>327</v>
       </c>
       <c r="G214" s="0" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="H214" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I214" s="0" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="M214" s="0" t="n">
         <v>0</v>
@@ -14436,13 +14568,13 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="D215" s="0" t="s">
         <v>58</v>
@@ -14451,13 +14583,13 @@
         <v>327</v>
       </c>
       <c r="G215" s="0" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="H215" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I215" s="0" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="M215" s="0" t="n">
         <v>0</v>
@@ -14495,13 +14627,13 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="D216" s="0" t="s">
         <v>58</v>
@@ -14510,13 +14642,13 @@
         <v>327</v>
       </c>
       <c r="G216" s="0" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="H216" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I216" s="0" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="M216" s="0" t="n">
         <v>0</v>
@@ -14553,64 +14685,1184 @@
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="1"/>
+      <c r="A217" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B217" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="C217" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="D217" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E217" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G217" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="H217" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="M217" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N217" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O217" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P217" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S217" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB217" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL217" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP217" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ217" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR217" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS217" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="1"/>
+      <c r="A218" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B218" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="C218" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="D218" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E218" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G218" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="H218" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="M218" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N218" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O218" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P218" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S218" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB218" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL218" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP218" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ218" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR218" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS218" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="1"/>
+      <c r="A219" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B219" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="C219" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="D219" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E219" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G219" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="H219" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="M219" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N219" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O219" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P219" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S219" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB219" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL219" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP219" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ219" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR219" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS219" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="1"/>
+      <c r="A220" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B220" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="C220" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="D220" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E220" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G220" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="H220" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="M220" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N220" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O220" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P220" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S220" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB220" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL220" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP220" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ220" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR220" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS220" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="1"/>
+      <c r="A221" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B221" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="C221" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="D221" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E221" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G221" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="H221" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="M221" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N221" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O221" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P221" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S221" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB221" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL221" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP221" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ221" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR221" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS221" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="1"/>
+      <c r="A222" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B222" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="C222" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="D222" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E222" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G222" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="H222" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="M222" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N222" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O222" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P222" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S222" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB222" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL222" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP222" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ222" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR222" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS222" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="1"/>
+      <c r="A223" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B223" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="C223" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="D223" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E223" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G223" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="H223" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="M223" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N223" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O223" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P223" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S223" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB223" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL223" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP223" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ223" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR223" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS223" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="1"/>
+      <c r="A224" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B224" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="C224" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="D224" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E224" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G224" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="H224" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="M224" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N224" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O224" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P224" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S224" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB224" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL224" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP224" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ224" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR224" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS224" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="1"/>
+      <c r="A225" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B225" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="C225" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="D225" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E225" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G225" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="H225" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="M225" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N225" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P225" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S225" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB225" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL225" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP225" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ225" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR225" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS225" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="1"/>
+      <c r="A226" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B226" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="C226" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="D226" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E226" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G226" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="H226" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="M226" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N226" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O226" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P226" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S226" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB226" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL226" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP226" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ226" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR226" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS226" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="1"/>
+      <c r="A227" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B227" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="C227" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="D227" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E227" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G227" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="H227" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="M227" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N227" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P227" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S227" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB227" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL227" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP227" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ227" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR227" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS227" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="1"/>
+      <c r="A228" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B228" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="C228" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="D228" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E228" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G228" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="H228" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="M228" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N228" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O228" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P228" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S228" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB228" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL228" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP228" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ228" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR228" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS228" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="1"/>
+      <c r="A229" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B229" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="C229" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="D229" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E229" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G229" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="H229" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="M229" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N229" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P229" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S229" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB229" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL229" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP229" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ229" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR229" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS229" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="1"/>
+      <c r="A230" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B230" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="C230" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="D230" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E230" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G230" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="H230" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="M230" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N230" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O230" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P230" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S230" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB230" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL230" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP230" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ230" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR230" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS230" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="1"/>
+      <c r="A231" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B231" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="C231" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="D231" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E231" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G231" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="H231" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="M231" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N231" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O231" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P231" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S231" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB231" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL231" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP231" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ231" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR231" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS231" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="1"/>
+      <c r="A232" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B232" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="C232" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="D232" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E232" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G232" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="H232" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="M232" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N232" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O232" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P232" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S232" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB232" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL232" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP232" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ232" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR232" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS232" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="1"/>
+      <c r="A233" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B233" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="C233" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="D233" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E233" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G233" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="H233" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="M233" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N233" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O233" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P233" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S233" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB233" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL233" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP233" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ233" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR233" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS233" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="1"/>
+      <c r="A234" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B234" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="C234" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="D234" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E234" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G234" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="H234" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="M234" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N234" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O234" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P234" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S234" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB234" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL234" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP234" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ234" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR234" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS234" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="1"/>
+      <c r="A235" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B235" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="C235" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="D235" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E235" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G235" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="H235" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="M235" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N235" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O235" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P235" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S235" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB235" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL235" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP235" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ235" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR235" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS235" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="1"/>
+      <c r="A236" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B236" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="C236" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="D236" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E236" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G236" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="H236" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="M236" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N236" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O236" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P236" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S236" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB236" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL236" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP236" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ236" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR236" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS236" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1"/>
@@ -14684,6 +15936,12 @@
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1"/>
     </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="1"/>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="1"/>
+    </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1"/>
     </row>
@@ -14738,12 +15996,6 @@
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1"/>
     </row>
-    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="1"/>
-    </row>
-    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="1"/>
-    </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1"/>
     </row>
@@ -16919,6 +18171,24 @@
     <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1007" s="1"/>
     </row>
+    <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1008" s="1"/>
+    </row>
+    <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1009" s="1"/>
+    </row>
+    <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1010" s="1"/>
+    </row>
+    <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1011" s="1"/>
+    </row>
+    <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1012" s="1"/>
+    </row>
+    <row r="1013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1013" s="1"/>
+    </row>
     <row r="1014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1014" s="1"/>
     </row>
@@ -16961,24 +18231,6 @@
     <row r="1027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1027" s="1"/>
     </row>
-    <row r="1028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1028" s="1"/>
-    </row>
-    <row r="1029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1029" s="1"/>
-    </row>
-    <row r="1030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1030" s="1"/>
-    </row>
-    <row r="1031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1031" s="1"/>
-    </row>
-    <row r="1032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1032" s="1"/>
-    </row>
-    <row r="1033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1033" s="1"/>
-    </row>
     <row r="1034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1034" s="1"/>
     </row>
@@ -17015,6 +18267,36 @@
     <row r="1045" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1045" s="1"/>
     </row>
+    <row r="1046" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1046" s="1"/>
+    </row>
+    <row r="1047" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1047" s="1"/>
+    </row>
+    <row r="1048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1048" s="1"/>
+    </row>
+    <row r="1049" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1049" s="1"/>
+    </row>
+    <row r="1050" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1050" s="1"/>
+    </row>
+    <row r="1051" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1051" s="1"/>
+    </row>
+    <row r="1052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1052" s="1"/>
+    </row>
+    <row r="1053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1053" s="1"/>
+    </row>
+    <row r="1054" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1054" s="1"/>
+    </row>
+    <row r="1055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1055" s="1"/>
+    </row>
     <row r="1056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1056" s="1"/>
     </row>
@@ -17045,30 +18327,6 @@
     <row r="1065" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1065" s="1"/>
     </row>
-    <row r="1066" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1066" s="1"/>
-    </row>
-    <row r="1067" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1067" s="1"/>
-    </row>
-    <row r="1070" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1070" s="1"/>
-    </row>
-    <row r="1071" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1071" s="1"/>
-    </row>
-    <row r="1072" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1072" s="1"/>
-    </row>
-    <row r="1073" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1073" s="1"/>
-    </row>
-    <row r="1074" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1074" s="1"/>
-    </row>
-    <row r="1075" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1075" s="1"/>
-    </row>
     <row r="1076" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1076" s="1"/>
     </row>
@@ -17084,6 +18342,18 @@
     <row r="1080" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1080" s="1"/>
     </row>
+    <row r="1081" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1081" s="1"/>
+    </row>
+    <row r="1082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1082" s="1"/>
+    </row>
+    <row r="1083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1083" s="1"/>
+    </row>
+    <row r="1084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1084" s="1"/>
+    </row>
     <row r="1085" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1085" s="1"/>
     </row>
@@ -17093,12 +18363,6 @@
     <row r="1087" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1087" s="1"/>
     </row>
-    <row r="1088" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1088" s="1"/>
-    </row>
-    <row r="1089" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1089" s="1"/>
-    </row>
     <row r="1090" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1090" s="1"/>
     </row>
@@ -17132,18 +18396,6 @@
     <row r="1100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1100" s="1"/>
     </row>
-    <row r="1101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1101" s="1"/>
-    </row>
-    <row r="1102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1102" s="1"/>
-    </row>
-    <row r="1103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1103" s="1"/>
-    </row>
-    <row r="1104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1104" s="1"/>
-    </row>
     <row r="1105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1105" s="1"/>
     </row>
@@ -17341,6 +18593,66 @@
     </row>
     <row r="1170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1170" s="1"/>
+    </row>
+    <row r="1171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1171" s="1"/>
+    </row>
+    <row r="1172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1172" s="1"/>
+    </row>
+    <row r="1173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1173" s="1"/>
+    </row>
+    <row r="1174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1174" s="1"/>
+    </row>
+    <row r="1175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1175" s="1"/>
+    </row>
+    <row r="1176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1176" s="1"/>
+    </row>
+    <row r="1177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1177" s="1"/>
+    </row>
+    <row r="1178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1178" s="1"/>
+    </row>
+    <row r="1179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1179" s="1"/>
+    </row>
+    <row r="1180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1180" s="1"/>
+    </row>
+    <row r="1181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1181" s="1"/>
+    </row>
+    <row r="1182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1182" s="1"/>
+    </row>
+    <row r="1183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1183" s="1"/>
+    </row>
+    <row r="1184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1184" s="1"/>
+    </row>
+    <row r="1185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1185" s="1"/>
+    </row>
+    <row r="1186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1186" s="1"/>
+    </row>
+    <row r="1187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1187" s="1"/>
+    </row>
+    <row r="1188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1188" s="1"/>
+    </row>
+    <row r="1189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1189" s="1"/>
+    </row>
+    <row r="1190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1190" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/run/predefined.xlsx
+++ b/run/predefined.xlsx
@@ -2554,12 +2554,12 @@
   <dimension ref="A1:AT1375"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B164" activeCellId="0" sqref="B164"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.24"/>

--- a/run/predefined.xlsx
+++ b/run/predefined.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3393" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3553" uniqueCount="847">
   <si>
     <t xml:space="preserve">databaseId</t>
   </si>
@@ -2102,6 +2102,117 @@
   </si>
   <si>
     <t xml:space="preserve">micro_investigators/05049b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m06001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tommy Muldoon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/06001a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Dream-Eaters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/06001b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u06001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/06001a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/06001b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m06002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandy Thompson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/06002a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/06002b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u06002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/06002a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/06002b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m06003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tony Morgan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/06003a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/06003b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u06003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/06003a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/06003b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m06004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luke Robinson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/06004a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/06004b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u06004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/06004a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/06004b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m06005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patrice Hathaway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/06005a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/06005b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u06005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/06005a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/06005b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">10016</t>
@@ -2551,7 +2662,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AT1375"/>
+  <dimension ref="A1:AT1395"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2559,7 +2670,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.24"/>
@@ -2571,7 +2682,6 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.05"/>
@@ -24395,22 +24505,20 @@
         <v>58</v>
       </c>
       <c r="E369" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="G369" s="0" t="s">
         <v>697</v>
       </c>
-      <c r="G369" s="0" t="s">
+      <c r="H369" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I369" s="0" t="s">
         <v>698</v>
       </c>
-      <c r="H369" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" s="0" t="s">
-        <v>699</v>
-      </c>
-      <c r="J369" s="0" t="n">
-        <v>16</v>
-      </c>
+      <c r="J369" s="1"/>
       <c r="M369" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N369" s="0" t="n">
         <v>0</v>
@@ -24420,51 +24528,27 @@
       </c>
       <c r="P369" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="Q369" s="0" t="s">
-        <v>700</v>
-      </c>
-      <c r="R369" s="0" t="s">
-        <v>701</v>
       </c>
       <c r="S369" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="V369" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="W369" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="X369" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y369" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA369" s="0" t="n">
-        <v>4</v>
-      </c>
       <c r="AB369" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AC369" s="0" t="n">
-        <v>6</v>
+      <c r="AL369" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="AP369" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AQ369" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR369" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AS369" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="AT369" s="0" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24475,28 +24559,26 @@
         <v>695</v>
       </c>
       <c r="C370" s="0" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="D370" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E370" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="G370" s="0" t="s">
         <v>697</v>
       </c>
-      <c r="G370" s="0" t="s">
+      <c r="H370" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I370" s="0" t="s">
         <v>698</v>
       </c>
-      <c r="H370" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" s="0" t="s">
-        <v>699</v>
-      </c>
-      <c r="J370" s="0" t="n">
-        <v>16</v>
-      </c>
+      <c r="J370" s="1"/>
       <c r="M370" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N370" s="0" t="n">
         <v>0</v>
@@ -24506,78 +24588,55 @@
       </c>
       <c r="P370" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="Q370" s="0" t="s">
-        <v>700</v>
-      </c>
-      <c r="R370" s="0" t="s">
-        <v>704</v>
       </c>
       <c r="S370" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="V370" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="W370" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X370" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y370" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA370" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="AB370" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AC370" s="0" t="n">
-        <v>4</v>
+      <c r="AL370" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="AP370" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AQ370" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR370" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AS370" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="AT370" s="0" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B371" s="0" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="C371" s="0" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="D371" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E371" s="0" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="G371" s="0" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="H371" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I371" s="0" t="s">
-        <v>709</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="J371" s="1"/>
       <c r="M371" s="0" t="n">
         <v>0</v>
       </c>
@@ -24614,29 +24673,30 @@
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B372" s="0" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="C372" s="0" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="D372" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E372" s="0" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="G372" s="0" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="H372" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I372" s="0" t="s">
-        <v>709</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="J372" s="1"/>
       <c r="M372" s="0" t="n">
         <v>0</v>
       </c>
@@ -24673,29 +24733,30 @@
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="B373" s="0" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C373" s="0" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="D373" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E373" s="0" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G373" s="0" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="H373" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I373" s="0" t="s">
-        <v>709</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="J373" s="1"/>
       <c r="M373" s="0" t="n">
         <v>0</v>
       </c>
@@ -24732,29 +24793,30 @@
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="B374" s="0" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C374" s="0" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="D374" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E374" s="0" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G374" s="0" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="H374" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I374" s="0" t="s">
-        <v>709</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="J374" s="1"/>
       <c r="M374" s="0" t="n">
         <v>0</v>
       </c>
@@ -24791,29 +24853,30 @@
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="B375" s="0" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="C375" s="0" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="D375" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E375" s="0" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="G375" s="0" t="s">
-        <v>715</v>
+        <v>697</v>
       </c>
       <c r="H375" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I375" s="0" t="s">
-        <v>717</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="J375" s="1"/>
       <c r="M375" s="0" t="n">
         <v>0</v>
       </c>
@@ -24850,29 +24913,30 @@
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="B376" s="0" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="C376" s="0" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="D376" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E376" s="0" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="G376" s="0" t="s">
-        <v>715</v>
+        <v>697</v>
       </c>
       <c r="H376" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I376" s="0" t="s">
-        <v>717</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="J376" s="1"/>
       <c r="M376" s="0" t="n">
         <v>0</v>
       </c>
@@ -24909,29 +24973,30 @@
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C377" s="0" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="D377" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E377" s="0" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G377" s="0" t="s">
-        <v>715</v>
+        <v>697</v>
       </c>
       <c r="H377" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I377" s="0" t="s">
-        <v>717</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="J377" s="1"/>
       <c r="M377" s="0" t="n">
         <v>0</v>
       </c>
@@ -24968,29 +25033,30 @@
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="B378" s="0" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C378" s="0" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="D378" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E378" s="0" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G378" s="0" t="s">
-        <v>715</v>
+        <v>697</v>
       </c>
       <c r="H378" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I378" s="0" t="s">
-        <v>717</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="J378" s="1"/>
       <c r="M378" s="0" t="n">
         <v>0</v>
       </c>
@@ -25027,29 +25093,30 @@
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="B379" s="0" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="C379" s="0" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="D379" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E379" s="0" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="G379" s="0" t="s">
-        <v>723</v>
+        <v>697</v>
       </c>
       <c r="H379" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I379" s="0" t="s">
-        <v>725</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="J379" s="1"/>
       <c r="M379" s="0" t="n">
         <v>0</v>
       </c>
@@ -25086,29 +25153,30 @@
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="B380" s="0" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="C380" s="0" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="D380" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E380" s="0" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="G380" s="0" t="s">
-        <v>723</v>
+        <v>697</v>
       </c>
       <c r="H380" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I380" s="0" t="s">
-        <v>725</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="J380" s="1"/>
       <c r="M380" s="0" t="n">
         <v>0</v>
       </c>
@@ -25145,29 +25213,30 @@
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="B381" s="0" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="C381" s="0" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="D381" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E381" s="0" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G381" s="0" t="s">
-        <v>723</v>
+        <v>697</v>
       </c>
       <c r="H381" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I381" s="0" t="s">
-        <v>725</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="J381" s="1"/>
       <c r="M381" s="0" t="n">
         <v>0</v>
       </c>
@@ -25204,29 +25273,30 @@
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="C382" s="0" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="D382" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E382" s="0" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G382" s="0" t="s">
-        <v>723</v>
+        <v>697</v>
       </c>
       <c r="H382" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I382" s="0" t="s">
-        <v>725</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="J382" s="1"/>
       <c r="M382" s="0" t="n">
         <v>0</v>
       </c>
@@ -25263,29 +25333,30 @@
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="B383" s="0" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="C383" s="0" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="D383" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E383" s="0" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="G383" s="0" t="s">
-        <v>731</v>
+        <v>697</v>
       </c>
       <c r="H383" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I383" s="0" t="s">
-        <v>733</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="J383" s="1"/>
       <c r="M383" s="0" t="n">
         <v>0</v>
       </c>
@@ -25322,29 +25393,30 @@
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="B384" s="0" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="C384" s="0" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
       <c r="D384" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E384" s="0" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="G384" s="0" t="s">
-        <v>731</v>
+        <v>697</v>
       </c>
       <c r="H384" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I384" s="0" t="s">
-        <v>733</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="J384" s="1"/>
       <c r="M384" s="0" t="n">
         <v>0</v>
       </c>
@@ -25381,29 +25453,30 @@
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="B385" s="0" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="C385" s="0" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="D385" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E385" s="0" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G385" s="0" t="s">
-        <v>731</v>
+        <v>697</v>
       </c>
       <c r="H385" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I385" s="0" t="s">
-        <v>733</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="J385" s="1"/>
       <c r="M385" s="0" t="n">
         <v>0</v>
       </c>
@@ -25440,29 +25513,30 @@
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="B386" s="0" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="C386" s="0" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="D386" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E386" s="0" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G386" s="0" t="s">
-        <v>731</v>
+        <v>697</v>
       </c>
       <c r="H386" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I386" s="0" t="s">
-        <v>733</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="J386" s="1"/>
       <c r="M386" s="0" t="n">
         <v>0</v>
       </c>
@@ -25499,29 +25573,30 @@
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="B387" s="0" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="C387" s="0" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="D387" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E387" s="0" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="G387" s="0" t="s">
-        <v>739</v>
+        <v>697</v>
       </c>
       <c r="H387" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I387" s="0" t="s">
-        <v>741</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="J387" s="1"/>
       <c r="M387" s="0" t="n">
         <v>0</v>
       </c>
@@ -25558,29 +25633,30 @@
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="B388" s="0" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="C388" s="0" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="D388" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E388" s="0" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="G388" s="0" t="s">
-        <v>739</v>
+        <v>697</v>
       </c>
       <c r="H388" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I388" s="0" t="s">
-        <v>741</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="J388" s="1"/>
       <c r="M388" s="0" t="n">
         <v>0</v>
       </c>
@@ -25617,31 +25693,34 @@
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="B389" s="0" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="C389" s="0" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="D389" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E389" s="0" t="s">
-        <v>448</v>
+        <v>734</v>
       </c>
       <c r="G389" s="0" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="H389" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I389" s="0" t="s">
-        <v>741</v>
+        <v>736</v>
+      </c>
+      <c r="J389" s="0" t="n">
+        <v>16</v>
       </c>
       <c r="M389" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N389" s="0" t="n">
         <v>0</v>
@@ -25651,97 +25730,148 @@
       </c>
       <c r="P389" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="Q389" s="0" t="s">
+        <v>737</v>
+      </c>
+      <c r="R389" s="0" t="s">
+        <v>738</v>
       </c>
       <c r="S389" s="0" t="s">
         <v>60</v>
       </c>
+      <c r="V389" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W389" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X389" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y389" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA389" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="AB389" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AL389" s="0" t="n">
-        <v>0</v>
+      <c r="AC389" s="0" t="n">
+        <v>6</v>
       </c>
       <c r="AP389" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AQ389" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR389" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AS389" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="AT389" s="0" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="B390" s="0" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="C390" s="0" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="D390" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E390" s="0" t="s">
-        <v>448</v>
+        <v>734</v>
       </c>
       <c r="G390" s="0" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="H390" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I390" s="0" t="s">
+        <v>736</v>
+      </c>
+      <c r="J390" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="M390" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N390" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O390" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P390" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q390" s="0" t="s">
+        <v>737</v>
+      </c>
+      <c r="R390" s="0" t="s">
         <v>741</v>
-      </c>
-      <c r="M390" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N390" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O390" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P390" s="0" t="n">
-        <v>0</v>
       </c>
       <c r="S390" s="0" t="s">
         <v>61</v>
       </c>
+      <c r="V390" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="W390" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X390" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y390" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA390" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="AB390" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AL390" s="0" t="n">
-        <v>0</v>
+      <c r="AC390" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="AP390" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AQ390" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR390" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AS390" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="AT390" s="0" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B391" s="0" t="s">
-        <v>507</v>
+        <v>744</v>
       </c>
       <c r="C391" s="0" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D391" s="0" t="s">
         <v>58</v>
@@ -25750,13 +25880,13 @@
         <v>444</v>
       </c>
       <c r="G391" s="0" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="H391" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I391" s="0" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="M391" s="0" t="n">
         <v>0</v>
@@ -25794,13 +25924,13 @@
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B392" s="0" t="s">
-        <v>507</v>
+        <v>744</v>
       </c>
       <c r="C392" s="0" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D392" s="0" t="s">
         <v>58</v>
@@ -25809,13 +25939,13 @@
         <v>444</v>
       </c>
       <c r="G392" s="0" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="H392" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I392" s="0" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="M392" s="0" t="n">
         <v>0</v>
@@ -25853,13 +25983,13 @@
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="B393" s="0" t="s">
-        <v>507</v>
+        <v>744</v>
       </c>
       <c r="C393" s="0" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D393" s="0" t="s">
         <v>58</v>
@@ -25868,13 +25998,13 @@
         <v>448</v>
       </c>
       <c r="G393" s="0" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="H393" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I393" s="0" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="M393" s="0" t="n">
         <v>0</v>
@@ -25912,13 +26042,13 @@
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="B394" s="0" t="s">
-        <v>507</v>
+        <v>744</v>
       </c>
       <c r="C394" s="0" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D394" s="0" t="s">
         <v>58</v>
@@ -25927,13 +26057,13 @@
         <v>448</v>
       </c>
       <c r="G394" s="0" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="H394" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I394" s="0" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="M394" s="0" t="n">
         <v>0</v>
@@ -25971,13 +26101,13 @@
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B395" s="0" t="s">
-        <v>442</v>
+        <v>752</v>
       </c>
       <c r="C395" s="0" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D395" s="0" t="s">
         <v>58</v>
@@ -25986,13 +26116,13 @@
         <v>444</v>
       </c>
       <c r="G395" s="0" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="H395" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I395" s="0" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="M395" s="0" t="n">
         <v>0</v>
@@ -26030,13 +26160,13 @@
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B396" s="0" t="s">
-        <v>442</v>
+        <v>752</v>
       </c>
       <c r="C396" s="0" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D396" s="0" t="s">
         <v>58</v>
@@ -26045,13 +26175,13 @@
         <v>444</v>
       </c>
       <c r="G396" s="0" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="H396" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I396" s="0" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="M396" s="0" t="n">
         <v>0</v>
@@ -26089,13 +26219,13 @@
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B397" s="0" t="s">
-        <v>442</v>
+        <v>752</v>
       </c>
       <c r="C397" s="0" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="D397" s="0" t="s">
         <v>58</v>
@@ -26104,13 +26234,13 @@
         <v>448</v>
       </c>
       <c r="G397" s="0" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="H397" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I397" s="0" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="M397" s="0" t="n">
         <v>0</v>
@@ -26148,13 +26278,13 @@
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B398" s="0" t="s">
-        <v>442</v>
+        <v>752</v>
       </c>
       <c r="C398" s="0" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="D398" s="0" t="s">
         <v>58</v>
@@ -26163,13 +26293,13 @@
         <v>448</v>
       </c>
       <c r="G398" s="0" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="H398" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I398" s="0" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="M398" s="0" t="n">
         <v>0</v>
@@ -26207,13 +26337,13 @@
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B399" s="0" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C399" s="0" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D399" s="0" t="s">
         <v>58</v>
@@ -26222,13 +26352,13 @@
         <v>444</v>
       </c>
       <c r="G399" s="0" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="H399" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I399" s="0" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="M399" s="0" t="n">
         <v>0</v>
@@ -26266,13 +26396,13 @@
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B400" s="0" t="s">
+        <v>760</v>
+      </c>
+      <c r="C400" s="0" t="s">
         <v>763</v>
-      </c>
-      <c r="C400" s="0" t="s">
-        <v>767</v>
       </c>
       <c r="D400" s="0" t="s">
         <v>58</v>
@@ -26281,13 +26411,13 @@
         <v>444</v>
       </c>
       <c r="G400" s="0" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="H400" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I400" s="0" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="M400" s="0" t="n">
         <v>0</v>
@@ -26325,13 +26455,13 @@
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="B401" s="0" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C401" s="0" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="D401" s="0" t="s">
         <v>58</v>
@@ -26340,13 +26470,13 @@
         <v>448</v>
       </c>
       <c r="G401" s="0" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="H401" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I401" s="0" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="M401" s="0" t="n">
         <v>0</v>
@@ -26384,13 +26514,13 @@
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="B402" s="0" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C402" s="0" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="D402" s="0" t="s">
         <v>58</v>
@@ -26399,13 +26529,13 @@
         <v>448</v>
       </c>
       <c r="G402" s="0" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="H402" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I402" s="0" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="M402" s="0" t="n">
         <v>0</v>
@@ -26443,13 +26573,13 @@
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="B403" s="0" t="s">
-        <v>623</v>
+        <v>768</v>
       </c>
       <c r="C403" s="0" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="D403" s="0" t="s">
         <v>58</v>
@@ -26458,13 +26588,13 @@
         <v>444</v>
       </c>
       <c r="G403" s="0" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="H403" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I403" s="0" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="M403" s="0" t="n">
         <v>0</v>
@@ -26502,13 +26632,13 @@
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B404" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="C404" s="0" t="s">
         <v>771</v>
-      </c>
-      <c r="B404" s="0" t="s">
-        <v>623</v>
-      </c>
-      <c r="C404" s="0" t="s">
-        <v>775</v>
       </c>
       <c r="D404" s="0" t="s">
         <v>58</v>
@@ -26517,13 +26647,13 @@
         <v>444</v>
       </c>
       <c r="G404" s="0" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="H404" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I404" s="0" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="M404" s="0" t="n">
         <v>0</v>
@@ -26561,13 +26691,13 @@
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="B405" s="0" t="s">
-        <v>623</v>
+        <v>768</v>
       </c>
       <c r="C405" s="0" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="D405" s="0" t="s">
         <v>58</v>
@@ -26576,13 +26706,13 @@
         <v>448</v>
       </c>
       <c r="G405" s="0" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="H405" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I405" s="0" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="M405" s="0" t="n">
         <v>0</v>
@@ -26620,13 +26750,13 @@
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="B406" s="0" t="s">
-        <v>623</v>
+        <v>768</v>
       </c>
       <c r="C406" s="0" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="D406" s="0" t="s">
         <v>58</v>
@@ -26635,13 +26765,13 @@
         <v>448</v>
       </c>
       <c r="G406" s="0" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="H406" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I406" s="0" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="M406" s="0" t="n">
         <v>0</v>
@@ -26679,13 +26809,13 @@
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="1" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="B407" s="0" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C407" s="0" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="D407" s="0" t="s">
         <v>58</v>
@@ -26694,13 +26824,13 @@
         <v>444</v>
       </c>
       <c r="G407" s="0" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="H407" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I407" s="0" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="M407" s="0" t="n">
         <v>0</v>
@@ -26738,13 +26868,13 @@
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B408" s="0" t="s">
+        <v>776</v>
+      </c>
+      <c r="C408" s="0" t="s">
         <v>779</v>
-      </c>
-      <c r="B408" s="0" t="s">
-        <v>780</v>
-      </c>
-      <c r="C408" s="0" t="s">
-        <v>784</v>
       </c>
       <c r="D408" s="0" t="s">
         <v>58</v>
@@ -26753,13 +26883,13 @@
         <v>444</v>
       </c>
       <c r="G408" s="0" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="H408" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I408" s="0" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="M408" s="0" t="n">
         <v>0</v>
@@ -26797,13 +26927,13 @@
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="B409" s="0" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C409" s="0" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="D409" s="0" t="s">
         <v>58</v>
@@ -26812,13 +26942,13 @@
         <v>448</v>
       </c>
       <c r="G409" s="0" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="H409" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I409" s="0" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="M409" s="0" t="n">
         <v>0</v>
@@ -26856,13 +26986,13 @@
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="B410" s="0" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C410" s="0" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="D410" s="0" t="s">
         <v>58</v>
@@ -26871,13 +27001,13 @@
         <v>448</v>
       </c>
       <c r="G410" s="0" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="H410" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I410" s="0" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="M410" s="0" t="n">
         <v>0</v>
@@ -26915,13 +27045,13 @@
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="B411" s="0" t="s">
-        <v>789</v>
+        <v>507</v>
       </c>
       <c r="C411" s="0" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="D411" s="0" t="s">
         <v>58</v>
@@ -26930,13 +27060,13 @@
         <v>444</v>
       </c>
       <c r="G411" s="0" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="H411" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I411" s="0" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="M411" s="0" t="n">
         <v>0</v>
@@ -26974,13 +27104,13 @@
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="B412" s="0" t="s">
-        <v>789</v>
+        <v>507</v>
       </c>
       <c r="C412" s="0" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="D412" s="0" t="s">
         <v>58</v>
@@ -26989,13 +27119,13 @@
         <v>444</v>
       </c>
       <c r="G412" s="0" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="H412" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I412" s="0" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="M412" s="0" t="n">
         <v>0</v>
@@ -27033,13 +27163,13 @@
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="1" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="B413" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="C413" s="0" t="s">
         <v>789</v>
-      </c>
-      <c r="C413" s="0" t="s">
-        <v>795</v>
       </c>
       <c r="D413" s="0" t="s">
         <v>58</v>
@@ -27048,13 +27178,13 @@
         <v>448</v>
       </c>
       <c r="G413" s="0" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="H413" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I413" s="0" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="M413" s="0" t="n">
         <v>0</v>
@@ -27092,13 +27222,13 @@
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="B414" s="0" t="s">
-        <v>789</v>
+        <v>507</v>
       </c>
       <c r="C414" s="0" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="D414" s="0" t="s">
         <v>58</v>
@@ -27107,13 +27237,13 @@
         <v>448</v>
       </c>
       <c r="G414" s="0" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="H414" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I414" s="0" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="M414" s="0" t="n">
         <v>0</v>
@@ -27151,13 +27281,13 @@
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="B415" s="0" t="s">
-        <v>798</v>
+        <v>442</v>
       </c>
       <c r="C415" s="0" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="D415" s="0" t="s">
         <v>58</v>
@@ -27166,13 +27296,13 @@
         <v>444</v>
       </c>
       <c r="G415" s="0" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="H415" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I415" s="0" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="M415" s="0" t="n">
         <v>0</v>
@@ -27210,13 +27340,13 @@
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="B416" s="0" t="s">
-        <v>798</v>
+        <v>442</v>
       </c>
       <c r="C416" s="0" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="D416" s="0" t="s">
         <v>58</v>
@@ -27225,13 +27355,13 @@
         <v>444</v>
       </c>
       <c r="G416" s="0" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="H416" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I416" s="0" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="M416" s="0" t="n">
         <v>0</v>
@@ -27269,13 +27399,13 @@
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="B417" s="0" t="s">
-        <v>798</v>
+        <v>442</v>
       </c>
       <c r="C417" s="0" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="D417" s="0" t="s">
         <v>58</v>
@@ -27284,13 +27414,13 @@
         <v>448</v>
       </c>
       <c r="G417" s="0" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="H417" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I417" s="0" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="M417" s="0" t="n">
         <v>0</v>
@@ -27328,13 +27458,13 @@
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="B418" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="C418" s="0" t="s">
         <v>798</v>
-      </c>
-      <c r="C418" s="0" t="s">
-        <v>805</v>
       </c>
       <c r="D418" s="0" t="s">
         <v>58</v>
@@ -27343,13 +27473,13 @@
         <v>448</v>
       </c>
       <c r="G418" s="0" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="H418" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I418" s="0" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="M418" s="0" t="n">
         <v>0</v>
@@ -27387,13 +27517,13 @@
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="B419" s="0" t="s">
-        <v>660</v>
+        <v>800</v>
       </c>
       <c r="C419" s="0" t="s">
-        <v>661</v>
+        <v>801</v>
       </c>
       <c r="D419" s="0" t="s">
         <v>58</v>
@@ -27402,13 +27532,13 @@
         <v>444</v>
       </c>
       <c r="G419" s="0" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="H419" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I419" s="0" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="M419" s="0" t="n">
         <v>0</v>
@@ -27446,13 +27576,13 @@
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="B420" s="0" t="s">
-        <v>660</v>
+        <v>800</v>
       </c>
       <c r="C420" s="0" t="s">
-        <v>662</v>
+        <v>804</v>
       </c>
       <c r="D420" s="0" t="s">
         <v>58</v>
@@ -27461,13 +27591,13 @@
         <v>444</v>
       </c>
       <c r="G420" s="0" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="H420" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I420" s="0" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="M420" s="0" t="n">
         <v>0</v>
@@ -27505,13 +27635,13 @@
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="B421" s="0" t="s">
-        <v>660</v>
+        <v>800</v>
       </c>
       <c r="C421" s="0" t="s">
-        <v>664</v>
+        <v>806</v>
       </c>
       <c r="D421" s="0" t="s">
         <v>58</v>
@@ -27520,13 +27650,13 @@
         <v>448</v>
       </c>
       <c r="G421" s="0" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="H421" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I421" s="0" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="M421" s="0" t="n">
         <v>0</v>
@@ -27564,13 +27694,13 @@
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="B422" s="0" t="s">
-        <v>660</v>
+        <v>800</v>
       </c>
       <c r="C422" s="0" t="s">
-        <v>665</v>
+        <v>807</v>
       </c>
       <c r="D422" s="0" t="s">
         <v>58</v>
@@ -27579,13 +27709,13 @@
         <v>448</v>
       </c>
       <c r="G422" s="0" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="H422" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I422" s="0" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="M422" s="0" t="n">
         <v>0</v>
@@ -27621,65 +27751,1185 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A521" s="1"/>
-    </row>
-    <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A522" s="1"/>
-    </row>
-    <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A523" s="1"/>
-    </row>
-    <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A524" s="1"/>
-    </row>
-    <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A525" s="1"/>
-    </row>
-    <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A526" s="1"/>
-    </row>
-    <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A527" s="1"/>
-    </row>
-    <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A528" s="1"/>
-    </row>
-    <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A529" s="1"/>
-    </row>
-    <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A530" s="1"/>
-    </row>
-    <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A531" s="1"/>
-    </row>
-    <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A532" s="1"/>
-    </row>
-    <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A533" s="1"/>
-    </row>
-    <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A534" s="1"/>
-    </row>
-    <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A535" s="1"/>
-    </row>
-    <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A536" s="1"/>
-    </row>
-    <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A537" s="1"/>
-    </row>
-    <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A538" s="1"/>
-    </row>
-    <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A539" s="1"/>
-    </row>
-    <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A540" s="1"/>
+    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B423" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="C423" s="0" t="s">
+        <v>809</v>
+      </c>
+      <c r="D423" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E423" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="G423" s="0" t="s">
+        <v>810</v>
+      </c>
+      <c r="H423" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I423" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="M423" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N423" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O423" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P423" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S423" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB423" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL423" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP423" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ423" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR423" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS423" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B424" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="C424" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="D424" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E424" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="G424" s="0" t="s">
+        <v>810</v>
+      </c>
+      <c r="H424" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I424" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="M424" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N424" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O424" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P424" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S424" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB424" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL424" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP424" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ424" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR424" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS424" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B425" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="C425" s="0" t="s">
+        <v>814</v>
+      </c>
+      <c r="D425" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E425" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="G425" s="0" t="s">
+        <v>810</v>
+      </c>
+      <c r="H425" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I425" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="M425" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N425" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O425" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P425" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S425" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB425" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL425" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP425" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ425" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR425" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS425" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B426" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="C426" s="0" t="s">
+        <v>815</v>
+      </c>
+      <c r="D426" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E426" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="G426" s="0" t="s">
+        <v>810</v>
+      </c>
+      <c r="H426" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I426" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="M426" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N426" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O426" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P426" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S426" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB426" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL426" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP426" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ426" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR426" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS426" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B427" s="0" t="s">
+        <v>817</v>
+      </c>
+      <c r="C427" s="0" t="s">
+        <v>818</v>
+      </c>
+      <c r="D427" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E427" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="G427" s="0" t="s">
+        <v>819</v>
+      </c>
+      <c r="H427" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I427" s="0" t="s">
+        <v>820</v>
+      </c>
+      <c r="M427" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N427" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O427" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P427" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S427" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB427" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL427" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP427" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ427" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR427" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS427" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B428" s="0" t="s">
+        <v>817</v>
+      </c>
+      <c r="C428" s="0" t="s">
+        <v>821</v>
+      </c>
+      <c r="D428" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E428" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="G428" s="0" t="s">
+        <v>819</v>
+      </c>
+      <c r="H428" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I428" s="0" t="s">
+        <v>820</v>
+      </c>
+      <c r="M428" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N428" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O428" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P428" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S428" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB428" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL428" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP428" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ428" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR428" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS428" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B429" s="0" t="s">
+        <v>817</v>
+      </c>
+      <c r="C429" s="0" t="s">
+        <v>823</v>
+      </c>
+      <c r="D429" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E429" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="G429" s="0" t="s">
+        <v>819</v>
+      </c>
+      <c r="H429" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I429" s="0" t="s">
+        <v>820</v>
+      </c>
+      <c r="M429" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N429" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O429" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P429" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S429" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB429" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL429" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP429" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ429" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR429" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS429" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B430" s="0" t="s">
+        <v>817</v>
+      </c>
+      <c r="C430" s="0" t="s">
+        <v>824</v>
+      </c>
+      <c r="D430" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E430" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="G430" s="0" t="s">
+        <v>819</v>
+      </c>
+      <c r="H430" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I430" s="0" t="s">
+        <v>820</v>
+      </c>
+      <c r="M430" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N430" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O430" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P430" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S430" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB430" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL430" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP430" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ430" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR430" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS430" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B431" s="0" t="s">
+        <v>826</v>
+      </c>
+      <c r="C431" s="0" t="s">
+        <v>827</v>
+      </c>
+      <c r="D431" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E431" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="G431" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="H431" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I431" s="0" t="s">
+        <v>829</v>
+      </c>
+      <c r="M431" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N431" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O431" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P431" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S431" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB431" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL431" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP431" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ431" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR431" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS431" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B432" s="0" t="s">
+        <v>826</v>
+      </c>
+      <c r="C432" s="0" t="s">
+        <v>830</v>
+      </c>
+      <c r="D432" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E432" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="G432" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="H432" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I432" s="0" t="s">
+        <v>829</v>
+      </c>
+      <c r="M432" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N432" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O432" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P432" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S432" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB432" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL432" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP432" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ432" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR432" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS432" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B433" s="0" t="s">
+        <v>826</v>
+      </c>
+      <c r="C433" s="0" t="s">
+        <v>832</v>
+      </c>
+      <c r="D433" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E433" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="G433" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="H433" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I433" s="0" t="s">
+        <v>829</v>
+      </c>
+      <c r="M433" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N433" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O433" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P433" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S433" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB433" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL433" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP433" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ433" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR433" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS433" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B434" s="0" t="s">
+        <v>826</v>
+      </c>
+      <c r="C434" s="0" t="s">
+        <v>833</v>
+      </c>
+      <c r="D434" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E434" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="G434" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="H434" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I434" s="0" t="s">
+        <v>829</v>
+      </c>
+      <c r="M434" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N434" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O434" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P434" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S434" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB434" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL434" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP434" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ434" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR434" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS434" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B435" s="0" t="s">
+        <v>835</v>
+      </c>
+      <c r="C435" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="D435" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E435" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="G435" s="0" t="s">
+        <v>837</v>
+      </c>
+      <c r="H435" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I435" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="M435" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N435" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O435" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P435" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S435" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB435" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL435" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP435" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ435" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR435" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS435" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B436" s="0" t="s">
+        <v>835</v>
+      </c>
+      <c r="C436" s="0" t="s">
+        <v>839</v>
+      </c>
+      <c r="D436" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E436" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="G436" s="0" t="s">
+        <v>837</v>
+      </c>
+      <c r="H436" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I436" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="M436" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N436" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O436" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P436" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S436" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB436" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL436" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP436" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ436" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR436" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS436" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B437" s="0" t="s">
+        <v>835</v>
+      </c>
+      <c r="C437" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="D437" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E437" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="G437" s="0" t="s">
+        <v>837</v>
+      </c>
+      <c r="H437" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I437" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="M437" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N437" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O437" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P437" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S437" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB437" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL437" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP437" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ437" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR437" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS437" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B438" s="0" t="s">
+        <v>835</v>
+      </c>
+      <c r="C438" s="0" t="s">
+        <v>842</v>
+      </c>
+      <c r="D438" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E438" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="G438" s="0" t="s">
+        <v>837</v>
+      </c>
+      <c r="H438" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I438" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="M438" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N438" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O438" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P438" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S438" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB438" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL438" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP438" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ438" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR438" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS438" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B439" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="C439" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="D439" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E439" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="G439" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="H439" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I439" s="0" t="s">
+        <v>845</v>
+      </c>
+      <c r="M439" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N439" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O439" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P439" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S439" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB439" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL439" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP439" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ439" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR439" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS439" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B440" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="C440" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="D440" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E440" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="G440" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="H440" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I440" s="0" t="s">
+        <v>845</v>
+      </c>
+      <c r="M440" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N440" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O440" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P440" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S440" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB440" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL440" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP440" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ440" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR440" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS440" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B441" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="C441" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="D441" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E441" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="G441" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="H441" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I441" s="0" t="s">
+        <v>845</v>
+      </c>
+      <c r="M441" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N441" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O441" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P441" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S441" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB441" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL441" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP441" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ441" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR441" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS441" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B442" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="C442" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="D442" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E442" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="G442" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="H442" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I442" s="0" t="s">
+        <v>845</v>
+      </c>
+      <c r="M442" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N442" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O442" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P442" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S442" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB442" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL442" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP442" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ442" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR442" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS442" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="1"/>
@@ -29697,6 +30947,24 @@
     <row r="1212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1212" s="1"/>
     </row>
+    <row r="1213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1213" s="1"/>
+    </row>
+    <row r="1214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1214" s="1"/>
+    </row>
+    <row r="1215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1215" s="1"/>
+    </row>
+    <row r="1216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1216" s="1"/>
+    </row>
+    <row r="1217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1217" s="1"/>
+    </row>
+    <row r="1218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1218" s="1"/>
+    </row>
     <row r="1219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1219" s="1"/>
     </row>
@@ -29739,24 +31007,6 @@
     <row r="1232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1232" s="1"/>
     </row>
-    <row r="1233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1233" s="1"/>
-    </row>
-    <row r="1234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1234" s="1"/>
-    </row>
-    <row r="1235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1235" s="1"/>
-    </row>
-    <row r="1236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1236" s="1"/>
-    </row>
-    <row r="1237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1237" s="1"/>
-    </row>
-    <row r="1238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1238" s="1"/>
-    </row>
     <row r="1239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1239" s="1"/>
     </row>
@@ -29793,6 +31043,36 @@
     <row r="1250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1250" s="1"/>
     </row>
+    <row r="1251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1251" s="1"/>
+    </row>
+    <row r="1252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1252" s="1"/>
+    </row>
+    <row r="1253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1253" s="1"/>
+    </row>
+    <row r="1254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1254" s="1"/>
+    </row>
+    <row r="1255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1255" s="1"/>
+    </row>
+    <row r="1256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1256" s="1"/>
+    </row>
+    <row r="1257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1257" s="1"/>
+    </row>
+    <row r="1258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1258" s="1"/>
+    </row>
+    <row r="1259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1259" s="1"/>
+    </row>
+    <row r="1260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1260" s="1"/>
+    </row>
     <row r="1261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1261" s="1"/>
     </row>
@@ -29823,30 +31103,6 @@
     <row r="1270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1270" s="1"/>
     </row>
-    <row r="1271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1271" s="1"/>
-    </row>
-    <row r="1272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1272" s="1"/>
-    </row>
-    <row r="1275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1275" s="1"/>
-    </row>
-    <row r="1276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1276" s="1"/>
-    </row>
-    <row r="1277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1277" s="1"/>
-    </row>
-    <row r="1278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1278" s="1"/>
-    </row>
-    <row r="1279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1279" s="1"/>
-    </row>
-    <row r="1280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1280" s="1"/>
-    </row>
     <row r="1281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1281" s="1"/>
     </row>
@@ -29862,6 +31118,18 @@
     <row r="1285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1285" s="1"/>
     </row>
+    <row r="1286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1286" s="1"/>
+    </row>
+    <row r="1287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1287" s="1"/>
+    </row>
+    <row r="1288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1288" s="1"/>
+    </row>
+    <row r="1289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1289" s="1"/>
+    </row>
     <row r="1290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1290" s="1"/>
     </row>
@@ -29871,12 +31139,6 @@
     <row r="1292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1292" s="1"/>
     </row>
-    <row r="1293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1293" s="1"/>
-    </row>
-    <row r="1294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1294" s="1"/>
-    </row>
     <row r="1295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1295" s="1"/>
     </row>
@@ -29910,18 +31172,6 @@
     <row r="1305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1305" s="1"/>
     </row>
-    <row r="1306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1306" s="1"/>
-    </row>
-    <row r="1307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1307" s="1"/>
-    </row>
-    <row r="1308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1308" s="1"/>
-    </row>
-    <row r="1309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1309" s="1"/>
-    </row>
     <row r="1310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1310" s="1"/>
     </row>
@@ -30119,6 +31369,66 @@
     </row>
     <row r="1375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1375" s="1"/>
+    </row>
+    <row r="1376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1376" s="1"/>
+    </row>
+    <row r="1377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1377" s="1"/>
+    </row>
+    <row r="1378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1378" s="1"/>
+    </row>
+    <row r="1379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1379" s="1"/>
+    </row>
+    <row r="1380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1380" s="1"/>
+    </row>
+    <row r="1381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1381" s="1"/>
+    </row>
+    <row r="1382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1382" s="1"/>
+    </row>
+    <row r="1383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1383" s="1"/>
+    </row>
+    <row r="1384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1384" s="1"/>
+    </row>
+    <row r="1385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1385" s="1"/>
+    </row>
+    <row r="1386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1386" s="1"/>
+    </row>
+    <row r="1387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1387" s="1"/>
+    </row>
+    <row r="1388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1388" s="1"/>
+    </row>
+    <row r="1389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1389" s="1"/>
+    </row>
+    <row r="1390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1390" s="1"/>
+    </row>
+    <row r="1391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1391" s="1"/>
+    </row>
+    <row r="1392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1392" s="1"/>
+    </row>
+    <row r="1393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1393" s="1"/>
+    </row>
+    <row r="1394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1394" s="1"/>
+    </row>
+    <row r="1395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1395" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/run/predefined.xlsx
+++ b/run/predefined.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3553" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3617" uniqueCount="864">
   <si>
     <t xml:space="preserve">databaseId</t>
   </si>
@@ -2369,6 +2369,189 @@
   </si>
   <si>
     <t xml:space="preserve">micro_investigators/60501b.webp</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">08007</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Monterey Jack</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">mini_investigators/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">08007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">a.webp</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Edge of the Earth Investigator Expansion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eoep</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">mini_investigators/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">08007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">b.webp</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">08007</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">micro_investigators/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">08007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">a.webp</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">micro_investigators/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">08007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">b.webp</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">m90084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/90084a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pistols and Pearls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/90084b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u90084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/90084a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/90084b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m98001</t>
@@ -2571,7 +2754,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2592,6 +2775,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2636,12 +2824,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2662,15 +2854,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AT1395"/>
+  <dimension ref="A1:AT1403"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A376" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A411" activeCellId="0" sqref="A411"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.24"/>
@@ -27047,11 +27239,11 @@
       <c r="A411" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="B411" s="0" t="s">
-        <v>507</v>
+      <c r="B411" s="2" t="s">
+        <v>784</v>
       </c>
       <c r="C411" s="0" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D411" s="0" t="s">
         <v>58</v>
@@ -27059,14 +27251,14 @@
       <c r="E411" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="G411" s="0" t="s">
-        <v>785</v>
+      <c r="G411" s="2" t="s">
+        <v>786</v>
       </c>
       <c r="H411" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I411" s="0" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="M411" s="0" t="n">
         <v>0</v>
@@ -27106,11 +27298,11 @@
       <c r="A412" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="B412" s="0" t="s">
-        <v>507</v>
+      <c r="B412" s="2" t="s">
+        <v>784</v>
       </c>
       <c r="C412" s="0" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D412" s="0" t="s">
         <v>58</v>
@@ -27118,14 +27310,14 @@
       <c r="E412" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="G412" s="0" t="s">
-        <v>785</v>
+      <c r="G412" s="2" t="s">
+        <v>786</v>
       </c>
       <c r="H412" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I412" s="0" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="M412" s="0" t="n">
         <v>0</v>
@@ -27163,13 +27355,13 @@
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="B413" s="0" t="s">
-        <v>507</v>
+        <v>789</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>784</v>
       </c>
       <c r="C413" s="0" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D413" s="0" t="s">
         <v>58</v>
@@ -27177,14 +27369,14 @@
       <c r="E413" s="0" t="s">
         <v>448</v>
       </c>
-      <c r="G413" s="0" t="s">
-        <v>785</v>
+      <c r="G413" s="2" t="s">
+        <v>786</v>
       </c>
       <c r="H413" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I413" s="0" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="M413" s="0" t="n">
         <v>0</v>
@@ -27222,13 +27414,13 @@
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="B414" s="0" t="s">
-        <v>507</v>
+        <v>789</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>784</v>
       </c>
       <c r="C414" s="0" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D414" s="0" t="s">
         <v>58</v>
@@ -27236,14 +27428,14 @@
       <c r="E414" s="0" t="s">
         <v>448</v>
       </c>
-      <c r="G414" s="0" t="s">
-        <v>785</v>
+      <c r="G414" s="2" t="s">
+        <v>786</v>
       </c>
       <c r="H414" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I414" s="0" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="M414" s="0" t="n">
         <v>0</v>
@@ -27281,13 +27473,13 @@
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B415" s="0" t="s">
-        <v>442</v>
+        <v>507</v>
       </c>
       <c r="C415" s="0" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D415" s="0" t="s">
         <v>58</v>
@@ -27296,13 +27488,13 @@
         <v>444</v>
       </c>
       <c r="G415" s="0" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H415" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I415" s="0" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="M415" s="0" t="n">
         <v>0</v>
@@ -27340,13 +27532,13 @@
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B416" s="0" t="s">
-        <v>442</v>
+        <v>507</v>
       </c>
       <c r="C416" s="0" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D416" s="0" t="s">
         <v>58</v>
@@ -27355,13 +27547,13 @@
         <v>444</v>
       </c>
       <c r="G416" s="0" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H416" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I416" s="0" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="M416" s="0" t="n">
         <v>0</v>
@@ -27399,13 +27591,13 @@
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B417" s="0" t="s">
-        <v>442</v>
+        <v>507</v>
       </c>
       <c r="C417" s="0" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D417" s="0" t="s">
         <v>58</v>
@@ -27414,13 +27606,13 @@
         <v>448</v>
       </c>
       <c r="G417" s="0" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H417" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I417" s="0" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="M417" s="0" t="n">
         <v>0</v>
@@ -27458,13 +27650,13 @@
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B418" s="0" t="s">
-        <v>442</v>
+        <v>507</v>
       </c>
       <c r="C418" s="0" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D418" s="0" t="s">
         <v>58</v>
@@ -27473,13 +27665,13 @@
         <v>448</v>
       </c>
       <c r="G418" s="0" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H418" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I418" s="0" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="M418" s="0" t="n">
         <v>0</v>
@@ -27517,10 +27709,10 @@
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B419" s="0" t="s">
-        <v>800</v>
+        <v>507</v>
       </c>
       <c r="C419" s="0" t="s">
         <v>801</v>
@@ -27576,10 +27768,10 @@
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B420" s="0" t="s">
-        <v>800</v>
+        <v>507</v>
       </c>
       <c r="C420" s="0" t="s">
         <v>804</v>
@@ -27638,7 +27830,7 @@
         <v>805</v>
       </c>
       <c r="B421" s="0" t="s">
-        <v>800</v>
+        <v>507</v>
       </c>
       <c r="C421" s="0" t="s">
         <v>806</v>
@@ -27697,7 +27889,7 @@
         <v>805</v>
       </c>
       <c r="B422" s="0" t="s">
-        <v>800</v>
+        <v>507</v>
       </c>
       <c r="C422" s="0" t="s">
         <v>807</v>
@@ -27756,7 +27948,7 @@
         <v>808</v>
       </c>
       <c r="B423" s="0" t="s">
-        <v>623</v>
+        <v>442</v>
       </c>
       <c r="C423" s="0" t="s">
         <v>809</v>
@@ -27815,7 +28007,7 @@
         <v>808</v>
       </c>
       <c r="B424" s="0" t="s">
-        <v>623</v>
+        <v>442</v>
       </c>
       <c r="C424" s="0" t="s">
         <v>812</v>
@@ -27874,7 +28066,7 @@
         <v>813</v>
       </c>
       <c r="B425" s="0" t="s">
-        <v>623</v>
+        <v>442</v>
       </c>
       <c r="C425" s="0" t="s">
         <v>814</v>
@@ -27933,7 +28125,7 @@
         <v>813</v>
       </c>
       <c r="B426" s="0" t="s">
-        <v>623</v>
+        <v>442</v>
       </c>
       <c r="C426" s="0" t="s">
         <v>815</v>
@@ -28228,10 +28420,10 @@
         <v>825</v>
       </c>
       <c r="B431" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="C431" s="0" t="s">
         <v>826</v>
-      </c>
-      <c r="C431" s="0" t="s">
-        <v>827</v>
       </c>
       <c r="D431" s="0" t="s">
         <v>58</v>
@@ -28240,13 +28432,13 @@
         <v>444</v>
       </c>
       <c r="G431" s="0" t="s">
+        <v>827</v>
+      </c>
+      <c r="H431" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I431" s="0" t="s">
         <v>828</v>
-      </c>
-      <c r="H431" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" s="0" t="s">
-        <v>829</v>
       </c>
       <c r="M431" s="0" t="n">
         <v>0</v>
@@ -28287,10 +28479,10 @@
         <v>825</v>
       </c>
       <c r="B432" s="0" t="s">
-        <v>826</v>
+        <v>623</v>
       </c>
       <c r="C432" s="0" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D432" s="0" t="s">
         <v>58</v>
@@ -28299,13 +28491,13 @@
         <v>444</v>
       </c>
       <c r="G432" s="0" t="s">
+        <v>827</v>
+      </c>
+      <c r="H432" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I432" s="0" t="s">
         <v>828</v>
-      </c>
-      <c r="H432" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" s="0" t="s">
-        <v>829</v>
       </c>
       <c r="M432" s="0" t="n">
         <v>0</v>
@@ -28343,13 +28535,13 @@
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B433" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="C433" s="0" t="s">
         <v>831</v>
-      </c>
-      <c r="B433" s="0" t="s">
-        <v>826</v>
-      </c>
-      <c r="C433" s="0" t="s">
-        <v>832</v>
       </c>
       <c r="D433" s="0" t="s">
         <v>58</v>
@@ -28358,13 +28550,13 @@
         <v>448</v>
       </c>
       <c r="G433" s="0" t="s">
+        <v>827</v>
+      </c>
+      <c r="H433" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I433" s="0" t="s">
         <v>828</v>
-      </c>
-      <c r="H433" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" s="0" t="s">
-        <v>829</v>
       </c>
       <c r="M433" s="0" t="n">
         <v>0</v>
@@ -28402,13 +28594,13 @@
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B434" s="0" t="s">
-        <v>826</v>
+        <v>623</v>
       </c>
       <c r="C434" s="0" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D434" s="0" t="s">
         <v>58</v>
@@ -28417,13 +28609,13 @@
         <v>448</v>
       </c>
       <c r="G434" s="0" t="s">
+        <v>827</v>
+      </c>
+      <c r="H434" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I434" s="0" t="s">
         <v>828</v>
-      </c>
-      <c r="H434" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" s="0" t="s">
-        <v>829</v>
       </c>
       <c r="M434" s="0" t="n">
         <v>0</v>
@@ -28461,13 +28653,13 @@
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="B435" s="0" t="s">
         <v>834</v>
       </c>
-      <c r="B435" s="0" t="s">
+      <c r="C435" s="0" t="s">
         <v>835</v>
-      </c>
-      <c r="C435" s="0" t="s">
-        <v>836</v>
       </c>
       <c r="D435" s="0" t="s">
         <v>58</v>
@@ -28476,13 +28668,13 @@
         <v>444</v>
       </c>
       <c r="G435" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="H435" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I435" s="0" t="s">
         <v>837</v>
-      </c>
-      <c r="H435" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" s="0" t="s">
-        <v>838</v>
       </c>
       <c r="M435" s="0" t="n">
         <v>0</v>
@@ -28520,13 +28712,13 @@
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="B436" s="0" t="s">
         <v>834</v>
       </c>
-      <c r="B436" s="0" t="s">
-        <v>835</v>
-      </c>
       <c r="C436" s="0" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D436" s="0" t="s">
         <v>58</v>
@@ -28535,13 +28727,13 @@
         <v>444</v>
       </c>
       <c r="G436" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="H436" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I436" s="0" t="s">
         <v>837</v>
-      </c>
-      <c r="H436" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" s="0" t="s">
-        <v>838</v>
       </c>
       <c r="M436" s="0" t="n">
         <v>0</v>
@@ -28579,13 +28771,13 @@
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B437" s="0" t="s">
+        <v>834</v>
+      </c>
+      <c r="C437" s="0" t="s">
         <v>840</v>
-      </c>
-      <c r="B437" s="0" t="s">
-        <v>835</v>
-      </c>
-      <c r="C437" s="0" t="s">
-        <v>841</v>
       </c>
       <c r="D437" s="0" t="s">
         <v>58</v>
@@ -28594,13 +28786,13 @@
         <v>448</v>
       </c>
       <c r="G437" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="H437" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I437" s="0" t="s">
         <v>837</v>
-      </c>
-      <c r="H437" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" s="0" t="s">
-        <v>838</v>
       </c>
       <c r="M437" s="0" t="n">
         <v>0</v>
@@ -28638,13 +28830,13 @@
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B438" s="0" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C438" s="0" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D438" s="0" t="s">
         <v>58</v>
@@ -28653,13 +28845,13 @@
         <v>448</v>
       </c>
       <c r="G438" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="H438" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I438" s="0" t="s">
         <v>837</v>
-      </c>
-      <c r="H438" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" s="0" t="s">
-        <v>838</v>
       </c>
       <c r="M438" s="0" t="n">
         <v>0</v>
@@ -28697,13 +28889,13 @@
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B439" s="0" t="s">
         <v>843</v>
       </c>
-      <c r="B439" s="0" t="s">
-        <v>660</v>
-      </c>
       <c r="C439" s="0" t="s">
-        <v>661</v>
+        <v>844</v>
       </c>
       <c r="D439" s="0" t="s">
         <v>58</v>
@@ -28712,13 +28904,13 @@
         <v>444</v>
       </c>
       <c r="G439" s="0" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H439" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I439" s="0" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="M439" s="0" t="n">
         <v>0</v>
@@ -28756,13 +28948,13 @@
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B440" s="0" t="s">
         <v>843</v>
       </c>
-      <c r="B440" s="0" t="s">
-        <v>660</v>
-      </c>
       <c r="C440" s="0" t="s">
-        <v>662</v>
+        <v>847</v>
       </c>
       <c r="D440" s="0" t="s">
         <v>58</v>
@@ -28771,13 +28963,13 @@
         <v>444</v>
       </c>
       <c r="G440" s="0" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H440" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I440" s="0" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="M440" s="0" t="n">
         <v>0</v>
@@ -28815,13 +29007,13 @@
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="1" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B441" s="0" t="s">
-        <v>660</v>
+        <v>843</v>
       </c>
       <c r="C441" s="0" t="s">
-        <v>664</v>
+        <v>849</v>
       </c>
       <c r="D441" s="0" t="s">
         <v>58</v>
@@ -28830,13 +29022,13 @@
         <v>448</v>
       </c>
       <c r="G441" s="0" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H441" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I441" s="0" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="M441" s="0" t="n">
         <v>0</v>
@@ -28874,13 +29066,13 @@
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="1" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B442" s="0" t="s">
-        <v>660</v>
+        <v>843</v>
       </c>
       <c r="C442" s="0" t="s">
-        <v>665</v>
+        <v>850</v>
       </c>
       <c r="D442" s="0" t="s">
         <v>58</v>
@@ -28889,13 +29081,13 @@
         <v>448</v>
       </c>
       <c r="G442" s="0" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H442" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I442" s="0" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="M442" s="0" t="n">
         <v>0</v>
@@ -28931,29 +29123,477 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A541" s="1"/>
-    </row>
-    <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A542" s="1"/>
-    </row>
-    <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A543" s="1"/>
-    </row>
-    <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A544" s="1"/>
-    </row>
-    <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A545" s="1"/>
-    </row>
-    <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A546" s="1"/>
-    </row>
-    <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A547" s="1"/>
-    </row>
-    <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A548" s="1"/>
+    <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="B443" s="0" t="s">
+        <v>852</v>
+      </c>
+      <c r="C443" s="0" t="s">
+        <v>853</v>
+      </c>
+      <c r="D443" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E443" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="G443" s="0" t="s">
+        <v>854</v>
+      </c>
+      <c r="H443" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I443" s="0" t="s">
+        <v>855</v>
+      </c>
+      <c r="M443" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N443" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O443" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P443" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S443" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB443" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL443" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP443" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ443" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR443" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS443" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A444" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="B444" s="0" t="s">
+        <v>852</v>
+      </c>
+      <c r="C444" s="0" t="s">
+        <v>856</v>
+      </c>
+      <c r="D444" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E444" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="G444" s="0" t="s">
+        <v>854</v>
+      </c>
+      <c r="H444" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I444" s="0" t="s">
+        <v>855</v>
+      </c>
+      <c r="M444" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N444" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O444" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P444" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S444" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB444" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL444" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP444" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ444" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR444" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS444" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A445" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B445" s="0" t="s">
+        <v>852</v>
+      </c>
+      <c r="C445" s="0" t="s">
+        <v>858</v>
+      </c>
+      <c r="D445" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E445" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="G445" s="0" t="s">
+        <v>854</v>
+      </c>
+      <c r="H445" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I445" s="0" t="s">
+        <v>855</v>
+      </c>
+      <c r="M445" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N445" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O445" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P445" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S445" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB445" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL445" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP445" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ445" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR445" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS445" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A446" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B446" s="0" t="s">
+        <v>852</v>
+      </c>
+      <c r="C446" s="0" t="s">
+        <v>859</v>
+      </c>
+      <c r="D446" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E446" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="G446" s="0" t="s">
+        <v>854</v>
+      </c>
+      <c r="H446" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I446" s="0" t="s">
+        <v>855</v>
+      </c>
+      <c r="M446" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N446" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O446" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P446" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S446" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB446" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL446" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP446" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ446" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR446" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS446" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A447" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B447" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="C447" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="D447" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E447" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="G447" s="0" t="s">
+        <v>861</v>
+      </c>
+      <c r="H447" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I447" s="0" t="s">
+        <v>862</v>
+      </c>
+      <c r="M447" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N447" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O447" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P447" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S447" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB447" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL447" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP447" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ447" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR447" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS447" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A448" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B448" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="C448" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="D448" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E448" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="G448" s="0" t="s">
+        <v>861</v>
+      </c>
+      <c r="H448" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I448" s="0" t="s">
+        <v>862</v>
+      </c>
+      <c r="M448" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N448" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O448" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P448" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S448" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB448" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL448" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP448" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ448" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR448" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS448" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="B449" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="C449" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="D449" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E449" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="G449" s="0" t="s">
+        <v>861</v>
+      </c>
+      <c r="H449" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I449" s="0" t="s">
+        <v>862</v>
+      </c>
+      <c r="M449" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N449" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O449" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P449" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S449" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB449" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL449" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP449" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ449" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR449" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS449" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A450" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="B450" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="C450" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="D450" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E450" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="G450" s="0" t="s">
+        <v>861</v>
+      </c>
+      <c r="H450" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I450" s="0" t="s">
+        <v>862</v>
+      </c>
+      <c r="M450" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N450" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O450" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P450" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S450" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB450" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL450" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP450" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ450" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR450" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS450" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="1"/>
@@ -31007,30 +31647,30 @@
     <row r="1232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1232" s="1"/>
     </row>
+    <row r="1233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1233" s="1"/>
+    </row>
+    <row r="1234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1234" s="1"/>
+    </row>
+    <row r="1235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1235" s="1"/>
+    </row>
+    <row r="1236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1236" s="1"/>
+    </row>
+    <row r="1237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1237" s="1"/>
+    </row>
+    <row r="1238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1238" s="1"/>
+    </row>
     <row r="1239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1239" s="1"/>
     </row>
     <row r="1240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1240" s="1"/>
     </row>
-    <row r="1241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1241" s="1"/>
-    </row>
-    <row r="1242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1242" s="1"/>
-    </row>
-    <row r="1243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1243" s="1"/>
-    </row>
-    <row r="1244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1244" s="1"/>
-    </row>
-    <row r="1245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1245" s="1"/>
-    </row>
-    <row r="1246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1246" s="1"/>
-    </row>
     <row r="1247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1247" s="1"/>
     </row>
@@ -31103,29 +31743,29 @@
     <row r="1270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1270" s="1"/>
     </row>
-    <row r="1281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1281" s="1"/>
-    </row>
-    <row r="1282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1282" s="1"/>
-    </row>
-    <row r="1283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1283" s="1"/>
-    </row>
-    <row r="1284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1284" s="1"/>
-    </row>
-    <row r="1285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1285" s="1"/>
-    </row>
-    <row r="1286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1286" s="1"/>
-    </row>
-    <row r="1287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1287" s="1"/>
-    </row>
-    <row r="1288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1288" s="1"/>
+    <row r="1271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1271" s="1"/>
+    </row>
+    <row r="1272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1272" s="1"/>
+    </row>
+    <row r="1273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1273" s="1"/>
+    </row>
+    <row r="1274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1274" s="1"/>
+    </row>
+    <row r="1275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1275" s="1"/>
+    </row>
+    <row r="1276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1276" s="1"/>
+    </row>
+    <row r="1277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1277" s="1"/>
+    </row>
+    <row r="1278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1278" s="1"/>
     </row>
     <row r="1289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1289" s="1"/>
@@ -31139,6 +31779,12 @@
     <row r="1292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1292" s="1"/>
     </row>
+    <row r="1293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1293" s="1"/>
+    </row>
+    <row r="1294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1294" s="1"/>
+    </row>
     <row r="1295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1295" s="1"/>
     </row>
@@ -31157,12 +31803,6 @@
     <row r="1300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1300" s="1"/>
     </row>
-    <row r="1301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1301" s="1"/>
-    </row>
-    <row r="1302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1302" s="1"/>
-    </row>
     <row r="1303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1303" s="1"/>
     </row>
@@ -31172,6 +31812,18 @@
     <row r="1305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1305" s="1"/>
     </row>
+    <row r="1306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1306" s="1"/>
+    </row>
+    <row r="1307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1307" s="1"/>
+    </row>
+    <row r="1308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1308" s="1"/>
+    </row>
+    <row r="1309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1309" s="1"/>
+    </row>
     <row r="1310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1310" s="1"/>
     </row>
@@ -31184,18 +31836,6 @@
     <row r="1313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1313" s="1"/>
     </row>
-    <row r="1314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1314" s="1"/>
-    </row>
-    <row r="1315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1315" s="1"/>
-    </row>
-    <row r="1316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1316" s="1"/>
-    </row>
-    <row r="1317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1317" s="1"/>
-    </row>
     <row r="1318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1318" s="1"/>
     </row>
@@ -31429,6 +32069,30 @@
     </row>
     <row r="1395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1395" s="1"/>
+    </row>
+    <row r="1396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1396" s="1"/>
+    </row>
+    <row r="1397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1397" s="1"/>
+    </row>
+    <row r="1398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1398" s="1"/>
+    </row>
+    <row r="1399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1399" s="1"/>
+    </row>
+    <row r="1400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1400" s="1"/>
+    </row>
+    <row r="1401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1401" s="1"/>
+    </row>
+    <row r="1402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1402" s="1"/>
+    </row>
+    <row r="1403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1403" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/run/predefined.xlsx
+++ b/run/predefined.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3761" uniqueCount="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3921" uniqueCount="941">
   <si>
     <t xml:space="preserve">databaseId</t>
   </si>
@@ -2347,6 +2347,111 @@
     <t xml:space="preserve">micro_investigators/06005b.webp</t>
   </si>
   <si>
+    <t xml:space="preserve">m07001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sister Mary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/07001a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/07001b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u07001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/07001a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/07001b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m07002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amanda Sharpe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/07002a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/07002b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u07002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/07002a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/07002b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m07003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trish Scarborough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/07003a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/07003b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u07003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/07003a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/07003b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m07004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dexter Drake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/07004a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/07004b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u07004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/07004a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/07004b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m07005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silas Marsh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/07005a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/07005b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u07005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/07005a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/07005b.webp</t>
+  </si>
+  <si>
     <t xml:space="preserve">10016</t>
   </si>
   <si>
@@ -2656,9 +2761,6 @@
     <t xml:space="preserve">m98013</t>
   </si>
   <si>
-    <t xml:space="preserve">Silas Marsh</t>
-  </si>
-  <si>
     <t xml:space="preserve">mini_investigators/98013a.webp</t>
   </si>
   <si>
@@ -2681,9 +2783,6 @@
   </si>
   <si>
     <t xml:space="preserve">m98016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dexter Drake</t>
   </si>
   <si>
     <t xml:space="preserve">mini_investigators/98016a.webp</t>
@@ -2754,7 +2853,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2775,11 +2874,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2824,16 +2918,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2858,15 +2948,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AT1421"/>
+  <dimension ref="A1:AT1441"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A390" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A426" activeCellId="0" sqref="A426"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.24"/>
@@ -5596,7 +5686,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B45" s="0" t="s">
@@ -5655,7 +5745,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B46" s="0" t="s">
@@ -5714,7 +5804,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B47" s="0" t="s">
@@ -5773,7 +5863,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B48" s="0" t="s">
@@ -26963,22 +27053,20 @@
         <v>58</v>
       </c>
       <c r="E407" s="0" t="s">
-        <v>778</v>
+        <v>488</v>
       </c>
       <c r="G407" s="0" t="s">
-        <v>779</v>
+        <v>110</v>
       </c>
       <c r="H407" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I407" s="0" t="s">
-        <v>780</v>
-      </c>
-      <c r="J407" s="0" t="n">
-        <v>16</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="J407" s="1"/>
       <c r="M407" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N407" s="0" t="n">
         <v>0</v>
@@ -26988,51 +27076,27 @@
       </c>
       <c r="P407" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="Q407" s="0" t="s">
-        <v>781</v>
-      </c>
-      <c r="R407" s="0" t="s">
-        <v>782</v>
       </c>
       <c r="S407" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="V407" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="W407" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="X407" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y407" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA407" s="0" t="n">
-        <v>4</v>
-      </c>
       <c r="AB407" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AC407" s="0" t="n">
-        <v>6</v>
+      <c r="AL407" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="AP407" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AQ407" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR407" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AS407" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="AT407" s="0" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27043,28 +27107,26 @@
         <v>776</v>
       </c>
       <c r="C408" s="0" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="D408" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E408" s="0" t="s">
-        <v>778</v>
+        <v>488</v>
       </c>
       <c r="G408" s="0" t="s">
-        <v>779</v>
+        <v>110</v>
       </c>
       <c r="H408" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I408" s="0" t="s">
-        <v>780</v>
-      </c>
-      <c r="J408" s="0" t="n">
-        <v>16</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="J408" s="1"/>
       <c r="M408" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N408" s="0" t="n">
         <v>0</v>
@@ -27074,78 +27136,55 @@
       </c>
       <c r="P408" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="Q408" s="0" t="s">
-        <v>781</v>
-      </c>
-      <c r="R408" s="0" t="s">
-        <v>785</v>
       </c>
       <c r="S408" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="V408" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="W408" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X408" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y408" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA408" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="AB408" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AC408" s="0" t="n">
-        <v>4</v>
+      <c r="AL408" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="AP408" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AQ408" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR408" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AS408" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="AT408" s="0" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="B409" s="0" t="s">
-        <v>788</v>
+        <v>776</v>
       </c>
       <c r="C409" s="0" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="D409" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E409" s="0" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="G409" s="0" t="s">
-        <v>788</v>
+        <v>110</v>
       </c>
       <c r="H409" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I409" s="0" t="s">
-        <v>790</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="J409" s="1"/>
       <c r="M409" s="0" t="n">
         <v>0</v>
       </c>
@@ -27182,29 +27221,30 @@
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="B410" s="0" t="s">
-        <v>788</v>
+        <v>776</v>
       </c>
       <c r="C410" s="0" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="D410" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E410" s="0" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="G410" s="0" t="s">
-        <v>788</v>
+        <v>110</v>
       </c>
       <c r="H410" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I410" s="0" t="s">
-        <v>790</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="J410" s="1"/>
       <c r="M410" s="0" t="n">
         <v>0</v>
       </c>
@@ -27241,29 +27281,30 @@
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="B411" s="0" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="C411" s="0" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="D411" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E411" s="0" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G411" s="0" t="s">
-        <v>788</v>
+        <v>110</v>
       </c>
       <c r="H411" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I411" s="0" t="s">
-        <v>790</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="J411" s="1"/>
       <c r="M411" s="0" t="n">
         <v>0</v>
       </c>
@@ -27300,29 +27341,30 @@
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="B412" s="0" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="C412" s="0" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="D412" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E412" s="0" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G412" s="0" t="s">
-        <v>788</v>
+        <v>110</v>
       </c>
       <c r="H412" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I412" s="0" t="s">
-        <v>790</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="J412" s="1"/>
       <c r="M412" s="0" t="n">
         <v>0</v>
       </c>
@@ -27359,29 +27401,30 @@
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="1" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="B413" s="0" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
       <c r="C413" s="0" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="D413" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E413" s="0" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="G413" s="0" t="s">
-        <v>796</v>
+        <v>110</v>
       </c>
       <c r="H413" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I413" s="0" t="s">
-        <v>798</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="J413" s="1"/>
       <c r="M413" s="0" t="n">
         <v>0</v>
       </c>
@@ -27418,29 +27461,30 @@
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="B414" s="0" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
       <c r="C414" s="0" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="D414" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E414" s="0" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="G414" s="0" t="s">
-        <v>796</v>
+        <v>110</v>
       </c>
       <c r="H414" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I414" s="0" t="s">
-        <v>798</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="J414" s="1"/>
       <c r="M414" s="0" t="n">
         <v>0</v>
       </c>
@@ -27477,29 +27521,30 @@
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="B415" s="0" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="C415" s="0" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="D415" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E415" s="0" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G415" s="0" t="s">
-        <v>796</v>
+        <v>110</v>
       </c>
       <c r="H415" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I415" s="0" t="s">
-        <v>798</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="J415" s="1"/>
       <c r="M415" s="0" t="n">
         <v>0</v>
       </c>
@@ -27536,29 +27581,30 @@
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="B416" s="0" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="C416" s="0" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="D416" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E416" s="0" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G416" s="0" t="s">
-        <v>796</v>
+        <v>110</v>
       </c>
       <c r="H416" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I416" s="0" t="s">
-        <v>798</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="J416" s="1"/>
       <c r="M416" s="0" t="n">
         <v>0</v>
       </c>
@@ -27595,29 +27641,30 @@
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="B417" s="0" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
       <c r="C417" s="0" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
       <c r="D417" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E417" s="0" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="G417" s="0" t="s">
-        <v>804</v>
+        <v>110</v>
       </c>
       <c r="H417" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I417" s="0" t="s">
-        <v>806</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="J417" s="1"/>
       <c r="M417" s="0" t="n">
         <v>0</v>
       </c>
@@ -27654,29 +27701,30 @@
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="B418" s="0" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
       <c r="C418" s="0" t="s">
-        <v>807</v>
+        <v>795</v>
       </c>
       <c r="D418" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E418" s="0" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="G418" s="0" t="s">
-        <v>804</v>
+        <v>110</v>
       </c>
       <c r="H418" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I418" s="0" t="s">
-        <v>806</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="J418" s="1"/>
       <c r="M418" s="0" t="n">
         <v>0</v>
       </c>
@@ -27713,29 +27761,30 @@
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="s">
-        <v>808</v>
+        <v>796</v>
       </c>
       <c r="B419" s="0" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="C419" s="0" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
       <c r="D419" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E419" s="0" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G419" s="0" t="s">
-        <v>804</v>
+        <v>110</v>
       </c>
       <c r="H419" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I419" s="0" t="s">
-        <v>806</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="J419" s="1"/>
       <c r="M419" s="0" t="n">
         <v>0</v>
       </c>
@@ -27772,29 +27821,30 @@
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="s">
-        <v>808</v>
+        <v>796</v>
       </c>
       <c r="B420" s="0" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="C420" s="0" t="s">
-        <v>810</v>
+        <v>799</v>
       </c>
       <c r="D420" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E420" s="0" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G420" s="0" t="s">
-        <v>804</v>
+        <v>110</v>
       </c>
       <c r="H420" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I420" s="0" t="s">
-        <v>806</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="J420" s="1"/>
       <c r="M420" s="0" t="n">
         <v>0</v>
       </c>
@@ -27831,29 +27881,30 @@
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="B421" s="0" t="s">
-        <v>812</v>
+        <v>797</v>
       </c>
       <c r="C421" s="0" t="s">
-        <v>813</v>
+        <v>801</v>
       </c>
       <c r="D421" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E421" s="0" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="G421" s="0" t="s">
-        <v>812</v>
+        <v>110</v>
       </c>
       <c r="H421" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I421" s="0" t="s">
-        <v>814</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="J421" s="1"/>
       <c r="M421" s="0" t="n">
         <v>0</v>
       </c>
@@ -27890,29 +27941,30 @@
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="B422" s="0" t="s">
-        <v>812</v>
+        <v>797</v>
       </c>
       <c r="C422" s="0" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="D422" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E422" s="0" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="G422" s="0" t="s">
-        <v>812</v>
+        <v>110</v>
       </c>
       <c r="H422" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I422" s="0" t="s">
-        <v>814</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="J422" s="1"/>
       <c r="M422" s="0" t="n">
         <v>0</v>
       </c>
@@ -27949,29 +28001,30 @@
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
       <c r="B423" s="0" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="C423" s="0" t="s">
-        <v>817</v>
+        <v>805</v>
       </c>
       <c r="D423" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E423" s="0" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G423" s="0" t="s">
-        <v>812</v>
+        <v>110</v>
       </c>
       <c r="H423" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I423" s="0" t="s">
-        <v>814</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="J423" s="1"/>
       <c r="M423" s="0" t="n">
         <v>0</v>
       </c>
@@ -28008,29 +28061,30 @@
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
       <c r="B424" s="0" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="C424" s="0" t="s">
-        <v>818</v>
+        <v>806</v>
       </c>
       <c r="D424" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E424" s="0" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G424" s="0" t="s">
-        <v>812</v>
+        <v>110</v>
       </c>
       <c r="H424" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I424" s="0" t="s">
-        <v>814</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="J424" s="1"/>
       <c r="M424" s="0" t="n">
         <v>0</v>
       </c>
@@ -28067,29 +28121,30 @@
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="1" t="s">
-        <v>819</v>
+        <v>807</v>
       </c>
       <c r="B425" s="0" t="s">
-        <v>820</v>
+        <v>804</v>
       </c>
       <c r="C425" s="0" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
       <c r="D425" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E425" s="0" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="G425" s="0" t="s">
-        <v>820</v>
+        <v>110</v>
       </c>
       <c r="H425" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I425" s="0" t="s">
-        <v>822</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="J425" s="1"/>
       <c r="M425" s="0" t="n">
         <v>0</v>
       </c>
@@ -28126,29 +28181,30 @@
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="1" t="s">
-        <v>819</v>
+        <v>807</v>
       </c>
       <c r="B426" s="0" t="s">
-        <v>820</v>
+        <v>804</v>
       </c>
       <c r="C426" s="0" t="s">
-        <v>823</v>
+        <v>809</v>
       </c>
       <c r="D426" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E426" s="0" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="G426" s="0" t="s">
-        <v>820</v>
+        <v>110</v>
       </c>
       <c r="H426" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I426" s="0" t="s">
-        <v>822</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="J426" s="1"/>
       <c r="M426" s="0" t="n">
         <v>0</v>
       </c>
@@ -28185,31 +28241,34 @@
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="s">
-        <v>824</v>
+        <v>810</v>
       </c>
       <c r="B427" s="0" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="C427" s="0" t="s">
-        <v>825</v>
+        <v>812</v>
       </c>
       <c r="D427" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E427" s="0" t="s">
-        <v>492</v>
+        <v>813</v>
       </c>
       <c r="G427" s="0" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="H427" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I427" s="0" t="s">
-        <v>822</v>
+        <v>815</v>
+      </c>
+      <c r="J427" s="0" t="n">
+        <v>16</v>
       </c>
       <c r="M427" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N427" s="0" t="n">
         <v>0</v>
@@ -28219,97 +28278,148 @@
       </c>
       <c r="P427" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="Q427" s="0" t="s">
+        <v>816</v>
+      </c>
+      <c r="R427" s="0" t="s">
+        <v>817</v>
       </c>
       <c r="S427" s="0" t="s">
         <v>60</v>
       </c>
+      <c r="V427" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W427" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X427" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y427" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA427" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="AB427" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AL427" s="0" t="n">
-        <v>0</v>
+      <c r="AC427" s="0" t="n">
+        <v>6</v>
       </c>
       <c r="AP427" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AQ427" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR427" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AS427" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="AT427" s="0" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="s">
-        <v>824</v>
+        <v>810</v>
       </c>
       <c r="B428" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="C428" s="0" t="s">
+        <v>819</v>
+      </c>
+      <c r="D428" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E428" s="0" t="s">
+        <v>813</v>
+      </c>
+      <c r="G428" s="0" t="s">
+        <v>814</v>
+      </c>
+      <c r="H428" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I428" s="0" t="s">
+        <v>815</v>
+      </c>
+      <c r="J428" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="M428" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N428" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O428" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P428" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q428" s="0" t="s">
+        <v>816</v>
+      </c>
+      <c r="R428" s="0" t="s">
         <v>820</v>
-      </c>
-      <c r="C428" s="0" t="s">
-        <v>826</v>
-      </c>
-      <c r="D428" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="E428" s="0" t="s">
-        <v>492</v>
-      </c>
-      <c r="G428" s="0" t="s">
-        <v>820</v>
-      </c>
-      <c r="H428" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" s="0" t="s">
-        <v>822</v>
-      </c>
-      <c r="M428" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N428" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O428" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P428" s="0" t="n">
-        <v>0</v>
       </c>
       <c r="S428" s="0" t="s">
         <v>61</v>
       </c>
+      <c r="V428" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="W428" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X428" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y428" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA428" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="AB428" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AL428" s="0" t="n">
-        <v>0</v>
+      <c r="AC428" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="AP428" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AQ428" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR428" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AS428" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="AT428" s="0" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="B429" s="3" t="s">
-        <v>828</v>
+        <v>822</v>
+      </c>
+      <c r="B429" s="0" t="s">
+        <v>823</v>
       </c>
       <c r="C429" s="0" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="D429" s="0" t="s">
         <v>58</v>
@@ -28317,14 +28427,14 @@
       <c r="E429" s="0" t="s">
         <v>488</v>
       </c>
-      <c r="G429" s="3" t="s">
-        <v>830</v>
+      <c r="G429" s="0" t="s">
+        <v>823</v>
       </c>
       <c r="H429" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I429" s="0" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="M429" s="0" t="n">
         <v>0</v>
@@ -28362,13 +28472,13 @@
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="B430" s="3" t="s">
-        <v>828</v>
+        <v>822</v>
+      </c>
+      <c r="B430" s="0" t="s">
+        <v>823</v>
       </c>
       <c r="C430" s="0" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="D430" s="0" t="s">
         <v>58</v>
@@ -28376,14 +28486,14 @@
       <c r="E430" s="0" t="s">
         <v>488</v>
       </c>
-      <c r="G430" s="3" t="s">
-        <v>830</v>
+      <c r="G430" s="0" t="s">
+        <v>823</v>
       </c>
       <c r="H430" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I430" s="0" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="M430" s="0" t="n">
         <v>0</v>
@@ -28421,13 +28531,13 @@
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="B431" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="B431" s="0" t="s">
+        <v>823</v>
+      </c>
+      <c r="C431" s="0" t="s">
         <v>828</v>
-      </c>
-      <c r="C431" s="0" t="s">
-        <v>834</v>
       </c>
       <c r="D431" s="0" t="s">
         <v>58</v>
@@ -28435,14 +28545,14 @@
       <c r="E431" s="0" t="s">
         <v>492</v>
       </c>
-      <c r="G431" s="3" t="s">
-        <v>830</v>
+      <c r="G431" s="0" t="s">
+        <v>823</v>
       </c>
       <c r="H431" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I431" s="0" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="M431" s="0" t="n">
         <v>0</v>
@@ -28480,13 +28590,13 @@
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="B432" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
+      </c>
+      <c r="B432" s="0" t="s">
+        <v>823</v>
       </c>
       <c r="C432" s="0" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="D432" s="0" t="s">
         <v>58</v>
@@ -28494,14 +28604,14 @@
       <c r="E432" s="0" t="s">
         <v>492</v>
       </c>
-      <c r="G432" s="3" t="s">
-        <v>830</v>
+      <c r="G432" s="0" t="s">
+        <v>823</v>
       </c>
       <c r="H432" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I432" s="0" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="M432" s="0" t="n">
         <v>0</v>
@@ -28539,13 +28649,13 @@
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="B433" s="0" t="s">
-        <v>551</v>
+        <v>831</v>
       </c>
       <c r="C433" s="0" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="D433" s="0" t="s">
         <v>58</v>
@@ -28554,13 +28664,13 @@
         <v>488</v>
       </c>
       <c r="G433" s="0" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="H433" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I433" s="0" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="M433" s="0" t="n">
         <v>0</v>
@@ -28598,13 +28708,13 @@
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="B434" s="0" t="s">
-        <v>551</v>
+        <v>831</v>
       </c>
       <c r="C434" s="0" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="D434" s="0" t="s">
         <v>58</v>
@@ -28613,13 +28723,13 @@
         <v>488</v>
       </c>
       <c r="G434" s="0" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="H434" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I434" s="0" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="M434" s="0" t="n">
         <v>0</v>
@@ -28657,13 +28767,13 @@
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="B435" s="0" t="s">
-        <v>551</v>
+        <v>831</v>
       </c>
       <c r="C435" s="0" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="D435" s="0" t="s">
         <v>58</v>
@@ -28672,13 +28782,13 @@
         <v>492</v>
       </c>
       <c r="G435" s="0" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="H435" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I435" s="0" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="M435" s="0" t="n">
         <v>0</v>
@@ -28716,13 +28826,13 @@
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="B436" s="0" t="s">
-        <v>551</v>
+        <v>831</v>
       </c>
       <c r="C436" s="0" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="D436" s="0" t="s">
         <v>58</v>
@@ -28731,13 +28841,13 @@
         <v>492</v>
       </c>
       <c r="G436" s="0" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="H436" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I436" s="0" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="M436" s="0" t="n">
         <v>0</v>
@@ -28775,13 +28885,13 @@
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="B437" s="0" t="s">
-        <v>551</v>
+        <v>839</v>
       </c>
       <c r="C437" s="0" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="D437" s="0" t="s">
         <v>58</v>
@@ -28790,13 +28900,13 @@
         <v>488</v>
       </c>
       <c r="G437" s="0" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="H437" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I437" s="0" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="M437" s="0" t="n">
         <v>0</v>
@@ -28834,13 +28944,13 @@
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="1" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="B438" s="0" t="s">
-        <v>551</v>
+        <v>839</v>
       </c>
       <c r="C438" s="0" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="D438" s="0" t="s">
         <v>58</v>
@@ -28849,13 +28959,13 @@
         <v>488</v>
       </c>
       <c r="G438" s="0" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="H438" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I438" s="0" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="M438" s="0" t="n">
         <v>0</v>
@@ -28893,13 +29003,13 @@
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="B439" s="0" t="s">
-        <v>551</v>
+        <v>839</v>
       </c>
       <c r="C439" s="0" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="D439" s="0" t="s">
         <v>58</v>
@@ -28908,13 +29018,13 @@
         <v>492</v>
       </c>
       <c r="G439" s="0" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="H439" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I439" s="0" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="M439" s="0" t="n">
         <v>0</v>
@@ -28952,13 +29062,13 @@
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="1" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="B440" s="0" t="s">
-        <v>551</v>
+        <v>839</v>
       </c>
       <c r="C440" s="0" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="D440" s="0" t="s">
         <v>58</v>
@@ -28967,13 +29077,13 @@
         <v>492</v>
       </c>
       <c r="G440" s="0" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="H440" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I440" s="0" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="M440" s="0" t="n">
         <v>0</v>
@@ -29011,13 +29121,13 @@
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="1" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="B441" s="0" t="s">
-        <v>486</v>
+        <v>847</v>
       </c>
       <c r="C441" s="0" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="D441" s="0" t="s">
         <v>58</v>
@@ -29026,13 +29136,13 @@
         <v>488</v>
       </c>
       <c r="G441" s="0" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="H441" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I441" s="0" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="M441" s="0" t="n">
         <v>0</v>
@@ -29070,13 +29180,13 @@
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="1" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="B442" s="0" t="s">
-        <v>486</v>
+        <v>847</v>
       </c>
       <c r="C442" s="0" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="D442" s="0" t="s">
         <v>58</v>
@@ -29085,13 +29195,13 @@
         <v>488</v>
       </c>
       <c r="G442" s="0" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="H442" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I442" s="0" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="M442" s="0" t="n">
         <v>0</v>
@@ -29129,13 +29239,13 @@
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="1" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="B443" s="0" t="s">
-        <v>486</v>
+        <v>847</v>
       </c>
       <c r="C443" s="0" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="D443" s="0" t="s">
         <v>58</v>
@@ -29144,13 +29254,13 @@
         <v>492</v>
       </c>
       <c r="G443" s="0" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="H443" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I443" s="0" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="M443" s="0" t="n">
         <v>0</v>
@@ -29188,13 +29298,13 @@
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="B444" s="0" t="s">
-        <v>486</v>
+        <v>847</v>
       </c>
       <c r="C444" s="0" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="D444" s="0" t="s">
         <v>58</v>
@@ -29203,13 +29313,13 @@
         <v>492</v>
       </c>
       <c r="G444" s="0" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="H444" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I444" s="0" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="M444" s="0" t="n">
         <v>0</v>
@@ -29247,13 +29357,13 @@
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="1" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="B445" s="0" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="C445" s="0" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="D445" s="0" t="s">
         <v>58</v>
@@ -29262,13 +29372,13 @@
         <v>488</v>
       </c>
       <c r="G445" s="0" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="H445" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I445" s="0" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="M445" s="0" t="n">
         <v>0</v>
@@ -29306,13 +29416,13 @@
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="1" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="B446" s="0" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="C446" s="0" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="D446" s="0" t="s">
         <v>58</v>
@@ -29321,13 +29431,13 @@
         <v>488</v>
       </c>
       <c r="G446" s="0" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="H446" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I446" s="0" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="M446" s="0" t="n">
         <v>0</v>
@@ -29365,13 +29475,13 @@
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="1" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="B447" s="0" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="C447" s="0" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="D447" s="0" t="s">
         <v>58</v>
@@ -29380,13 +29490,13 @@
         <v>492</v>
       </c>
       <c r="G447" s="0" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="H447" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I447" s="0" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="M447" s="0" t="n">
         <v>0</v>
@@ -29424,13 +29534,13 @@
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="B448" s="0" t="s">
+        <v>855</v>
+      </c>
+      <c r="C448" s="0" t="s">
         <v>861</v>
-      </c>
-      <c r="C448" s="0" t="s">
-        <v>868</v>
       </c>
       <c r="D448" s="0" t="s">
         <v>58</v>
@@ -29439,13 +29549,13 @@
         <v>492</v>
       </c>
       <c r="G448" s="0" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="H448" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I448" s="0" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="M448" s="0" t="n">
         <v>0</v>
@@ -29483,13 +29593,13 @@
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="B449" s="0" t="s">
-        <v>667</v>
+        <v>862</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>863</v>
       </c>
       <c r="C449" s="0" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="D449" s="0" t="s">
         <v>58</v>
@@ -29497,14 +29607,14 @@
       <c r="E449" s="0" t="s">
         <v>488</v>
       </c>
-      <c r="G449" s="0" t="s">
-        <v>871</v>
+      <c r="G449" s="2" t="s">
+        <v>865</v>
       </c>
       <c r="H449" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I449" s="0" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="M449" s="0" t="n">
         <v>0</v>
@@ -29542,13 +29652,13 @@
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="B450" s="0" t="s">
-        <v>667</v>
+        <v>862</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>863</v>
       </c>
       <c r="C450" s="0" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="D450" s="0" t="s">
         <v>58</v>
@@ -29556,14 +29666,14 @@
       <c r="E450" s="0" t="s">
         <v>488</v>
       </c>
-      <c r="G450" s="0" t="s">
-        <v>871</v>
+      <c r="G450" s="2" t="s">
+        <v>865</v>
       </c>
       <c r="H450" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I450" s="0" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="M450" s="0" t="n">
         <v>0</v>
@@ -29601,13 +29711,13 @@
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="B451" s="0" t="s">
-        <v>667</v>
+        <v>868</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>863</v>
       </c>
       <c r="C451" s="0" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="D451" s="0" t="s">
         <v>58</v>
@@ -29615,14 +29725,14 @@
       <c r="E451" s="0" t="s">
         <v>492</v>
       </c>
-      <c r="G451" s="0" t="s">
-        <v>871</v>
+      <c r="G451" s="2" t="s">
+        <v>865</v>
       </c>
       <c r="H451" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I451" s="0" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="M451" s="0" t="n">
         <v>0</v>
@@ -29660,13 +29770,13 @@
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="B452" s="0" t="s">
-        <v>667</v>
+        <v>868</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>863</v>
       </c>
       <c r="C452" s="0" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="D452" s="0" t="s">
         <v>58</v>
@@ -29674,14 +29784,14 @@
       <c r="E452" s="0" t="s">
         <v>492</v>
       </c>
-      <c r="G452" s="0" t="s">
-        <v>871</v>
+      <c r="G452" s="2" t="s">
+        <v>865</v>
       </c>
       <c r="H452" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I452" s="0" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="M452" s="0" t="n">
         <v>0</v>
@@ -29719,13 +29829,13 @@
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="B453" s="0" t="s">
-        <v>878</v>
+        <v>551</v>
       </c>
       <c r="C453" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="D453" s="0" t="s">
         <v>58</v>
@@ -29734,13 +29844,13 @@
         <v>488</v>
       </c>
       <c r="G453" s="0" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="H453" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I453" s="0" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="M453" s="0" t="n">
         <v>0</v>
@@ -29778,13 +29888,13 @@
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="B454" s="0" t="s">
-        <v>878</v>
+        <v>551</v>
       </c>
       <c r="C454" s="0" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="D454" s="0" t="s">
         <v>58</v>
@@ -29793,13 +29903,13 @@
         <v>488</v>
       </c>
       <c r="G454" s="0" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="H454" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I454" s="0" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="M454" s="0" t="n">
         <v>0</v>
@@ -29837,13 +29947,13 @@
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="B455" s="0" t="s">
-        <v>878</v>
+        <v>551</v>
       </c>
       <c r="C455" s="0" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="D455" s="0" t="s">
         <v>58</v>
@@ -29852,13 +29962,13 @@
         <v>492</v>
       </c>
       <c r="G455" s="0" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="H455" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I455" s="0" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="M455" s="0" t="n">
         <v>0</v>
@@ -29896,13 +30006,13 @@
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="B456" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="C456" s="0" t="s">
         <v>878</v>
-      </c>
-      <c r="C456" s="0" t="s">
-        <v>885</v>
       </c>
       <c r="D456" s="0" t="s">
         <v>58</v>
@@ -29911,13 +30021,13 @@
         <v>492</v>
       </c>
       <c r="G456" s="0" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="H456" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I456" s="0" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="M456" s="0" t="n">
         <v>0</v>
@@ -29955,13 +30065,13 @@
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="B457" s="0" t="s">
-        <v>887</v>
+        <v>551</v>
       </c>
       <c r="C457" s="0" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="D457" s="0" t="s">
         <v>58</v>
@@ -29970,13 +30080,13 @@
         <v>488</v>
       </c>
       <c r="G457" s="0" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="H457" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I457" s="0" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="M457" s="0" t="n">
         <v>0</v>
@@ -30014,13 +30124,13 @@
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="1" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="B458" s="0" t="s">
-        <v>887</v>
+        <v>551</v>
       </c>
       <c r="C458" s="0" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="D458" s="0" t="s">
         <v>58</v>
@@ -30029,13 +30139,13 @@
         <v>488</v>
       </c>
       <c r="G458" s="0" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="H458" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I458" s="0" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="M458" s="0" t="n">
         <v>0</v>
@@ -30073,13 +30183,13 @@
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="B459" s="0" t="s">
-        <v>887</v>
+        <v>551</v>
       </c>
       <c r="C459" s="0" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="D459" s="0" t="s">
         <v>58</v>
@@ -30088,13 +30198,13 @@
         <v>492</v>
       </c>
       <c r="G459" s="0" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="H459" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I459" s="0" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="M459" s="0" t="n">
         <v>0</v>
@@ -30132,13 +30242,13 @@
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="1" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="B460" s="0" t="s">
-        <v>887</v>
+        <v>551</v>
       </c>
       <c r="C460" s="0" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="D460" s="0" t="s">
         <v>58</v>
@@ -30147,13 +30257,13 @@
         <v>492</v>
       </c>
       <c r="G460" s="0" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="H460" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I460" s="0" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="M460" s="0" t="n">
         <v>0</v>
@@ -30191,13 +30301,13 @@
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="B461" s="0" t="s">
-        <v>896</v>
+        <v>486</v>
       </c>
       <c r="C461" s="0" t="s">
-        <v>897</v>
+        <v>888</v>
       </c>
       <c r="D461" s="0" t="s">
         <v>58</v>
@@ -30206,13 +30316,13 @@
         <v>488</v>
       </c>
       <c r="G461" s="0" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
       <c r="H461" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I461" s="0" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="M461" s="0" t="n">
         <v>0</v>
@@ -30250,13 +30360,13 @@
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="B462" s="0" t="s">
-        <v>896</v>
+        <v>486</v>
       </c>
       <c r="C462" s="0" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="D462" s="0" t="s">
         <v>58</v>
@@ -30265,13 +30375,13 @@
         <v>488</v>
       </c>
       <c r="G462" s="0" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
       <c r="H462" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I462" s="0" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="M462" s="0" t="n">
         <v>0</v>
@@ -30309,13 +30419,13 @@
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="B463" s="0" t="s">
-        <v>896</v>
+        <v>486</v>
       </c>
       <c r="C463" s="0" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="D463" s="0" t="s">
         <v>58</v>
@@ -30324,13 +30434,13 @@
         <v>492</v>
       </c>
       <c r="G463" s="0" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
       <c r="H463" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I463" s="0" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="M463" s="0" t="n">
         <v>0</v>
@@ -30368,13 +30478,13 @@
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="B464" s="0" t="s">
-        <v>896</v>
+        <v>486</v>
       </c>
       <c r="C464" s="0" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="D464" s="0" t="s">
         <v>58</v>
@@ -30383,13 +30493,13 @@
         <v>492</v>
       </c>
       <c r="G464" s="0" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
       <c r="H464" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I464" s="0" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="M464" s="0" t="n">
         <v>0</v>
@@ -30427,13 +30537,13 @@
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="1" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="B465" s="0" t="s">
-        <v>704</v>
+        <v>896</v>
       </c>
       <c r="C465" s="0" t="s">
-        <v>705</v>
+        <v>897</v>
       </c>
       <c r="D465" s="0" t="s">
         <v>58</v>
@@ -30442,13 +30552,13 @@
         <v>488</v>
       </c>
       <c r="G465" s="0" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="H465" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I465" s="0" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="M465" s="0" t="n">
         <v>0</v>
@@ -30486,13 +30596,13 @@
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="1" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="B466" s="0" t="s">
-        <v>704</v>
+        <v>896</v>
       </c>
       <c r="C466" s="0" t="s">
-        <v>706</v>
+        <v>900</v>
       </c>
       <c r="D466" s="0" t="s">
         <v>58</v>
@@ -30501,13 +30611,13 @@
         <v>488</v>
       </c>
       <c r="G466" s="0" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="H466" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I466" s="0" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="M466" s="0" t="n">
         <v>0</v>
@@ -30545,13 +30655,13 @@
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="B467" s="0" t="s">
-        <v>704</v>
+        <v>896</v>
       </c>
       <c r="C467" s="0" t="s">
-        <v>708</v>
+        <v>902</v>
       </c>
       <c r="D467" s="0" t="s">
         <v>58</v>
@@ -30560,13 +30670,13 @@
         <v>492</v>
       </c>
       <c r="G467" s="0" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="H467" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I467" s="0" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="M467" s="0" t="n">
         <v>0</v>
@@ -30604,13 +30714,13 @@
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="1" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="B468" s="0" t="s">
-        <v>704</v>
+        <v>896</v>
       </c>
       <c r="C468" s="0" t="s">
-        <v>709</v>
+        <v>903</v>
       </c>
       <c r="D468" s="0" t="s">
         <v>58</v>
@@ -30619,13 +30729,13 @@
         <v>492</v>
       </c>
       <c r="G468" s="0" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="H468" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I468" s="0" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="M468" s="0" t="n">
         <v>0</v>
@@ -30661,65 +30771,1185 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A567" s="1"/>
-    </row>
-    <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A568" s="1"/>
-    </row>
-    <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A569" s="1"/>
-    </row>
-    <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A570" s="1"/>
-    </row>
-    <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A571" s="1"/>
-    </row>
-    <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A572" s="1"/>
-    </row>
-    <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A573" s="1"/>
-    </row>
-    <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A574" s="1"/>
-    </row>
-    <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A575" s="1"/>
-    </row>
-    <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A576" s="1"/>
-    </row>
-    <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A577" s="1"/>
-    </row>
-    <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A578" s="1"/>
-    </row>
-    <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A579" s="1"/>
-    </row>
-    <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A580" s="1"/>
-    </row>
-    <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A581" s="1"/>
-    </row>
-    <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A582" s="1"/>
-    </row>
-    <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A583" s="1"/>
-    </row>
-    <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A584" s="1"/>
-    </row>
-    <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A585" s="1"/>
-    </row>
-    <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A586" s="1"/>
+    <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B469" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="C469" s="0" t="s">
+        <v>905</v>
+      </c>
+      <c r="D469" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E469" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="G469" s="0" t="s">
+        <v>906</v>
+      </c>
+      <c r="H469" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I469" s="0" t="s">
+        <v>907</v>
+      </c>
+      <c r="M469" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N469" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O469" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P469" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S469" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB469" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL469" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP469" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ469" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR469" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS469" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B470" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="C470" s="0" t="s">
+        <v>908</v>
+      </c>
+      <c r="D470" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E470" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="G470" s="0" t="s">
+        <v>906</v>
+      </c>
+      <c r="H470" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I470" s="0" t="s">
+        <v>907</v>
+      </c>
+      <c r="M470" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N470" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O470" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P470" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S470" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB470" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL470" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP470" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ470" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR470" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS470" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="B471" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="C471" s="0" t="s">
+        <v>910</v>
+      </c>
+      <c r="D471" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E471" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="G471" s="0" t="s">
+        <v>906</v>
+      </c>
+      <c r="H471" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I471" s="0" t="s">
+        <v>907</v>
+      </c>
+      <c r="M471" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N471" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O471" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P471" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S471" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB471" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL471" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP471" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ471" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR471" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS471" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="B472" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="C472" s="0" t="s">
+        <v>911</v>
+      </c>
+      <c r="D472" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E472" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="G472" s="0" t="s">
+        <v>906</v>
+      </c>
+      <c r="H472" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I472" s="0" t="s">
+        <v>907</v>
+      </c>
+      <c r="M472" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N472" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O472" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P472" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S472" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB472" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL472" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP472" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ472" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR472" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS472" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="B473" s="0" t="s">
+        <v>804</v>
+      </c>
+      <c r="C473" s="0" t="s">
+        <v>913</v>
+      </c>
+      <c r="D473" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E473" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="G473" s="0" t="s">
+        <v>914</v>
+      </c>
+      <c r="H473" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I473" s="0" t="s">
+        <v>915</v>
+      </c>
+      <c r="M473" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N473" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O473" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P473" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S473" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB473" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL473" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP473" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ473" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR473" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS473" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="B474" s="0" t="s">
+        <v>804</v>
+      </c>
+      <c r="C474" s="0" t="s">
+        <v>916</v>
+      </c>
+      <c r="D474" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E474" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="G474" s="0" t="s">
+        <v>914</v>
+      </c>
+      <c r="H474" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I474" s="0" t="s">
+        <v>915</v>
+      </c>
+      <c r="M474" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N474" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O474" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P474" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S474" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB474" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL474" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP474" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ474" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR474" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS474" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="B475" s="0" t="s">
+        <v>804</v>
+      </c>
+      <c r="C475" s="0" t="s">
+        <v>918</v>
+      </c>
+      <c r="D475" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E475" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="G475" s="0" t="s">
+        <v>914</v>
+      </c>
+      <c r="H475" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I475" s="0" t="s">
+        <v>915</v>
+      </c>
+      <c r="M475" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N475" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O475" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P475" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S475" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB475" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL475" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP475" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ475" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR475" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS475" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="B476" s="0" t="s">
+        <v>804</v>
+      </c>
+      <c r="C476" s="0" t="s">
+        <v>919</v>
+      </c>
+      <c r="D476" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E476" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="G476" s="0" t="s">
+        <v>914</v>
+      </c>
+      <c r="H476" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I476" s="0" t="s">
+        <v>915</v>
+      </c>
+      <c r="M476" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N476" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O476" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P476" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S476" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB476" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL476" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP476" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ476" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR476" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS476" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="B477" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="C477" s="0" t="s">
+        <v>921</v>
+      </c>
+      <c r="D477" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E477" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="G477" s="0" t="s">
+        <v>922</v>
+      </c>
+      <c r="H477" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I477" s="0" t="s">
+        <v>923</v>
+      </c>
+      <c r="M477" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N477" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O477" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P477" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S477" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB477" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL477" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP477" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ477" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR477" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS477" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="B478" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="C478" s="0" t="s">
+        <v>924</v>
+      </c>
+      <c r="D478" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E478" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="G478" s="0" t="s">
+        <v>922</v>
+      </c>
+      <c r="H478" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I478" s="0" t="s">
+        <v>923</v>
+      </c>
+      <c r="M478" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N478" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O478" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P478" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S478" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB478" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL478" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP478" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ478" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR478" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS478" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B479" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="C479" s="0" t="s">
+        <v>926</v>
+      </c>
+      <c r="D479" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E479" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="G479" s="0" t="s">
+        <v>922</v>
+      </c>
+      <c r="H479" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I479" s="0" t="s">
+        <v>923</v>
+      </c>
+      <c r="M479" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N479" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O479" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P479" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S479" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB479" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL479" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP479" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ479" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR479" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS479" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A480" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B480" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="C480" s="0" t="s">
+        <v>927</v>
+      </c>
+      <c r="D480" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E480" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="G480" s="0" t="s">
+        <v>922</v>
+      </c>
+      <c r="H480" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I480" s="0" t="s">
+        <v>923</v>
+      </c>
+      <c r="M480" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N480" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O480" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P480" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S480" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB480" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL480" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP480" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ480" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR480" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS480" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A481" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="B481" s="0" t="s">
+        <v>929</v>
+      </c>
+      <c r="C481" s="0" t="s">
+        <v>930</v>
+      </c>
+      <c r="D481" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E481" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="G481" s="0" t="s">
+        <v>931</v>
+      </c>
+      <c r="H481" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I481" s="0" t="s">
+        <v>932</v>
+      </c>
+      <c r="M481" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N481" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O481" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P481" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S481" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB481" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL481" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP481" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ481" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR481" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS481" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A482" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="B482" s="0" t="s">
+        <v>929</v>
+      </c>
+      <c r="C482" s="0" t="s">
+        <v>933</v>
+      </c>
+      <c r="D482" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E482" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="G482" s="0" t="s">
+        <v>931</v>
+      </c>
+      <c r="H482" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I482" s="0" t="s">
+        <v>932</v>
+      </c>
+      <c r="M482" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N482" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O482" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P482" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S482" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB482" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL482" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP482" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ482" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR482" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS482" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A483" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="B483" s="0" t="s">
+        <v>929</v>
+      </c>
+      <c r="C483" s="0" t="s">
+        <v>935</v>
+      </c>
+      <c r="D483" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E483" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="G483" s="0" t="s">
+        <v>931</v>
+      </c>
+      <c r="H483" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I483" s="0" t="s">
+        <v>932</v>
+      </c>
+      <c r="M483" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N483" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O483" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P483" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S483" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB483" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL483" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP483" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ483" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR483" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS483" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A484" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="B484" s="0" t="s">
+        <v>929</v>
+      </c>
+      <c r="C484" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="D484" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E484" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="G484" s="0" t="s">
+        <v>931</v>
+      </c>
+      <c r="H484" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I484" s="0" t="s">
+        <v>932</v>
+      </c>
+      <c r="M484" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N484" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O484" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P484" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S484" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB484" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL484" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP484" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ484" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR484" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS484" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A485" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B485" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="C485" s="0" t="s">
+        <v>705</v>
+      </c>
+      <c r="D485" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E485" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="G485" s="0" t="s">
+        <v>938</v>
+      </c>
+      <c r="H485" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I485" s="0" t="s">
+        <v>939</v>
+      </c>
+      <c r="M485" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N485" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O485" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P485" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S485" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB485" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL485" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP485" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ485" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR485" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS485" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A486" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B486" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="C486" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="D486" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E486" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="G486" s="0" t="s">
+        <v>938</v>
+      </c>
+      <c r="H486" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I486" s="0" t="s">
+        <v>939</v>
+      </c>
+      <c r="M486" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N486" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O486" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P486" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S486" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB486" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL486" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP486" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ486" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR486" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS486" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A487" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="B487" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="C487" s="0" t="s">
+        <v>708</v>
+      </c>
+      <c r="D487" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E487" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="G487" s="0" t="s">
+        <v>938</v>
+      </c>
+      <c r="H487" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I487" s="0" t="s">
+        <v>939</v>
+      </c>
+      <c r="M487" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N487" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O487" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P487" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S487" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB487" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL487" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP487" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ487" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR487" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS487" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A488" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="B488" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="C488" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="D488" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E488" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="G488" s="0" t="s">
+        <v>938</v>
+      </c>
+      <c r="H488" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I488" s="0" t="s">
+        <v>939</v>
+      </c>
+      <c r="M488" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N488" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O488" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P488" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S488" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB488" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL488" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP488" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ488" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR488" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS488" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="1"/>
@@ -32737,6 +33967,24 @@
     <row r="1258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1258" s="1"/>
     </row>
+    <row r="1259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1259" s="1"/>
+    </row>
+    <row r="1260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1260" s="1"/>
+    </row>
+    <row r="1261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1261" s="1"/>
+    </row>
+    <row r="1262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1262" s="1"/>
+    </row>
+    <row r="1263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1263" s="1"/>
+    </row>
+    <row r="1264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1264" s="1"/>
+    </row>
     <row r="1265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1265" s="1"/>
     </row>
@@ -32779,24 +34027,6 @@
     <row r="1278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1278" s="1"/>
     </row>
-    <row r="1279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1279" s="1"/>
-    </row>
-    <row r="1280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1280" s="1"/>
-    </row>
-    <row r="1281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1281" s="1"/>
-    </row>
-    <row r="1282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1282" s="1"/>
-    </row>
-    <row r="1283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1283" s="1"/>
-    </row>
-    <row r="1284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1284" s="1"/>
-    </row>
     <row r="1285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1285" s="1"/>
     </row>
@@ -32833,6 +34063,36 @@
     <row r="1296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1296" s="1"/>
     </row>
+    <row r="1297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1297" s="1"/>
+    </row>
+    <row r="1298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1298" s="1"/>
+    </row>
+    <row r="1299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1299" s="1"/>
+    </row>
+    <row r="1300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1300" s="1"/>
+    </row>
+    <row r="1301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1301" s="1"/>
+    </row>
+    <row r="1302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1302" s="1"/>
+    </row>
+    <row r="1303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1303" s="1"/>
+    </row>
+    <row r="1304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1304" s="1"/>
+    </row>
+    <row r="1305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1305" s="1"/>
+    </row>
+    <row r="1306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1306" s="1"/>
+    </row>
     <row r="1307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1307" s="1"/>
     </row>
@@ -32863,30 +34123,6 @@
     <row r="1316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1316" s="1"/>
     </row>
-    <row r="1317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1317" s="1"/>
-    </row>
-    <row r="1318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1318" s="1"/>
-    </row>
-    <row r="1321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1321" s="1"/>
-    </row>
-    <row r="1322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1322" s="1"/>
-    </row>
-    <row r="1323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1323" s="1"/>
-    </row>
-    <row r="1324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1324" s="1"/>
-    </row>
-    <row r="1325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1325" s="1"/>
-    </row>
-    <row r="1326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1326" s="1"/>
-    </row>
     <row r="1327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1327" s="1"/>
     </row>
@@ -32902,6 +34138,18 @@
     <row r="1331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1331" s="1"/>
     </row>
+    <row r="1332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1332" s="1"/>
+    </row>
+    <row r="1333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1333" s="1"/>
+    </row>
+    <row r="1334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1334" s="1"/>
+    </row>
+    <row r="1335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1335" s="1"/>
+    </row>
     <row r="1336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1336" s="1"/>
     </row>
@@ -32911,12 +34159,6 @@
     <row r="1338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1338" s="1"/>
     </row>
-    <row r="1339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1339" s="1"/>
-    </row>
-    <row r="1340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1340" s="1"/>
-    </row>
     <row r="1341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1341" s="1"/>
     </row>
@@ -32950,18 +34192,6 @@
     <row r="1351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1351" s="1"/>
     </row>
-    <row r="1352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1352" s="1"/>
-    </row>
-    <row r="1353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1353" s="1"/>
-    </row>
-    <row r="1354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1354" s="1"/>
-    </row>
-    <row r="1355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1355" s="1"/>
-    </row>
     <row r="1356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1356" s="1"/>
     </row>
@@ -33159,6 +34389,66 @@
     </row>
     <row r="1421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1421" s="1"/>
+    </row>
+    <row r="1422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1422" s="1"/>
+    </row>
+    <row r="1423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1423" s="1"/>
+    </row>
+    <row r="1424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1424" s="1"/>
+    </row>
+    <row r="1425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1425" s="1"/>
+    </row>
+    <row r="1426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1426" s="1"/>
+    </row>
+    <row r="1427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1427" s="1"/>
+    </row>
+    <row r="1428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1428" s="1"/>
+    </row>
+    <row r="1429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1429" s="1"/>
+    </row>
+    <row r="1430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1430" s="1"/>
+    </row>
+    <row r="1431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1431" s="1"/>
+    </row>
+    <row r="1432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1432" s="1"/>
+    </row>
+    <row r="1433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1433" s="1"/>
+    </row>
+    <row r="1434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1434" s="1"/>
+    </row>
+    <row r="1435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1435" s="1"/>
+    </row>
+    <row r="1436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1436" s="1"/>
+    </row>
+    <row r="1437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1437" s="1"/>
+    </row>
+    <row r="1438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1438" s="1"/>
+    </row>
+    <row r="1439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1439" s="1"/>
+    </row>
+    <row r="1440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1440" s="1"/>
+    </row>
+    <row r="1441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1441" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/run/predefined.xlsx
+++ b/run/predefined.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4001" uniqueCount="955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4513" uniqueCount="1070">
   <si>
     <t xml:space="preserve">databaseId</t>
   </si>
@@ -2494,6 +2494,444 @@
     <t xml:space="preserve">micro_investigators/07005b.webp</t>
   </si>
   <si>
+    <t xml:space="preserve">m08001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniela Reyes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/08001a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edge of the Earth Investigator Expansion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eoep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/08001b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u08001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/08001a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/08001b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m08004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norman Withers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/08004a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/08004b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u08004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/08004a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/08004b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m08007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monterey Jack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/08007a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/08007b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u08007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/08007a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/08007b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m08010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lily Chen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/08010a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/08010b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u08010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/08010a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/08010b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m08016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bob Jenkins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/08016a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/08016b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u08016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/08016a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/08016b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m09001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carson Sinclair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/09001a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Scarlet Keys Investigator Expansion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tskp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/09001b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u09001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/09001a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/09001b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m09004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vincent Lee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/09004a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/09004b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u09004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/09004a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/09004b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m09008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kymani Jones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/09008a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/09008b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u09008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/09008a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/09008b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m09011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amina Zidane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/09011a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/09011b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u09011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/09011a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/09011b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m09015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darrell Simmons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/09015a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/09015b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u09015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/09015a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/09015b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m09018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charlie Kane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/09018a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/09018b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u09018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/09018a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/09018b.webp</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">09080</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Summoned Servitor</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">mini_investigators/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">09080</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">a.webp</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">MiniAssistant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/09080b.webp</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">09080</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/09080a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MicroAssistant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/09080b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m10001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilson Richards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/10001a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Feast of Hemlock Vale Investigator Expansion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fhvp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/10001b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u10001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/10001a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/10001b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m10004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kate Winthrop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/10004a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/10004b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u10004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/10004a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/10004b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m10009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alessandra Zorzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/10009a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/10009b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u10009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/10009a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/10009b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m10012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kōhaku Narukami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/10012a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/10012b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u10012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/10012a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/10012b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m10015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hank Samson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/10015a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/10015b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u10015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/10015a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/10015b.webp</t>
+  </si>
+  <si>
     <t xml:space="preserve">10016</t>
   </si>
   <si>
@@ -2506,12 +2944,6 @@
     <t xml:space="preserve">Investigator</t>
   </si>
   <si>
-    <t xml:space="preserve">The Feast of Hemlock Vale Investigator Expansion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fhvp</t>
-  </si>
-  <si>
     <t xml:space="preserve">Survivor.</t>
   </si>
   <si>
@@ -2650,33 +3082,6 @@
     <t xml:space="preserve">micro_investigators/60501b.webp</t>
   </si>
   <si>
-    <t xml:space="preserve">m08007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monterey Jack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/08007a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edge of the Earth Investigator Expansion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eoep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/08007b.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">u08007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/08007a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/08007b.webp</t>
-  </si>
-  <si>
     <t xml:space="preserve">m90084</t>
   </si>
   <si>
@@ -2750,9 +3155,6 @@
   </si>
   <si>
     <t xml:space="preserve">m98007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norman Withers</t>
   </si>
   <si>
     <t xml:space="preserve">mini_investigators/98007a.webp</t>
@@ -2895,7 +3297,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2916,6 +3318,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2960,7 +3367,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2970,6 +3377,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2990,15 +3401,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AT1451"/>
+  <dimension ref="A1:AT1515"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A451" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A104" activeCellId="0" sqref="A104"/>
+      <selection pane="bottomLeft" activeCell="A483" activeCellId="0" sqref="A483"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.3359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.37109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.24"/>
@@ -3020,7 +3431,6 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="4.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="5.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="12.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="11.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="11.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="9.78"/>
@@ -28885,22 +29295,19 @@
         <v>58</v>
       </c>
       <c r="E437" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="G437" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="G437" s="0" t="s">
+      <c r="H437" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I437" s="0" t="s">
         <v>828</v>
       </c>
-      <c r="H437" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" s="0" t="s">
-        <v>829</v>
-      </c>
-      <c r="J437" s="0" t="n">
-        <v>16</v>
-      </c>
       <c r="M437" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N437" s="0" t="n">
         <v>0</v>
@@ -28910,51 +29317,27 @@
       </c>
       <c r="P437" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="Q437" s="0" t="s">
-        <v>830</v>
-      </c>
-      <c r="R437" s="0" t="s">
-        <v>831</v>
       </c>
       <c r="S437" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="V437" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="W437" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="X437" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y437" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA437" s="0" t="n">
-        <v>4</v>
-      </c>
       <c r="AB437" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AC437" s="0" t="n">
-        <v>6</v>
+      <c r="AL437" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="AP437" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AQ437" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR437" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AS437" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="AT437" s="0" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28965,28 +29348,25 @@
         <v>825</v>
       </c>
       <c r="C438" s="0" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="D438" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E438" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="G438" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="G438" s="0" t="s">
+      <c r="H438" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I438" s="0" t="s">
         <v>828</v>
       </c>
-      <c r="H438" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" s="0" t="s">
-        <v>829</v>
-      </c>
-      <c r="J438" s="0" t="n">
-        <v>16</v>
-      </c>
       <c r="M438" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N438" s="0" t="n">
         <v>0</v>
@@ -28996,77 +29376,53 @@
       </c>
       <c r="P438" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="Q438" s="0" t="s">
-        <v>830</v>
-      </c>
-      <c r="R438" s="0" t="s">
-        <v>834</v>
       </c>
       <c r="S438" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="V438" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="W438" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X438" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y438" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA438" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="AB438" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AC438" s="0" t="n">
-        <v>4</v>
+      <c r="AL438" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="AP438" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AQ438" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR438" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AS438" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="AT438" s="0" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="B439" s="0" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
       <c r="C439" s="0" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="D439" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E439" s="0" t="s">
-        <v>502</v>
-      </c>
-      <c r="G439" s="0" t="s">
-        <v>837</v>
+        <v>506</v>
+      </c>
+      <c r="G439" s="2" t="s">
+        <v>827</v>
       </c>
       <c r="H439" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I439" s="0" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="M439" s="0" t="n">
         <v>0</v>
@@ -29104,28 +29460,28 @@
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="1" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="B440" s="0" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
       <c r="C440" s="0" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="D440" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E440" s="0" t="s">
-        <v>502</v>
-      </c>
-      <c r="G440" s="0" t="s">
-        <v>837</v>
+        <v>506</v>
+      </c>
+      <c r="G440" s="2" t="s">
+        <v>827</v>
       </c>
       <c r="H440" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I440" s="0" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="M440" s="0" t="n">
         <v>0</v>
@@ -29163,28 +29519,28 @@
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="B441" s="0" t="s">
-        <v>837</v>
+        <v>833</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>834</v>
       </c>
       <c r="C441" s="0" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="D441" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E441" s="0" t="s">
-        <v>506</v>
-      </c>
-      <c r="G441" s="0" t="s">
-        <v>837</v>
+        <v>502</v>
+      </c>
+      <c r="G441" s="2" t="s">
+        <v>827</v>
       </c>
       <c r="H441" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I441" s="0" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="M441" s="0" t="n">
         <v>0</v>
@@ -29222,28 +29578,28 @@
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="B442" s="0" t="s">
-        <v>837</v>
+        <v>833</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>834</v>
       </c>
       <c r="C442" s="0" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="D442" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E442" s="0" t="s">
-        <v>506</v>
-      </c>
-      <c r="G442" s="0" t="s">
-        <v>837</v>
+        <v>502</v>
+      </c>
+      <c r="G442" s="2" t="s">
+        <v>827</v>
       </c>
       <c r="H442" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I442" s="0" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="M442" s="0" t="n">
         <v>0</v>
@@ -29281,28 +29637,28 @@
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="B443" s="0" t="s">
-        <v>845</v>
+        <v>837</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>834</v>
       </c>
       <c r="C443" s="0" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="D443" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E443" s="0" t="s">
-        <v>502</v>
-      </c>
-      <c r="G443" s="0" t="s">
-        <v>845</v>
+        <v>506</v>
+      </c>
+      <c r="G443" s="2" t="s">
+        <v>827</v>
       </c>
       <c r="H443" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I443" s="0" t="s">
-        <v>847</v>
+        <v>828</v>
       </c>
       <c r="M443" s="0" t="n">
         <v>0</v>
@@ -29340,28 +29696,28 @@
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="B444" s="0" t="s">
-        <v>845</v>
+        <v>837</v>
+      </c>
+      <c r="B444" s="2" t="s">
+        <v>834</v>
       </c>
       <c r="C444" s="0" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="D444" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E444" s="0" t="s">
-        <v>502</v>
-      </c>
-      <c r="G444" s="0" t="s">
-        <v>845</v>
+        <v>506</v>
+      </c>
+      <c r="G444" s="2" t="s">
+        <v>827</v>
       </c>
       <c r="H444" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I444" s="0" t="s">
-        <v>847</v>
+        <v>828</v>
       </c>
       <c r="M444" s="0" t="n">
         <v>0</v>
@@ -29399,28 +29755,28 @@
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="B445" s="0" t="s">
-        <v>845</v>
+        <v>840</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>841</v>
       </c>
       <c r="C445" s="0" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="D445" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E445" s="0" t="s">
-        <v>506</v>
-      </c>
-      <c r="G445" s="0" t="s">
-        <v>845</v>
+        <v>502</v>
+      </c>
+      <c r="G445" s="2" t="s">
+        <v>827</v>
       </c>
       <c r="H445" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I445" s="0" t="s">
-        <v>847</v>
+        <v>828</v>
       </c>
       <c r="M445" s="0" t="n">
         <v>0</v>
@@ -29458,28 +29814,28 @@
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="B446" s="0" t="s">
-        <v>845</v>
+        <v>840</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>841</v>
       </c>
       <c r="C446" s="0" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="D446" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E446" s="0" t="s">
-        <v>506</v>
-      </c>
-      <c r="G446" s="0" t="s">
-        <v>845</v>
+        <v>502</v>
+      </c>
+      <c r="G446" s="2" t="s">
+        <v>827</v>
       </c>
       <c r="H446" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I446" s="0" t="s">
-        <v>847</v>
+        <v>828</v>
       </c>
       <c r="M446" s="0" t="n">
         <v>0</v>
@@ -29517,28 +29873,28 @@
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="B447" s="0" t="s">
-        <v>853</v>
+        <v>844</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>841</v>
       </c>
       <c r="C447" s="0" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="D447" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E447" s="0" t="s">
-        <v>502</v>
-      </c>
-      <c r="G447" s="0" t="s">
-        <v>853</v>
+        <v>506</v>
+      </c>
+      <c r="G447" s="2" t="s">
+        <v>827</v>
       </c>
       <c r="H447" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I447" s="0" t="s">
-        <v>855</v>
+        <v>828</v>
       </c>
       <c r="M447" s="0" t="n">
         <v>0</v>
@@ -29576,28 +29932,28 @@
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="B448" s="0" t="s">
-        <v>853</v>
+        <v>844</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>841</v>
       </c>
       <c r="C448" s="0" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="D448" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E448" s="0" t="s">
-        <v>502</v>
-      </c>
-      <c r="G448" s="0" t="s">
-        <v>853</v>
+        <v>506</v>
+      </c>
+      <c r="G448" s="2" t="s">
+        <v>827</v>
       </c>
       <c r="H448" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I448" s="0" t="s">
-        <v>855</v>
+        <v>828</v>
       </c>
       <c r="M448" s="0" t="n">
         <v>0</v>
@@ -29635,28 +29991,28 @@
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="B449" s="0" t="s">
-        <v>853</v>
+        <v>847</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>848</v>
       </c>
       <c r="C449" s="0" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="D449" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E449" s="0" t="s">
-        <v>506</v>
-      </c>
-      <c r="G449" s="0" t="s">
-        <v>853</v>
+        <v>502</v>
+      </c>
+      <c r="G449" s="2" t="s">
+        <v>827</v>
       </c>
       <c r="H449" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I449" s="0" t="s">
-        <v>855</v>
+        <v>828</v>
       </c>
       <c r="M449" s="0" t="n">
         <v>0</v>
@@ -29694,28 +30050,28 @@
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="B450" s="0" t="s">
-        <v>853</v>
+        <v>847</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>848</v>
       </c>
       <c r="C450" s="0" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="D450" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E450" s="0" t="s">
-        <v>506</v>
-      </c>
-      <c r="G450" s="0" t="s">
-        <v>853</v>
+        <v>502</v>
+      </c>
+      <c r="G450" s="2" t="s">
+        <v>827</v>
       </c>
       <c r="H450" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I450" s="0" t="s">
-        <v>855</v>
+        <v>828</v>
       </c>
       <c r="M450" s="0" t="n">
         <v>0</v>
@@ -29753,28 +30109,28 @@
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="B451" s="0" t="s">
-        <v>861</v>
+        <v>851</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>848</v>
       </c>
       <c r="C451" s="0" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="D451" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E451" s="0" t="s">
-        <v>502</v>
-      </c>
-      <c r="G451" s="0" t="s">
-        <v>861</v>
+        <v>506</v>
+      </c>
+      <c r="G451" s="2" t="s">
+        <v>827</v>
       </c>
       <c r="H451" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I451" s="0" t="s">
-        <v>863</v>
+        <v>828</v>
       </c>
       <c r="M451" s="0" t="n">
         <v>0</v>
@@ -29812,28 +30168,28 @@
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="B452" s="0" t="s">
-        <v>861</v>
+        <v>851</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>848</v>
       </c>
       <c r="C452" s="0" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
       <c r="D452" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E452" s="0" t="s">
-        <v>502</v>
-      </c>
-      <c r="G452" s="0" t="s">
-        <v>861</v>
+        <v>506</v>
+      </c>
+      <c r="G452" s="2" t="s">
+        <v>827</v>
       </c>
       <c r="H452" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I452" s="0" t="s">
-        <v>863</v>
+        <v>828</v>
       </c>
       <c r="M452" s="0" t="n">
         <v>0</v>
@@ -29871,28 +30227,28 @@
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="B453" s="0" t="s">
-        <v>861</v>
+        <v>854</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>855</v>
       </c>
       <c r="C453" s="0" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="D453" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E453" s="0" t="s">
-        <v>506</v>
-      </c>
-      <c r="G453" s="0" t="s">
-        <v>861</v>
+        <v>502</v>
+      </c>
+      <c r="G453" s="2" t="s">
+        <v>827</v>
       </c>
       <c r="H453" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I453" s="0" t="s">
-        <v>863</v>
+        <v>828</v>
       </c>
       <c r="M453" s="0" t="n">
         <v>0</v>
@@ -29930,28 +30286,28 @@
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="B454" s="0" t="s">
-        <v>861</v>
+        <v>854</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>855</v>
       </c>
       <c r="C454" s="0" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="D454" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E454" s="0" t="s">
-        <v>506</v>
-      </c>
-      <c r="G454" s="0" t="s">
-        <v>861</v>
+        <v>502</v>
+      </c>
+      <c r="G454" s="2" t="s">
+        <v>827</v>
       </c>
       <c r="H454" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I454" s="0" t="s">
-        <v>863</v>
+        <v>828</v>
       </c>
       <c r="M454" s="0" t="n">
         <v>0</v>
@@ -29989,28 +30345,28 @@
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="B455" s="0" t="s">
-        <v>869</v>
+        <v>858</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>855</v>
       </c>
       <c r="C455" s="0" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
       <c r="D455" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E455" s="0" t="s">
-        <v>502</v>
-      </c>
-      <c r="G455" s="0" t="s">
-        <v>869</v>
+        <v>506</v>
+      </c>
+      <c r="G455" s="2" t="s">
+        <v>827</v>
       </c>
       <c r="H455" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I455" s="0" t="s">
-        <v>871</v>
+        <v>828</v>
       </c>
       <c r="M455" s="0" t="n">
         <v>0</v>
@@ -30048,28 +30404,28 @@
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="B456" s="0" t="s">
-        <v>869</v>
+        <v>858</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>855</v>
       </c>
       <c r="C456" s="0" t="s">
-        <v>872</v>
+        <v>860</v>
       </c>
       <c r="D456" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E456" s="0" t="s">
-        <v>502</v>
-      </c>
-      <c r="G456" s="0" t="s">
-        <v>869</v>
+        <v>506</v>
+      </c>
+      <c r="G456" s="2" t="s">
+        <v>827</v>
       </c>
       <c r="H456" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I456" s="0" t="s">
-        <v>871</v>
+        <v>828</v>
       </c>
       <c r="M456" s="0" t="n">
         <v>0</v>
@@ -30107,29 +30463,30 @@
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="s">
-        <v>873</v>
+        <v>861</v>
       </c>
       <c r="B457" s="0" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="C457" s="0" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="D457" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E457" s="0" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G457" s="0" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="H457" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I457" s="0" t="s">
-        <v>871</v>
-      </c>
+        <v>865</v>
+      </c>
+      <c r="J457" s="1"/>
       <c r="M457" s="0" t="n">
         <v>0</v>
       </c>
@@ -30166,29 +30523,30 @@
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="1" t="s">
-        <v>873</v>
+        <v>861</v>
       </c>
       <c r="B458" s="0" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="C458" s="0" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="D458" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E458" s="0" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G458" s="0" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="H458" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I458" s="0" t="s">
-        <v>871</v>
-      </c>
+        <v>865</v>
+      </c>
+      <c r="J458" s="1"/>
       <c r="M458" s="0" t="n">
         <v>0</v>
       </c>
@@ -30225,29 +30583,30 @@
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="B459" s="2" t="s">
-        <v>877</v>
+        <v>867</v>
+      </c>
+      <c r="B459" s="0" t="s">
+        <v>862</v>
       </c>
       <c r="C459" s="0" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="D459" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E459" s="0" t="s">
-        <v>502</v>
-      </c>
-      <c r="G459" s="2" t="s">
-        <v>879</v>
+        <v>506</v>
+      </c>
+      <c r="G459" s="0" t="s">
+        <v>864</v>
       </c>
       <c r="H459" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I459" s="0" t="s">
-        <v>880</v>
-      </c>
+        <v>865</v>
+      </c>
+      <c r="J459" s="1"/>
       <c r="M459" s="0" t="n">
         <v>0</v>
       </c>
@@ -30284,29 +30643,30 @@
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="B460" s="2" t="s">
-        <v>877</v>
+        <v>867</v>
+      </c>
+      <c r="B460" s="0" t="s">
+        <v>862</v>
       </c>
       <c r="C460" s="0" t="s">
-        <v>881</v>
+        <v>869</v>
       </c>
       <c r="D460" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E460" s="0" t="s">
-        <v>502</v>
-      </c>
-      <c r="G460" s="2" t="s">
-        <v>879</v>
+        <v>506</v>
+      </c>
+      <c r="G460" s="0" t="s">
+        <v>864</v>
       </c>
       <c r="H460" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I460" s="0" t="s">
-        <v>880</v>
-      </c>
+        <v>865</v>
+      </c>
+      <c r="J460" s="1"/>
       <c r="M460" s="0" t="n">
         <v>0</v>
       </c>
@@ -30343,29 +30703,30 @@
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="B461" s="2" t="s">
-        <v>877</v>
+        <v>870</v>
+      </c>
+      <c r="B461" s="0" t="s">
+        <v>871</v>
       </c>
       <c r="C461" s="0" t="s">
-        <v>883</v>
+        <v>872</v>
       </c>
       <c r="D461" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E461" s="0" t="s">
-        <v>506</v>
-      </c>
-      <c r="G461" s="2" t="s">
-        <v>879</v>
+        <v>502</v>
+      </c>
+      <c r="G461" s="0" t="s">
+        <v>864</v>
       </c>
       <c r="H461" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I461" s="0" t="s">
-        <v>880</v>
-      </c>
+        <v>865</v>
+      </c>
+      <c r="J461" s="1"/>
       <c r="M461" s="0" t="n">
         <v>0</v>
       </c>
@@ -30402,29 +30763,30 @@
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="B462" s="2" t="s">
-        <v>877</v>
+        <v>870</v>
+      </c>
+      <c r="B462" s="0" t="s">
+        <v>871</v>
       </c>
       <c r="C462" s="0" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="D462" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E462" s="0" t="s">
-        <v>506</v>
-      </c>
-      <c r="G462" s="2" t="s">
-        <v>879</v>
+        <v>502</v>
+      </c>
+      <c r="G462" s="0" t="s">
+        <v>864</v>
       </c>
       <c r="H462" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I462" s="0" t="s">
-        <v>880</v>
-      </c>
+        <v>865</v>
+      </c>
+      <c r="J462" s="1"/>
       <c r="M462" s="0" t="n">
         <v>0</v>
       </c>
@@ -30461,29 +30823,30 @@
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="B463" s="0" t="s">
-        <v>565</v>
+        <v>871</v>
       </c>
       <c r="C463" s="0" t="s">
-        <v>886</v>
+        <v>875</v>
       </c>
       <c r="D463" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E463" s="0" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="G463" s="0" t="s">
-        <v>887</v>
+        <v>864</v>
       </c>
       <c r="H463" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I463" s="0" t="s">
-        <v>888</v>
-      </c>
+        <v>865</v>
+      </c>
+      <c r="J463" s="1"/>
       <c r="M463" s="0" t="n">
         <v>0</v>
       </c>
@@ -30520,29 +30883,30 @@
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="B464" s="0" t="s">
-        <v>565</v>
+        <v>871</v>
       </c>
       <c r="C464" s="0" t="s">
-        <v>889</v>
+        <v>876</v>
       </c>
       <c r="D464" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E464" s="0" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="G464" s="0" t="s">
-        <v>887</v>
+        <v>864</v>
       </c>
       <c r="H464" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I464" s="0" t="s">
-        <v>888</v>
-      </c>
+        <v>865</v>
+      </c>
+      <c r="J464" s="1"/>
       <c r="M464" s="0" t="n">
         <v>0</v>
       </c>
@@ -30579,29 +30943,30 @@
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="1" t="s">
-        <v>890</v>
+        <v>877</v>
       </c>
       <c r="B465" s="0" t="s">
-        <v>565</v>
+        <v>878</v>
       </c>
       <c r="C465" s="0" t="s">
-        <v>891</v>
+        <v>879</v>
       </c>
       <c r="D465" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E465" s="0" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G465" s="0" t="s">
-        <v>887</v>
+        <v>864</v>
       </c>
       <c r="H465" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I465" s="0" t="s">
-        <v>888</v>
-      </c>
+        <v>865</v>
+      </c>
+      <c r="J465" s="1"/>
       <c r="M465" s="0" t="n">
         <v>0</v>
       </c>
@@ -30638,29 +31003,30 @@
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="1" t="s">
-        <v>890</v>
+        <v>877</v>
       </c>
       <c r="B466" s="0" t="s">
-        <v>565</v>
+        <v>878</v>
       </c>
       <c r="C466" s="0" t="s">
-        <v>892</v>
+        <v>880</v>
       </c>
       <c r="D466" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E466" s="0" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G466" s="0" t="s">
-        <v>887</v>
+        <v>864</v>
       </c>
       <c r="H466" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I466" s="0" t="s">
-        <v>888</v>
-      </c>
+        <v>865</v>
+      </c>
+      <c r="J466" s="1"/>
       <c r="M466" s="0" t="n">
         <v>0</v>
       </c>
@@ -30697,29 +31063,30 @@
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
       <c r="B467" s="0" t="s">
-        <v>565</v>
+        <v>878</v>
       </c>
       <c r="C467" s="0" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
       <c r="D467" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E467" s="0" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="G467" s="0" t="s">
-        <v>895</v>
+        <v>864</v>
       </c>
       <c r="H467" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I467" s="0" t="s">
-        <v>896</v>
-      </c>
+        <v>865</v>
+      </c>
+      <c r="J467" s="1"/>
       <c r="M467" s="0" t="n">
         <v>0</v>
       </c>
@@ -30756,29 +31123,30 @@
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="1" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
       <c r="B468" s="0" t="s">
-        <v>565</v>
+        <v>878</v>
       </c>
       <c r="C468" s="0" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="D468" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E468" s="0" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="G468" s="0" t="s">
-        <v>895</v>
+        <v>864</v>
       </c>
       <c r="H468" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I468" s="0" t="s">
-        <v>896</v>
-      </c>
+        <v>865</v>
+      </c>
+      <c r="J468" s="1"/>
       <c r="M468" s="0" t="n">
         <v>0</v>
       </c>
@@ -30815,29 +31183,30 @@
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="1" t="s">
-        <v>898</v>
+        <v>884</v>
       </c>
       <c r="B469" s="0" t="s">
-        <v>565</v>
+        <v>885</v>
       </c>
       <c r="C469" s="0" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="D469" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E469" s="0" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G469" s="0" t="s">
-        <v>895</v>
+        <v>864</v>
       </c>
       <c r="H469" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I469" s="0" t="s">
-        <v>896</v>
-      </c>
+        <v>865</v>
+      </c>
+      <c r="J469" s="1"/>
       <c r="M469" s="0" t="n">
         <v>0</v>
       </c>
@@ -30874,29 +31243,30 @@
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="1" t="s">
-        <v>898</v>
+        <v>884</v>
       </c>
       <c r="B470" s="0" t="s">
-        <v>565</v>
+        <v>885</v>
       </c>
       <c r="C470" s="0" t="s">
-        <v>900</v>
+        <v>887</v>
       </c>
       <c r="D470" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E470" s="0" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G470" s="0" t="s">
-        <v>895</v>
+        <v>864</v>
       </c>
       <c r="H470" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I470" s="0" t="s">
-        <v>896</v>
-      </c>
+        <v>865</v>
+      </c>
+      <c r="J470" s="1"/>
       <c r="M470" s="0" t="n">
         <v>0</v>
       </c>
@@ -30933,29 +31303,30 @@
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="1" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
       <c r="B471" s="0" t="s">
-        <v>500</v>
+        <v>885</v>
       </c>
       <c r="C471" s="0" t="s">
-        <v>902</v>
+        <v>889</v>
       </c>
       <c r="D471" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E471" s="0" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="G471" s="0" t="s">
-        <v>903</v>
+        <v>864</v>
       </c>
       <c r="H471" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I471" s="0" t="s">
-        <v>904</v>
-      </c>
+        <v>865</v>
+      </c>
+      <c r="J471" s="1"/>
       <c r="M471" s="0" t="n">
         <v>0</v>
       </c>
@@ -30992,29 +31363,30 @@
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="1" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
       <c r="B472" s="0" t="s">
-        <v>500</v>
+        <v>885</v>
       </c>
       <c r="C472" s="0" t="s">
-        <v>905</v>
+        <v>890</v>
       </c>
       <c r="D472" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E472" s="0" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="G472" s="0" t="s">
-        <v>903</v>
+        <v>864</v>
       </c>
       <c r="H472" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I472" s="0" t="s">
-        <v>904</v>
-      </c>
+        <v>865</v>
+      </c>
+      <c r="J472" s="1"/>
       <c r="M472" s="0" t="n">
         <v>0</v>
       </c>
@@ -31051,29 +31423,30 @@
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="1" t="s">
-        <v>906</v>
+        <v>891</v>
       </c>
       <c r="B473" s="0" t="s">
-        <v>500</v>
+        <v>892</v>
       </c>
       <c r="C473" s="0" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="D473" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E473" s="0" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G473" s="0" t="s">
-        <v>903</v>
+        <v>864</v>
       </c>
       <c r="H473" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I473" s="0" t="s">
-        <v>904</v>
-      </c>
+        <v>865</v>
+      </c>
+      <c r="J473" s="1"/>
       <c r="M473" s="0" t="n">
         <v>0</v>
       </c>
@@ -31110,29 +31483,30 @@
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="1" t="s">
-        <v>906</v>
+        <v>891</v>
       </c>
       <c r="B474" s="0" t="s">
-        <v>500</v>
+        <v>892</v>
       </c>
       <c r="C474" s="0" t="s">
-        <v>908</v>
+        <v>894</v>
       </c>
       <c r="D474" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E474" s="0" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G474" s="0" t="s">
-        <v>903</v>
+        <v>864</v>
       </c>
       <c r="H474" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I474" s="0" t="s">
-        <v>904</v>
-      </c>
+        <v>865</v>
+      </c>
+      <c r="J474" s="1"/>
       <c r="M474" s="0" t="n">
         <v>0</v>
       </c>
@@ -31169,29 +31543,30 @@
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="1" t="s">
-        <v>909</v>
+        <v>895</v>
       </c>
       <c r="B475" s="0" t="s">
-        <v>910</v>
+        <v>892</v>
       </c>
       <c r="C475" s="0" t="s">
-        <v>911</v>
+        <v>896</v>
       </c>
       <c r="D475" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E475" s="0" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="G475" s="0" t="s">
-        <v>912</v>
+        <v>864</v>
       </c>
       <c r="H475" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I475" s="0" t="s">
-        <v>913</v>
-      </c>
+        <v>865</v>
+      </c>
+      <c r="J475" s="1"/>
       <c r="M475" s="0" t="n">
         <v>0</v>
       </c>
@@ -31228,29 +31603,30 @@
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="1" t="s">
-        <v>909</v>
+        <v>895</v>
       </c>
       <c r="B476" s="0" t="s">
-        <v>910</v>
+        <v>892</v>
       </c>
       <c r="C476" s="0" t="s">
-        <v>914</v>
+        <v>897</v>
       </c>
       <c r="D476" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E476" s="0" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="G476" s="0" t="s">
-        <v>912</v>
+        <v>864</v>
       </c>
       <c r="H476" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I476" s="0" t="s">
-        <v>913</v>
-      </c>
+        <v>865</v>
+      </c>
+      <c r="J476" s="1"/>
       <c r="M476" s="0" t="n">
         <v>0</v>
       </c>
@@ -31287,29 +31663,30 @@
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="1" t="s">
-        <v>915</v>
+        <v>898</v>
       </c>
       <c r="B477" s="0" t="s">
-        <v>910</v>
+        <v>899</v>
       </c>
       <c r="C477" s="0" t="s">
-        <v>916</v>
+        <v>900</v>
       </c>
       <c r="D477" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E477" s="0" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G477" s="0" t="s">
-        <v>912</v>
+        <v>864</v>
       </c>
       <c r="H477" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I477" s="0" t="s">
-        <v>913</v>
-      </c>
+        <v>865</v>
+      </c>
+      <c r="J477" s="1"/>
       <c r="M477" s="0" t="n">
         <v>0</v>
       </c>
@@ -31346,29 +31723,30 @@
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="1" t="s">
-        <v>915</v>
+        <v>898</v>
       </c>
       <c r="B478" s="0" t="s">
-        <v>910</v>
+        <v>899</v>
       </c>
       <c r="C478" s="0" t="s">
-        <v>917</v>
+        <v>901</v>
       </c>
       <c r="D478" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E478" s="0" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G478" s="0" t="s">
-        <v>912</v>
+        <v>864</v>
       </c>
       <c r="H478" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I478" s="0" t="s">
-        <v>913</v>
-      </c>
+        <v>865</v>
+      </c>
+      <c r="J478" s="1"/>
       <c r="M478" s="0" t="n">
         <v>0</v>
       </c>
@@ -31405,29 +31783,30 @@
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="1" t="s">
-        <v>918</v>
+        <v>902</v>
       </c>
       <c r="B479" s="0" t="s">
-        <v>681</v>
+        <v>899</v>
       </c>
       <c r="C479" s="0" t="s">
-        <v>919</v>
+        <v>903</v>
       </c>
       <c r="D479" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E479" s="0" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="G479" s="0" t="s">
-        <v>920</v>
+        <v>864</v>
       </c>
       <c r="H479" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I479" s="0" t="s">
-        <v>921</v>
-      </c>
+        <v>865</v>
+      </c>
+      <c r="J479" s="1"/>
       <c r="M479" s="0" t="n">
         <v>0</v>
       </c>
@@ -31464,29 +31843,30 @@
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="1" t="s">
-        <v>918</v>
+        <v>902</v>
       </c>
       <c r="B480" s="0" t="s">
-        <v>681</v>
+        <v>899</v>
       </c>
       <c r="C480" s="0" t="s">
-        <v>922</v>
+        <v>904</v>
       </c>
       <c r="D480" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E480" s="0" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="G480" s="0" t="s">
-        <v>920</v>
+        <v>864</v>
       </c>
       <c r="H480" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I480" s="0" t="s">
-        <v>921</v>
-      </c>
+        <v>865</v>
+      </c>
+      <c r="J480" s="1"/>
       <c r="M480" s="0" t="n">
         <v>0</v>
       </c>
@@ -31523,29 +31903,30 @@
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="1" t="s">
-        <v>923</v>
-      </c>
-      <c r="B481" s="0" t="s">
-        <v>681</v>
+        <v>905</v>
+      </c>
+      <c r="B481" s="3" t="s">
+        <v>906</v>
       </c>
       <c r="C481" s="0" t="s">
-        <v>924</v>
+        <v>907</v>
       </c>
       <c r="D481" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E481" s="0" t="s">
-        <v>506</v>
+        <v>908</v>
       </c>
       <c r="G481" s="0" t="s">
-        <v>920</v>
+        <v>864</v>
       </c>
       <c r="H481" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I481" s="0" t="s">
-        <v>921</v>
-      </c>
+        <v>865</v>
+      </c>
+      <c r="J481" s="1"/>
       <c r="M481" s="0" t="n">
         <v>0</v>
       </c>
@@ -31582,29 +31963,30 @@
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="1" t="s">
-        <v>923</v>
-      </c>
-      <c r="B482" s="0" t="s">
-        <v>681</v>
+        <v>905</v>
+      </c>
+      <c r="B482" s="3" t="s">
+        <v>906</v>
       </c>
       <c r="C482" s="0" t="s">
-        <v>925</v>
+        <v>909</v>
       </c>
       <c r="D482" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E482" s="0" t="s">
-        <v>506</v>
+        <v>908</v>
       </c>
       <c r="G482" s="0" t="s">
-        <v>920</v>
+        <v>864</v>
       </c>
       <c r="H482" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I482" s="0" t="s">
-        <v>921</v>
-      </c>
+        <v>865</v>
+      </c>
+      <c r="J482" s="1"/>
       <c r="M482" s="0" t="n">
         <v>0</v>
       </c>
@@ -31641,29 +32023,30 @@
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="B483" s="0" t="s">
-        <v>818</v>
+        <v>910</v>
+      </c>
+      <c r="B483" s="3" t="s">
+        <v>906</v>
       </c>
       <c r="C483" s="0" t="s">
-        <v>927</v>
+        <v>911</v>
       </c>
       <c r="D483" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E483" s="0" t="s">
-        <v>502</v>
+        <v>912</v>
       </c>
       <c r="G483" s="0" t="s">
-        <v>928</v>
+        <v>864</v>
       </c>
       <c r="H483" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I483" s="0" t="s">
-        <v>929</v>
-      </c>
+        <v>865</v>
+      </c>
+      <c r="J483" s="1"/>
       <c r="M483" s="0" t="n">
         <v>0</v>
       </c>
@@ -31700,29 +32083,30 @@
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="B484" s="0" t="s">
-        <v>818</v>
+        <v>910</v>
+      </c>
+      <c r="B484" s="3" t="s">
+        <v>906</v>
       </c>
       <c r="C484" s="0" t="s">
-        <v>930</v>
+        <v>913</v>
       </c>
       <c r="D484" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E484" s="0" t="s">
-        <v>502</v>
+        <v>912</v>
       </c>
       <c r="G484" s="0" t="s">
-        <v>928</v>
+        <v>864</v>
       </c>
       <c r="H484" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I484" s="0" t="s">
-        <v>929</v>
-      </c>
+        <v>865</v>
+      </c>
+      <c r="J484" s="1"/>
       <c r="M484" s="0" t="n">
         <v>0</v>
       </c>
@@ -31759,29 +32143,30 @@
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="1" t="s">
-        <v>931</v>
+        <v>914</v>
       </c>
       <c r="B485" s="0" t="s">
-        <v>818</v>
+        <v>915</v>
       </c>
       <c r="C485" s="0" t="s">
-        <v>932</v>
+        <v>916</v>
       </c>
       <c r="D485" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E485" s="0" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G485" s="0" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
       <c r="H485" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I485" s="0" t="s">
-        <v>929</v>
-      </c>
+        <v>918</v>
+      </c>
+      <c r="J485" s="1"/>
       <c r="M485" s="0" t="n">
         <v>0</v>
       </c>
@@ -31818,29 +32203,30 @@
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="1" t="s">
-        <v>931</v>
+        <v>914</v>
       </c>
       <c r="B486" s="0" t="s">
-        <v>818</v>
+        <v>915</v>
       </c>
       <c r="C486" s="0" t="s">
-        <v>933</v>
+        <v>919</v>
       </c>
       <c r="D486" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E486" s="0" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G486" s="0" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
       <c r="H486" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I486" s="0" t="s">
-        <v>929</v>
-      </c>
+        <v>918</v>
+      </c>
+      <c r="J486" s="1"/>
       <c r="M486" s="0" t="n">
         <v>0</v>
       </c>
@@ -31877,29 +32263,30 @@
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="1" t="s">
-        <v>934</v>
+        <v>920</v>
       </c>
       <c r="B487" s="0" t="s">
-        <v>811</v>
+        <v>915</v>
       </c>
       <c r="C487" s="0" t="s">
-        <v>935</v>
+        <v>921</v>
       </c>
       <c r="D487" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E487" s="0" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="G487" s="0" t="s">
-        <v>936</v>
+        <v>917</v>
       </c>
       <c r="H487" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I487" s="0" t="s">
-        <v>937</v>
-      </c>
+        <v>918</v>
+      </c>
+      <c r="J487" s="1"/>
       <c r="M487" s="0" t="n">
         <v>0</v>
       </c>
@@ -31936,29 +32323,30 @@
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="1" t="s">
-        <v>934</v>
+        <v>920</v>
       </c>
       <c r="B488" s="0" t="s">
-        <v>811</v>
+        <v>915</v>
       </c>
       <c r="C488" s="0" t="s">
-        <v>938</v>
+        <v>922</v>
       </c>
       <c r="D488" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E488" s="0" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="G488" s="0" t="s">
-        <v>936</v>
+        <v>917</v>
       </c>
       <c r="H488" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I488" s="0" t="s">
-        <v>937</v>
-      </c>
+        <v>918</v>
+      </c>
+      <c r="J488" s="1"/>
       <c r="M488" s="0" t="n">
         <v>0</v>
       </c>
@@ -31995,29 +32383,30 @@
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="1" t="s">
-        <v>939</v>
+        <v>923</v>
       </c>
       <c r="B489" s="0" t="s">
-        <v>811</v>
+        <v>924</v>
       </c>
       <c r="C489" s="0" t="s">
-        <v>940</v>
+        <v>925</v>
       </c>
       <c r="D489" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E489" s="0" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G489" s="0" t="s">
-        <v>936</v>
+        <v>917</v>
       </c>
       <c r="H489" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I489" s="0" t="s">
-        <v>937</v>
-      </c>
+        <v>918</v>
+      </c>
+      <c r="J489" s="1"/>
       <c r="M489" s="0" t="n">
         <v>0</v>
       </c>
@@ -32054,29 +32443,30 @@
     </row>
     <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="1" t="s">
-        <v>939</v>
+        <v>923</v>
       </c>
       <c r="B490" s="0" t="s">
-        <v>811</v>
+        <v>924</v>
       </c>
       <c r="C490" s="0" t="s">
-        <v>941</v>
+        <v>926</v>
       </c>
       <c r="D490" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E490" s="0" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G490" s="0" t="s">
-        <v>936</v>
+        <v>917</v>
       </c>
       <c r="H490" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I490" s="0" t="s">
-        <v>937</v>
-      </c>
+        <v>918</v>
+      </c>
+      <c r="J490" s="1"/>
       <c r="M490" s="0" t="n">
         <v>0</v>
       </c>
@@ -32113,29 +32503,30 @@
     </row>
     <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="1" t="s">
-        <v>942</v>
+        <v>927</v>
       </c>
       <c r="B491" s="0" t="s">
-        <v>943</v>
+        <v>924</v>
       </c>
       <c r="C491" s="0" t="s">
-        <v>944</v>
+        <v>928</v>
       </c>
       <c r="D491" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E491" s="0" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="G491" s="0" t="s">
-        <v>945</v>
+        <v>917</v>
       </c>
       <c r="H491" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I491" s="0" t="s">
-        <v>946</v>
-      </c>
+        <v>918</v>
+      </c>
+      <c r="J491" s="1"/>
       <c r="M491" s="0" t="n">
         <v>0</v>
       </c>
@@ -32172,29 +32563,30 @@
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="1" t="s">
-        <v>942</v>
+        <v>927</v>
       </c>
       <c r="B492" s="0" t="s">
-        <v>943</v>
+        <v>924</v>
       </c>
       <c r="C492" s="0" t="s">
-        <v>947</v>
+        <v>929</v>
       </c>
       <c r="D492" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E492" s="0" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="G492" s="0" t="s">
-        <v>945</v>
+        <v>917</v>
       </c>
       <c r="H492" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I492" s="0" t="s">
-        <v>946</v>
-      </c>
+        <v>918</v>
+      </c>
+      <c r="J492" s="1"/>
       <c r="M492" s="0" t="n">
         <v>0</v>
       </c>
@@ -32231,29 +32623,30 @@
     </row>
     <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="1" t="s">
-        <v>948</v>
+        <v>930</v>
       </c>
       <c r="B493" s="0" t="s">
-        <v>943</v>
+        <v>931</v>
       </c>
       <c r="C493" s="0" t="s">
-        <v>949</v>
+        <v>932</v>
       </c>
       <c r="D493" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E493" s="0" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G493" s="0" t="s">
-        <v>945</v>
+        <v>917</v>
       </c>
       <c r="H493" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I493" s="0" t="s">
-        <v>946</v>
-      </c>
+        <v>918</v>
+      </c>
+      <c r="J493" s="1"/>
       <c r="M493" s="0" t="n">
         <v>0</v>
       </c>
@@ -32290,29 +32683,30 @@
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="1" t="s">
-        <v>948</v>
+        <v>930</v>
       </c>
       <c r="B494" s="0" t="s">
-        <v>943</v>
+        <v>931</v>
       </c>
       <c r="C494" s="0" t="s">
-        <v>950</v>
+        <v>933</v>
       </c>
       <c r="D494" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E494" s="0" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G494" s="0" t="s">
-        <v>945</v>
+        <v>917</v>
       </c>
       <c r="H494" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I494" s="0" t="s">
-        <v>946</v>
-      </c>
+        <v>918</v>
+      </c>
+      <c r="J494" s="1"/>
       <c r="M494" s="0" t="n">
         <v>0</v>
       </c>
@@ -32349,29 +32743,30 @@
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="1" t="s">
-        <v>951</v>
+        <v>934</v>
       </c>
       <c r="B495" s="0" t="s">
-        <v>718</v>
+        <v>931</v>
       </c>
       <c r="C495" s="0" t="s">
-        <v>719</v>
+        <v>935</v>
       </c>
       <c r="D495" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E495" s="0" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="G495" s="0" t="s">
-        <v>952</v>
+        <v>917</v>
       </c>
       <c r="H495" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I495" s="0" t="s">
-        <v>953</v>
-      </c>
+        <v>918</v>
+      </c>
+      <c r="J495" s="1"/>
       <c r="M495" s="0" t="n">
         <v>0</v>
       </c>
@@ -32408,29 +32803,30 @@
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="1" t="s">
-        <v>951</v>
+        <v>934</v>
       </c>
       <c r="B496" s="0" t="s">
-        <v>718</v>
+        <v>931</v>
       </c>
       <c r="C496" s="0" t="s">
-        <v>720</v>
+        <v>936</v>
       </c>
       <c r="D496" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E496" s="0" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="G496" s="0" t="s">
-        <v>952</v>
+        <v>917</v>
       </c>
       <c r="H496" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I496" s="0" t="s">
-        <v>953</v>
-      </c>
+        <v>918</v>
+      </c>
+      <c r="J496" s="1"/>
       <c r="M496" s="0" t="n">
         <v>0</v>
       </c>
@@ -32467,29 +32863,30 @@
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="1" t="s">
-        <v>954</v>
+        <v>937</v>
       </c>
       <c r="B497" s="0" t="s">
-        <v>718</v>
+        <v>938</v>
       </c>
       <c r="C497" s="0" t="s">
-        <v>722</v>
+        <v>939</v>
       </c>
       <c r="D497" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E497" s="0" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G497" s="0" t="s">
-        <v>952</v>
+        <v>917</v>
       </c>
       <c r="H497" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I497" s="0" t="s">
-        <v>953</v>
-      </c>
+        <v>918</v>
+      </c>
+      <c r="J497" s="1"/>
       <c r="M497" s="0" t="n">
         <v>0</v>
       </c>
@@ -32526,29 +32923,30 @@
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="1" t="s">
-        <v>954</v>
+        <v>937</v>
       </c>
       <c r="B498" s="0" t="s">
-        <v>718</v>
+        <v>938</v>
       </c>
       <c r="C498" s="0" t="s">
-        <v>723</v>
+        <v>940</v>
       </c>
       <c r="D498" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E498" s="0" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G498" s="0" t="s">
-        <v>952</v>
+        <v>917</v>
       </c>
       <c r="H498" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I498" s="0" t="s">
-        <v>953</v>
-      </c>
+        <v>918</v>
+      </c>
+      <c r="J498" s="1"/>
       <c r="M498" s="0" t="n">
         <v>0</v>
       </c>
@@ -32583,197 +32981,3841 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A597" s="1"/>
-    </row>
-    <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A598" s="1"/>
-    </row>
-    <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A599" s="1"/>
-    </row>
-    <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A600" s="1"/>
-    </row>
-    <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A601" s="1"/>
-    </row>
-    <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A602" s="1"/>
-    </row>
-    <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A603" s="1"/>
-    </row>
-    <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A604" s="1"/>
-    </row>
-    <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A605" s="1"/>
-    </row>
-    <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A606" s="1"/>
-    </row>
-    <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A607" s="1"/>
-    </row>
-    <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A608" s="1"/>
-    </row>
-    <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A609" s="1"/>
-    </row>
-    <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A610" s="1"/>
-    </row>
-    <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A611" s="1"/>
-    </row>
-    <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A612" s="1"/>
-    </row>
-    <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A613" s="1"/>
-    </row>
-    <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A614" s="1"/>
-    </row>
-    <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A615" s="1"/>
-    </row>
-    <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A616" s="1"/>
-    </row>
-    <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A617" s="1"/>
-    </row>
-    <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A618" s="1"/>
-    </row>
-    <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A619" s="1"/>
-    </row>
-    <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A620" s="1"/>
-    </row>
-    <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A621" s="1"/>
-    </row>
-    <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A622" s="1"/>
-    </row>
-    <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A623" s="1"/>
-    </row>
-    <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A624" s="1"/>
-    </row>
-    <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A625" s="1"/>
-    </row>
-    <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A626" s="1"/>
-    </row>
-    <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A627" s="1"/>
-    </row>
-    <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A628" s="1"/>
-    </row>
-    <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A629" s="1"/>
-    </row>
-    <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A630" s="1"/>
-    </row>
-    <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A631" s="1"/>
-    </row>
-    <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A632" s="1"/>
-    </row>
-    <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A633" s="1"/>
-    </row>
-    <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A634" s="1"/>
-    </row>
-    <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A635" s="1"/>
-    </row>
-    <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A636" s="1"/>
-    </row>
-    <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A637" s="1"/>
-    </row>
-    <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A638" s="1"/>
-    </row>
-    <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A639" s="1"/>
-    </row>
-    <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A640" s="1"/>
-    </row>
-    <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A641" s="1"/>
-    </row>
-    <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A642" s="1"/>
-    </row>
-    <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A643" s="1"/>
-    </row>
-    <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A644" s="1"/>
-    </row>
-    <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A645" s="1"/>
-    </row>
-    <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A646" s="1"/>
-    </row>
-    <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A647" s="1"/>
-    </row>
-    <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A648" s="1"/>
-    </row>
-    <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A649" s="1"/>
-    </row>
-    <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A650" s="1"/>
-    </row>
-    <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A651" s="1"/>
-    </row>
-    <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A652" s="1"/>
-    </row>
-    <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A653" s="1"/>
-    </row>
-    <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A654" s="1"/>
-    </row>
-    <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A655" s="1"/>
-    </row>
-    <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A656" s="1"/>
-    </row>
-    <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A657" s="1"/>
-    </row>
-    <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A658" s="1"/>
-    </row>
-    <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A659" s="1"/>
-    </row>
-    <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A660" s="1"/>
+    <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A499" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B499" s="0" t="s">
+        <v>938</v>
+      </c>
+      <c r="C499" s="0" t="s">
+        <v>942</v>
+      </c>
+      <c r="D499" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E499" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="G499" s="0" t="s">
+        <v>917</v>
+      </c>
+      <c r="H499" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I499" s="0" t="s">
+        <v>918</v>
+      </c>
+      <c r="J499" s="1"/>
+      <c r="M499" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N499" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O499" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P499" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S499" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB499" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL499" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP499" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ499" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR499" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS499" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A500" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B500" s="0" t="s">
+        <v>938</v>
+      </c>
+      <c r="C500" s="0" t="s">
+        <v>943</v>
+      </c>
+      <c r="D500" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E500" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="G500" s="0" t="s">
+        <v>917</v>
+      </c>
+      <c r="H500" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I500" s="0" t="s">
+        <v>918</v>
+      </c>
+      <c r="J500" s="1"/>
+      <c r="M500" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N500" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O500" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P500" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S500" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB500" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL500" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP500" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ500" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR500" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS500" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A501" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B501" s="0" t="s">
+        <v>945</v>
+      </c>
+      <c r="C501" s="0" t="s">
+        <v>946</v>
+      </c>
+      <c r="D501" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E501" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="G501" s="0" t="s">
+        <v>917</v>
+      </c>
+      <c r="H501" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I501" s="0" t="s">
+        <v>918</v>
+      </c>
+      <c r="J501" s="1"/>
+      <c r="M501" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N501" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O501" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P501" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S501" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB501" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL501" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP501" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ501" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR501" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS501" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A502" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B502" s="0" t="s">
+        <v>945</v>
+      </c>
+      <c r="C502" s="0" t="s">
+        <v>947</v>
+      </c>
+      <c r="D502" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E502" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="G502" s="0" t="s">
+        <v>917</v>
+      </c>
+      <c r="H502" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I502" s="0" t="s">
+        <v>918</v>
+      </c>
+      <c r="J502" s="1"/>
+      <c r="M502" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N502" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O502" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P502" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S502" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB502" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL502" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP502" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ502" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR502" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS502" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A503" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B503" s="0" t="s">
+        <v>945</v>
+      </c>
+      <c r="C503" s="0" t="s">
+        <v>949</v>
+      </c>
+      <c r="D503" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E503" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="G503" s="0" t="s">
+        <v>917</v>
+      </c>
+      <c r="H503" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I503" s="0" t="s">
+        <v>918</v>
+      </c>
+      <c r="J503" s="1"/>
+      <c r="M503" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N503" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O503" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P503" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S503" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB503" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL503" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP503" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ503" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR503" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS503" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A504" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B504" s="0" t="s">
+        <v>945</v>
+      </c>
+      <c r="C504" s="0" t="s">
+        <v>950</v>
+      </c>
+      <c r="D504" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E504" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="G504" s="0" t="s">
+        <v>917</v>
+      </c>
+      <c r="H504" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I504" s="0" t="s">
+        <v>918</v>
+      </c>
+      <c r="J504" s="1"/>
+      <c r="M504" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N504" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O504" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P504" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S504" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB504" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL504" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP504" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ504" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR504" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS504" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A505" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="B505" s="0" t="s">
+        <v>952</v>
+      </c>
+      <c r="C505" s="0" t="s">
+        <v>953</v>
+      </c>
+      <c r="D505" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E505" s="0" t="s">
+        <v>954</v>
+      </c>
+      <c r="G505" s="0" t="s">
+        <v>917</v>
+      </c>
+      <c r="H505" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I505" s="0" t="s">
+        <v>918</v>
+      </c>
+      <c r="J505" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="M505" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N505" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O505" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P505" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q505" s="0" t="s">
+        <v>955</v>
+      </c>
+      <c r="R505" s="0" t="s">
+        <v>956</v>
+      </c>
+      <c r="S505" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="V505" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="W505" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X505" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y505" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA505" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB505" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC505" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP505" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ505" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR505" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS505" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT505" s="0" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A506" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="B506" s="0" t="s">
+        <v>952</v>
+      </c>
+      <c r="C506" s="0" t="s">
+        <v>958</v>
+      </c>
+      <c r="D506" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E506" s="0" t="s">
+        <v>954</v>
+      </c>
+      <c r="G506" s="0" t="s">
+        <v>917</v>
+      </c>
+      <c r="H506" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I506" s="0" t="s">
+        <v>918</v>
+      </c>
+      <c r="J506" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="M506" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N506" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O506" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P506" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q506" s="0" t="s">
+        <v>955</v>
+      </c>
+      <c r="R506" s="0" t="s">
+        <v>959</v>
+      </c>
+      <c r="S506" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="V506" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="W506" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X506" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y506" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA506" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB506" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC506" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP506" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ506" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR506" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS506" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT506" s="0" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A507" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="B507" s="0" t="s">
+        <v>962</v>
+      </c>
+      <c r="C507" s="0" t="s">
+        <v>963</v>
+      </c>
+      <c r="D507" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E507" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="G507" s="0" t="s">
+        <v>962</v>
+      </c>
+      <c r="H507" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I507" s="0" t="s">
+        <v>964</v>
+      </c>
+      <c r="M507" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N507" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O507" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P507" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S507" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB507" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL507" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP507" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ507" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR507" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS507" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A508" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="B508" s="0" t="s">
+        <v>962</v>
+      </c>
+      <c r="C508" s="0" t="s">
+        <v>965</v>
+      </c>
+      <c r="D508" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E508" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="G508" s="0" t="s">
+        <v>962</v>
+      </c>
+      <c r="H508" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I508" s="0" t="s">
+        <v>964</v>
+      </c>
+      <c r="M508" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N508" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O508" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P508" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S508" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB508" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL508" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP508" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ508" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR508" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS508" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A509" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="B509" s="0" t="s">
+        <v>962</v>
+      </c>
+      <c r="C509" s="0" t="s">
+        <v>967</v>
+      </c>
+      <c r="D509" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E509" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="G509" s="0" t="s">
+        <v>962</v>
+      </c>
+      <c r="H509" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I509" s="0" t="s">
+        <v>964</v>
+      </c>
+      <c r="M509" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N509" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O509" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P509" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S509" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB509" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL509" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP509" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ509" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR509" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS509" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A510" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="B510" s="0" t="s">
+        <v>962</v>
+      </c>
+      <c r="C510" s="0" t="s">
+        <v>968</v>
+      </c>
+      <c r="D510" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E510" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="G510" s="0" t="s">
+        <v>962</v>
+      </c>
+      <c r="H510" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I510" s="0" t="s">
+        <v>964</v>
+      </c>
+      <c r="M510" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N510" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O510" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P510" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S510" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB510" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL510" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP510" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ510" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR510" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS510" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A511" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="B511" s="0" t="s">
+        <v>970</v>
+      </c>
+      <c r="C511" s="0" t="s">
+        <v>971</v>
+      </c>
+      <c r="D511" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E511" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="G511" s="0" t="s">
+        <v>970</v>
+      </c>
+      <c r="H511" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I511" s="0" t="s">
+        <v>972</v>
+      </c>
+      <c r="M511" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N511" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O511" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P511" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S511" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB511" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL511" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP511" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ511" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR511" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS511" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A512" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="B512" s="0" t="s">
+        <v>970</v>
+      </c>
+      <c r="C512" s="0" t="s">
+        <v>973</v>
+      </c>
+      <c r="D512" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E512" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="G512" s="0" t="s">
+        <v>970</v>
+      </c>
+      <c r="H512" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I512" s="0" t="s">
+        <v>972</v>
+      </c>
+      <c r="M512" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N512" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O512" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P512" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S512" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB512" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL512" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP512" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ512" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR512" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS512" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A513" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="B513" s="0" t="s">
+        <v>970</v>
+      </c>
+      <c r="C513" s="0" t="s">
+        <v>975</v>
+      </c>
+      <c r="D513" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E513" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="G513" s="0" t="s">
+        <v>970</v>
+      </c>
+      <c r="H513" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I513" s="0" t="s">
+        <v>972</v>
+      </c>
+      <c r="M513" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N513" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O513" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P513" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S513" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB513" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL513" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP513" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ513" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR513" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS513" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A514" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="B514" s="0" t="s">
+        <v>970</v>
+      </c>
+      <c r="C514" s="0" t="s">
+        <v>976</v>
+      </c>
+      <c r="D514" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E514" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="G514" s="0" t="s">
+        <v>970</v>
+      </c>
+      <c r="H514" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I514" s="0" t="s">
+        <v>972</v>
+      </c>
+      <c r="M514" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N514" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O514" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P514" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S514" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB514" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL514" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP514" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ514" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR514" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS514" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A515" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="B515" s="0" t="s">
+        <v>978</v>
+      </c>
+      <c r="C515" s="0" t="s">
+        <v>979</v>
+      </c>
+      <c r="D515" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E515" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="G515" s="0" t="s">
+        <v>978</v>
+      </c>
+      <c r="H515" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I515" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="M515" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N515" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O515" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P515" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S515" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB515" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL515" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP515" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ515" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR515" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS515" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A516" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="B516" s="0" t="s">
+        <v>978</v>
+      </c>
+      <c r="C516" s="0" t="s">
+        <v>981</v>
+      </c>
+      <c r="D516" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E516" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="G516" s="0" t="s">
+        <v>978</v>
+      </c>
+      <c r="H516" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I516" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="M516" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N516" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O516" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P516" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S516" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB516" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL516" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP516" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ516" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR516" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS516" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A517" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="B517" s="0" t="s">
+        <v>978</v>
+      </c>
+      <c r="C517" s="0" t="s">
+        <v>983</v>
+      </c>
+      <c r="D517" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E517" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="G517" s="0" t="s">
+        <v>978</v>
+      </c>
+      <c r="H517" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I517" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="M517" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N517" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O517" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P517" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S517" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB517" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL517" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP517" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ517" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR517" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS517" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A518" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="B518" s="0" t="s">
+        <v>978</v>
+      </c>
+      <c r="C518" s="0" t="s">
+        <v>984</v>
+      </c>
+      <c r="D518" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E518" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="G518" s="0" t="s">
+        <v>978</v>
+      </c>
+      <c r="H518" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I518" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="M518" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N518" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O518" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P518" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S518" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB518" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL518" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP518" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ518" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR518" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS518" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A519" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B519" s="0" t="s">
+        <v>986</v>
+      </c>
+      <c r="C519" s="0" t="s">
+        <v>987</v>
+      </c>
+      <c r="D519" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E519" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="G519" s="0" t="s">
+        <v>986</v>
+      </c>
+      <c r="H519" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I519" s="0" t="s">
+        <v>988</v>
+      </c>
+      <c r="M519" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N519" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O519" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P519" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S519" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB519" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL519" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP519" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ519" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR519" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS519" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A520" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B520" s="0" t="s">
+        <v>986</v>
+      </c>
+      <c r="C520" s="0" t="s">
+        <v>989</v>
+      </c>
+      <c r="D520" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E520" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="G520" s="0" t="s">
+        <v>986</v>
+      </c>
+      <c r="H520" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I520" s="0" t="s">
+        <v>988</v>
+      </c>
+      <c r="M520" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N520" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O520" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P520" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S520" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB520" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL520" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP520" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ520" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR520" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS520" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A521" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B521" s="0" t="s">
+        <v>986</v>
+      </c>
+      <c r="C521" s="0" t="s">
+        <v>991</v>
+      </c>
+      <c r="D521" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E521" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="G521" s="0" t="s">
+        <v>986</v>
+      </c>
+      <c r="H521" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I521" s="0" t="s">
+        <v>988</v>
+      </c>
+      <c r="M521" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N521" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O521" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P521" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S521" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB521" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL521" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP521" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ521" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR521" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS521" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A522" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B522" s="0" t="s">
+        <v>986</v>
+      </c>
+      <c r="C522" s="0" t="s">
+        <v>992</v>
+      </c>
+      <c r="D522" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E522" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="G522" s="0" t="s">
+        <v>986</v>
+      </c>
+      <c r="H522" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I522" s="0" t="s">
+        <v>988</v>
+      </c>
+      <c r="M522" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N522" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O522" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P522" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S522" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB522" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL522" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP522" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ522" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR522" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS522" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A523" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="B523" s="0" t="s">
+        <v>994</v>
+      </c>
+      <c r="C523" s="0" t="s">
+        <v>995</v>
+      </c>
+      <c r="D523" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E523" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="G523" s="0" t="s">
+        <v>994</v>
+      </c>
+      <c r="H523" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I523" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="M523" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N523" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O523" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P523" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S523" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB523" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL523" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP523" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ523" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR523" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS523" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A524" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="B524" s="0" t="s">
+        <v>994</v>
+      </c>
+      <c r="C524" s="0" t="s">
+        <v>997</v>
+      </c>
+      <c r="D524" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E524" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="G524" s="0" t="s">
+        <v>994</v>
+      </c>
+      <c r="H524" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I524" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="M524" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N524" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O524" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P524" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S524" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB524" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL524" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP524" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ524" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR524" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS524" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A525" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="B525" s="0" t="s">
+        <v>994</v>
+      </c>
+      <c r="C525" s="0" t="s">
+        <v>999</v>
+      </c>
+      <c r="D525" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E525" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="G525" s="0" t="s">
+        <v>994</v>
+      </c>
+      <c r="H525" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I525" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="M525" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N525" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O525" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P525" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S525" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB525" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL525" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP525" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ525" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR525" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS525" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A526" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="B526" s="0" t="s">
+        <v>994</v>
+      </c>
+      <c r="C526" s="0" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D526" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E526" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="G526" s="0" t="s">
+        <v>994</v>
+      </c>
+      <c r="H526" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I526" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="M526" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N526" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O526" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P526" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S526" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB526" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL526" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP526" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ526" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR526" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS526" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A527" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B527" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="C527" s="0" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D527" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E527" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="G527" s="0" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H527" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I527" s="0" t="s">
+        <v>1004</v>
+      </c>
+      <c r="M527" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N527" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O527" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P527" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S527" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB527" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL527" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP527" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ527" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR527" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS527" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A528" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B528" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="C528" s="0" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D528" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E528" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="G528" s="0" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H528" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I528" s="0" t="s">
+        <v>1004</v>
+      </c>
+      <c r="M528" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N528" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O528" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P528" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S528" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB528" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL528" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP528" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ528" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR528" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS528" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A529" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B529" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="C529" s="0" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D529" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E529" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="G529" s="0" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H529" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I529" s="0" t="s">
+        <v>1004</v>
+      </c>
+      <c r="M529" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N529" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O529" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P529" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S529" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB529" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL529" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP529" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ529" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR529" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS529" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A530" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B530" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="C530" s="0" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D530" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E530" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="G530" s="0" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H530" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I530" s="0" t="s">
+        <v>1004</v>
+      </c>
+      <c r="M530" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N530" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O530" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P530" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S530" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB530" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL530" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP530" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ530" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR530" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS530" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A531" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B531" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="C531" s="0" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D531" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E531" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="G531" s="0" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H531" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I531" s="0" t="s">
+        <v>1012</v>
+      </c>
+      <c r="M531" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N531" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O531" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P531" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S531" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB531" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL531" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP531" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ531" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR531" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS531" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A532" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B532" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="C532" s="0" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D532" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E532" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="G532" s="0" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H532" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I532" s="0" t="s">
+        <v>1012</v>
+      </c>
+      <c r="M532" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N532" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O532" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P532" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S532" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB532" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL532" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP532" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ532" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR532" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS532" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A533" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B533" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="C533" s="0" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D533" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E533" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="G533" s="0" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H533" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I533" s="0" t="s">
+        <v>1012</v>
+      </c>
+      <c r="M533" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N533" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O533" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P533" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S533" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB533" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL533" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP533" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ533" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR533" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS533" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A534" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B534" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="C534" s="0" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D534" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E534" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="G534" s="0" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H534" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I534" s="0" t="s">
+        <v>1012</v>
+      </c>
+      <c r="M534" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N534" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O534" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P534" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S534" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB534" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL534" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP534" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ534" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR534" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS534" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A535" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B535" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="C535" s="0" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D535" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E535" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="G535" s="0" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H535" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I535" s="0" t="s">
+        <v>1020</v>
+      </c>
+      <c r="M535" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N535" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O535" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P535" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S535" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB535" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL535" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP535" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ535" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR535" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS535" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A536" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B536" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="C536" s="0" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D536" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E536" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="G536" s="0" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H536" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I536" s="0" t="s">
+        <v>1020</v>
+      </c>
+      <c r="M536" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N536" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O536" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P536" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S536" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB536" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL536" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP536" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ536" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR536" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS536" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A537" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B537" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="C537" s="0" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D537" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E537" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="G537" s="0" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H537" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I537" s="0" t="s">
+        <v>1020</v>
+      </c>
+      <c r="M537" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N537" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O537" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P537" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S537" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB537" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL537" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP537" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ537" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR537" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS537" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A538" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B538" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="C538" s="0" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D538" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E538" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="G538" s="0" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H538" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I538" s="0" t="s">
+        <v>1020</v>
+      </c>
+      <c r="M538" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N538" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O538" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P538" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S538" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB538" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL538" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP538" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ538" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR538" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS538" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A539" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B539" s="0" t="s">
+        <v>834</v>
+      </c>
+      <c r="C539" s="0" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D539" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E539" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="G539" s="0" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H539" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I539" s="0" t="s">
+        <v>1028</v>
+      </c>
+      <c r="M539" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N539" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O539" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P539" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S539" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB539" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL539" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP539" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ539" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR539" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS539" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A540" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B540" s="0" t="s">
+        <v>834</v>
+      </c>
+      <c r="C540" s="0" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D540" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E540" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="G540" s="0" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H540" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I540" s="0" t="s">
+        <v>1028</v>
+      </c>
+      <c r="M540" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N540" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O540" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P540" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S540" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB540" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL540" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP540" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ540" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR540" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS540" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A541" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B541" s="0" t="s">
+        <v>834</v>
+      </c>
+      <c r="C541" s="0" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D541" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E541" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="G541" s="0" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H541" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I541" s="0" t="s">
+        <v>1028</v>
+      </c>
+      <c r="M541" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N541" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O541" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P541" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S541" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB541" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL541" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP541" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ541" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR541" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS541" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A542" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B542" s="0" t="s">
+        <v>834</v>
+      </c>
+      <c r="C542" s="0" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D542" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E542" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="G542" s="0" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H542" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I542" s="0" t="s">
+        <v>1028</v>
+      </c>
+      <c r="M542" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N542" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O542" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P542" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S542" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB542" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL542" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP542" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ542" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR542" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS542" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A543" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B543" s="0" t="s">
+        <v>681</v>
+      </c>
+      <c r="C543" s="0" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D543" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E543" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="G543" s="0" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H543" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I543" s="0" t="s">
+        <v>1036</v>
+      </c>
+      <c r="M543" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N543" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O543" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P543" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S543" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB543" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL543" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP543" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ543" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR543" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS543" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A544" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B544" s="0" t="s">
+        <v>681</v>
+      </c>
+      <c r="C544" s="0" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D544" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E544" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="G544" s="0" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H544" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I544" s="0" t="s">
+        <v>1036</v>
+      </c>
+      <c r="M544" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N544" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O544" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P544" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S544" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB544" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL544" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP544" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ544" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR544" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS544" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A545" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B545" s="0" t="s">
+        <v>681</v>
+      </c>
+      <c r="C545" s="0" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D545" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E545" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="G545" s="0" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H545" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I545" s="0" t="s">
+        <v>1036</v>
+      </c>
+      <c r="M545" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N545" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O545" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P545" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S545" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB545" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL545" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP545" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ545" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR545" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS545" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A546" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B546" s="0" t="s">
+        <v>681</v>
+      </c>
+      <c r="C546" s="0" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D546" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E546" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="G546" s="0" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H546" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I546" s="0" t="s">
+        <v>1036</v>
+      </c>
+      <c r="M546" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N546" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O546" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P546" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S546" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB546" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL546" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP546" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ546" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR546" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS546" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A547" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B547" s="0" t="s">
+        <v>818</v>
+      </c>
+      <c r="C547" s="0" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D547" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E547" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="G547" s="0" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H547" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I547" s="0" t="s">
+        <v>1044</v>
+      </c>
+      <c r="M547" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N547" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O547" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P547" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S547" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB547" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL547" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP547" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ547" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR547" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS547" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A548" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B548" s="0" t="s">
+        <v>818</v>
+      </c>
+      <c r="C548" s="0" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D548" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E548" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="G548" s="0" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H548" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I548" s="0" t="s">
+        <v>1044</v>
+      </c>
+      <c r="M548" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N548" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O548" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P548" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S548" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB548" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL548" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP548" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ548" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR548" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS548" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A549" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B549" s="0" t="s">
+        <v>818</v>
+      </c>
+      <c r="C549" s="0" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D549" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E549" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="G549" s="0" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H549" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I549" s="0" t="s">
+        <v>1044</v>
+      </c>
+      <c r="M549" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N549" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O549" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P549" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S549" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB549" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL549" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP549" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ549" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR549" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS549" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A550" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B550" s="0" t="s">
+        <v>818</v>
+      </c>
+      <c r="C550" s="0" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D550" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E550" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="G550" s="0" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H550" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I550" s="0" t="s">
+        <v>1044</v>
+      </c>
+      <c r="M550" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N550" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O550" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P550" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S550" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB550" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL550" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP550" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ550" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR550" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS550" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A551" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B551" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="C551" s="0" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D551" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E551" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="G551" s="0" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H551" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I551" s="0" t="s">
+        <v>1052</v>
+      </c>
+      <c r="M551" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N551" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O551" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P551" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S551" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB551" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL551" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP551" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ551" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR551" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS551" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A552" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B552" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="C552" s="0" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D552" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E552" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="G552" s="0" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H552" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I552" s="0" t="s">
+        <v>1052</v>
+      </c>
+      <c r="M552" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N552" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O552" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P552" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S552" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB552" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL552" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP552" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ552" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR552" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS552" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A553" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B553" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="C553" s="0" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D553" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E553" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="G553" s="0" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H553" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I553" s="0" t="s">
+        <v>1052</v>
+      </c>
+      <c r="M553" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N553" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O553" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P553" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S553" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB553" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL553" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP553" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ553" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR553" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS553" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A554" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B554" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="C554" s="0" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D554" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E554" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="G554" s="0" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H554" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I554" s="0" t="s">
+        <v>1052</v>
+      </c>
+      <c r="M554" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N554" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O554" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P554" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S554" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB554" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL554" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP554" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ554" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR554" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS554" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A555" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B555" s="0" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C555" s="0" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D555" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E555" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="G555" s="0" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H555" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I555" s="0" t="s">
+        <v>1061</v>
+      </c>
+      <c r="M555" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N555" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O555" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P555" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S555" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB555" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL555" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP555" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ555" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR555" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS555" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A556" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B556" s="0" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C556" s="0" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D556" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E556" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="G556" s="0" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H556" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I556" s="0" t="s">
+        <v>1061</v>
+      </c>
+      <c r="M556" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N556" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O556" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P556" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S556" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB556" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL556" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP556" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ556" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR556" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS556" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A557" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B557" s="0" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C557" s="0" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D557" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E557" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="G557" s="0" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H557" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I557" s="0" t="s">
+        <v>1061</v>
+      </c>
+      <c r="M557" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N557" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O557" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P557" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S557" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB557" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL557" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP557" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ557" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR557" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS557" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A558" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B558" s="0" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C558" s="0" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D558" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E558" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="G558" s="0" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H558" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I558" s="0" t="s">
+        <v>1061</v>
+      </c>
+      <c r="M558" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N558" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O558" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P558" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S558" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB558" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL558" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP558" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ558" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR558" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS558" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A559" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B559" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="C559" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="D559" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E559" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="G559" s="0" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H559" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I559" s="0" t="s">
+        <v>1068</v>
+      </c>
+      <c r="M559" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N559" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O559" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P559" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S559" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB559" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL559" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP559" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ559" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR559" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS559" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A560" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B560" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="C560" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="D560" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E560" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="G560" s="0" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H560" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I560" s="0" t="s">
+        <v>1068</v>
+      </c>
+      <c r="M560" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N560" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O560" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P560" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S560" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB560" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL560" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP560" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ560" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR560" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS560" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A561" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B561" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="C561" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="D561" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E561" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="G561" s="0" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H561" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I561" s="0" t="s">
+        <v>1068</v>
+      </c>
+      <c r="M561" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N561" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O561" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P561" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S561" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB561" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL561" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP561" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ561" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR561" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS561" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A562" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B562" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="C562" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="D562" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E562" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="G562" s="0" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H562" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I562" s="0" t="s">
+        <v>1068</v>
+      </c>
+      <c r="M562" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N562" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O562" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P562" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S562" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB562" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL562" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP562" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ562" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR562" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS562" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="1"/>
@@ -34659,6 +38701,24 @@
     <row r="1288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1288" s="1"/>
     </row>
+    <row r="1289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1289" s="1"/>
+    </row>
+    <row r="1290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1290" s="1"/>
+    </row>
+    <row r="1291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1291" s="1"/>
+    </row>
+    <row r="1292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1292" s="1"/>
+    </row>
+    <row r="1293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1293" s="1"/>
+    </row>
+    <row r="1294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1294" s="1"/>
+    </row>
     <row r="1295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1295" s="1"/>
     </row>
@@ -34755,6 +38815,36 @@
     <row r="1326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1326" s="1"/>
     </row>
+    <row r="1327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1327" s="1"/>
+    </row>
+    <row r="1328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1328" s="1"/>
+    </row>
+    <row r="1329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1329" s="1"/>
+    </row>
+    <row r="1330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1330" s="1"/>
+    </row>
+    <row r="1331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1331" s="1"/>
+    </row>
+    <row r="1332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1332" s="1"/>
+    </row>
+    <row r="1333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1333" s="1"/>
+    </row>
+    <row r="1334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1334" s="1"/>
+    </row>
+    <row r="1335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1335" s="1"/>
+    </row>
+    <row r="1336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1336" s="1"/>
+    </row>
     <row r="1337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1337" s="1"/>
     </row>
@@ -34791,30 +38881,18 @@
     <row r="1348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1348" s="1"/>
     </row>
+    <row r="1349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1349" s="1"/>
+    </row>
+    <row r="1350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1350" s="1"/>
+    </row>
     <row r="1351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1351" s="1"/>
     </row>
     <row r="1352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1352" s="1"/>
     </row>
-    <row r="1353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1353" s="1"/>
-    </row>
-    <row r="1354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1354" s="1"/>
-    </row>
-    <row r="1355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1355" s="1"/>
-    </row>
-    <row r="1356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1356" s="1"/>
-    </row>
-    <row r="1357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1357" s="1"/>
-    </row>
-    <row r="1358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1358" s="1"/>
-    </row>
     <row r="1359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1359" s="1"/>
     </row>
@@ -34824,6 +38902,18 @@
     <row r="1361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1361" s="1"/>
     </row>
+    <row r="1362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1362" s="1"/>
+    </row>
+    <row r="1363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1363" s="1"/>
+    </row>
+    <row r="1364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1364" s="1"/>
+    </row>
+    <row r="1365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1365" s="1"/>
+    </row>
     <row r="1366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1366" s="1"/>
     </row>
@@ -34899,36 +38989,6 @@
     <row r="1390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1390" s="1"/>
     </row>
-    <row r="1391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1391" s="1"/>
-    </row>
-    <row r="1392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1392" s="1"/>
-    </row>
-    <row r="1393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1393" s="1"/>
-    </row>
-    <row r="1394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1394" s="1"/>
-    </row>
-    <row r="1395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1395" s="1"/>
-    </row>
-    <row r="1396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1396" s="1"/>
-    </row>
-    <row r="1397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1397" s="1"/>
-    </row>
-    <row r="1398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1398" s="1"/>
-    </row>
-    <row r="1399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1399" s="1"/>
-    </row>
-    <row r="1400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1400" s="1"/>
-    </row>
     <row r="1401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1401" s="1"/>
     </row>
@@ -34965,12 +39025,6 @@
     <row r="1412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1412" s="1"/>
     </row>
-    <row r="1413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1413" s="1"/>
-    </row>
-    <row r="1414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1414" s="1"/>
-    </row>
     <row r="1415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1415" s="1"/>
     </row>
@@ -35004,18 +39058,6 @@
     <row r="1425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1425" s="1"/>
     </row>
-    <row r="1426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1426" s="1"/>
-    </row>
-    <row r="1427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1427" s="1"/>
-    </row>
-    <row r="1428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1428" s="1"/>
-    </row>
-    <row r="1429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1429" s="1"/>
-    </row>
     <row r="1430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1430" s="1"/>
     </row>
@@ -35081,6 +39123,198 @@
     </row>
     <row r="1451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1451" s="1"/>
+    </row>
+    <row r="1452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1452" s="1"/>
+    </row>
+    <row r="1453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1453" s="1"/>
+    </row>
+    <row r="1454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1454" s="1"/>
+    </row>
+    <row r="1455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1455" s="1"/>
+    </row>
+    <row r="1456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1456" s="1"/>
+    </row>
+    <row r="1457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1457" s="1"/>
+    </row>
+    <row r="1458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1458" s="1"/>
+    </row>
+    <row r="1459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1459" s="1"/>
+    </row>
+    <row r="1460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1460" s="1"/>
+    </row>
+    <row r="1461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1461" s="1"/>
+    </row>
+    <row r="1462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1462" s="1"/>
+    </row>
+    <row r="1463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1463" s="1"/>
+    </row>
+    <row r="1464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1464" s="1"/>
+    </row>
+    <row r="1465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1465" s="1"/>
+    </row>
+    <row r="1466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1466" s="1"/>
+    </row>
+    <row r="1467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1467" s="1"/>
+    </row>
+    <row r="1468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1468" s="1"/>
+    </row>
+    <row r="1469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1469" s="1"/>
+    </row>
+    <row r="1470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1470" s="1"/>
+    </row>
+    <row r="1471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1471" s="1"/>
+    </row>
+    <row r="1472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1472" s="1"/>
+    </row>
+    <row r="1473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1473" s="1"/>
+    </row>
+    <row r="1474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1474" s="1"/>
+    </row>
+    <row r="1475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1475" s="1"/>
+    </row>
+    <row r="1476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1476" s="1"/>
+    </row>
+    <row r="1477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1477" s="1"/>
+    </row>
+    <row r="1478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1478" s="1"/>
+    </row>
+    <row r="1479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1479" s="1"/>
+    </row>
+    <row r="1480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1480" s="1"/>
+    </row>
+    <row r="1481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1481" s="1"/>
+    </row>
+    <row r="1482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1482" s="1"/>
+    </row>
+    <row r="1483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1483" s="1"/>
+    </row>
+    <row r="1484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1484" s="1"/>
+    </row>
+    <row r="1485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1485" s="1"/>
+    </row>
+    <row r="1486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1486" s="1"/>
+    </row>
+    <row r="1487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1487" s="1"/>
+    </row>
+    <row r="1488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1488" s="1"/>
+    </row>
+    <row r="1489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1489" s="1"/>
+    </row>
+    <row r="1490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1490" s="1"/>
+    </row>
+    <row r="1491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1491" s="1"/>
+    </row>
+    <row r="1492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1492" s="1"/>
+    </row>
+    <row r="1493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1493" s="1"/>
+    </row>
+    <row r="1494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1494" s="1"/>
+    </row>
+    <row r="1495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1495" s="1"/>
+    </row>
+    <row r="1496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1496" s="1"/>
+    </row>
+    <row r="1497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1497" s="1"/>
+    </row>
+    <row r="1498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1498" s="1"/>
+    </row>
+    <row r="1499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1499" s="1"/>
+    </row>
+    <row r="1500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1500" s="1"/>
+    </row>
+    <row r="1501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1501" s="1"/>
+    </row>
+    <row r="1502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1502" s="1"/>
+    </row>
+    <row r="1503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1503" s="1"/>
+    </row>
+    <row r="1504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1504" s="1"/>
+    </row>
+    <row r="1505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1505" s="1"/>
+    </row>
+    <row r="1506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1506" s="1"/>
+    </row>
+    <row r="1507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1507" s="1"/>
+    </row>
+    <row r="1508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1508" s="1"/>
+    </row>
+    <row r="1509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1509" s="1"/>
+    </row>
+    <row r="1510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1510" s="1"/>
+    </row>
+    <row r="1511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1511" s="1"/>
+    </row>
+    <row r="1512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1512" s="1"/>
+    </row>
+    <row r="1513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1513" s="1"/>
+    </row>
+    <row r="1514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1514" s="1"/>
+    </row>
+    <row r="1515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1515" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/run/predefined.xlsx
+++ b/run/predefined.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4849" uniqueCount="1169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4881" uniqueCount="1178">
   <si>
     <t xml:space="preserve">databaseId</t>
   </si>
@@ -3323,6 +3323,33 @@
   </si>
   <si>
     <t xml:space="preserve">micro_investigators/60501b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m89001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subject 5U-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/89001a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Blob That Ate Everything ELSE!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blbe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/89001b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u89001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/89001a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/89001b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m90084</t>
@@ -3537,7 +3564,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3558,6 +3585,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3602,7 +3634,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3619,11 +3651,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3750,12 +3778,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AT1559"/>
+  <dimension ref="A1:AT1563"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A499" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A544" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A522" activeCellId="0" sqref="A522"/>
+      <selection pane="bottomLeft" activeCell="A571" activeCellId="0" sqref="A571"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34759,10 +34787,10 @@
       </c>
     </row>
     <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A523" s="4" t="s">
+      <c r="A523" s="2" t="s">
         <v>1011</v>
       </c>
-      <c r="B523" s="5" t="s">
+      <c r="B523" s="3" t="s">
         <v>1012</v>
       </c>
       <c r="C523" s="1" t="s">
@@ -34774,13 +34802,13 @@
       <c r="E523" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="G523" s="5" t="s">
+      <c r="G523" s="3" t="s">
         <v>1014</v>
       </c>
       <c r="H523" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I523" s="5" t="s">
+      <c r="I523" s="3" t="s">
         <v>1015</v>
       </c>
       <c r="M523" s="1" t="n">
@@ -34818,10 +34846,10 @@
       </c>
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A524" s="4" t="s">
+      <c r="A524" s="2" t="s">
         <v>1011</v>
       </c>
-      <c r="B524" s="5" t="s">
+      <c r="B524" s="3" t="s">
         <v>1012</v>
       </c>
       <c r="C524" s="1" t="s">
@@ -34833,13 +34861,13 @@
       <c r="E524" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="G524" s="5" t="s">
+      <c r="G524" s="3" t="s">
         <v>1014</v>
       </c>
       <c r="H524" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I524" s="5" t="s">
+      <c r="I524" s="3" t="s">
         <v>1015</v>
       </c>
       <c r="M524" s="1" t="n">
@@ -34877,10 +34905,10 @@
       </c>
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A525" s="4" t="s">
+      <c r="A525" s="2" t="s">
         <v>1017</v>
       </c>
-      <c r="B525" s="5" t="s">
+      <c r="B525" s="3" t="s">
         <v>1012</v>
       </c>
       <c r="C525" s="1" t="s">
@@ -34892,13 +34920,13 @@
       <c r="E525" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="G525" s="5" t="s">
+      <c r="G525" s="3" t="s">
         <v>1014</v>
       </c>
       <c r="H525" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I525" s="5" t="s">
+      <c r="I525" s="3" t="s">
         <v>1015</v>
       </c>
       <c r="M525" s="1" t="n">
@@ -34936,10 +34964,10 @@
       </c>
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A526" s="4" t="s">
+      <c r="A526" s="2" t="s">
         <v>1017</v>
       </c>
-      <c r="B526" s="5" t="s">
+      <c r="B526" s="3" t="s">
         <v>1012</v>
       </c>
       <c r="C526" s="1" t="s">
@@ -34951,13 +34979,13 @@
       <c r="E526" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="G526" s="5" t="s">
+      <c r="G526" s="3" t="s">
         <v>1014</v>
       </c>
       <c r="H526" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I526" s="5" t="s">
+      <c r="I526" s="3" t="s">
         <v>1015</v>
       </c>
       <c r="M526" s="1" t="n">
@@ -34995,10 +35023,10 @@
       </c>
     </row>
     <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A527" s="4" t="s">
+      <c r="A527" s="2" t="s">
         <v>1020</v>
       </c>
-      <c r="B527" s="5" t="s">
+      <c r="B527" s="3" t="s">
         <v>1021</v>
       </c>
       <c r="C527" s="1" t="s">
@@ -35010,13 +35038,13 @@
       <c r="E527" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="G527" s="5" t="s">
+      <c r="G527" s="3" t="s">
         <v>1014</v>
       </c>
       <c r="H527" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I527" s="5" t="s">
+      <c r="I527" s="3" t="s">
         <v>1015</v>
       </c>
       <c r="M527" s="1" t="n">
@@ -35054,10 +35082,10 @@
       </c>
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A528" s="4" t="s">
+      <c r="A528" s="2" t="s">
         <v>1020</v>
       </c>
-      <c r="B528" s="5" t="s">
+      <c r="B528" s="3" t="s">
         <v>1021</v>
       </c>
       <c r="C528" s="1" t="s">
@@ -35069,13 +35097,13 @@
       <c r="E528" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="G528" s="5" t="s">
+      <c r="G528" s="3" t="s">
         <v>1014</v>
       </c>
       <c r="H528" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I528" s="5" t="s">
+      <c r="I528" s="3" t="s">
         <v>1015</v>
       </c>
       <c r="M528" s="1" t="n">
@@ -35113,10 +35141,10 @@
       </c>
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A529" s="4" t="s">
+      <c r="A529" s="2" t="s">
         <v>1024</v>
       </c>
-      <c r="B529" s="5" t="s">
+      <c r="B529" s="3" t="s">
         <v>1021</v>
       </c>
       <c r="C529" s="1" t="s">
@@ -35128,13 +35156,13 @@
       <c r="E529" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="G529" s="5" t="s">
+      <c r="G529" s="3" t="s">
         <v>1014</v>
       </c>
       <c r="H529" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I529" s="5" t="s">
+      <c r="I529" s="3" t="s">
         <v>1015</v>
       </c>
       <c r="M529" s="1" t="n">
@@ -35172,10 +35200,10 @@
       </c>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A530" s="4" t="s">
+      <c r="A530" s="2" t="s">
         <v>1024</v>
       </c>
-      <c r="B530" s="5" t="s">
+      <c r="B530" s="3" t="s">
         <v>1021</v>
       </c>
       <c r="C530" s="1" t="s">
@@ -35187,13 +35215,13 @@
       <c r="E530" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="G530" s="5" t="s">
+      <c r="G530" s="3" t="s">
         <v>1014</v>
       </c>
       <c r="H530" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I530" s="5" t="s">
+      <c r="I530" s="3" t="s">
         <v>1015</v>
       </c>
       <c r="M530" s="1" t="n">
@@ -35231,10 +35259,10 @@
       </c>
     </row>
     <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A531" s="4" t="s">
+      <c r="A531" s="2" t="s">
         <v>1027</v>
       </c>
-      <c r="B531" s="5" t="s">
+      <c r="B531" s="3" t="s">
         <v>1021</v>
       </c>
       <c r="C531" s="1" t="s">
@@ -35246,13 +35274,13 @@
       <c r="E531" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="G531" s="5" t="s">
+      <c r="G531" s="3" t="s">
         <v>1014</v>
       </c>
       <c r="H531" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I531" s="5" t="s">
+      <c r="I531" s="3" t="s">
         <v>1015</v>
       </c>
       <c r="M531" s="1" t="n">
@@ -35290,10 +35318,10 @@
       </c>
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A532" s="4" t="s">
+      <c r="A532" s="2" t="s">
         <v>1027</v>
       </c>
-      <c r="B532" s="5" t="s">
+      <c r="B532" s="3" t="s">
         <v>1021</v>
       </c>
       <c r="C532" s="1" t="s">
@@ -35305,13 +35333,13 @@
       <c r="E532" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="G532" s="5" t="s">
+      <c r="G532" s="3" t="s">
         <v>1014</v>
       </c>
       <c r="H532" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I532" s="5" t="s">
+      <c r="I532" s="3" t="s">
         <v>1015</v>
       </c>
       <c r="M532" s="1" t="n">
@@ -35349,10 +35377,10 @@
       </c>
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A533" s="4" t="s">
+      <c r="A533" s="2" t="s">
         <v>1030</v>
       </c>
-      <c r="B533" s="5" t="s">
+      <c r="B533" s="3" t="s">
         <v>1021</v>
       </c>
       <c r="C533" s="1" t="s">
@@ -35364,13 +35392,13 @@
       <c r="E533" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="G533" s="5" t="s">
+      <c r="G533" s="3" t="s">
         <v>1014</v>
       </c>
       <c r="H533" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I533" s="5" t="s">
+      <c r="I533" s="3" t="s">
         <v>1015</v>
       </c>
       <c r="M533" s="1" t="n">
@@ -35408,10 +35436,10 @@
       </c>
     </row>
     <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A534" s="4" t="s">
+      <c r="A534" s="2" t="s">
         <v>1030</v>
       </c>
-      <c r="B534" s="5" t="s">
+      <c r="B534" s="3" t="s">
         <v>1021</v>
       </c>
       <c r="C534" s="1" t="s">
@@ -35423,13 +35451,13 @@
       <c r="E534" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="G534" s="5" t="s">
+      <c r="G534" s="3" t="s">
         <v>1014</v>
       </c>
       <c r="H534" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I534" s="5" t="s">
+      <c r="I534" s="3" t="s">
         <v>1015</v>
       </c>
       <c r="M534" s="1" t="n">
@@ -35467,10 +35495,10 @@
       </c>
     </row>
     <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A535" s="4" t="s">
+      <c r="A535" s="2" t="s">
         <v>1033</v>
       </c>
-      <c r="B535" s="5" t="s">
+      <c r="B535" s="3" t="s">
         <v>1034</v>
       </c>
       <c r="C535" s="1" t="s">
@@ -35482,13 +35510,13 @@
       <c r="E535" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="G535" s="5" t="s">
+      <c r="G535" s="3" t="s">
         <v>1014</v>
       </c>
       <c r="H535" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I535" s="5" t="s">
+      <c r="I535" s="3" t="s">
         <v>1015</v>
       </c>
       <c r="M535" s="1" t="n">
@@ -35526,10 +35554,10 @@
       </c>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A536" s="4" t="s">
+      <c r="A536" s="2" t="s">
         <v>1033</v>
       </c>
-      <c r="B536" s="5" t="s">
+      <c r="B536" s="3" t="s">
         <v>1034</v>
       </c>
       <c r="C536" s="1" t="s">
@@ -35541,13 +35569,13 @@
       <c r="E536" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="G536" s="5" t="s">
+      <c r="G536" s="3" t="s">
         <v>1014</v>
       </c>
       <c r="H536" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I536" s="5" t="s">
+      <c r="I536" s="3" t="s">
         <v>1015</v>
       </c>
       <c r="M536" s="1" t="n">
@@ -35585,10 +35613,10 @@
       </c>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A537" s="4" t="s">
+      <c r="A537" s="2" t="s">
         <v>1037</v>
       </c>
-      <c r="B537" s="5" t="s">
+      <c r="B537" s="3" t="s">
         <v>1034</v>
       </c>
       <c r="C537" s="1" t="s">
@@ -35600,13 +35628,13 @@
       <c r="E537" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="G537" s="5" t="s">
+      <c r="G537" s="3" t="s">
         <v>1014</v>
       </c>
       <c r="H537" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I537" s="5" t="s">
+      <c r="I537" s="3" t="s">
         <v>1015</v>
       </c>
       <c r="M537" s="1" t="n">
@@ -35644,10 +35672,10 @@
       </c>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A538" s="4" t="s">
+      <c r="A538" s="2" t="s">
         <v>1037</v>
       </c>
-      <c r="B538" s="5" t="s">
+      <c r="B538" s="3" t="s">
         <v>1034</v>
       </c>
       <c r="C538" s="1" t="s">
@@ -35659,13 +35687,13 @@
       <c r="E538" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="G538" s="5" t="s">
+      <c r="G538" s="3" t="s">
         <v>1014</v>
       </c>
       <c r="H538" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I538" s="5" t="s">
+      <c r="I538" s="3" t="s">
         <v>1015</v>
       </c>
       <c r="M538" s="1" t="n">
@@ -35703,10 +35731,10 @@
       </c>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A539" s="4" t="s">
+      <c r="A539" s="2" t="s">
         <v>1040</v>
       </c>
-      <c r="B539" s="5" t="s">
+      <c r="B539" s="3" t="s">
         <v>1041</v>
       </c>
       <c r="C539" s="1" t="s">
@@ -35718,13 +35746,13 @@
       <c r="E539" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="G539" s="5" t="s">
+      <c r="G539" s="3" t="s">
         <v>1014</v>
       </c>
       <c r="H539" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I539" s="5" t="s">
+      <c r="I539" s="3" t="s">
         <v>1015</v>
       </c>
       <c r="M539" s="1" t="n">
@@ -35762,10 +35790,10 @@
       </c>
     </row>
     <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A540" s="4" t="s">
+      <c r="A540" s="2" t="s">
         <v>1040</v>
       </c>
-      <c r="B540" s="5" t="s">
+      <c r="B540" s="3" t="s">
         <v>1041</v>
       </c>
       <c r="C540" s="1" t="s">
@@ -35777,13 +35805,13 @@
       <c r="E540" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="G540" s="5" t="s">
+      <c r="G540" s="3" t="s">
         <v>1014</v>
       </c>
       <c r="H540" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I540" s="5" t="s">
+      <c r="I540" s="3" t="s">
         <v>1015</v>
       </c>
       <c r="M540" s="1" t="n">
@@ -35821,10 +35849,10 @@
       </c>
     </row>
     <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A541" s="4" t="s">
+      <c r="A541" s="2" t="s">
         <v>1044</v>
       </c>
-      <c r="B541" s="5" t="s">
+      <c r="B541" s="3" t="s">
         <v>1041</v>
       </c>
       <c r="C541" s="1" t="s">
@@ -35836,13 +35864,13 @@
       <c r="E541" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="G541" s="5" t="s">
+      <c r="G541" s="3" t="s">
         <v>1014</v>
       </c>
       <c r="H541" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I541" s="5" t="s">
+      <c r="I541" s="3" t="s">
         <v>1015</v>
       </c>
       <c r="M541" s="1" t="n">
@@ -35880,10 +35908,10 @@
       </c>
     </row>
     <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A542" s="4" t="s">
+      <c r="A542" s="2" t="s">
         <v>1044</v>
       </c>
-      <c r="B542" s="5" t="s">
+      <c r="B542" s="3" t="s">
         <v>1041</v>
       </c>
       <c r="C542" s="1" t="s">
@@ -35895,13 +35923,13 @@
       <c r="E542" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="G542" s="5" t="s">
+      <c r="G542" s="3" t="s">
         <v>1014</v>
       </c>
       <c r="H542" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I542" s="5" t="s">
+      <c r="I542" s="3" t="s">
         <v>1015</v>
       </c>
       <c r="M542" s="1" t="n">
@@ -35939,10 +35967,10 @@
       </c>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A543" s="4" t="s">
+      <c r="A543" s="2" t="s">
         <v>1047</v>
       </c>
-      <c r="B543" s="5" t="s">
+      <c r="B543" s="3" t="s">
         <v>1048</v>
       </c>
       <c r="C543" s="1" t="s">
@@ -35954,13 +35982,13 @@
       <c r="E543" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="G543" s="5" t="s">
+      <c r="G543" s="3" t="s">
         <v>1014</v>
       </c>
       <c r="H543" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I543" s="5" t="s">
+      <c r="I543" s="3" t="s">
         <v>1015</v>
       </c>
       <c r="M543" s="1" t="n">
@@ -35998,10 +36026,10 @@
       </c>
     </row>
     <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A544" s="4" t="s">
+      <c r="A544" s="2" t="s">
         <v>1047</v>
       </c>
-      <c r="B544" s="5" t="s">
+      <c r="B544" s="3" t="s">
         <v>1048</v>
       </c>
       <c r="C544" s="1" t="s">
@@ -36013,13 +36041,13 @@
       <c r="E544" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="G544" s="5" t="s">
+      <c r="G544" s="3" t="s">
         <v>1014</v>
       </c>
       <c r="H544" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I544" s="5" t="s">
+      <c r="I544" s="3" t="s">
         <v>1015</v>
       </c>
       <c r="M544" s="1" t="n">
@@ -36057,10 +36085,10 @@
       </c>
     </row>
     <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A545" s="4" t="s">
+      <c r="A545" s="2" t="s">
         <v>1051</v>
       </c>
-      <c r="B545" s="5" t="s">
+      <c r="B545" s="3" t="s">
         <v>1048</v>
       </c>
       <c r="C545" s="1" t="s">
@@ -36072,13 +36100,13 @@
       <c r="E545" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="G545" s="5" t="s">
+      <c r="G545" s="3" t="s">
         <v>1014</v>
       </c>
       <c r="H545" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I545" s="5" t="s">
+      <c r="I545" s="3" t="s">
         <v>1015</v>
       </c>
       <c r="M545" s="1" t="n">
@@ -36116,10 +36144,10 @@
       </c>
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A546" s="4" t="s">
+      <c r="A546" s="2" t="s">
         <v>1051</v>
       </c>
-      <c r="B546" s="5" t="s">
+      <c r="B546" s="3" t="s">
         <v>1048</v>
       </c>
       <c r="C546" s="1" t="s">
@@ -36131,13 +36159,13 @@
       <c r="E546" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="G546" s="5" t="s">
+      <c r="G546" s="3" t="s">
         <v>1014</v>
       </c>
       <c r="H546" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I546" s="5" t="s">
+      <c r="I546" s="3" t="s">
         <v>1015</v>
       </c>
       <c r="M546" s="1" t="n">
@@ -36175,10 +36203,10 @@
       </c>
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A547" s="5" t="s">
+      <c r="A547" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="B547" s="5" t="s">
+      <c r="B547" s="3" t="s">
         <v>1055</v>
       </c>
       <c r="C547" s="1" t="s">
@@ -36190,13 +36218,13 @@
       <c r="E547" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="G547" s="5" t="s">
+      <c r="G547" s="3" t="s">
         <v>1014</v>
       </c>
       <c r="H547" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I547" s="5" t="s">
+      <c r="I547" s="3" t="s">
         <v>1015</v>
       </c>
       <c r="M547" s="1" t="n">
@@ -36234,10 +36262,10 @@
       </c>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A548" s="5" t="s">
+      <c r="A548" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="B548" s="5" t="s">
+      <c r="B548" s="3" t="s">
         <v>1055</v>
       </c>
       <c r="C548" s="1" t="s">
@@ -36249,13 +36277,13 @@
       <c r="E548" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="G548" s="5" t="s">
+      <c r="G548" s="3" t="s">
         <v>1014</v>
       </c>
       <c r="H548" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I548" s="5" t="s">
+      <c r="I548" s="3" t="s">
         <v>1015</v>
       </c>
       <c r="M548" s="1" t="n">
@@ -36293,10 +36321,10 @@
       </c>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A549" s="5" t="s">
+      <c r="A549" s="3" t="s">
         <v>1058</v>
       </c>
-      <c r="B549" s="5" t="s">
+      <c r="B549" s="3" t="s">
         <v>1055</v>
       </c>
       <c r="C549" s="1" t="s">
@@ -36308,13 +36336,13 @@
       <c r="E549" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="G549" s="5" t="s">
+      <c r="G549" s="3" t="s">
         <v>1014</v>
       </c>
       <c r="H549" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I549" s="5" t="s">
+      <c r="I549" s="3" t="s">
         <v>1015</v>
       </c>
       <c r="M549" s="1" t="n">
@@ -36352,10 +36380,10 @@
       </c>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A550" s="5" t="s">
+      <c r="A550" s="3" t="s">
         <v>1058</v>
       </c>
-      <c r="B550" s="5" t="s">
+      <c r="B550" s="3" t="s">
         <v>1055</v>
       </c>
       <c r="C550" s="1" t="s">
@@ -36367,13 +36395,13 @@
       <c r="E550" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="G550" s="5" t="s">
+      <c r="G550" s="3" t="s">
         <v>1014</v>
       </c>
       <c r="H550" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I550" s="5" t="s">
+      <c r="I550" s="3" t="s">
         <v>1015</v>
       </c>
       <c r="M550" s="1" t="n">
@@ -37594,11 +37622,11 @@
       <c r="A571" s="2" t="s">
         <v>1101</v>
       </c>
-      <c r="B571" s="1" t="s">
-        <v>615</v>
+      <c r="B571" s="4" t="s">
+        <v>1102</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="D571" s="1" t="s">
         <v>58</v>
@@ -37606,14 +37634,14 @@
       <c r="E571" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="G571" s="1" t="s">
-        <v>1103</v>
+      <c r="G571" s="0" t="s">
+        <v>1104</v>
       </c>
       <c r="H571" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I571" s="1" t="s">
-        <v>1104</v>
+      <c r="I571" s="0" t="s">
+        <v>1105</v>
       </c>
       <c r="M571" s="1" t="n">
         <v>0</v>
@@ -37653,11 +37681,11 @@
       <c r="A572" s="2" t="s">
         <v>1101</v>
       </c>
-      <c r="B572" s="1" t="s">
-        <v>615</v>
+      <c r="B572" s="4" t="s">
+        <v>1102</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="D572" s="1" t="s">
         <v>58</v>
@@ -37665,14 +37693,14 @@
       <c r="E572" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="G572" s="1" t="s">
-        <v>1103</v>
+      <c r="G572" s="0" t="s">
+        <v>1104</v>
       </c>
       <c r="H572" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I572" s="1" t="s">
-        <v>1104</v>
+      <c r="I572" s="0" t="s">
+        <v>1105</v>
       </c>
       <c r="M572" s="1" t="n">
         <v>0</v>
@@ -37710,13 +37738,13 @@
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="2" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B573" s="1" t="s">
-        <v>615</v>
+        <v>1107</v>
+      </c>
+      <c r="B573" s="4" t="s">
+        <v>1102</v>
       </c>
       <c r="C573" s="1" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="D573" s="1" t="s">
         <v>58</v>
@@ -37724,14 +37752,14 @@
       <c r="E573" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="G573" s="1" t="s">
-        <v>1103</v>
+      <c r="G573" s="0" t="s">
+        <v>1104</v>
       </c>
       <c r="H573" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I573" s="1" t="s">
-        <v>1104</v>
+      <c r="I573" s="0" t="s">
+        <v>1105</v>
       </c>
       <c r="M573" s="1" t="n">
         <v>0</v>
@@ -37769,13 +37797,13 @@
     </row>
     <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="2" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B574" s="1" t="s">
-        <v>615</v>
+        <v>1107</v>
+      </c>
+      <c r="B574" s="4" t="s">
+        <v>1102</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="D574" s="1" t="s">
         <v>58</v>
@@ -37783,14 +37811,14 @@
       <c r="E574" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="G574" s="1" t="s">
-        <v>1103</v>
+      <c r="G574" s="0" t="s">
+        <v>1104</v>
       </c>
       <c r="H574" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I574" s="1" t="s">
-        <v>1104</v>
+      <c r="I574" s="0" t="s">
+        <v>1105</v>
       </c>
       <c r="M574" s="1" t="n">
         <v>0</v>
@@ -37828,13 +37856,13 @@
     </row>
     <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="2" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B575" s="1" t="s">
         <v>615</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="D575" s="1" t="s">
         <v>58</v>
@@ -37843,13 +37871,13 @@
         <v>552</v>
       </c>
       <c r="G575" s="1" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="H575" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I575" s="1" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="M575" s="1" t="n">
         <v>0</v>
@@ -37887,13 +37915,13 @@
     </row>
     <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="2" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B576" s="1" t="s">
         <v>615</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="D576" s="1" t="s">
         <v>58</v>
@@ -37902,13 +37930,13 @@
         <v>552</v>
       </c>
       <c r="G576" s="1" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="H576" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I576" s="1" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="M576" s="1" t="n">
         <v>0</v>
@@ -37946,13 +37974,13 @@
     </row>
     <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="2" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B577" s="1" t="s">
         <v>615</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="D577" s="1" t="s">
         <v>58</v>
@@ -37961,13 +37989,13 @@
         <v>556</v>
       </c>
       <c r="G577" s="1" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="H577" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I577" s="1" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="M577" s="1" t="n">
         <v>0</v>
@@ -38005,13 +38033,13 @@
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="2" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B578" s="1" t="s">
         <v>615</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="D578" s="1" t="s">
         <v>58</v>
@@ -38020,13 +38048,13 @@
         <v>556</v>
       </c>
       <c r="G578" s="1" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="H578" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I578" s="1" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="M578" s="1" t="n">
         <v>0</v>
@@ -38064,13 +38092,13 @@
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="2" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>550</v>
+        <v>615</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="D579" s="1" t="s">
         <v>58</v>
@@ -38079,13 +38107,13 @@
         <v>552</v>
       </c>
       <c r="G579" s="1" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="H579" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I579" s="1" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="M579" s="1" t="n">
         <v>0</v>
@@ -38123,13 +38151,13 @@
     </row>
     <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="2" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>550</v>
+        <v>615</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="D580" s="1" t="s">
         <v>58</v>
@@ -38138,13 +38166,13 @@
         <v>552</v>
       </c>
       <c r="G580" s="1" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="H580" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I580" s="1" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="M580" s="1" t="n">
         <v>0</v>
@@ -38182,13 +38210,13 @@
     </row>
     <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="2" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>550</v>
+        <v>615</v>
       </c>
       <c r="C581" s="1" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="D581" s="1" t="s">
         <v>58</v>
@@ -38197,13 +38225,13 @@
         <v>556</v>
       </c>
       <c r="G581" s="1" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="H581" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I581" s="1" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="M581" s="1" t="n">
         <v>0</v>
@@ -38241,13 +38269,13 @@
     </row>
     <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="2" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>550</v>
+        <v>615</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="D582" s="1" t="s">
         <v>58</v>
@@ -38256,13 +38284,13 @@
         <v>556</v>
       </c>
       <c r="G582" s="1" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="H582" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I582" s="1" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="M582" s="1" t="n">
         <v>0</v>
@@ -38300,13 +38328,13 @@
     </row>
     <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="2" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>884</v>
+        <v>550</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="D583" s="1" t="s">
         <v>58</v>
@@ -38315,13 +38343,13 @@
         <v>552</v>
       </c>
       <c r="G583" s="1" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="H583" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I583" s="1" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="M583" s="1" t="n">
         <v>0</v>
@@ -38359,13 +38387,13 @@
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="2" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>884</v>
+        <v>550</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="D584" s="1" t="s">
         <v>58</v>
@@ -38374,13 +38402,13 @@
         <v>552</v>
       </c>
       <c r="G584" s="1" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="H584" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I584" s="1" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="M584" s="1" t="n">
         <v>0</v>
@@ -38418,13 +38446,13 @@
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="2" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>884</v>
+        <v>550</v>
       </c>
       <c r="C585" s="1" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="D585" s="1" t="s">
         <v>58</v>
@@ -38433,13 +38461,13 @@
         <v>556</v>
       </c>
       <c r="G585" s="1" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="H585" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I585" s="1" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="M585" s="1" t="n">
         <v>0</v>
@@ -38477,13 +38505,13 @@
     </row>
     <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="2" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>884</v>
+        <v>550</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="D586" s="1" t="s">
         <v>58</v>
@@ -38492,13 +38520,13 @@
         <v>556</v>
       </c>
       <c r="G586" s="1" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="H586" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I586" s="1" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="M586" s="1" t="n">
         <v>0</v>
@@ -38536,13 +38564,13 @@
     </row>
     <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="2" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="B587" s="1" t="s">
-        <v>731</v>
+        <v>884</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="D587" s="1" t="s">
         <v>58</v>
@@ -38551,13 +38579,13 @@
         <v>552</v>
       </c>
       <c r="G587" s="1" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="H587" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I587" s="1" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="M587" s="1" t="n">
         <v>0</v>
@@ -38595,13 +38623,13 @@
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="2" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>731</v>
+        <v>884</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="D588" s="1" t="s">
         <v>58</v>
@@ -38610,13 +38638,13 @@
         <v>552</v>
       </c>
       <c r="G588" s="1" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="H588" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I588" s="1" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="M588" s="1" t="n">
         <v>0</v>
@@ -38654,13 +38682,13 @@
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="2" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>731</v>
+        <v>884</v>
       </c>
       <c r="C589" s="1" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="D589" s="1" t="s">
         <v>58</v>
@@ -38669,13 +38697,13 @@
         <v>556</v>
       </c>
       <c r="G589" s="1" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="H589" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I589" s="1" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="M589" s="1" t="n">
         <v>0</v>
@@ -38713,13 +38741,13 @@
     </row>
     <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="2" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>731</v>
+        <v>884</v>
       </c>
       <c r="C590" s="1" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="D590" s="1" t="s">
         <v>58</v>
@@ -38728,13 +38756,13 @@
         <v>556</v>
       </c>
       <c r="G590" s="1" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="H590" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I590" s="1" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="M590" s="1" t="n">
         <v>0</v>
@@ -38772,13 +38800,13 @@
     </row>
     <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="2" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>868</v>
+        <v>731</v>
       </c>
       <c r="C591" s="1" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="D591" s="1" t="s">
         <v>58</v>
@@ -38787,13 +38815,13 @@
         <v>552</v>
       </c>
       <c r="G591" s="1" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="H591" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I591" s="1" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="M591" s="1" t="n">
         <v>0</v>
@@ -38831,13 +38859,13 @@
     </row>
     <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="2" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>868</v>
+        <v>731</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="D592" s="1" t="s">
         <v>58</v>
@@ -38846,13 +38874,13 @@
         <v>552</v>
       </c>
       <c r="G592" s="1" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="H592" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I592" s="1" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="M592" s="1" t="n">
         <v>0</v>
@@ -38890,13 +38918,13 @@
     </row>
     <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="2" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B593" s="1" t="s">
-        <v>868</v>
+        <v>731</v>
       </c>
       <c r="C593" s="1" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="D593" s="1" t="s">
         <v>58</v>
@@ -38905,13 +38933,13 @@
         <v>556</v>
       </c>
       <c r="G593" s="1" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="H593" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I593" s="1" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="M593" s="1" t="n">
         <v>0</v>
@@ -38949,13 +38977,13 @@
     </row>
     <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="2" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>868</v>
+        <v>731</v>
       </c>
       <c r="C594" s="1" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="D594" s="1" t="s">
         <v>58</v>
@@ -38964,13 +38992,13 @@
         <v>556</v>
       </c>
       <c r="G594" s="1" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="H594" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I594" s="1" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="M594" s="1" t="n">
         <v>0</v>
@@ -39008,13 +39036,13 @@
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="2" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>861</v>
+        <v>868</v>
       </c>
       <c r="C595" s="1" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="D595" s="1" t="s">
         <v>58</v>
@@ -39023,13 +39051,13 @@
         <v>552</v>
       </c>
       <c r="G595" s="1" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="H595" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I595" s="1" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="M595" s="1" t="n">
         <v>0</v>
@@ -39067,13 +39095,13 @@
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="2" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>861</v>
+        <v>868</v>
       </c>
       <c r="C596" s="1" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D596" s="1" t="s">
         <v>58</v>
@@ -39082,13 +39110,13 @@
         <v>552</v>
       </c>
       <c r="G596" s="1" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="H596" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I596" s="1" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="M596" s="1" t="n">
         <v>0</v>
@@ -39126,13 +39154,13 @@
     </row>
     <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="2" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>861</v>
+        <v>868</v>
       </c>
       <c r="C597" s="1" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="D597" s="1" t="s">
         <v>58</v>
@@ -39141,13 +39169,13 @@
         <v>556</v>
       </c>
       <c r="G597" s="1" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="H597" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I597" s="1" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="M597" s="1" t="n">
         <v>0</v>
@@ -39185,13 +39213,13 @@
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="2" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>861</v>
+        <v>868</v>
       </c>
       <c r="C598" s="1" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="D598" s="1" t="s">
         <v>58</v>
@@ -39200,13 +39228,13 @@
         <v>556</v>
       </c>
       <c r="G598" s="1" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="H598" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I598" s="1" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="M598" s="1" t="n">
         <v>0</v>
@@ -39244,13 +39272,13 @@
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="2" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>1041</v>
+        <v>861</v>
       </c>
       <c r="C599" s="1" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="D599" s="1" t="s">
         <v>58</v>
@@ -39259,13 +39287,13 @@
         <v>552</v>
       </c>
       <c r="G599" s="1" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="H599" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I599" s="1" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="M599" s="1" t="n">
         <v>0</v>
@@ -39303,13 +39331,13 @@
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="2" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>1041</v>
+        <v>861</v>
       </c>
       <c r="C600" s="1" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="D600" s="1" t="s">
         <v>58</v>
@@ -39318,13 +39346,13 @@
         <v>552</v>
       </c>
       <c r="G600" s="1" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="H600" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I600" s="1" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="M600" s="1" t="n">
         <v>0</v>
@@ -39362,13 +39390,13 @@
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="2" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>1041</v>
+        <v>861</v>
       </c>
       <c r="C601" s="1" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D601" s="1" t="s">
         <v>58</v>
@@ -39377,13 +39405,13 @@
         <v>556</v>
       </c>
       <c r="G601" s="1" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="H601" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I601" s="1" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="M601" s="1" t="n">
         <v>0</v>
@@ -39421,13 +39449,13 @@
     </row>
     <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="2" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>1041</v>
+        <v>861</v>
       </c>
       <c r="C602" s="1" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="D602" s="1" t="s">
         <v>58</v>
@@ -39436,13 +39464,13 @@
         <v>556</v>
       </c>
       <c r="G602" s="1" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="H602" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I602" s="1" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="M602" s="1" t="n">
         <v>0</v>
@@ -39480,13 +39508,13 @@
     </row>
     <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="2" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>768</v>
+        <v>1041</v>
       </c>
       <c r="C603" s="1" t="s">
-        <v>769</v>
+        <v>1167</v>
       </c>
       <c r="D603" s="1" t="s">
         <v>58</v>
@@ -39495,13 +39523,13 @@
         <v>552</v>
       </c>
       <c r="G603" s="1" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="H603" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I603" s="1" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="M603" s="1" t="n">
         <v>0</v>
@@ -39539,13 +39567,13 @@
     </row>
     <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="2" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>768</v>
+        <v>1041</v>
       </c>
       <c r="C604" s="1" t="s">
-        <v>770</v>
+        <v>1170</v>
       </c>
       <c r="D604" s="1" t="s">
         <v>58</v>
@@ -39554,13 +39582,13 @@
         <v>552</v>
       </c>
       <c r="G604" s="1" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="H604" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I604" s="1" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="M604" s="1" t="n">
         <v>0</v>
@@ -39598,13 +39626,13 @@
     </row>
     <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="2" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>768</v>
+        <v>1041</v>
       </c>
       <c r="C605" s="1" t="s">
-        <v>772</v>
+        <v>1172</v>
       </c>
       <c r="D605" s="1" t="s">
         <v>58</v>
@@ -39613,13 +39641,13 @@
         <v>556</v>
       </c>
       <c r="G605" s="1" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="H605" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I605" s="1" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="M605" s="1" t="n">
         <v>0</v>
@@ -39657,13 +39685,13 @@
     </row>
     <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="2" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>768</v>
+        <v>1041</v>
       </c>
       <c r="C606" s="1" t="s">
-        <v>773</v>
+        <v>1173</v>
       </c>
       <c r="D606" s="1" t="s">
         <v>58</v>
@@ -39672,13 +39700,13 @@
         <v>556</v>
       </c>
       <c r="G606" s="1" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="H606" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I606" s="1" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="M606" s="1" t="n">
         <v>0</v>
@@ -39714,17 +39742,241 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A705" s="2"/>
-    </row>
-    <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A706" s="2"/>
-    </row>
-    <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A707" s="2"/>
-    </row>
-    <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A708" s="2"/>
+    <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A607" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="C607" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="D607" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E607" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="G607" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="H607" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I607" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="M607" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N607" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O607" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P607" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S607" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB607" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL607" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP607" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ607" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR607" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS607" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A608" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="C608" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="D608" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E608" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="G608" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="H608" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I608" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="M608" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N608" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O608" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P608" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S608" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB608" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL608" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP608" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ608" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR608" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS608" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A609" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="C609" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="D609" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E609" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G609" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="H609" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I609" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="M609" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N609" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O609" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P609" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S609" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB609" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL609" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP609" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ609" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR609" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS609" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A610" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="C610" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="D610" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E610" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G610" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="H610" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I610" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="M610" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N610" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O610" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P610" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S610" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB610" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL610" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP610" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ610" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR610" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS610" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="2"/>
@@ -41790,17 +42042,17 @@
     <row r="1396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1396" s="2"/>
     </row>
-    <row r="1403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1403" s="2"/>
-    </row>
-    <row r="1404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1404" s="2"/>
-    </row>
-    <row r="1405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1405" s="2"/>
-    </row>
-    <row r="1406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1406" s="2"/>
+    <row r="1397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1397" s="2"/>
+    </row>
+    <row r="1398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1398" s="2"/>
+    </row>
+    <row r="1399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1399" s="2"/>
+    </row>
+    <row r="1400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1400" s="2"/>
     </row>
     <row r="1407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1407" s="2"/>
@@ -41886,17 +42138,17 @@
     <row r="1434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1434" s="2"/>
     </row>
-    <row r="1445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1445" s="2"/>
-    </row>
-    <row r="1446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1446" s="2"/>
-    </row>
-    <row r="1447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1447" s="2"/>
-    </row>
-    <row r="1448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1448" s="2"/>
+    <row r="1435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1435" s="2"/>
+    </row>
+    <row r="1436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1436" s="2"/>
+    </row>
+    <row r="1437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1437" s="2"/>
+    </row>
+    <row r="1438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1438" s="2"/>
     </row>
     <row r="1449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1449" s="2"/>
@@ -41922,18 +42174,18 @@
     <row r="1456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1456" s="2"/>
     </row>
+    <row r="1457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1457" s="2"/>
+    </row>
+    <row r="1458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1458" s="2"/>
+    </row>
     <row r="1459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1459" s="2"/>
     </row>
     <row r="1460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1460" s="2"/>
     </row>
-    <row r="1461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1461" s="2"/>
-    </row>
-    <row r="1462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1462" s="2"/>
-    </row>
     <row r="1463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1463" s="2"/>
     </row>
@@ -41955,17 +42207,17 @@
     <row r="1469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1469" s="2"/>
     </row>
-    <row r="1474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1474" s="2"/>
-    </row>
-    <row r="1475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1475" s="2"/>
-    </row>
-    <row r="1476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1476" s="2"/>
-    </row>
-    <row r="1477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1477" s="2"/>
+    <row r="1470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1470" s="2"/>
+    </row>
+    <row r="1471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1471" s="2"/>
+    </row>
+    <row r="1472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1472" s="2"/>
+    </row>
+    <row r="1473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1473" s="2"/>
     </row>
     <row r="1478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1478" s="2"/>
@@ -42212,6 +42464,18 @@
     </row>
     <row r="1559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1559" s="2"/>
+    </row>
+    <row r="1560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1560" s="2"/>
+    </row>
+    <row r="1561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1561" s="2"/>
+    </row>
+    <row r="1562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1562" s="2"/>
+    </row>
+    <row r="1563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1563" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/run/predefined.xlsx
+++ b/run/predefined.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4881" uniqueCount="1178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4913" uniqueCount="1185">
   <si>
     <t xml:space="preserve">databaseId</t>
   </si>
@@ -3080,6 +3080,27 @@
   </si>
   <si>
     <t xml:space="preserve">micro_investigators/11001b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m11004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucius Galloway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/11004a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mini_investigators/11004b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u11004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/11004a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro_investigators/11004b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m11007</t>
@@ -3564,7 +3585,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3585,11 +3606,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3634,7 +3650,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3648,10 +3664,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3778,12 +3790,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AT1563"/>
+  <dimension ref="A1:AT1559"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A544" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A590" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A571" activeCellId="0" sqref="A571"/>
+      <selection pane="bottomLeft" activeCell="A614" activeCellId="0" sqref="A614"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35263,10 +35275,10 @@
         <v>1027</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>1021</v>
+        <v>1028</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D531" s="1" t="s">
         <v>58</v>
@@ -35322,10 +35334,10 @@
         <v>1027</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>1021</v>
+        <v>1028</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D532" s="1" t="s">
         <v>58</v>
@@ -35378,13 +35390,13 @@
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="2" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>1021</v>
+        <v>1028</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D533" s="1" t="s">
         <v>58</v>
@@ -35437,13 +35449,13 @@
     </row>
     <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="2" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>1021</v>
+        <v>1028</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D534" s="1" t="s">
         <v>58</v>
@@ -35496,10 +35508,10 @@
     </row>
     <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="2" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C535" s="1" t="s">
         <v>1035</v>
@@ -35555,10 +35567,10 @@
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="2" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C536" s="1" t="s">
         <v>1036</v>
@@ -35617,7 +35629,7 @@
         <v>1037</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C537" s="1" t="s">
         <v>1038</v>
@@ -35676,7 +35688,7 @@
         <v>1037</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C538" s="1" t="s">
         <v>1039</v>
@@ -36203,7 +36215,7 @@
       </c>
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A547" s="3" t="s">
+      <c r="A547" s="2" t="s">
         <v>1054</v>
       </c>
       <c r="B547" s="3" t="s">
@@ -36262,7 +36274,7 @@
       </c>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A548" s="3" t="s">
+      <c r="A548" s="2" t="s">
         <v>1054</v>
       </c>
       <c r="B548" s="3" t="s">
@@ -36321,7 +36333,7 @@
       </c>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A549" s="3" t="s">
+      <c r="A549" s="2" t="s">
         <v>1058</v>
       </c>
       <c r="B549" s="3" t="s">
@@ -36380,7 +36392,7 @@
       </c>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A550" s="3" t="s">
+      <c r="A550" s="2" t="s">
         <v>1058</v>
       </c>
       <c r="B550" s="3" t="s">
@@ -36439,10 +36451,10 @@
       </c>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A551" s="2" t="s">
+      <c r="A551" s="3" t="s">
         <v>1061</v>
       </c>
-      <c r="B551" s="1" t="s">
+      <c r="B551" s="3" t="s">
         <v>1062</v>
       </c>
       <c r="C551" s="1" t="s">
@@ -36454,14 +36466,14 @@
       <c r="E551" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="G551" s="1" t="s">
-        <v>1062</v>
+      <c r="G551" s="3" t="s">
+        <v>1014</v>
       </c>
       <c r="H551" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I551" s="1" t="s">
-        <v>1064</v>
+      <c r="I551" s="3" t="s">
+        <v>1015</v>
       </c>
       <c r="M551" s="1" t="n">
         <v>0</v>
@@ -36498,14 +36510,14 @@
       </c>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A552" s="2" t="s">
+      <c r="A552" s="3" t="s">
         <v>1061</v>
       </c>
-      <c r="B552" s="1" t="s">
+      <c r="B552" s="3" t="s">
         <v>1062</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D552" s="1" t="s">
         <v>58</v>
@@ -36513,14 +36525,14 @@
       <c r="E552" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="G552" s="1" t="s">
-        <v>1062</v>
+      <c r="G552" s="3" t="s">
+        <v>1014</v>
       </c>
       <c r="H552" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I552" s="1" t="s">
-        <v>1064</v>
+      <c r="I552" s="3" t="s">
+        <v>1015</v>
       </c>
       <c r="M552" s="1" t="n">
         <v>0</v>
@@ -36557,14 +36569,14 @@
       </c>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A553" s="2" t="s">
+      <c r="A553" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B553" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C553" s="1" t="s">
         <v>1066</v>
-      </c>
-      <c r="B553" s="1" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C553" s="1" t="s">
-        <v>1067</v>
       </c>
       <c r="D553" s="1" t="s">
         <v>58</v>
@@ -36572,14 +36584,14 @@
       <c r="E553" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="G553" s="1" t="s">
-        <v>1062</v>
+      <c r="G553" s="3" t="s">
+        <v>1014</v>
       </c>
       <c r="H553" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I553" s="1" t="s">
-        <v>1064</v>
+      <c r="I553" s="3" t="s">
+        <v>1015</v>
       </c>
       <c r="M553" s="1" t="n">
         <v>0</v>
@@ -36616,14 +36628,14 @@
       </c>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A554" s="2" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B554" s="1" t="s">
+      <c r="A554" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B554" s="3" t="s">
         <v>1062</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D554" s="1" t="s">
         <v>58</v>
@@ -36631,14 +36643,14 @@
       <c r="E554" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="G554" s="1" t="s">
-        <v>1062</v>
+      <c r="G554" s="3" t="s">
+        <v>1014</v>
       </c>
       <c r="H554" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I554" s="1" t="s">
-        <v>1064</v>
+      <c r="I554" s="3" t="s">
+        <v>1015</v>
       </c>
       <c r="M554" s="1" t="n">
         <v>0</v>
@@ -36676,13 +36688,13 @@
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B555" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="B555" s="1" t="s">
+      <c r="C555" s="1" t="s">
         <v>1070</v>
-      </c>
-      <c r="C555" s="1" t="s">
-        <v>1071</v>
       </c>
       <c r="D555" s="1" t="s">
         <v>58</v>
@@ -36691,13 +36703,13 @@
         <v>552</v>
       </c>
       <c r="G555" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="H555" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I555" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="M555" s="1" t="n">
         <v>0</v>
@@ -36735,13 +36747,13 @@
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B556" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="B556" s="1" t="s">
-        <v>1070</v>
-      </c>
       <c r="C556" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D556" s="1" t="s">
         <v>58</v>
@@ -36750,13 +36762,13 @@
         <v>552</v>
       </c>
       <c r="G556" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="H556" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I556" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="M556" s="1" t="n">
         <v>0</v>
@@ -36794,13 +36806,13 @@
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C557" s="1" t="s">
         <v>1074</v>
-      </c>
-      <c r="B557" s="1" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C557" s="1" t="s">
-        <v>1075</v>
       </c>
       <c r="D557" s="1" t="s">
         <v>58</v>
@@ -36809,13 +36821,13 @@
         <v>556</v>
       </c>
       <c r="G557" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="H557" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I557" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="M557" s="1" t="n">
         <v>0</v>
@@ -36853,13 +36865,13 @@
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="2" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D558" s="1" t="s">
         <v>58</v>
@@ -36868,13 +36880,13 @@
         <v>556</v>
       </c>
       <c r="G558" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="H558" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I558" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="M558" s="1" t="n">
         <v>0</v>
@@ -36912,13 +36924,13 @@
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B559" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="B559" s="1" t="s">
+      <c r="C559" s="1" t="s">
         <v>1078</v>
-      </c>
-      <c r="C559" s="1" t="s">
-        <v>1079</v>
       </c>
       <c r="D559" s="1" t="s">
         <v>58</v>
@@ -36927,13 +36939,13 @@
         <v>552</v>
       </c>
       <c r="G559" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H559" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I559" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="M559" s="1" t="n">
         <v>0</v>
@@ -36971,13 +36983,13 @@
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B560" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="B560" s="1" t="s">
-        <v>1078</v>
-      </c>
       <c r="C560" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D560" s="1" t="s">
         <v>58</v>
@@ -36986,13 +36998,13 @@
         <v>552</v>
       </c>
       <c r="G560" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H560" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I560" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="M560" s="1" t="n">
         <v>0</v>
@@ -37030,13 +37042,13 @@
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C561" s="1" t="s">
         <v>1082</v>
-      </c>
-      <c r="B561" s="1" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C561" s="1" t="s">
-        <v>1083</v>
       </c>
       <c r="D561" s="1" t="s">
         <v>58</v>
@@ -37045,13 +37057,13 @@
         <v>556</v>
       </c>
       <c r="G561" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H561" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I561" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="M561" s="1" t="n">
         <v>0</v>
@@ -37089,13 +37101,13 @@
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="2" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D562" s="1" t="s">
         <v>58</v>
@@ -37104,13 +37116,13 @@
         <v>556</v>
       </c>
       <c r="G562" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H562" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I562" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="M562" s="1" t="n">
         <v>0</v>
@@ -37148,13 +37160,13 @@
     </row>
     <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B563" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="B563" s="1" t="s">
+      <c r="C563" s="1" t="s">
         <v>1086</v>
-      </c>
-      <c r="C563" s="1" t="s">
-        <v>1087</v>
       </c>
       <c r="D563" s="1" t="s">
         <v>58</v>
@@ -37163,13 +37175,13 @@
         <v>552</v>
       </c>
       <c r="G563" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H563" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I563" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="M563" s="1" t="n">
         <v>0</v>
@@ -37207,13 +37219,13 @@
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B564" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="B564" s="1" t="s">
-        <v>1086</v>
-      </c>
       <c r="C564" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D564" s="1" t="s">
         <v>58</v>
@@ -37222,13 +37234,13 @@
         <v>552</v>
       </c>
       <c r="G564" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H564" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I564" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="M564" s="1" t="n">
         <v>0</v>
@@ -37266,13 +37278,13 @@
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C565" s="1" t="s">
         <v>1090</v>
-      </c>
-      <c r="B565" s="1" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C565" s="1" t="s">
-        <v>1091</v>
       </c>
       <c r="D565" s="1" t="s">
         <v>58</v>
@@ -37281,13 +37293,13 @@
         <v>556</v>
       </c>
       <c r="G565" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H565" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I565" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="M565" s="1" t="n">
         <v>0</v>
@@ -37325,13 +37337,13 @@
     </row>
     <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="2" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D566" s="1" t="s">
         <v>58</v>
@@ -37340,13 +37352,13 @@
         <v>556</v>
       </c>
       <c r="G566" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H566" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I566" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="M566" s="1" t="n">
         <v>0</v>
@@ -37384,13 +37396,13 @@
     </row>
     <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B567" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="B567" s="1" t="s">
+      <c r="C567" s="1" t="s">
         <v>1094</v>
-      </c>
-      <c r="C567" s="1" t="s">
-        <v>1095</v>
       </c>
       <c r="D567" s="1" t="s">
         <v>58</v>
@@ -37399,13 +37411,13 @@
         <v>552</v>
       </c>
       <c r="G567" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H567" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I567" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="M567" s="1" t="n">
         <v>0</v>
@@ -37443,13 +37455,13 @@
     </row>
     <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B568" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="B568" s="1" t="s">
-        <v>1094</v>
-      </c>
       <c r="C568" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D568" s="1" t="s">
         <v>58</v>
@@ -37458,13 +37470,13 @@
         <v>552</v>
       </c>
       <c r="G568" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H568" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I568" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="M568" s="1" t="n">
         <v>0</v>
@@ -37502,13 +37514,13 @@
     </row>
     <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C569" s="1" t="s">
         <v>1098</v>
-      </c>
-      <c r="B569" s="1" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C569" s="1" t="s">
-        <v>1099</v>
       </c>
       <c r="D569" s="1" t="s">
         <v>58</v>
@@ -37517,13 +37529,13 @@
         <v>556</v>
       </c>
       <c r="G569" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H569" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I569" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="M569" s="1" t="n">
         <v>0</v>
@@ -37561,13 +37573,13 @@
     </row>
     <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="2" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D570" s="1" t="s">
         <v>58</v>
@@ -37576,13 +37588,13 @@
         <v>556</v>
       </c>
       <c r="G570" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H570" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I570" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="M570" s="1" t="n">
         <v>0</v>
@@ -37620,13 +37632,13 @@
     </row>
     <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B571" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="B571" s="4" t="s">
+      <c r="C571" s="1" t="s">
         <v>1102</v>
-      </c>
-      <c r="C571" s="1" t="s">
-        <v>1103</v>
       </c>
       <c r="D571" s="1" t="s">
         <v>58</v>
@@ -37634,14 +37646,14 @@
       <c r="E571" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="G571" s="0" t="s">
-        <v>1104</v>
+      <c r="G571" s="1" t="s">
+        <v>1101</v>
       </c>
       <c r="H571" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I571" s="0" t="s">
-        <v>1105</v>
+      <c r="I571" s="1" t="s">
+        <v>1103</v>
       </c>
       <c r="M571" s="1" t="n">
         <v>0</v>
@@ -37679,13 +37691,13 @@
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B572" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="B572" s="4" t="s">
-        <v>1102</v>
-      </c>
       <c r="C572" s="1" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="D572" s="1" t="s">
         <v>58</v>
@@ -37693,14 +37705,14 @@
       <c r="E572" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="G572" s="0" t="s">
-        <v>1104</v>
+      <c r="G572" s="1" t="s">
+        <v>1101</v>
       </c>
       <c r="H572" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I572" s="0" t="s">
-        <v>1105</v>
+      <c r="I572" s="1" t="s">
+        <v>1103</v>
       </c>
       <c r="M572" s="1" t="n">
         <v>0</v>
@@ -37738,13 +37750,13 @@
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="2" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B573" s="4" t="s">
-        <v>1102</v>
+        <v>1105</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>1101</v>
       </c>
       <c r="C573" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D573" s="1" t="s">
         <v>58</v>
@@ -37752,14 +37764,14 @@
       <c r="E573" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="G573" s="0" t="s">
-        <v>1104</v>
+      <c r="G573" s="1" t="s">
+        <v>1101</v>
       </c>
       <c r="H573" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I573" s="0" t="s">
-        <v>1105</v>
+      <c r="I573" s="1" t="s">
+        <v>1103</v>
       </c>
       <c r="M573" s="1" t="n">
         <v>0</v>
@@ -37797,13 +37809,13 @@
     </row>
     <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C574" s="1" t="s">
         <v>1107</v>
-      </c>
-      <c r="B574" s="4" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C574" s="1" t="s">
-        <v>1109</v>
       </c>
       <c r="D574" s="1" t="s">
         <v>58</v>
@@ -37811,14 +37823,14 @@
       <c r="E574" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="G574" s="0" t="s">
-        <v>1104</v>
+      <c r="G574" s="1" t="s">
+        <v>1101</v>
       </c>
       <c r="H574" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I574" s="0" t="s">
-        <v>1105</v>
+      <c r="I574" s="1" t="s">
+        <v>1103</v>
       </c>
       <c r="M574" s="1" t="n">
         <v>0</v>
@@ -37856,13 +37868,13 @@
     </row>
     <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B575" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C575" s="1" t="s">
         <v>1110</v>
-      </c>
-      <c r="B575" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="C575" s="1" t="s">
-        <v>1111</v>
       </c>
       <c r="D575" s="1" t="s">
         <v>58</v>
@@ -37871,13 +37883,13 @@
         <v>552</v>
       </c>
       <c r="G575" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="H575" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I575" s="1" t="s">
         <v>1112</v>
-      </c>
-      <c r="H575" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I575" s="1" t="s">
-        <v>1113</v>
       </c>
       <c r="M575" s="1" t="n">
         <v>0</v>
@@ -37915,13 +37927,13 @@
     </row>
     <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="2" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B576" s="1" t="s">
-        <v>615</v>
+        <v>1108</v>
+      </c>
+      <c r="B576" s="3" t="s">
+        <v>1109</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="D576" s="1" t="s">
         <v>58</v>
@@ -37930,13 +37942,13 @@
         <v>552</v>
       </c>
       <c r="G576" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="H576" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I576" s="1" t="s">
         <v>1112</v>
-      </c>
-      <c r="H576" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I576" s="1" t="s">
-        <v>1113</v>
       </c>
       <c r="M576" s="1" t="n">
         <v>0</v>
@@ -37974,13 +37986,13 @@
     </row>
     <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B577" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C577" s="1" t="s">
         <v>1115</v>
-      </c>
-      <c r="B577" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="C577" s="1" t="s">
-        <v>1116</v>
       </c>
       <c r="D577" s="1" t="s">
         <v>58</v>
@@ -37989,13 +38001,13 @@
         <v>556</v>
       </c>
       <c r="G577" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="H577" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I577" s="1" t="s">
         <v>1112</v>
-      </c>
-      <c r="H577" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I577" s="1" t="s">
-        <v>1113</v>
       </c>
       <c r="M577" s="1" t="n">
         <v>0</v>
@@ -38033,13 +38045,13 @@
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="2" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B578" s="1" t="s">
-        <v>615</v>
+        <v>1114</v>
+      </c>
+      <c r="B578" s="3" t="s">
+        <v>1109</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D578" s="1" t="s">
         <v>58</v>
@@ -38048,13 +38060,13 @@
         <v>556</v>
       </c>
       <c r="G578" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="H578" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I578" s="1" t="s">
         <v>1112</v>
-      </c>
-      <c r="H578" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" s="1" t="s">
-        <v>1113</v>
       </c>
       <c r="M578" s="1" t="n">
         <v>0</v>
@@ -38092,13 +38104,13 @@
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="2" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B579" s="1" t="s">
         <v>615</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D579" s="1" t="s">
         <v>58</v>
@@ -38107,13 +38119,13 @@
         <v>552</v>
       </c>
       <c r="G579" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H579" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I579" s="1" t="s">
         <v>1120</v>
-      </c>
-      <c r="H579" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" s="1" t="s">
-        <v>1121</v>
       </c>
       <c r="M579" s="1" t="n">
         <v>0</v>
@@ -38151,13 +38163,13 @@
     </row>
     <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="2" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B580" s="1" t="s">
         <v>615</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D580" s="1" t="s">
         <v>58</v>
@@ -38166,13 +38178,13 @@
         <v>552</v>
       </c>
       <c r="G580" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H580" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I580" s="1" t="s">
         <v>1120</v>
-      </c>
-      <c r="H580" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" s="1" t="s">
-        <v>1121</v>
       </c>
       <c r="M580" s="1" t="n">
         <v>0</v>
@@ -38210,13 +38222,13 @@
     </row>
     <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="2" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B581" s="1" t="s">
         <v>615</v>
       </c>
       <c r="C581" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D581" s="1" t="s">
         <v>58</v>
@@ -38225,13 +38237,13 @@
         <v>556</v>
       </c>
       <c r="G581" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H581" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I581" s="1" t="s">
         <v>1120</v>
-      </c>
-      <c r="H581" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" s="1" t="s">
-        <v>1121</v>
       </c>
       <c r="M581" s="1" t="n">
         <v>0</v>
@@ -38269,13 +38281,13 @@
     </row>
     <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="2" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B582" s="1" t="s">
         <v>615</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D582" s="1" t="s">
         <v>58</v>
@@ -38284,13 +38296,13 @@
         <v>556</v>
       </c>
       <c r="G582" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H582" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I582" s="1" t="s">
         <v>1120</v>
-      </c>
-      <c r="H582" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" s="1" t="s">
-        <v>1121</v>
       </c>
       <c r="M582" s="1" t="n">
         <v>0</v>
@@ -38328,13 +38340,13 @@
     </row>
     <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B583" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C583" s="1" t="s">
         <v>1126</v>
-      </c>
-      <c r="B583" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="C583" s="1" t="s">
-        <v>1127</v>
       </c>
       <c r="D583" s="1" t="s">
         <v>58</v>
@@ -38343,13 +38355,13 @@
         <v>552</v>
       </c>
       <c r="G583" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H583" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I583" s="1" t="s">
         <v>1128</v>
-      </c>
-      <c r="H583" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" s="1" t="s">
-        <v>1129</v>
       </c>
       <c r="M583" s="1" t="n">
         <v>0</v>
@@ -38387,13 +38399,13 @@
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="2" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>550</v>
+        <v>615</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D584" s="1" t="s">
         <v>58</v>
@@ -38402,13 +38414,13 @@
         <v>552</v>
       </c>
       <c r="G584" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H584" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I584" s="1" t="s">
         <v>1128</v>
-      </c>
-      <c r="H584" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" s="1" t="s">
-        <v>1129</v>
       </c>
       <c r="M584" s="1" t="n">
         <v>0</v>
@@ -38446,13 +38458,13 @@
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B585" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C585" s="1" t="s">
         <v>1131</v>
-      </c>
-      <c r="B585" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="C585" s="1" t="s">
-        <v>1132</v>
       </c>
       <c r="D585" s="1" t="s">
         <v>58</v>
@@ -38461,13 +38473,13 @@
         <v>556</v>
       </c>
       <c r="G585" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H585" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I585" s="1" t="s">
         <v>1128</v>
-      </c>
-      <c r="H585" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" s="1" t="s">
-        <v>1129</v>
       </c>
       <c r="M585" s="1" t="n">
         <v>0</v>
@@ -38505,13 +38517,13 @@
     </row>
     <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="2" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>550</v>
+        <v>615</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D586" s="1" t="s">
         <v>58</v>
@@ -38520,13 +38532,13 @@
         <v>556</v>
       </c>
       <c r="G586" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H586" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I586" s="1" t="s">
         <v>1128</v>
-      </c>
-      <c r="H586" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" s="1" t="s">
-        <v>1129</v>
       </c>
       <c r="M586" s="1" t="n">
         <v>0</v>
@@ -38564,13 +38576,13 @@
     </row>
     <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C587" s="1" t="s">
         <v>1134</v>
-      </c>
-      <c r="B587" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="C587" s="1" t="s">
-        <v>1135</v>
       </c>
       <c r="D587" s="1" t="s">
         <v>58</v>
@@ -38579,13 +38591,13 @@
         <v>552</v>
       </c>
       <c r="G587" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H587" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I587" s="1" t="s">
         <v>1136</v>
-      </c>
-      <c r="H587" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" s="1" t="s">
-        <v>1137</v>
       </c>
       <c r="M587" s="1" t="n">
         <v>0</v>
@@ -38623,13 +38635,13 @@
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="2" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>884</v>
+        <v>550</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D588" s="1" t="s">
         <v>58</v>
@@ -38638,13 +38650,13 @@
         <v>552</v>
       </c>
       <c r="G588" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H588" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I588" s="1" t="s">
         <v>1136</v>
-      </c>
-      <c r="H588" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" s="1" t="s">
-        <v>1137</v>
       </c>
       <c r="M588" s="1" t="n">
         <v>0</v>
@@ -38682,13 +38694,13 @@
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C589" s="1" t="s">
         <v>1139</v>
-      </c>
-      <c r="B589" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="C589" s="1" t="s">
-        <v>1140</v>
       </c>
       <c r="D589" s="1" t="s">
         <v>58</v>
@@ -38697,13 +38709,13 @@
         <v>556</v>
       </c>
       <c r="G589" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H589" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I589" s="1" t="s">
         <v>1136</v>
-      </c>
-      <c r="H589" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" s="1" t="s">
-        <v>1137</v>
       </c>
       <c r="M589" s="1" t="n">
         <v>0</v>
@@ -38741,13 +38753,13 @@
     </row>
     <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="2" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>884</v>
+        <v>550</v>
       </c>
       <c r="C590" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="D590" s="1" t="s">
         <v>58</v>
@@ -38756,13 +38768,13 @@
         <v>556</v>
       </c>
       <c r="G590" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H590" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I590" s="1" t="s">
         <v>1136</v>
-      </c>
-      <c r="H590" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" s="1" t="s">
-        <v>1137</v>
       </c>
       <c r="M590" s="1" t="n">
         <v>0</v>
@@ -38800,13 +38812,13 @@
     </row>
     <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="C591" s="1" t="s">
         <v>1142</v>
-      </c>
-      <c r="B591" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="C591" s="1" t="s">
-        <v>1143</v>
       </c>
       <c r="D591" s="1" t="s">
         <v>58</v>
@@ -38815,13 +38827,13 @@
         <v>552</v>
       </c>
       <c r="G591" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H591" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I591" s="1" t="s">
         <v>1144</v>
-      </c>
-      <c r="H591" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" s="1" t="s">
-        <v>1145</v>
       </c>
       <c r="M591" s="1" t="n">
         <v>0</v>
@@ -38859,13 +38871,13 @@
     </row>
     <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="2" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>731</v>
+        <v>884</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="D592" s="1" t="s">
         <v>58</v>
@@ -38874,13 +38886,13 @@
         <v>552</v>
       </c>
       <c r="G592" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H592" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I592" s="1" t="s">
         <v>1144</v>
-      </c>
-      <c r="H592" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" s="1" t="s">
-        <v>1145</v>
       </c>
       <c r="M592" s="1" t="n">
         <v>0</v>
@@ -38918,13 +38930,13 @@
     </row>
     <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="C593" s="1" t="s">
         <v>1147</v>
-      </c>
-      <c r="B593" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="C593" s="1" t="s">
-        <v>1148</v>
       </c>
       <c r="D593" s="1" t="s">
         <v>58</v>
@@ -38933,13 +38945,13 @@
         <v>556</v>
       </c>
       <c r="G593" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H593" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I593" s="1" t="s">
         <v>1144</v>
-      </c>
-      <c r="H593" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" s="1" t="s">
-        <v>1145</v>
       </c>
       <c r="M593" s="1" t="n">
         <v>0</v>
@@ -38977,13 +38989,13 @@
     </row>
     <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="2" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>731</v>
+        <v>884</v>
       </c>
       <c r="C594" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D594" s="1" t="s">
         <v>58</v>
@@ -38992,13 +39004,13 @@
         <v>556</v>
       </c>
       <c r="G594" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H594" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I594" s="1" t="s">
         <v>1144</v>
-      </c>
-      <c r="H594" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" s="1" t="s">
-        <v>1145</v>
       </c>
       <c r="M594" s="1" t="n">
         <v>0</v>
@@ -39036,13 +39048,13 @@
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="C595" s="1" t="s">
         <v>1150</v>
-      </c>
-      <c r="B595" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="C595" s="1" t="s">
-        <v>1151</v>
       </c>
       <c r="D595" s="1" t="s">
         <v>58</v>
@@ -39051,13 +39063,13 @@
         <v>552</v>
       </c>
       <c r="G595" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="H595" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I595" s="1" t="s">
         <v>1152</v>
-      </c>
-      <c r="H595" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" s="1" t="s">
-        <v>1153</v>
       </c>
       <c r="M595" s="1" t="n">
         <v>0</v>
@@ -39095,13 +39107,13 @@
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="2" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>868</v>
+        <v>731</v>
       </c>
       <c r="C596" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D596" s="1" t="s">
         <v>58</v>
@@ -39110,13 +39122,13 @@
         <v>552</v>
       </c>
       <c r="G596" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="H596" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I596" s="1" t="s">
         <v>1152</v>
-      </c>
-      <c r="H596" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" s="1" t="s">
-        <v>1153</v>
       </c>
       <c r="M596" s="1" t="n">
         <v>0</v>
@@ -39154,13 +39166,13 @@
     </row>
     <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="C597" s="1" t="s">
         <v>1155</v>
-      </c>
-      <c r="B597" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="C597" s="1" t="s">
-        <v>1156</v>
       </c>
       <c r="D597" s="1" t="s">
         <v>58</v>
@@ -39169,13 +39181,13 @@
         <v>556</v>
       </c>
       <c r="G597" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="H597" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I597" s="1" t="s">
         <v>1152</v>
-      </c>
-      <c r="H597" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I597" s="1" t="s">
-        <v>1153</v>
       </c>
       <c r="M597" s="1" t="n">
         <v>0</v>
@@ -39213,13 +39225,13 @@
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="2" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>868</v>
+        <v>731</v>
       </c>
       <c r="C598" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D598" s="1" t="s">
         <v>58</v>
@@ -39228,13 +39240,13 @@
         <v>556</v>
       </c>
       <c r="G598" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="H598" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I598" s="1" t="s">
         <v>1152</v>
-      </c>
-      <c r="H598" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" s="1" t="s">
-        <v>1153</v>
       </c>
       <c r="M598" s="1" t="n">
         <v>0</v>
@@ -39272,13 +39284,13 @@
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C599" s="1" t="s">
         <v>1158</v>
-      </c>
-      <c r="B599" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="C599" s="1" t="s">
-        <v>1159</v>
       </c>
       <c r="D599" s="1" t="s">
         <v>58</v>
@@ -39287,13 +39299,13 @@
         <v>552</v>
       </c>
       <c r="G599" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="H599" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I599" s="1" t="s">
         <v>1160</v>
-      </c>
-      <c r="H599" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" s="1" t="s">
-        <v>1161</v>
       </c>
       <c r="M599" s="1" t="n">
         <v>0</v>
@@ -39331,13 +39343,13 @@
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="2" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>861</v>
+        <v>868</v>
       </c>
       <c r="C600" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D600" s="1" t="s">
         <v>58</v>
@@ -39346,13 +39358,13 @@
         <v>552</v>
       </c>
       <c r="G600" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="H600" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I600" s="1" t="s">
         <v>1160</v>
-      </c>
-      <c r="H600" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" s="1" t="s">
-        <v>1161</v>
       </c>
       <c r="M600" s="1" t="n">
         <v>0</v>
@@ -39390,13 +39402,13 @@
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C601" s="1" t="s">
         <v>1163</v>
-      </c>
-      <c r="B601" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="C601" s="1" t="s">
-        <v>1164</v>
       </c>
       <c r="D601" s="1" t="s">
         <v>58</v>
@@ -39405,13 +39417,13 @@
         <v>556</v>
       </c>
       <c r="G601" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="H601" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I601" s="1" t="s">
         <v>1160</v>
-      </c>
-      <c r="H601" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" s="1" t="s">
-        <v>1161</v>
       </c>
       <c r="M601" s="1" t="n">
         <v>0</v>
@@ -39449,13 +39461,13 @@
     </row>
     <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="2" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>861</v>
+        <v>868</v>
       </c>
       <c r="C602" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D602" s="1" t="s">
         <v>58</v>
@@ -39464,13 +39476,13 @@
         <v>556</v>
       </c>
       <c r="G602" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="H602" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I602" s="1" t="s">
         <v>1160</v>
-      </c>
-      <c r="H602" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" s="1" t="s">
-        <v>1161</v>
       </c>
       <c r="M602" s="1" t="n">
         <v>0</v>
@@ -39508,13 +39520,13 @@
     </row>
     <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C603" s="1" t="s">
         <v>1166</v>
-      </c>
-      <c r="B603" s="1" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C603" s="1" t="s">
-        <v>1167</v>
       </c>
       <c r="D603" s="1" t="s">
         <v>58</v>
@@ -39523,13 +39535,13 @@
         <v>552</v>
       </c>
       <c r="G603" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H603" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I603" s="1" t="s">
         <v>1168</v>
-      </c>
-      <c r="H603" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" s="1" t="s">
-        <v>1169</v>
       </c>
       <c r="M603" s="1" t="n">
         <v>0</v>
@@ -39567,13 +39579,13 @@
     </row>
     <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="2" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>1041</v>
+        <v>861</v>
       </c>
       <c r="C604" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D604" s="1" t="s">
         <v>58</v>
@@ -39582,13 +39594,13 @@
         <v>552</v>
       </c>
       <c r="G604" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H604" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I604" s="1" t="s">
         <v>1168</v>
-      </c>
-      <c r="H604" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" s="1" t="s">
-        <v>1169</v>
       </c>
       <c r="M604" s="1" t="n">
         <v>0</v>
@@ -39626,13 +39638,13 @@
     </row>
     <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C605" s="1" t="s">
         <v>1171</v>
-      </c>
-      <c r="B605" s="1" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C605" s="1" t="s">
-        <v>1172</v>
       </c>
       <c r="D605" s="1" t="s">
         <v>58</v>
@@ -39641,13 +39653,13 @@
         <v>556</v>
       </c>
       <c r="G605" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H605" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I605" s="1" t="s">
         <v>1168</v>
-      </c>
-      <c r="H605" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" s="1" t="s">
-        <v>1169</v>
       </c>
       <c r="M605" s="1" t="n">
         <v>0</v>
@@ -39685,13 +39697,13 @@
     </row>
     <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="2" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>1041</v>
+        <v>861</v>
       </c>
       <c r="C606" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D606" s="1" t="s">
         <v>58</v>
@@ -39700,13 +39712,13 @@
         <v>556</v>
       </c>
       <c r="G606" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H606" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I606" s="1" t="s">
         <v>1168</v>
-      </c>
-      <c r="H606" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" s="1" t="s">
-        <v>1169</v>
       </c>
       <c r="M606" s="1" t="n">
         <v>0</v>
@@ -39744,13 +39756,13 @@
     </row>
     <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C607" s="1" t="s">
         <v>1174</v>
-      </c>
-      <c r="B607" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="C607" s="1" t="s">
-        <v>769</v>
       </c>
       <c r="D607" s="1" t="s">
         <v>58</v>
@@ -39803,13 +39815,13 @@
     </row>
     <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="2" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>768</v>
+        <v>1048</v>
       </c>
       <c r="C608" s="1" t="s">
-        <v>770</v>
+        <v>1177</v>
       </c>
       <c r="D608" s="1" t="s">
         <v>58</v>
@@ -39862,13 +39874,13 @@
     </row>
     <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="2" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>768</v>
+        <v>1048</v>
       </c>
       <c r="C609" s="1" t="s">
-        <v>772</v>
+        <v>1179</v>
       </c>
       <c r="D609" s="1" t="s">
         <v>58</v>
@@ -39921,13 +39933,13 @@
     </row>
     <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="2" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>768</v>
+        <v>1048</v>
       </c>
       <c r="C610" s="1" t="s">
-        <v>773</v>
+        <v>1180</v>
       </c>
       <c r="D610" s="1" t="s">
         <v>58</v>
@@ -39978,6 +39990,254 @@
         <v>0</v>
       </c>
     </row>
+    <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A611" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B611" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="C611" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="D611" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E611" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="G611" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H611" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I611" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="M611" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N611" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O611" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P611" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S611" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB611" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL611" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP611" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ611" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR611" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS611" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A612" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B612" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="C612" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="D612" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E612" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="G612" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H612" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I612" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="M612" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N612" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O612" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P612" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S612" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB612" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL612" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP612" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ612" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR612" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS612" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A613" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B613" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="C613" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="D613" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E613" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G613" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H613" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I613" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="M613" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N613" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O613" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P613" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S613" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB613" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL613" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP613" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ613" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR613" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS613" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A614" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="C614" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="D614" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E614" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G614" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H614" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I614" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="M614" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N614" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O614" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P614" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S614" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB614" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL614" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP614" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ614" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR614" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS614" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A705" s="2"/>
+    </row>
+    <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A706" s="2"/>
+    </row>
+    <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A707" s="2"/>
+    </row>
+    <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A708" s="2"/>
+    </row>
     <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="2"/>
     </row>
@@ -42042,17 +42302,17 @@
     <row r="1396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1396" s="2"/>
     </row>
-    <row r="1397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1397" s="2"/>
-    </row>
-    <row r="1398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1398" s="2"/>
-    </row>
-    <row r="1399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1399" s="2"/>
-    </row>
-    <row r="1400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1400" s="2"/>
+    <row r="1403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1403" s="2"/>
+    </row>
+    <row r="1404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1404" s="2"/>
+    </row>
+    <row r="1405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1405" s="2"/>
+    </row>
+    <row r="1406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1406" s="2"/>
     </row>
     <row r="1407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1407" s="2"/>
@@ -42138,17 +42398,17 @@
     <row r="1434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1434" s="2"/>
     </row>
-    <row r="1435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1435" s="2"/>
-    </row>
-    <row r="1436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1436" s="2"/>
-    </row>
-    <row r="1437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1437" s="2"/>
-    </row>
-    <row r="1438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1438" s="2"/>
+    <row r="1445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1445" s="2"/>
+    </row>
+    <row r="1446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1446" s="2"/>
+    </row>
+    <row r="1447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1447" s="2"/>
+    </row>
+    <row r="1448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1448" s="2"/>
     </row>
     <row r="1449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1449" s="2"/>
@@ -42174,18 +42434,18 @@
     <row r="1456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1456" s="2"/>
     </row>
-    <row r="1457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1457" s="2"/>
-    </row>
-    <row r="1458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1458" s="2"/>
-    </row>
     <row r="1459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1459" s="2"/>
     </row>
     <row r="1460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1460" s="2"/>
     </row>
+    <row r="1461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1461" s="2"/>
+    </row>
+    <row r="1462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1462" s="2"/>
+    </row>
     <row r="1463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1463" s="2"/>
     </row>
@@ -42207,17 +42467,17 @@
     <row r="1469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1469" s="2"/>
     </row>
-    <row r="1470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1470" s="2"/>
-    </row>
-    <row r="1471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1471" s="2"/>
-    </row>
-    <row r="1472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1472" s="2"/>
-    </row>
-    <row r="1473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1473" s="2"/>
+    <row r="1474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1474" s="2"/>
+    </row>
+    <row r="1475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1475" s="2"/>
+    </row>
+    <row r="1476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1476" s="2"/>
+    </row>
+    <row r="1477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1477" s="2"/>
     </row>
     <row r="1478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1478" s="2"/>
@@ -42464,18 +42724,6 @@
     </row>
     <row r="1559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1559" s="2"/>
-    </row>
-    <row r="1560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1560" s="2"/>
-    </row>
-    <row r="1561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1561" s="2"/>
-    </row>
-    <row r="1562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1562" s="2"/>
-    </row>
-    <row r="1563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1563" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/run/predefined.xlsx
+++ b/run/predefined.xlsx
@@ -181,7 +181,7 @@
     <t xml:space="preserve">Random Basic Weakness</t>
   </si>
   <si>
-    <t xml:space="preserve">card_images/random_basic_weakness.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/card_images/random_basic_weakness.webp</t>
   </si>
   <si>
     <t xml:space="preserve">Player Card</t>
@@ -208,7 +208,7 @@
     <t xml:space="preserve">+1</t>
   </si>
   <si>
-    <t xml:space="preserve">chaos_tokens/p1.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/chaos_tokens/p1.webp</t>
   </si>
   <si>
     <t xml:space="preserve">multi_sided</t>
@@ -229,7 +229,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">chaos_tokens/p0.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/chaos_tokens/p0.webp</t>
   </si>
   <si>
     <t xml:space="preserve">chaos_m1</t>
@@ -238,7 +238,7 @@
     <t xml:space="preserve">-1</t>
   </si>
   <si>
-    <t xml:space="preserve">chaos_tokens/m1.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/chaos_tokens/m1.webp</t>
   </si>
   <si>
     <t xml:space="preserve">chaos_m2</t>
@@ -247,7 +247,7 @@
     <t xml:space="preserve">-2</t>
   </si>
   <si>
-    <t xml:space="preserve">chaos_tokens/m2.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/chaos_tokens/m2.webp</t>
   </si>
   <si>
     <t xml:space="preserve">chaos_m3</t>
@@ -256,7 +256,7 @@
     <t xml:space="preserve">-3</t>
   </si>
   <si>
-    <t xml:space="preserve">chaos_tokens/m3.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/chaos_tokens/m3.webp</t>
   </si>
   <si>
     <t xml:space="preserve">chaos_m4</t>
@@ -265,7 +265,7 @@
     <t xml:space="preserve">-4</t>
   </si>
   <si>
-    <t xml:space="preserve">chaos_tokens/m4.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/chaos_tokens/m4.webp</t>
   </si>
   <si>
     <t xml:space="preserve">chaos_m5</t>
@@ -274,7 +274,7 @@
     <t xml:space="preserve">-5</t>
   </si>
   <si>
-    <t xml:space="preserve">chaos_tokens/m5.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/chaos_tokens/m5.webp</t>
   </si>
   <si>
     <t xml:space="preserve">chaos_m6</t>
@@ -283,7 +283,7 @@
     <t xml:space="preserve">-6</t>
   </si>
   <si>
-    <t xml:space="preserve">chaos_tokens/m6.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/chaos_tokens/m6.webp</t>
   </si>
   <si>
     <t xml:space="preserve">chaos_m7</t>
@@ -292,7 +292,7 @@
     <t xml:space="preserve">-7</t>
   </si>
   <si>
-    <t xml:space="preserve">chaos_tokens/m7.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/chaos_tokens/m7.webp</t>
   </si>
   <si>
     <t xml:space="preserve">chaos_m8</t>
@@ -301,7 +301,7 @@
     <t xml:space="preserve">-8</t>
   </si>
   <si>
-    <t xml:space="preserve">chaos_tokens/m8.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/chaos_tokens/m8.webp</t>
   </si>
   <si>
     <t xml:space="preserve">chaos_elder_sign</t>
@@ -310,7 +310,7 @@
     <t xml:space="preserve">Elder Sign</t>
   </si>
   <si>
-    <t xml:space="preserve">chaos_tokens/elder_sign.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/chaos_tokens/elder_sign.webp</t>
   </si>
   <si>
     <t xml:space="preserve">chaos_auto_fail</t>
@@ -319,7 +319,7 @@
     <t xml:space="preserve">Auto Fail</t>
   </si>
   <si>
-    <t xml:space="preserve">chaos_tokens/auto_fail.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/chaos_tokens/auto_fail.webp</t>
   </si>
   <si>
     <t xml:space="preserve">chaos_cultist</t>
@@ -328,7 +328,7 @@
     <t xml:space="preserve">Cultist</t>
   </si>
   <si>
-    <t xml:space="preserve">chaos_tokens/cultist.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/chaos_tokens/cultist.webp</t>
   </si>
   <si>
     <t xml:space="preserve">chaos_elder_thing</t>
@@ -337,7 +337,7 @@
     <t xml:space="preserve">Elder Thing</t>
   </si>
   <si>
-    <t xml:space="preserve">chaos_tokens/elder_thing.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/chaos_tokens/elder_thing.webp</t>
   </si>
   <si>
     <t xml:space="preserve">chaos_skull</t>
@@ -346,7 +346,7 @@
     <t xml:space="preserve">Skull</t>
   </si>
   <si>
-    <t xml:space="preserve">chaos_tokens/skull.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/chaos_tokens/skull.webp</t>
   </si>
   <si>
     <t xml:space="preserve">chaos_tablet</t>
@@ -355,7 +355,7 @@
     <t xml:space="preserve">Tablet</t>
   </si>
   <si>
-    <t xml:space="preserve">chaos_tokens/tablet.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/chaos_tokens/tablet.webp</t>
   </si>
   <si>
     <t xml:space="preserve">chaos_bless</t>
@@ -364,7 +364,7 @@
     <t xml:space="preserve">Bless</t>
   </si>
   <si>
-    <t xml:space="preserve">chaos_tokens/bless.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/chaos_tokens/bless.webp</t>
   </si>
   <si>
     <t xml:space="preserve">The Innsmouth Conspiracy</t>
@@ -379,7 +379,7 @@
     <t xml:space="preserve">Curse</t>
   </si>
   <si>
-    <t xml:space="preserve">chaos_tokens/curse.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/chaos_tokens/curse.webp</t>
   </si>
   <si>
     <t xml:space="preserve">chaos_frost</t>
@@ -388,7 +388,7 @@
     <t xml:space="preserve">Frost</t>
   </si>
   <si>
-    <t xml:space="preserve">chaos_tokens/frost.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/chaos_tokens/frost.webp</t>
   </si>
   <si>
     <t xml:space="preserve">Edge of the Earth Campaign Expansion</t>
@@ -403,7 +403,7 @@
     <t xml:space="preserve">Lead Investigator</t>
   </si>
   <si>
-    <t xml:space="preserve">tokens/first_investigator.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/tokens/first_investigator.webp</t>
   </si>
   <si>
     <t xml:space="preserve">FirstInvestigatorToken</t>
@@ -415,7 +415,7 @@
     <t xml:space="preserve">1 Resource</t>
   </si>
   <si>
-    <t xml:space="preserve">standard_tokens/resource1.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/standard_tokens/resource1.webp</t>
   </si>
   <si>
     <t xml:space="preserve">StandardTokenResource1</t>
@@ -427,7 +427,7 @@
     <t xml:space="preserve">3 Resources</t>
   </si>
   <si>
-    <t xml:space="preserve">standard_tokens/resource3.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/standard_tokens/resource3.webp</t>
   </si>
   <si>
     <t xml:space="preserve">StandardTokenResource3</t>
@@ -439,7 +439,7 @@
     <t xml:space="preserve">5 Resources</t>
   </si>
   <si>
-    <t xml:space="preserve">standard_tokens/resource5.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/standard_tokens/resource5.webp</t>
   </si>
   <si>
     <t xml:space="preserve">StandardTokenResource5</t>
@@ -451,7 +451,7 @@
     <t xml:space="preserve">1 Clue</t>
   </si>
   <si>
-    <t xml:space="preserve">standard_tokens/clue1.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/standard_tokens/clue1.webp</t>
   </si>
   <si>
     <t xml:space="preserve">StandardTokenClueDoom1</t>
@@ -460,7 +460,7 @@
     <t xml:space="preserve">1 Doom</t>
   </si>
   <si>
-    <t xml:space="preserve">standard_tokens/doom1.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/standard_tokens/doom1.webp</t>
   </si>
   <si>
     <t xml:space="preserve">token_clue_doom_3</t>
@@ -469,7 +469,7 @@
     <t xml:space="preserve">3 Clues</t>
   </si>
   <si>
-    <t xml:space="preserve">standard_tokens/clue3.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/standard_tokens/clue3.webp</t>
   </si>
   <si>
     <t xml:space="preserve">StandardTokenClueDoom3</t>
@@ -478,7 +478,7 @@
     <t xml:space="preserve">3 Doom</t>
   </si>
   <si>
-    <t xml:space="preserve">standard_tokens/doom3.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/standard_tokens/doom3.webp</t>
   </si>
   <si>
     <t xml:space="preserve">token_damage_1</t>
@@ -487,13 +487,13 @@
     <t xml:space="preserve">1 Damage</t>
   </si>
   <si>
-    <t xml:space="preserve">standard_tokens/damage1.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/standard_tokens/damage1.webp</t>
   </si>
   <si>
     <t xml:space="preserve">StandardTokenDamage1</t>
   </si>
   <si>
-    <t xml:space="preserve">standard_tokens/damage1_flipped.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/standard_tokens/damage1_flipped.webp</t>
   </si>
   <si>
     <t xml:space="preserve">token_damage_3</t>
@@ -502,13 +502,13 @@
     <t xml:space="preserve">3 Damage</t>
   </si>
   <si>
-    <t xml:space="preserve">standard_tokens/damage3.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/standard_tokens/damage3.webp</t>
   </si>
   <si>
     <t xml:space="preserve">StandardTokenDamage3</t>
   </si>
   <si>
-    <t xml:space="preserve">standard_tokens/damage3_flipped.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/standard_tokens/damage3_flipped.webp</t>
   </si>
   <si>
     <t xml:space="preserve">token_horror_1</t>
@@ -517,13 +517,13 @@
     <t xml:space="preserve">1 Horror</t>
   </si>
   <si>
-    <t xml:space="preserve">standard_tokens/horror1.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/standard_tokens/horror1.webp</t>
   </si>
   <si>
     <t xml:space="preserve">StandardTokenHorror1</t>
   </si>
   <si>
-    <t xml:space="preserve">standard_tokens/horror1_flipped.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/standard_tokens/horror1_flipped.webp</t>
   </si>
   <si>
     <t xml:space="preserve">token_horror_3</t>
@@ -532,13 +532,13 @@
     <t xml:space="preserve">3 Horror</t>
   </si>
   <si>
-    <t xml:space="preserve">standard_tokens/horror3.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/standard_tokens/horror3.webp</t>
   </si>
   <si>
     <t xml:space="preserve">StandardTokenHorror3</t>
   </si>
   <si>
-    <t xml:space="preserve">standard_tokens/horror3_flipped.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/standard_tokens/horror3_flipped.webp</t>
   </si>
   <si>
     <t xml:space="preserve">tfa_binoculars</t>
@@ -772,7 +772,7 @@
     <t xml:space="preserve">Tarot Card</t>
   </si>
   <si>
-    <t xml:space="preserve">card_backs/tarot.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/card_backs/tarot.webp</t>
   </si>
   <si>
     <t xml:space="preserve">The Fool • 0 (Reversed)</t>
@@ -1108,7 +1108,7 @@
     <t xml:space="preserve">Red Key</t>
   </si>
   <si>
-    <t xml:space="preserve">tokens/key_red.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/tokens/key_red.webp</t>
   </si>
   <si>
     <t xml:space="preserve">KeyToken</t>
@@ -1117,7 +1117,7 @@
     <t xml:space="preserve">Unknown Key</t>
   </si>
   <si>
-    <t xml:space="preserve">tokens/key_unknown.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/tokens/key_unknown.webp</t>
   </si>
   <si>
     <t xml:space="preserve">key_blue</t>
@@ -1126,7 +1126,7 @@
     <t xml:space="preserve">Blue Key</t>
   </si>
   <si>
-    <t xml:space="preserve">tokens/key_blue.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/tokens/key_blue.webp</t>
   </si>
   <si>
     <t xml:space="preserve">key_green</t>
@@ -1135,7 +1135,7 @@
     <t xml:space="preserve">Green Key</t>
   </si>
   <si>
-    <t xml:space="preserve">tokens/key_green.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/tokens/key_green.webp</t>
   </si>
   <si>
     <t xml:space="preserve">key_yellow</t>
@@ -1144,7 +1144,7 @@
     <t xml:space="preserve">Yellow Key</t>
   </si>
   <si>
-    <t xml:space="preserve">tokens/key_yellow.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/tokens/key_yellow.webp</t>
   </si>
   <si>
     <t xml:space="preserve">key_purple</t>
@@ -1153,7 +1153,7 @@
     <t xml:space="preserve">Purple Key</t>
   </si>
   <si>
-    <t xml:space="preserve">tokens/key_purple.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/tokens/key_purple.webp</t>
   </si>
   <si>
     <t xml:space="preserve">key_black</t>
@@ -1162,7 +1162,7 @@
     <t xml:space="preserve">Black Key</t>
   </si>
   <si>
-    <t xml:space="preserve">tokens/key_black.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/tokens/key_black.webp</t>
   </si>
   <si>
     <t xml:space="preserve">key_white</t>
@@ -1171,7 +1171,7 @@
     <t xml:space="preserve">White Key</t>
   </si>
   <si>
-    <t xml:space="preserve">tokens/key_white.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/tokens/key_white.webp</t>
   </si>
   <si>
     <t xml:space="preserve">flooded</t>
@@ -1180,7 +1180,7 @@
     <t xml:space="preserve">Partially Flooded</t>
   </si>
   <si>
-    <t xml:space="preserve">tokens/flooded_partially.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/tokens/flooded_partially.webp</t>
   </si>
   <si>
     <t xml:space="preserve">FloodedToken</t>
@@ -1189,7 +1189,7 @@
     <t xml:space="preserve">Fully Flooded</t>
   </si>
   <si>
-    <t xml:space="preserve">tokens/flooded_fully.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/tokens/flooded_fully.webp</t>
   </si>
   <si>
     <t xml:space="preserve">seal_first</t>
@@ -1198,7 +1198,7 @@
     <t xml:space="preserve">Dormant First Seal</t>
   </si>
   <si>
-    <t xml:space="preserve">tokens/seal_first_dormant.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/tokens/seal_first_dormant.webp</t>
   </si>
   <si>
     <t xml:space="preserve">SealToken</t>
@@ -1207,7 +1207,7 @@
     <t xml:space="preserve">Activated First Seal</t>
   </si>
   <si>
-    <t xml:space="preserve">tokens/seal_first_activated.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/tokens/seal_first_activated.webp</t>
   </si>
   <si>
     <t xml:space="preserve">seal_second</t>
@@ -1216,13 +1216,13 @@
     <t xml:space="preserve">Dormant Second Seal</t>
   </si>
   <si>
-    <t xml:space="preserve">tokens/seal_second_dormant.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/tokens/seal_second_dormant.webp</t>
   </si>
   <si>
     <t xml:space="preserve">Activated Second Seal</t>
   </si>
   <si>
-    <t xml:space="preserve">tokens/seal_second_activated.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/tokens/seal_second_activated.webp</t>
   </si>
   <si>
     <t xml:space="preserve">seal_third</t>
@@ -1231,13 +1231,13 @@
     <t xml:space="preserve">Dormant Third Seal</t>
   </si>
   <si>
-    <t xml:space="preserve">tokens/seal_third_dormant.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/tokens/seal_third_dormant.webp</t>
   </si>
   <si>
     <t xml:space="preserve">Activated Third Seal</t>
   </si>
   <si>
-    <t xml:space="preserve">tokens/seal_third_activated.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/tokens/seal_third_activated.webp</t>
   </si>
   <si>
     <t xml:space="preserve">seal_fourth</t>
@@ -1246,13 +1246,13 @@
     <t xml:space="preserve">Dormant Fourth Seal</t>
   </si>
   <si>
-    <t xml:space="preserve">tokens/seal_fourth_dormant.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/tokens/seal_fourth_dormant.webp</t>
   </si>
   <si>
     <t xml:space="preserve">Activated Fourth Seal</t>
   </si>
   <si>
-    <t xml:space="preserve">tokens/seal_fourth_activated.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/tokens/seal_fourth_activated.webp</t>
   </si>
   <si>
     <t xml:space="preserve">seal_fifth</t>
@@ -1261,13 +1261,13 @@
     <t xml:space="preserve">Dormant Fifth Seal</t>
   </si>
   <si>
-    <t xml:space="preserve">tokens/seal_fifth_dormant.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/tokens/seal_fifth_dormant.webp</t>
   </si>
   <si>
     <t xml:space="preserve">Activated Fifth Seal</t>
   </si>
   <si>
-    <t xml:space="preserve">tokens/seal_fifth_activated.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/tokens/seal_fifth_activated.webp</t>
   </si>
   <si>
     <t xml:space="preserve">upg09021</t>
@@ -1717,25 +1717,25 @@
     <t xml:space="preserve">Roland Banks</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/01001a.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/01001a.webp</t>
   </si>
   <si>
     <t xml:space="preserve">MiniInvestigator</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/01001b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/01001b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u01001</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/01001a.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/01001a.webp</t>
   </si>
   <si>
     <t xml:space="preserve">MicroInvestigator</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/01001b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/01001b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m01002</t>
@@ -1744,19 +1744,19 @@
     <t xml:space="preserve">Daisy Walker</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/01002a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/01002b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/01002a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/01002b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u01002</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/01002a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/01002b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/01002a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/01002b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m01003</t>
@@ -1765,19 +1765,19 @@
     <t xml:space="preserve">"Skids" O'Toole</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/01003a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/01003b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/01003a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/01003b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u01003</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/01003a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/01003b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/01003a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/01003b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m01004</t>
@@ -1786,19 +1786,19 @@
     <t xml:space="preserve">Agnes Baker</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/01004a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/01004b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/01004a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/01004b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u01004</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/01004a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/01004b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/01004a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/01004b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m01005</t>
@@ -1807,19 +1807,19 @@
     <t xml:space="preserve">Wendy Adams</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/01005a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/01005b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/01005a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/01005b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u01005</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/01005a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/01005b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/01005a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/01005b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m01501</t>
@@ -1864,7 +1864,7 @@
     <t xml:space="preserve">Zoey Samaras</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/02001a.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/02001a.webp</t>
   </si>
   <si>
     <t xml:space="preserve">The Dunwich Legacy</t>
@@ -1873,16 +1873,16 @@
     <t xml:space="preserve">dwl</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/02001b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/02001b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u02001</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/02001a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/02001b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/02001a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/02001b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m02002</t>
@@ -1891,19 +1891,19 @@
     <t xml:space="preserve">Rex Murphy</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/02002a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/02002b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/02002a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/02002b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u02002</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/02002a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/02002b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/02002a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/02002b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m02003</t>
@@ -1912,19 +1912,19 @@
     <t xml:space="preserve">Jenny Barnes</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/02003a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/02003b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/02003a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/02003b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u02003</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/02003a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/02003b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/02003a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/02003b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m02004</t>
@@ -1933,19 +1933,19 @@
     <t xml:space="preserve">Jim Culver</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/02004a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/02004b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/02004a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/02004b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u02004</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/02004a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/02004b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/02004a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/02004b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m02005</t>
@@ -1954,19 +1954,19 @@
     <t xml:space="preserve">"Ashcan" Pete</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/02005a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/02005b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/02005a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/02005b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u02005</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/02005a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/02005b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/02005a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/02005b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m03001</t>
@@ -1975,7 +1975,7 @@
     <t xml:space="preserve">Mark Harrigan</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/03001a.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/03001a.webp</t>
   </si>
   <si>
     <t xml:space="preserve">The Path to Carcosa</t>
@@ -1984,16 +1984,16 @@
     <t xml:space="preserve">ptc</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/03001b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/03001b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u03001</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/03001a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/03001b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/03001a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/03001b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m03002</t>
@@ -2002,19 +2002,19 @@
     <t xml:space="preserve">Minh Thi Phan</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/03002a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/03002b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/03002a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/03002b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u03002</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/03002a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/03002b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/03002a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/03002b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m03003</t>
@@ -2023,19 +2023,19 @@
     <t xml:space="preserve">Sefina Rousseau</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/03003a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/03003b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/03003a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/03003b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u03003</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/03003a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/03003b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/03003a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/03003b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m03004</t>
@@ -2044,19 +2044,19 @@
     <t xml:space="preserve">Akachi Onyele</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/03004a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/03004b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/03004a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/03004b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u03004</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/03004a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/03004b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/03004a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/03004b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m03005</t>
@@ -2065,19 +2065,19 @@
     <t xml:space="preserve">William Yorick</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/03005a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/03005b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/03005a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/03005b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u03005</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/03005a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/03005b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/03005a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/03005b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m03006</t>
@@ -2086,19 +2086,19 @@
     <t xml:space="preserve">Lola Hayes</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/03006a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/03006b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/03006a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/03006b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u03006</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/03006a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/03006b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/03006a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/03006b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">r03006</t>
@@ -2155,19 +2155,19 @@
     <t xml:space="preserve">Leo Anderson</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/04001a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/04001b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/04001a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/04001b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u04001</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/04001a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/04001b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/04001a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/04001b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m04002</t>
@@ -2176,19 +2176,19 @@
     <t xml:space="preserve">Ursula Downs</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/04002a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/04002b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/04002a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/04002b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u04002</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/04002a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/04002b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/04002a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/04002b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m04003</t>
@@ -2197,19 +2197,19 @@
     <t xml:space="preserve">Finn Edwards</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/04003a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/04003b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/04003a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/04003b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u04003</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/04003a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/04003b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/04003a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/04003b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m04004</t>
@@ -2218,19 +2218,19 @@
     <t xml:space="preserve">Father Mateo</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/04004a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/04004b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/04004a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/04004b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u04004</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/04004a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/04004b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/04004a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/04004b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m04005</t>
@@ -2239,19 +2239,19 @@
     <t xml:space="preserve">Calvin Wright</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/04005a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/04005b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/04005a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/04005b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u04005</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/04005a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/04005b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/04005a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/04005b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m05001</t>
@@ -2260,7 +2260,7 @@
     <t xml:space="preserve">Carolyn Fern</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/05001a.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/05001a.webp</t>
   </si>
   <si>
     <t xml:space="preserve">The Circle Undone</t>
@@ -2269,16 +2269,16 @@
     <t xml:space="preserve">tcu</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/05001b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/05001b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u05001</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/05001a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/05001b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/05001a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/05001b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m05002</t>
@@ -2287,19 +2287,19 @@
     <t xml:space="preserve">Joe Diamond</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/05002a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/05002b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/05002a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/05002b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u05002</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/05002a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/05002b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/05002a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/05002b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m05003</t>
@@ -2308,19 +2308,19 @@
     <t xml:space="preserve">Preston Fairmont</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/05003a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/05003b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/05003a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/05003b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u05003</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/05003a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/05003b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/05003a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/05003b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m05004</t>
@@ -2329,19 +2329,19 @@
     <t xml:space="preserve">Diana Stanley</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/05004a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/05004b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/05004a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/05004b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u05004</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/05004a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/05004b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/05004a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/05004b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m05005</t>
@@ -2350,19 +2350,19 @@
     <t xml:space="preserve">Rita Young</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/05005a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/05005b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/05005a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/05005b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u05005</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/05005a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/05005b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/05005a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/05005b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m05006</t>
@@ -2371,19 +2371,19 @@
     <t xml:space="preserve">Marie Lambeau</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/05006a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/05006b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/05006a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/05006b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u05006</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/05006a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/05006b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/05006a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/05006b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m05046</t>
@@ -2392,19 +2392,19 @@
     <t xml:space="preserve">Gavriella Mizrah</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/05046a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/05046b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/05046a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/05046b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u05046</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/05046a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/05046b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/05046a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/05046b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m05047</t>
@@ -2413,19 +2413,19 @@
     <t xml:space="preserve">Jerome Davids</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/05047a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/05047b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/05047a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/05047b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u05047</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/05047a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/05047b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/05047a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/05047b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m05048</t>
@@ -2434,19 +2434,19 @@
     <t xml:space="preserve">Valentino Rivas</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/05048a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/05048b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/05048a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/05048b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u05048</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/05048a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/05048b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/05048a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/05048b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m05049</t>
@@ -2455,19 +2455,19 @@
     <t xml:space="preserve">Penny White</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/05049a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/05049b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/05049a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/05049b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u05049</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/05049a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/05049b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/05049a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/05049b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m06001</t>
@@ -2476,7 +2476,7 @@
     <t xml:space="preserve">Tommy Muldoon</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/06001a.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/06001a.webp</t>
   </si>
   <si>
     <t xml:space="preserve">The Dream-Eaters</t>
@@ -2485,16 +2485,16 @@
     <t xml:space="preserve">tde</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/06001b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/06001b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u06001</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/06001a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/06001b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/06001a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/06001b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m06002</t>
@@ -2503,19 +2503,19 @@
     <t xml:space="preserve">Mandy Thompson</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/06002a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/06002b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/06002a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/06002b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u06002</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/06002a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/06002b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/06002a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/06002b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m06003</t>
@@ -2524,19 +2524,19 @@
     <t xml:space="preserve">Tony Morgan</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/06003a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/06003b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/06003a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/06003b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u06003</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/06003a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/06003b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/06003a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/06003b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m06004</t>
@@ -2545,19 +2545,19 @@
     <t xml:space="preserve">Luke Robinson</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/06004a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/06004b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/06004a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/06004b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u06004</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/06004a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/06004b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/06004a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/06004b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m06005</t>
@@ -2566,19 +2566,19 @@
     <t xml:space="preserve">Patrice Hathaway</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/06005a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/06005b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/06005a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/06005b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u06005</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/06005a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/06005b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/06005a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/06005b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m07001</t>
@@ -2587,19 +2587,19 @@
     <t xml:space="preserve">Sister Mary</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/07001a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/07001b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/07001a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/07001b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u07001</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/07001a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/07001b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/07001a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/07001b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m07002</t>
@@ -2608,19 +2608,19 @@
     <t xml:space="preserve">Amanda Sharpe</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/07002a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/07002b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/07002a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/07002b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u07002</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/07002a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/07002b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/07002a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/07002b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m07003</t>
@@ -2629,19 +2629,19 @@
     <t xml:space="preserve">Trish Scarborough</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/07003a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/07003b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/07003a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/07003b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u07003</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/07003a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/07003b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/07003a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/07003b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m07004</t>
@@ -2650,19 +2650,19 @@
     <t xml:space="preserve">Dexter Drake</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/07004a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/07004b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/07004a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/07004b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u07004</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/07004a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/07004b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/07004a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/07004b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m07005</t>
@@ -2671,19 +2671,19 @@
     <t xml:space="preserve">Silas Marsh</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/07005a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/07005b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/07005a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/07005b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u07005</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/07005a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/07005b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/07005a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/07005b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m08001</t>
@@ -2692,7 +2692,7 @@
     <t xml:space="preserve">Daniela Reyes</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/08001a.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/08001a.webp</t>
   </si>
   <si>
     <t xml:space="preserve">Edge of the Earth Investigator Expansion</t>
@@ -2701,16 +2701,16 @@
     <t xml:space="preserve">eoep</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/08001b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/08001b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u08001</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/08001a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/08001b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/08001a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/08001b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m08004</t>
@@ -2719,19 +2719,19 @@
     <t xml:space="preserve">Norman Withers</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/08004a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/08004b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/08004a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/08004b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u08004</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/08004a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/08004b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/08004a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/08004b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m08007</t>
@@ -2740,19 +2740,19 @@
     <t xml:space="preserve">Monterey Jack</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/08007a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/08007b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/08007a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/08007b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u08007</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/08007a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/08007b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/08007a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/08007b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m08010</t>
@@ -2761,19 +2761,19 @@
     <t xml:space="preserve">Lily Chen</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/08010a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/08010b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/08010a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/08010b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u08010</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/08010a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/08010b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/08010a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/08010b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m08016</t>
@@ -2782,19 +2782,19 @@
     <t xml:space="preserve">Bob Jenkins</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/08016a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/08016b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/08016a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/08016b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u08016</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/08016a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/08016b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/08016a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/08016b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m09001</t>
@@ -2803,7 +2803,7 @@
     <t xml:space="preserve">Carson Sinclair</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/09001a.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/09001a.webp</t>
   </si>
   <si>
     <t xml:space="preserve">The Scarlet Keys Investigator Expansion</t>
@@ -2812,16 +2812,16 @@
     <t xml:space="preserve">tskp</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/09001b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/09001b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u09001</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/09001a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/09001b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/09001a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/09001b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m09004</t>
@@ -2830,19 +2830,19 @@
     <t xml:space="preserve">Vincent Lee</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/09004a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/09004b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/09004a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/09004b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u09004</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/09004a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/09004b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/09004a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/09004b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m09008</t>
@@ -2851,19 +2851,19 @@
     <t xml:space="preserve">Kymani Jones</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/09008a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/09008b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/09008a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/09008b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u09008</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/09008a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/09008b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/09008a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/09008b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m09011</t>
@@ -2872,19 +2872,19 @@
     <t xml:space="preserve">Amina Zidane</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/09011a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/09011b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/09011a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/09011b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u09011</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/09011a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/09011b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/09011a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/09011b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m09015</t>
@@ -2893,19 +2893,19 @@
     <t xml:space="preserve">Darrell Simmons</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/09015a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/09015b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/09015a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/09015b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u09015</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/09015a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/09015b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/09015a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/09015b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m09018</t>
@@ -2914,19 +2914,19 @@
     <t xml:space="preserve">Charlie Kane</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/09018a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/09018b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/09018a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/09018b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u09018</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/09018a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/09018b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/09018a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/09018b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m09080</t>
@@ -2935,25 +2935,25 @@
     <t xml:space="preserve">Summoned Servitor</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/09080a.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/09080a.webp</t>
   </si>
   <si>
     <t xml:space="preserve">MiniAssistant</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/09080b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/09080b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u09080</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/09080a.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/09080a.webp</t>
   </si>
   <si>
     <t xml:space="preserve">MicroAssistant</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/09080b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/09080b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m10001</t>
@@ -2962,7 +2962,7 @@
     <t xml:space="preserve">Wilson Richards</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/10001a.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/10001a.webp</t>
   </si>
   <si>
     <t xml:space="preserve">The Feast of Hemlock Vale Investigator Expansion</t>
@@ -2971,16 +2971,16 @@
     <t xml:space="preserve">fhvp</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/10001b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/10001b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u10001</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/10001a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/10001b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/10001a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/10001b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m10004</t>
@@ -2989,19 +2989,19 @@
     <t xml:space="preserve">Kate Winthrop</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/10004a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/10004b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/10004a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/10004b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u10004</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/10004a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/10004b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/10004a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/10004b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m10009</t>
@@ -3010,19 +3010,19 @@
     <t xml:space="preserve">Alessandra Zorzi</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/10009a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/10009b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/10009a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/10009b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u10009</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/10009a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/10009b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/10009a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/10009b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m10012</t>
@@ -3031,19 +3031,19 @@
     <t xml:space="preserve">Kōhaku Narukami</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/10012a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/10012b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/10012a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/10012b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u10012</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/10012a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/10012b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/10012a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/10012b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m10015</t>
@@ -3052,19 +3052,19 @@
     <t xml:space="preserve">Hank Samson</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/10015a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/10015b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/10015a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/10015b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u10015</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/10015a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/10015b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/10015a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/10015b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m11001</t>
@@ -3073,7 +3073,7 @@
     <t xml:space="preserve">Marion Tavares</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/11001a.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/11001a.webp</t>
   </si>
   <si>
     <t xml:space="preserve">The Drowned City Investigator Expansion</t>
@@ -3082,16 +3082,16 @@
     <t xml:space="preserve">tdcp</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/11001b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/11001b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u11001</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/11001a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/11001b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/11001a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/11001b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m11004</t>
@@ -3100,19 +3100,19 @@
     <t xml:space="preserve">Lucius Galloway</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/11004a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/11004b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/11004a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/11004b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u11004</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/11004a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/11004b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/11004a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/11004b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m11007</t>
@@ -3121,37 +3121,37 @@
     <t xml:space="preserve">Agatha Crane</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/11007a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/11007b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/11007a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/11007b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u11007</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/11007a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/11007b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/11007a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/11007b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m11008</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/11008a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/11008b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/11008a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/11008b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u11008</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/11008a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/11008b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/11008a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/11008b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m11011</t>
@@ -3160,19 +3160,19 @@
     <t xml:space="preserve">Michael McGlen</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/11011a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/11011b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/11011a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/11011b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u11011</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/11011a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/11011b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/11011a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/11011b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m11014</t>
@@ -3181,19 +3181,19 @@
     <t xml:space="preserve">Gloria Goldberg</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/11014a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/11014b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/11014a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/11014b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u11014</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/11014a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/11014b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/11014a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/11014b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m11017</t>
@@ -3202,19 +3202,19 @@
     <t xml:space="preserve">George Barnaby</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/11017a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/11017b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/11017a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/11017b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u11017</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/11017a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/11017b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/11017a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/11017b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m11068a</t>
@@ -3223,19 +3223,19 @@
     <t xml:space="preserve">Lost Homunculus</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/11068aa.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mini_investigators/11068ab.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/11068aa.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/11068ab.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u11068a</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/11068aa.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/11068ab.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/11068aa.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/11068ab.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m60101</t>
@@ -3244,22 +3244,22 @@
     <t xml:space="preserve">Nathaniel Cho</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/60101a.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/60101a.webp</t>
   </si>
   <si>
     <t xml:space="preserve">nat</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/60101b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/60101b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u60101</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/60101a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/60101b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/60101a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/60101b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m60201</t>
@@ -3268,22 +3268,22 @@
     <t xml:space="preserve">Harvey Walters</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/60201a.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/60201a.webp</t>
   </si>
   <si>
     <t xml:space="preserve">har</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/60201b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/60201b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u60201</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/60201a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/60201b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/60201a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/60201b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m60301</t>
@@ -3292,22 +3292,22 @@
     <t xml:space="preserve">Winifred Habbamock</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/60301a.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/60301a.webp</t>
   </si>
   <si>
     <t xml:space="preserve">win</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/60301b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/60301b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u60301</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/60301a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/60301b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/60301a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/60301b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m60401</t>
@@ -3316,22 +3316,22 @@
     <t xml:space="preserve">Jacqueline Fine</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/60401a.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/60401a.webp</t>
   </si>
   <si>
     <t xml:space="preserve">jac</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/60401b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/60401b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u60401</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/60401a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/60401b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/60401a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/60401b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m60501</t>
@@ -3340,22 +3340,22 @@
     <t xml:space="preserve">Stella Clark</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/60501a.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/60501a.webp</t>
   </si>
   <si>
     <t xml:space="preserve">ste</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/60501b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/60501b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u60501</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/60501a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/60501b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/60501a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/60501b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m89001</t>
@@ -3364,7 +3364,7 @@
     <t xml:space="preserve">Subject 5U-21</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/89001a.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/89001a.webp</t>
   </si>
   <si>
     <t xml:space="preserve">The Blob That Ate Everything ELSE!</t>
@@ -3373,22 +3373,22 @@
     <t xml:space="preserve">blbe</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/89001b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/89001b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u89001</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/89001a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/89001b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/89001a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/89001b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m90084</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/90084a.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/90084a.webp</t>
   </si>
   <si>
     <t xml:space="preserve">Pistols and Pearls</t>
@@ -3397,22 +3397,22 @@
     <t xml:space="preserve">pap</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/90084b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/90084b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u90084</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/90084a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/90084b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/90084a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/90084b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m98001</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/98001a.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/98001a.webp</t>
   </si>
   <si>
     <t xml:space="preserve">Hour of the Huntress</t>
@@ -3421,22 +3421,22 @@
     <t xml:space="preserve">hoth</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/98001b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/98001b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u98001</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/98001a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/98001b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/98001a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/98001b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m98004</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/98004a.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/98004a.webp</t>
   </si>
   <si>
     <t xml:space="preserve">The Dirge of Reason</t>
@@ -3445,22 +3445,22 @@
     <t xml:space="preserve">tdor</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/98004b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/98004b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u98004</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/98004a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/98004b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/98004a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/98004b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m98007</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/98007a.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/98007a.webp</t>
   </si>
   <si>
     <t xml:space="preserve">Ire of the Void</t>
@@ -3469,22 +3469,22 @@
     <t xml:space="preserve">iotv</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/98007b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/98007b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u98007</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/98007a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/98007b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/98007a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/98007b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m98010</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/98010a.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/98010a.webp</t>
   </si>
   <si>
     <t xml:space="preserve">To Fight the Black Wind</t>
@@ -3493,22 +3493,22 @@
     <t xml:space="preserve">tftbw</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/98010b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/98010b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u98010</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/98010a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/98010b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/98010a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/98010b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m98013</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/98013a.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/98013a.webp</t>
   </si>
   <si>
     <t xml:space="preserve">The Deep Gate</t>
@@ -3517,22 +3517,22 @@
     <t xml:space="preserve">tdg</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/98013b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/98013b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u98013</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/98013a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/98013b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/98013a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/98013b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m98016</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/98016a.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/98016a.webp</t>
   </si>
   <si>
     <t xml:space="preserve">Blood of Baalshandor</t>
@@ -3541,22 +3541,22 @@
     <t xml:space="preserve">bob</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/98016b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/98016b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u98016</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/98016a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/98016b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/98016a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/98016b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m98019</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/98019a.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/98019a.webp</t>
   </si>
   <si>
     <t xml:space="preserve">Dark Revelations</t>
@@ -3565,16 +3565,16 @@
     <t xml:space="preserve">dre</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_investigators/98019b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/mini_investigators/98019b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">u98019</t>
   </si>
   <si>
-    <t xml:space="preserve">micro_investigators/98019a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro_investigators/98019b.webp</t>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/98019a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dragncards-ahlcg.s3.amazonaws.com/images/micro_investigators/98019b.webp</t>
   </si>
   <si>
     <t xml:space="preserve">m99001</t>
@@ -3597,7 +3597,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3618,6 +3618,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC9211E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3662,7 +3669,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3679,6 +3686,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3688,6 +3699,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FFC9211E"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -3804,17 +3875,17 @@
   </sheetPr>
   <dimension ref="A1:AY1561"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AP1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="AP1" activeCellId="0" sqref="AP1"/>
-      <selection pane="bottomLeft" activeCell="AY220" activeCellId="0" sqref="AY220:AY234"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="41.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="80.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.18"/>
@@ -7509,7 +7580,7 @@
       <c r="B61" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="4" t="s">
         <v>175</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -7568,7 +7639,7 @@
       <c r="B62" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="4" t="s">
         <v>175</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -7627,7 +7698,7 @@
       <c r="B63" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -7686,7 +7757,7 @@
       <c r="B64" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -7745,7 +7816,7 @@
       <c r="B65" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="4" t="s">
         <v>184</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -7804,7 +7875,7 @@
       <c r="B66" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="4" t="s">
         <v>184</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -7863,7 +7934,7 @@
       <c r="B67" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="4" t="s">
         <v>187</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -7922,7 +7993,7 @@
       <c r="B68" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="4" t="s">
         <v>187</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -7981,7 +8052,7 @@
       <c r="B69" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="4" t="s">
         <v>190</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -8040,7 +8111,7 @@
       <c r="B70" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="4" t="s">
         <v>190</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -8099,7 +8170,7 @@
       <c r="B71" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="4" t="s">
         <v>193</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -8158,7 +8229,7 @@
       <c r="B72" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="4" t="s">
         <v>193</v>
       </c>
       <c r="D72" s="1" t="s">
@@ -8217,7 +8288,7 @@
       <c r="B73" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="4" t="s">
         <v>196</v>
       </c>
       <c r="D73" s="1" t="s">
@@ -8276,7 +8347,7 @@
       <c r="B74" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="4" t="s">
         <v>196</v>
       </c>
       <c r="D74" s="1" t="s">
@@ -8335,7 +8406,7 @@
       <c r="B75" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D75" s="1" t="s">
@@ -8394,7 +8465,7 @@
       <c r="B76" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -8453,7 +8524,7 @@
       <c r="B77" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="4" t="s">
         <v>202</v>
       </c>
       <c r="D77" s="1" t="s">
@@ -8512,7 +8583,7 @@
       <c r="B78" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="4" t="s">
         <v>202</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -8571,7 +8642,7 @@
       <c r="B79" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="4" t="s">
         <v>205</v>
       </c>
       <c r="D79" s="1" t="s">
@@ -8630,7 +8701,7 @@
       <c r="B80" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="4" t="s">
         <v>205</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -8689,7 +8760,7 @@
       <c r="B81" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="4" t="s">
         <v>208</v>
       </c>
       <c r="D81" s="1" t="s">
@@ -8748,7 +8819,7 @@
       <c r="B82" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="4" t="s">
         <v>208</v>
       </c>
       <c r="D82" s="1" t="s">
@@ -8807,7 +8878,7 @@
       <c r="B83" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D83" s="1" t="s">
@@ -8866,7 +8937,7 @@
       <c r="B84" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D84" s="1" t="s">
@@ -8925,7 +8996,7 @@
       <c r="B85" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="4" t="s">
         <v>214</v>
       </c>
       <c r="D85" s="1" t="s">
@@ -8984,7 +9055,7 @@
       <c r="B86" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="4" t="s">
         <v>214</v>
       </c>
       <c r="D86" s="1" t="s">
@@ -9043,7 +9114,7 @@
       <c r="B87" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="4" t="s">
         <v>217</v>
       </c>
       <c r="D87" s="1" t="s">
@@ -9102,7 +9173,7 @@
       <c r="B88" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="4" t="s">
         <v>217</v>
       </c>
       <c r="D88" s="1" t="s">
@@ -9161,7 +9232,7 @@
       <c r="B89" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="4" t="s">
         <v>220</v>
       </c>
       <c r="D89" s="1" t="s">
@@ -9220,7 +9291,7 @@
       <c r="B90" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="4" t="s">
         <v>220</v>
       </c>
       <c r="D90" s="1" t="s">
@@ -9279,7 +9350,7 @@
       <c r="B91" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="4" t="s">
         <v>225</v>
       </c>
       <c r="D91" s="1" t="s">
@@ -9338,7 +9409,7 @@
       <c r="B92" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="4" t="s">
         <v>225</v>
       </c>
       <c r="D92" s="1" t="s">
@@ -9397,7 +9468,7 @@
       <c r="B93" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="4" t="s">
         <v>228</v>
       </c>
       <c r="D93" s="1" t="s">
@@ -9456,7 +9527,7 @@
       <c r="B94" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="4" t="s">
         <v>228</v>
       </c>
       <c r="D94" s="1" t="s">
@@ -9515,7 +9586,7 @@
       <c r="B95" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="4" t="s">
         <v>230</v>
       </c>
       <c r="D95" s="1" t="s">
@@ -9574,7 +9645,7 @@
       <c r="B96" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="4" t="s">
         <v>230</v>
       </c>
       <c r="D96" s="1" t="s">
@@ -9633,7 +9704,7 @@
       <c r="B97" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="4" t="s">
         <v>234</v>
       </c>
       <c r="D97" s="1" t="s">
@@ -9692,7 +9763,7 @@
       <c r="B98" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="4" t="s">
         <v>234</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -9751,7 +9822,7 @@
       <c r="B99" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="4" t="s">
         <v>237</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -9810,7 +9881,7 @@
       <c r="B100" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="4" t="s">
         <v>237</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -9869,7 +9940,7 @@
       <c r="B101" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="4" t="s">
         <v>240</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -9928,7 +9999,7 @@
       <c r="B102" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="4" t="s">
         <v>240</v>
       </c>
       <c r="D102" s="1" t="s">
@@ -9987,7 +10058,7 @@
       <c r="B103" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="4" t="s">
         <v>242</v>
       </c>
       <c r="D103" s="1" t="s">
@@ -10046,7 +10117,7 @@
       <c r="B104" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="4" t="s">
         <v>242</v>
       </c>
       <c r="D104" s="1" t="s">
@@ -10105,7 +10176,7 @@
       <c r="B105" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="4" t="s">
         <v>245</v>
       </c>
       <c r="D105" s="1" t="s">
@@ -10223,7 +10294,7 @@
       <c r="B107" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="4" t="s">
         <v>252</v>
       </c>
       <c r="D107" s="1" t="s">
@@ -10341,7 +10412,7 @@
       <c r="B109" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="4" t="s">
         <v>257</v>
       </c>
       <c r="D109" s="1" t="s">
@@ -10459,7 +10530,7 @@
       <c r="B111" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="4" t="s">
         <v>259</v>
       </c>
       <c r="D111" s="1" t="s">
@@ -10577,7 +10648,7 @@
       <c r="B113" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="4" t="s">
         <v>262</v>
       </c>
       <c r="D113" s="1" t="s">
@@ -10695,7 +10766,7 @@
       <c r="B115" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="4" t="s">
         <v>264</v>
       </c>
       <c r="D115" s="1" t="s">
@@ -10813,7 +10884,7 @@
       <c r="B117" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="4" t="s">
         <v>267</v>
       </c>
       <c r="D117" s="1" t="s">
@@ -10931,7 +11002,7 @@
       <c r="B119" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="4" t="s">
         <v>269</v>
       </c>
       <c r="D119" s="1" t="s">
@@ -11049,7 +11120,7 @@
       <c r="B121" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="4" t="s">
         <v>272</v>
       </c>
       <c r="D121" s="1" t="s">
@@ -11167,7 +11238,7 @@
       <c r="B123" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="4" t="s">
         <v>274</v>
       </c>
       <c r="D123" s="1" t="s">
@@ -11285,7 +11356,7 @@
       <c r="B125" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="4" t="s">
         <v>277</v>
       </c>
       <c r="D125" s="1" t="s">
@@ -11403,7 +11474,7 @@
       <c r="B127" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="4" t="s">
         <v>279</v>
       </c>
       <c r="D127" s="1" t="s">
@@ -11521,7 +11592,7 @@
       <c r="B129" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" s="4" t="s">
         <v>282</v>
       </c>
       <c r="D129" s="1" t="s">
@@ -11639,7 +11710,7 @@
       <c r="B131" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" s="4" t="s">
         <v>284</v>
       </c>
       <c r="D131" s="1" t="s">
@@ -11757,7 +11828,7 @@
       <c r="B133" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C133" s="4" t="s">
         <v>287</v>
       </c>
       <c r="D133" s="1" t="s">
@@ -11875,7 +11946,7 @@
       <c r="B135" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C135" s="4" t="s">
         <v>289</v>
       </c>
       <c r="D135" s="1" t="s">
@@ -11993,7 +12064,7 @@
       <c r="B137" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C137" s="4" t="s">
         <v>292</v>
       </c>
       <c r="D137" s="1" t="s">
@@ -12111,7 +12182,7 @@
       <c r="B139" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C139" s="4" t="s">
         <v>294</v>
       </c>
       <c r="D139" s="1" t="s">
@@ -12229,7 +12300,7 @@
       <c r="B141" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C141" s="4" t="s">
         <v>297</v>
       </c>
       <c r="D141" s="1" t="s">
@@ -12347,7 +12418,7 @@
       <c r="B143" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C143" s="4" t="s">
         <v>299</v>
       </c>
       <c r="D143" s="1" t="s">
@@ -12465,7 +12536,7 @@
       <c r="B145" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C145" s="4" t="s">
         <v>302</v>
       </c>
       <c r="D145" s="1" t="s">
@@ -12583,7 +12654,7 @@
       <c r="B147" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C147" s="4" t="s">
         <v>304</v>
       </c>
       <c r="D147" s="1" t="s">
@@ -12701,7 +12772,7 @@
       <c r="B149" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C149" s="4" t="s">
         <v>307</v>
       </c>
       <c r="D149" s="1" t="s">
@@ -12819,7 +12890,7 @@
       <c r="B151" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C151" s="4" t="s">
         <v>309</v>
       </c>
       <c r="D151" s="1" t="s">
@@ -12937,7 +13008,7 @@
       <c r="B153" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C153" s="4" t="s">
         <v>312</v>
       </c>
       <c r="D153" s="1" t="s">
@@ -13055,7 +13126,7 @@
       <c r="B155" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C155" s="4" t="s">
         <v>314</v>
       </c>
       <c r="D155" s="1" t="s">
@@ -13173,7 +13244,7 @@
       <c r="B157" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C157" s="4" t="s">
         <v>317</v>
       </c>
       <c r="D157" s="1" t="s">
@@ -13291,7 +13362,7 @@
       <c r="B159" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="C159" s="4" t="s">
         <v>319</v>
       </c>
       <c r="D159" s="1" t="s">
@@ -13409,7 +13480,7 @@
       <c r="B161" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="C161" s="4" t="s">
         <v>322</v>
       </c>
       <c r="D161" s="1" t="s">
@@ -13527,7 +13598,7 @@
       <c r="B163" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="C163" s="4" t="s">
         <v>324</v>
       </c>
       <c r="D163" s="1" t="s">
@@ -13645,7 +13716,7 @@
       <c r="B165" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="C165" s="4" t="s">
         <v>327</v>
       </c>
       <c r="D165" s="1" t="s">
@@ -13763,7 +13834,7 @@
       <c r="B167" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C167" s="4" t="s">
         <v>329</v>
       </c>
       <c r="D167" s="1" t="s">
@@ -13881,7 +13952,7 @@
       <c r="B169" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="C169" s="4" t="s">
         <v>332</v>
       </c>
       <c r="D169" s="1" t="s">
@@ -13999,7 +14070,7 @@
       <c r="B171" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="C171" s="4" t="s">
         <v>334</v>
       </c>
       <c r="D171" s="1" t="s">
@@ -14117,7 +14188,7 @@
       <c r="B173" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="C173" s="4" t="s">
         <v>337</v>
       </c>
       <c r="D173" s="1" t="s">
@@ -14235,7 +14306,7 @@
       <c r="B175" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="C175" s="4" t="s">
         <v>339</v>
       </c>
       <c r="D175" s="1" t="s">
@@ -14353,7 +14424,7 @@
       <c r="B177" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="C177" s="4" t="s">
         <v>342</v>
       </c>
       <c r="D177" s="1" t="s">
@@ -14471,7 +14542,7 @@
       <c r="B179" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="C179" s="4" t="s">
         <v>344</v>
       </c>
       <c r="D179" s="1" t="s">
@@ -14589,7 +14660,7 @@
       <c r="B181" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="C181" s="4" t="s">
         <v>347</v>
       </c>
       <c r="D181" s="1" t="s">
@@ -14707,7 +14778,7 @@
       <c r="B183" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="C183" s="4" t="s">
         <v>349</v>
       </c>
       <c r="D183" s="1" t="s">
@@ -14825,7 +14896,7 @@
       <c r="B185" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="C185" s="4" t="s">
         <v>352</v>
       </c>
       <c r="D185" s="1" t="s">
@@ -14943,7 +15014,7 @@
       <c r="B187" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="C187" s="4" t="s">
         <v>354</v>
       </c>
       <c r="D187" s="1" t="s">
@@ -15061,7 +15132,7 @@
       <c r="B189" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="C189" s="4" t="s">
         <v>357</v>
       </c>
       <c r="D189" s="1" t="s">
@@ -15179,7 +15250,7 @@
       <c r="B191" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="C191" s="4" t="s">
         <v>359</v>
       </c>
       <c r="D191" s="1" t="s">
@@ -16831,7 +16902,7 @@
       <c r="B219" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="C219" s="4" t="s">
         <v>418</v>
       </c>
       <c r="D219" s="1" t="s">
@@ -16887,7 +16958,7 @@
       <c r="B220" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C220" s="1" t="s">
+      <c r="C220" s="4" t="s">
         <v>425</v>
       </c>
       <c r="D220" s="1" t="s">
@@ -16943,7 +17014,7 @@
       <c r="B221" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C221" s="1" t="s">
+      <c r="C221" s="4" t="s">
         <v>427</v>
       </c>
       <c r="D221" s="1" t="s">
@@ -17008,7 +17079,7 @@
       <c r="B222" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C222" s="2" t="s">
+      <c r="C222" s="4" t="s">
         <v>431</v>
       </c>
       <c r="D222" s="1" t="s">
@@ -17064,7 +17135,7 @@
       <c r="B223" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C223" s="2" t="s">
+      <c r="C223" s="4" t="s">
         <v>434</v>
       </c>
       <c r="D223" s="1" t="s">
@@ -17120,7 +17191,7 @@
       <c r="B224" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C224" s="2" t="s">
+      <c r="C224" s="4" t="s">
         <v>437</v>
       </c>
       <c r="D224" s="1" t="s">
@@ -17176,7 +17247,7 @@
       <c r="B225" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C225" s="2" t="s">
+      <c r="C225" s="4" t="s">
         <v>437</v>
       </c>
       <c r="D225" s="1" t="s">
@@ -17241,7 +17312,7 @@
       <c r="B226" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C226" s="2" t="s">
+      <c r="C226" s="4" t="s">
         <v>442</v>
       </c>
       <c r="D226" s="1" t="s">
@@ -17297,7 +17368,7 @@
       <c r="B227" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C227" s="2" t="s">
+      <c r="C227" s="4" t="s">
         <v>445</v>
       </c>
       <c r="D227" s="1" t="s">
@@ -17353,7 +17424,7 @@
       <c r="B228" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C228" s="2" t="s">
+      <c r="C228" s="4" t="s">
         <v>448</v>
       </c>
       <c r="D228" s="1" t="s">
@@ -17409,7 +17480,7 @@
       <c r="B229" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="C229" s="2" t="s">
+      <c r="C229" s="4" t="s">
         <v>451</v>
       </c>
       <c r="D229" s="1" t="s">
@@ -17465,7 +17536,7 @@
       <c r="B230" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C230" s="2" t="s">
+      <c r="C230" s="4" t="s">
         <v>454</v>
       </c>
       <c r="D230" s="1" t="s">
@@ -17521,7 +17592,7 @@
       <c r="B231" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C231" s="2" t="s">
+      <c r="C231" s="4" t="s">
         <v>457</v>
       </c>
       <c r="D231" s="1" t="s">
@@ -17577,7 +17648,7 @@
       <c r="B232" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C232" s="2" t="s">
+      <c r="C232" s="4" t="s">
         <v>460</v>
       </c>
       <c r="D232" s="1" t="s">
@@ -17633,7 +17704,7 @@
       <c r="B233" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C233" s="2" t="s">
+      <c r="C233" s="4" t="s">
         <v>462</v>
       </c>
       <c r="D233" s="1" t="s">
@@ -17698,7 +17769,7 @@
       <c r="B234" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C234" s="2" t="s">
+      <c r="C234" s="4" t="s">
         <v>462</v>
       </c>
       <c r="D234" s="1" t="s">
@@ -17763,7 +17834,7 @@
       <c r="B235" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="C235" s="2" t="s">
+      <c r="C235" s="4" t="s">
         <v>467</v>
       </c>
       <c r="D235" s="1" t="s">
@@ -17819,7 +17890,7 @@
       <c r="B236" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C236" s="2" t="s">
+      <c r="C236" s="4" t="s">
         <v>470</v>
       </c>
       <c r="D236" s="1" t="s">
@@ -17875,7 +17946,7 @@
       <c r="B237" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C237" s="2" t="s">
+      <c r="C237" s="4" t="s">
         <v>473</v>
       </c>
       <c r="D237" s="1" t="s">
@@ -17931,7 +18002,7 @@
       <c r="B238" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="C238" s="2" t="s">
+      <c r="C238" s="4" t="s">
         <v>476</v>
       </c>
       <c r="D238" s="1" t="s">
@@ -17987,7 +18058,7 @@
       <c r="B239" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C239" s="1" t="s">
+      <c r="C239" s="4" t="s">
         <v>479</v>
       </c>
       <c r="D239" s="1" t="s">
@@ -18043,7 +18114,7 @@
       <c r="B240" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="C240" s="1" t="s">
+      <c r="C240" s="4" t="s">
         <v>484</v>
       </c>
       <c r="D240" s="1" t="s">
@@ -18099,7 +18170,7 @@
       <c r="B241" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C241" s="1" t="s">
+      <c r="C241" s="4" t="s">
         <v>487</v>
       </c>
       <c r="D241" s="1" t="s">
@@ -18155,7 +18226,7 @@
       <c r="B242" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="C242" s="1" t="s">
+      <c r="C242" s="4" t="s">
         <v>490</v>
       </c>
       <c r="D242" s="1" t="s">
@@ -18211,7 +18282,7 @@
       <c r="B243" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C243" s="1" t="s">
+      <c r="C243" s="4" t="s">
         <v>493</v>
       </c>
       <c r="D243" s="1" t="s">
@@ -18267,7 +18338,7 @@
       <c r="B244" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C244" s="1" t="s">
+      <c r="C244" s="4" t="s">
         <v>496</v>
       </c>
       <c r="D244" s="1" t="s">
@@ -18323,7 +18394,7 @@
       <c r="B245" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C245" s="1" t="s">
+      <c r="C245" s="4" t="s">
         <v>499</v>
       </c>
       <c r="D245" s="1" t="s">
@@ -18379,7 +18450,7 @@
       <c r="B246" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="C246" s="1" t="s">
+      <c r="C246" s="4" t="s">
         <v>502</v>
       </c>
       <c r="D246" s="1" t="s">
@@ -18435,7 +18506,7 @@
       <c r="B247" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C247" s="1" t="s">
+      <c r="C247" s="4" t="s">
         <v>505</v>
       </c>
       <c r="D247" s="1" t="s">
@@ -18491,7 +18562,7 @@
       <c r="B248" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="C248" s="1" t="s">
+      <c r="C248" s="4" t="s">
         <v>508</v>
       </c>
       <c r="D248" s="1" t="s">
@@ -18547,7 +18618,7 @@
       <c r="B249" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C249" s="1" t="s">
+      <c r="C249" s="4" t="s">
         <v>511</v>
       </c>
       <c r="D249" s="1" t="s">
@@ -18603,7 +18674,7 @@
       <c r="B250" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="C250" s="1" t="s">
+      <c r="C250" s="4" t="s">
         <v>514</v>
       </c>
       <c r="D250" s="1" t="s">
@@ -18659,7 +18730,7 @@
       <c r="B251" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="C251" s="1" t="s">
+      <c r="C251" s="4" t="s">
         <v>517</v>
       </c>
       <c r="D251" s="1" t="s">
@@ -18715,7 +18786,7 @@
       <c r="B252" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="C252" s="1" t="s">
+      <c r="C252" s="4" t="s">
         <v>520</v>
       </c>
       <c r="D252" s="1" t="s">
@@ -18771,7 +18842,7 @@
       <c r="B253" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="C253" s="1" t="s">
+      <c r="C253" s="4" t="s">
         <v>523</v>
       </c>
       <c r="D253" s="1" t="s">
@@ -18827,7 +18898,7 @@
       <c r="B254" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="C254" s="1" t="s">
+      <c r="C254" s="4" t="s">
         <v>526</v>
       </c>
       <c r="D254" s="1" t="s">
@@ -18883,7 +18954,7 @@
       <c r="B255" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="C255" s="1" t="s">
+      <c r="C255" s="4" t="s">
         <v>529</v>
       </c>
       <c r="D255" s="1" t="s">
@@ -18939,7 +19010,7 @@
       <c r="B256" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="C256" s="1" t="s">
+      <c r="C256" s="4" t="s">
         <v>532</v>
       </c>
       <c r="D256" s="1" t="s">
@@ -18995,7 +19066,7 @@
       <c r="B257" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="C257" s="1" t="s">
+      <c r="C257" s="4" t="s">
         <v>535</v>
       </c>
       <c r="D257" s="1" t="s">
@@ -19051,7 +19122,7 @@
       <c r="B258" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="C258" s="1" t="s">
+      <c r="C258" s="4" t="s">
         <v>538</v>
       </c>
       <c r="D258" s="1" t="s">
@@ -19107,7 +19178,7 @@
       <c r="B259" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="C259" s="1" t="s">
+      <c r="C259" s="4" t="s">
         <v>541</v>
       </c>
       <c r="D259" s="1" t="s">
@@ -19163,7 +19234,7 @@
       <c r="B260" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="C260" s="1" t="s">
+      <c r="C260" s="4" t="s">
         <v>544</v>
       </c>
       <c r="D260" s="1" t="s">
@@ -19219,7 +19290,7 @@
       <c r="B261" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="C261" s="1" t="s">
+      <c r="C261" s="4" t="s">
         <v>547</v>
       </c>
       <c r="D261" s="1" t="s">
@@ -19275,7 +19346,7 @@
       <c r="B262" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="C262" s="1" t="s">
+      <c r="C262" s="4" t="s">
         <v>550</v>
       </c>
       <c r="D262" s="1" t="s">
@@ -19331,7 +19402,7 @@
       <c r="B263" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="C263" s="1" t="s">
+      <c r="C263" s="4" t="s">
         <v>553</v>
       </c>
       <c r="D263" s="1" t="s">
@@ -19387,7 +19458,7 @@
       <c r="B264" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="C264" s="1" t="s">
+      <c r="C264" s="4" t="s">
         <v>556</v>
       </c>
       <c r="D264" s="1" t="s">
@@ -19443,7 +19514,7 @@
       <c r="B265" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="C265" s="1" t="s">
+      <c r="C265" s="4" t="s">
         <v>559</v>
       </c>
       <c r="D265" s="1" t="s">
@@ -19499,7 +19570,7 @@
       <c r="B266" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="C266" s="1" t="s">
+      <c r="C266" s="4" t="s">
         <v>562</v>
       </c>
       <c r="D266" s="1" t="s">
@@ -24511,7 +24582,7 @@
       <c r="B351" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="C351" s="1" t="s">
+      <c r="C351" s="4" t="s">
         <v>695</v>
       </c>
       <c r="D351" s="1" t="s">
@@ -24570,7 +24641,7 @@
       <c r="B352" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="C352" s="1" t="s">
+      <c r="C352" s="4" t="s">
         <v>698</v>
       </c>
       <c r="D352" s="1" t="s">
@@ -24629,7 +24700,7 @@
       <c r="B353" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="C353" s="1" t="s">
+      <c r="C353" s="4" t="s">
         <v>700</v>
       </c>
       <c r="D353" s="1" t="s">
@@ -24688,7 +24759,7 @@
       <c r="B354" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="C354" s="1" t="s">
+      <c r="C354" s="4" t="s">
         <v>702</v>
       </c>
       <c r="D354" s="1" t="s">
@@ -24747,7 +24818,7 @@
       <c r="B355" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="C355" s="1" t="s">
+      <c r="C355" s="4" t="s">
         <v>704</v>
       </c>
       <c r="D355" s="1" t="s">
@@ -24806,7 +24877,7 @@
       <c r="B356" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="C356" s="1" t="s">
+      <c r="C356" s="4" t="s">
         <v>707</v>
       </c>
       <c r="D356" s="1" t="s">
